--- a/Thematic-Coding.xlsx
+++ b/Thematic-Coding.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\Kieran Third year\BCIS301 &amp; AMIC700\Assignment 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\GitHub\BCIS301---AMIC700---Thematic-Coding-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ED0F60-33DA-4DDB-B5E7-47948F24D181}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8745"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
@@ -587,9 +588,6 @@
     <t xml:space="preserve"> It is our overall view that weaknesses in project governance and leadership allowed the service to go live with a number of significant risks which the Ministry and its vendors were over-confident of managing.When these risks resulted in service issues Post-Go Live, the Ministry and its vendors were overwhelmed by their nature and scale.</t>
   </si>
   <si>
-    <t>P6,1</t>
-  </si>
-  <si>
     <t>weaknesses in project governance and leadership</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1813,22 +1811,26 @@
   <si>
     <t>Prime contractor changed without chaning any of the model/reason for the initial failure.</t>
   </si>
+  <si>
+    <t>P6,111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1837,7 +1839,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1847,7 +1849,7 @@
       <i/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1856,14 +1858,14 @@
       <i/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1946,7 +1948,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2223,28 +2225,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="89.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" customWidth="1"/>
-    <col min="12" max="12" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="89.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="18.4140625" customWidth="1"/>
+    <col min="11" max="11" width="21.83203125" customWidth="1"/>
+    <col min="12" max="12" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="26.45" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="26.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2272,31 +2274,31 @@
         <v>144</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="56.25">
+    <row r="3" spans="1:6" ht="52.5">
       <c r="A3" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>76</v>
@@ -2307,11 +2309,11 @@
         <v>143</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>77</v>
@@ -2320,88 +2322,88 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60">
+    <row r="5" spans="1:6" ht="52.5">
       <c r="A5" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="52.5">
+      <c r="A6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="56.25">
-      <c r="A6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="35">
+      <c r="A7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45">
-      <c r="A7" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>160</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="37.5">
+    <row r="8" spans="1:6" ht="35">
       <c r="A8" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="42">
+      <c r="A9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="60">
-      <c r="A9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>167</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>54</v>
@@ -2410,52 +2412,52 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6" ht="28">
       <c r="A10" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="56">
+      <c r="A11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="60">
-      <c r="A11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="42">
+      <c r="A12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="60">
-      <c r="A12" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>175</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>64</v>
@@ -2464,106 +2466,106 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="60">
+    <row r="13" spans="1:6" ht="56">
       <c r="A13" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30">
+    <row r="14" spans="1:6" ht="28">
       <c r="A14" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="75">
+    <row r="15" spans="1:6" ht="56">
       <c r="A15" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="42">
       <c r="A16" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="60">
+    <row r="17" spans="1:6" ht="42">
       <c r="A17" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="42">
+      <c r="A18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="45">
-      <c r="A18" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>189</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>67</v>
@@ -2572,16 +2574,16 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="60">
+    <row r="19" spans="1:6" ht="42">
       <c r="A19" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>69</v>
@@ -2590,589 +2592,589 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30">
+    <row r="20" spans="1:6" ht="28">
       <c r="A20" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C20" s="10"/>
       <c r="E20" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="60">
+    <row r="21" spans="1:6" ht="56">
       <c r="A21" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="45">
+    <row r="22" spans="1:6" ht="42">
       <c r="A22" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30">
+    <row r="23" spans="1:6" ht="28">
       <c r="A23" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30">
+    <row r="24" spans="1:6" ht="28">
       <c r="A24" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="45">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="42">
       <c r="A25" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30">
+    <row r="26" spans="1:6" ht="28">
       <c r="A26" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C26" s="10"/>
       <c r="E26" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30">
+    <row r="27" spans="1:6" ht="28">
       <c r="A27" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C27" s="10"/>
       <c r="E27" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="56">
+      <c r="A28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="60">
-      <c r="A28" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>208</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30">
-      <c r="A29" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="C29" s="10"/>
       <c r="E29" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28">
+      <c r="A30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30">
-      <c r="A30" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>212</v>
       </c>
       <c r="C30" s="10"/>
       <c r="E30" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C31" s="10"/>
       <c r="E31" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="45">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28">
       <c r="A32" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="28">
+      <c r="A33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>215</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="45">
-      <c r="A33" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>216</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28">
+      <c r="A34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>218</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30">
-      <c r="A34" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>219</v>
       </c>
       <c r="C34" s="10"/>
       <c r="E34" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28">
+      <c r="A35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>220</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30">
-      <c r="A35" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>221</v>
       </c>
       <c r="C35" s="10"/>
       <c r="E35" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="42">
+      <c r="A36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>222</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="45">
-      <c r="A36" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>223</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30">
-      <c r="A37" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>227</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="28">
+      <c r="A38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30">
-      <c r="A38" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>230</v>
       </c>
       <c r="C38" s="10"/>
       <c r="E38" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="28">
+      <c r="A39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30">
-      <c r="A39" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>232</v>
       </c>
       <c r="C39" s="10"/>
       <c r="E39" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="45">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="28">
       <c r="A40" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="10"/>
       <c r="E40" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="45">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="42">
       <c r="A41" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C41" s="10"/>
       <c r="E41" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="28">
       <c r="A42" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C42" s="10"/>
       <c r="E42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30">
-      <c r="A43" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>237</v>
       </c>
       <c r="C43" s="10"/>
       <c r="E43" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="60">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="56">
       <c r="A44" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="45">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="42">
       <c r="A45" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="28">
+      <c r="A46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>242</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="30">
-      <c r="A46" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>243</v>
       </c>
       <c r="C46" s="10"/>
       <c r="E46" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="30">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="28">
       <c r="A47" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C47" s="10"/>
       <c r="E47" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F47" s="1" t="s">
+    </row>
+    <row r="48" spans="1:6" ht="28">
+      <c r="A48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="30">
-      <c r="A48" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>247</v>
       </c>
       <c r="C48" s="10"/>
       <c r="E48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="60">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="56">
       <c r="A49" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="45">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="42">
       <c r="A50" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C50" s="10"/>
       <c r="E50" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="75">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="56">
       <c r="A51" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>252</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="30">
-      <c r="A52" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>253</v>
       </c>
       <c r="C52" s="10"/>
       <c r="E52" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="42">
       <c r="A53" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="28">
       <c r="A54" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="45">
+    <row r="55" spans="1:8" ht="42">
       <c r="A55" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>46</v>
@@ -3181,15 +3183,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="30">
+    <row r="56" spans="1:8" ht="28">
       <c r="A56" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B56" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>41</v>
@@ -3198,300 +3200,300 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="45">
+    <row r="57" spans="1:8" ht="42">
       <c r="A57" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B57" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="28">
+      <c r="A58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="45">
-      <c r="A58" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="42">
+      <c r="A59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="45">
-      <c r="A59" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B59" s="10" t="s">
+      <c r="C59" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="28">
+      <c r="A60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="30">
-      <c r="A60" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B60" s="10" t="s">
+      <c r="C60" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="28">
+      <c r="A61" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="30">
-      <c r="A61" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="H61">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="30">
+    <row r="62" spans="1:8" ht="28">
       <c r="A62" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="G62" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H62">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="45">
+    <row r="63" spans="1:8" ht="28">
       <c r="A63" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="G63" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H63">
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30">
+    <row r="64" spans="1:8" ht="28">
       <c r="A64" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="F64" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H64">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30">
+    <row r="65" spans="1:8" ht="28">
       <c r="A65" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="G65" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H65">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="75">
+    <row r="66" spans="1:8" ht="56">
       <c r="A66" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="F66" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H66">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="30">
+    <row r="67" spans="1:8" ht="28">
       <c r="A67" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="F67" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="H67">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="75">
+    <row r="68" spans="1:8" ht="56">
       <c r="A68" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="E68" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="G68" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H68">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="45">
+    <row r="69" spans="1:8" ht="42">
       <c r="A69" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="F69" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H69">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="30">
+    <row r="70" spans="1:8" ht="28">
       <c r="A70" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G70" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H70">
         <v>13</v>
@@ -3499,459 +3501,459 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="F71" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H71">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="30">
+    <row r="72" spans="1:8" ht="28">
       <c r="A72" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="E72" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H72">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="60">
+    <row r="73" spans="1:8" ht="56">
       <c r="A73" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="45">
+    <row r="74" spans="1:8" ht="28">
       <c r="A74" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="G74" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="60">
+    <row r="75" spans="1:8" ht="42">
       <c r="A75" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="G75" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="60">
+    <row r="76" spans="1:8" ht="42">
       <c r="A76" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="60">
+    <row r="77" spans="1:8" ht="42">
       <c r="A77" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="F77" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="45">
+    <row r="78" spans="1:8" ht="42">
       <c r="A78" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G78" s="11" t="s">
         <v>331</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>332</v>
       </c>
       <c r="H78">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="90">
+    <row r="79" spans="1:8" ht="70">
       <c r="A79" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="E79" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="G79" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H79">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="120">
+    <row r="80" spans="1:8" ht="98">
       <c r="A80" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="F80" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H80">
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="75">
+    <row r="81" spans="1:8" ht="56">
       <c r="A81" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="F81" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G81" s="11" t="s">
         <v>340</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>341</v>
       </c>
       <c r="H81">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="45">
+    <row r="82" spans="1:8" ht="42">
       <c r="A82" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="F82" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H82">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="60">
+    <row r="83" spans="1:8" ht="42">
       <c r="A83" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="F83" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H83">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="45">
+    <row r="84" spans="1:8" ht="28">
       <c r="A84" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G84" s="11" t="s">
         <v>349</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>350</v>
       </c>
       <c r="H84">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="75">
+    <row r="85" spans="1:8" ht="70">
       <c r="A85" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="E85" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H85">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="135">
+    <row r="86" spans="1:8" ht="98">
       <c r="A86" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="E86" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H86">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="75">
+    <row r="87" spans="1:8" ht="56">
       <c r="A87" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="F87" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G87" s="11" t="s">
         <v>357</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>358</v>
       </c>
       <c r="H87">
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="45">
+    <row r="88" spans="1:8" ht="42">
       <c r="A88" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="E88" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H88">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="120">
+    <row r="89" spans="1:8" ht="98">
       <c r="A89" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="11" t="s">
         <v>364</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>365</v>
       </c>
       <c r="H89">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="75">
+    <row r="90" spans="1:8" ht="56">
       <c r="A90" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="F90" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G90" s="11" t="s">
         <v>368</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>369</v>
       </c>
       <c r="H90">
         <v>10</v>
@@ -3959,590 +3961,590 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="F91"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="F92"/>
+    </row>
+    <row r="93" spans="1:8" ht="28">
+      <c r="A93" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="F92"/>
-    </row>
-    <row r="93" spans="1:8" ht="45">
-      <c r="A93" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="F93"/>
+    </row>
+    <row r="94" spans="1:8" ht="56">
+      <c r="A94" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="F93"/>
-    </row>
-    <row r="94" spans="1:8" ht="75">
-      <c r="A94" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="F94"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="F95"/>
+    </row>
+    <row r="96" spans="1:8" ht="42">
+      <c r="A96" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="F95"/>
-    </row>
-    <row r="96" spans="1:8" ht="45">
-      <c r="A96" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="F96"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="F97"/>
+    </row>
+    <row r="98" spans="1:8" ht="42">
+      <c r="A98" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F97"/>
-    </row>
-    <row r="98" spans="1:8" ht="45">
-      <c r="A98" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="G98" s="12" t="s">
         <v>386</v>
-      </c>
-      <c r="G98" s="12" t="s">
-        <v>387</v>
       </c>
       <c r="H98">
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="30">
+    <row r="99" spans="1:8" ht="28">
       <c r="A99" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="F99"/>
       <c r="G99" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H99">
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="75">
+    <row r="100" spans="1:8" ht="70">
       <c r="A100" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="F100"/>
       <c r="G100" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H100">
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="45">
+    <row r="101" spans="1:8" ht="42">
       <c r="A101" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="F101"/>
       <c r="G101" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H101">
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="90">
+    <row r="102" spans="1:8" ht="70">
       <c r="A102" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="F102"/>
       <c r="G102" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H102">
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="105">
+    <row r="103" spans="1:8" ht="84">
       <c r="A103" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="F103"/>
       <c r="G103" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H103">
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="90">
+    <row r="104" spans="1:8" ht="70">
       <c r="A104" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="F104"/>
       <c r="G104" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H104">
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="45">
+    <row r="105" spans="1:8" ht="28">
       <c r="A105" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="E105" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F105"/>
       <c r="G105" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H105">
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="60">
+    <row r="106" spans="1:8" ht="56">
       <c r="A106" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="E106" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F106"/>
       <c r="G106" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H106">
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="75">
+    <row r="107" spans="1:8" ht="56">
       <c r="A107" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="F107"/>
       <c r="G107" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H107">
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="75">
+    <row r="108" spans="1:8" ht="56">
       <c r="A108" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="F108"/>
       <c r="G108" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H108">
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="75">
+    <row r="109" spans="1:8" ht="70">
       <c r="A109" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="F109"/>
       <c r="G109" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H109">
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="45">
+    <row r="110" spans="1:8" ht="28">
       <c r="A110" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="F110"/>
       <c r="G110" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H110">
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="120">
+    <row r="111" spans="1:8" ht="98">
       <c r="A111" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="F111"/>
       <c r="G111" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H111">
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="45">
+    <row r="112" spans="1:8" ht="28">
       <c r="A112" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="E112" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F112"/>
       <c r="G112" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H112">
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="75">
+    <row r="113" spans="1:8" ht="70">
       <c r="A113" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="E113" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F113"/>
       <c r="G113" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H113">
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="60">
+    <row r="114" spans="1:8" ht="56">
       <c r="A114" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="E114" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F114"/>
       <c r="G114" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H114">
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="75">
+    <row r="115" spans="1:8" ht="56">
       <c r="A115" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="E115" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F115"/>
       <c r="G115" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H115">
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="60">
+    <row r="116" spans="1:8" ht="42">
       <c r="A116" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="E116" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F116"/>
       <c r="G116" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H116">
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="45">
+    <row r="117" spans="1:8" ht="42">
       <c r="A117" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="F117"/>
       <c r="G117" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H117">
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="90">
+    <row r="118" spans="1:8" ht="70">
       <c r="A118" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="F118"/>
       <c r="G118" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H118">
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="105">
+    <row r="119" spans="1:8" ht="84">
       <c r="A119" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>446</v>
       </c>
       <c r="F119"/>
       <c r="G119" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H119">
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="105">
+    <row r="120" spans="1:8" ht="84">
       <c r="A120" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="F120"/>
       <c r="G120" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H120">
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="90">
+    <row r="121" spans="1:8" ht="70">
       <c r="A121" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="F121"/>
       <c r="G121" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H121">
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="75">
+    <row r="122" spans="1:8" ht="56">
       <c r="A122" s="1" t="s">
         <v>79</v>
       </c>
@@ -4553,10 +4555,10 @@
         <v>88</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="105">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="84">
       <c r="A123" s="1" t="s">
         <v>79</v>
       </c>
@@ -4567,7 +4569,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="105">
+    <row r="124" spans="1:8" ht="84">
       <c r="A124" s="1" t="s">
         <v>79</v>
       </c>
@@ -4578,7 +4580,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="165">
+    <row r="125" spans="1:8" ht="126">
       <c r="A125" s="1" t="s">
         <v>79</v>
       </c>
@@ -4589,7 +4591,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="150">
+    <row r="126" spans="1:8" ht="126">
       <c r="A126" s="1" t="s">
         <v>79</v>
       </c>
@@ -4600,7 +4602,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="150">
+    <row r="127" spans="1:8" ht="112">
       <c r="A127" s="1" t="s">
         <v>79</v>
       </c>
@@ -4611,7 +4613,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="90">
+    <row r="128" spans="1:8" ht="70">
       <c r="A128" s="1" t="s">
         <v>79</v>
       </c>
@@ -4622,7 +4624,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="75">
+    <row r="129" spans="1:3" ht="70">
       <c r="A129" s="1" t="s">
         <v>79</v>
       </c>
@@ -4633,7 +4635,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="150">
+    <row r="130" spans="1:3" ht="126">
       <c r="A130" s="1" t="s">
         <v>79</v>
       </c>
@@ -4644,7 +4646,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="180">
+    <row r="131" spans="1:3" ht="140">
       <c r="A131" s="1" t="s">
         <v>79</v>
       </c>
@@ -4655,7 +4657,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="165">
+    <row r="132" spans="1:3" ht="140">
       <c r="A132" s="1" t="s">
         <v>79</v>
       </c>
@@ -4666,7 +4668,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="105">
+    <row r="133" spans="1:3" ht="84">
       <c r="A133" s="1" t="s">
         <v>79</v>
       </c>
@@ -4677,7 +4679,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="75">
+    <row r="134" spans="1:3" ht="56">
       <c r="A134" s="1" t="s">
         <v>79</v>
       </c>
@@ -4688,7 +4690,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="150">
+    <row r="135" spans="1:3" ht="126">
       <c r="A135" s="1" t="s">
         <v>79</v>
       </c>
@@ -4699,7 +4701,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="120">
+    <row r="136" spans="1:3" ht="98">
       <c r="A136" s="1" t="s">
         <v>79</v>
       </c>
@@ -4710,7 +4712,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="300">
+    <row r="137" spans="1:3" ht="266">
       <c r="A137" s="1" t="s">
         <v>79</v>
       </c>
@@ -4721,7 +4723,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="60">
+    <row r="138" spans="1:3" ht="56">
       <c r="A138" s="1" t="s">
         <v>79</v>
       </c>
@@ -4732,7 +4734,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="60">
+    <row r="139" spans="1:3" ht="56">
       <c r="A139" s="1" t="s">
         <v>79</v>
       </c>
@@ -4743,7 +4745,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="210">
+    <row r="140" spans="1:3" ht="182">
       <c r="A140" s="1" t="s">
         <v>79</v>
       </c>
@@ -4754,7 +4756,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="210">
+    <row r="141" spans="1:3" ht="168">
       <c r="A141" s="1" t="s">
         <v>79</v>
       </c>
@@ -4765,7 +4767,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="135">
+    <row r="142" spans="1:3" ht="112">
       <c r="A142" s="1" t="s">
         <v>79</v>
       </c>
@@ -4776,7 +4778,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="120">
+    <row r="143" spans="1:3" ht="98">
       <c r="A143" s="1" t="s">
         <v>79</v>
       </c>
@@ -4787,7 +4789,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="90">
+    <row r="144" spans="1:3" ht="70">
       <c r="A144" s="1" t="s">
         <v>79</v>
       </c>
@@ -4798,7 +4800,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="180">
+    <row r="145" spans="1:3" ht="154">
       <c r="A145" s="1" t="s">
         <v>79</v>
       </c>
@@ -4809,7 +4811,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="120">
+    <row r="146" spans="1:3" ht="112">
       <c r="A146" s="1" t="s">
         <v>79</v>
       </c>
@@ -4820,7 +4822,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="90">
+    <row r="147" spans="1:3" ht="70">
       <c r="A147" s="1" t="s">
         <v>79</v>
       </c>
@@ -4831,7 +4833,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="240">
+    <row r="148" spans="1:3" ht="196">
       <c r="A148" s="1" t="s">
         <v>79</v>
       </c>
@@ -4842,7 +4844,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="345">
+    <row r="149" spans="1:3" ht="266">
       <c r="A149" s="1" t="s">
         <v>79</v>
       </c>
@@ -4853,7 +4855,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="210">
+    <row r="150" spans="1:3" ht="168">
       <c r="A150" s="1" t="s">
         <v>79</v>
       </c>
@@ -4864,7 +4866,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="165">
+    <row r="151" spans="1:3" ht="126">
       <c r="A151" s="1" t="s">
         <v>79</v>
       </c>
@@ -4875,7 +4877,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="180">
+    <row r="152" spans="1:3" ht="140">
       <c r="A152" s="1" t="s">
         <v>79</v>
       </c>
@@ -4887,24 +4889,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$7</xm:f>
           </x14:formula1>
           <xm:sqref>F2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet2!$B:$B</xm:f>
           </x14:formula1>
           <xm:sqref>F1 F3:F18 F20:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$65</xm:f>
           </x14:formula1>
@@ -4917,25 +4920,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="66.42578125" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="66.4140625" customWidth="1"/>
+    <col min="2" max="2" width="35.75" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="25.25" customWidth="1"/>
+    <col min="8" max="8" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
+    <row r="1" spans="1:7" ht="17.5">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -4949,7 +4952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75">
+    <row r="2" spans="1:7" ht="17.5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4960,7 +4963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75">
+    <row r="3" spans="1:7" ht="17.5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4971,7 +4974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75">
+    <row r="4" spans="1:7" ht="17.5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4982,7 +4985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75">
+    <row r="5" spans="1:7" ht="17.5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4993,7 +4996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75">
+    <row r="6" spans="1:7" ht="17.5">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5489,7 +5492,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A64 G1:G64">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A64 G1:G64" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Code</formula1>
     </dataValidation>
   </dataValidations>

--- a/Thematic-Coding.xlsx
+++ b/Thematic-Coding.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\GitHub\BCIS301---AMIC700---Thematic-Coding-Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\Kieran Third year\BCIS301 &amp; AMIC700\Assignment 1\BCIS301---AMIC700---Thematic-Coding-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ED0F60-33DA-4DDB-B5E7-47948F24D181}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
@@ -1812,25 +1811,24 @@
     <t>Prime contractor changed without chaning any of the model/reason for the initial failure.</t>
   </si>
   <si>
-    <t>P6,111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>P6,1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1839,7 +1837,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1849,7 +1847,7 @@
       <i/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1858,14 +1856,14 @@
       <i/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1948,7 +1946,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2225,28 +2223,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="89.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.58203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
-    <col min="8" max="8" width="18.4140625" customWidth="1"/>
-    <col min="11" max="11" width="21.83203125" customWidth="1"/>
-    <col min="12" max="12" width="36.25" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="89.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1"/>
+    <col min="12" max="12" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="26.5" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="26.45" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2286,7 +2284,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="52.5">
+    <row r="3" spans="1:6" ht="56.25">
       <c r="A3" s="1" t="s">
         <v>143</v>
       </c>
@@ -2322,7 +2320,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="52.5">
+    <row r="5" spans="1:6" ht="60">
       <c r="A5" s="1" t="s">
         <v>143</v>
       </c>
@@ -2340,7 +2338,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="52.5">
+    <row r="6" spans="1:6" ht="56.25">
       <c r="A6" s="1" t="s">
         <v>143</v>
       </c>
@@ -2358,7 +2356,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="35">
+    <row r="7" spans="1:6" ht="45">
       <c r="A7" s="1" t="s">
         <v>143</v>
       </c>
@@ -2376,7 +2374,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="35">
+    <row r="8" spans="1:6" ht="37.5">
       <c r="A8" s="1" t="s">
         <v>143</v>
       </c>
@@ -2394,7 +2392,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="42">
+    <row r="9" spans="1:6" ht="60">
       <c r="A9" s="1" t="s">
         <v>143</v>
       </c>
@@ -2412,7 +2410,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="1" t="s">
         <v>143</v>
       </c>
@@ -2430,7 +2428,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="56">
+    <row r="11" spans="1:6" ht="60">
       <c r="A11" s="1" t="s">
         <v>143</v>
       </c>
@@ -2448,7 +2446,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42">
+    <row r="12" spans="1:6" ht="60">
       <c r="A12" s="1" t="s">
         <v>143</v>
       </c>
@@ -2466,7 +2464,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="56">
+    <row r="13" spans="1:6" ht="60">
       <c r="A13" s="1" t="s">
         <v>143</v>
       </c>
@@ -2484,7 +2482,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28">
+    <row r="14" spans="1:6" ht="30">
       <c r="A14" s="1" t="s">
         <v>143</v>
       </c>
@@ -2502,7 +2500,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="56">
+    <row r="15" spans="1:6" ht="75">
       <c r="A15" s="1" t="s">
         <v>143</v>
       </c>
@@ -2520,7 +2518,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="42">
+    <row r="16" spans="1:6" ht="45">
       <c r="A16" s="1" t="s">
         <v>143</v>
       </c>
@@ -2538,7 +2536,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="42">
+    <row r="17" spans="1:6" ht="60">
       <c r="A17" s="1" t="s">
         <v>143</v>
       </c>
@@ -2556,7 +2554,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="42">
+    <row r="18" spans="1:6" ht="45">
       <c r="A18" s="1" t="s">
         <v>143</v>
       </c>
@@ -2574,7 +2572,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="42">
+    <row r="19" spans="1:6" ht="60">
       <c r="A19" s="1" t="s">
         <v>143</v>
       </c>
@@ -2592,7 +2590,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28">
+    <row r="20" spans="1:6" ht="30">
       <c r="A20" s="1" t="s">
         <v>143</v>
       </c>
@@ -2607,7 +2605,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="56">
+    <row r="21" spans="1:6" ht="60">
       <c r="A21" s="1" t="s">
         <v>143</v>
       </c>
@@ -2625,7 +2623,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="42">
+    <row r="22" spans="1:6" ht="45">
       <c r="A22" s="1" t="s">
         <v>143</v>
       </c>
@@ -2643,7 +2641,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28">
+    <row r="23" spans="1:6" ht="30">
       <c r="A23" s="1" t="s">
         <v>143</v>
       </c>
@@ -2661,7 +2659,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28">
+    <row r="24" spans="1:6" ht="30">
       <c r="A24" s="1" t="s">
         <v>143</v>
       </c>
@@ -2679,7 +2677,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="42">
+    <row r="25" spans="1:6" ht="45">
       <c r="A25" s="1" t="s">
         <v>143</v>
       </c>
@@ -2697,7 +2695,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28">
+    <row r="26" spans="1:6" ht="30">
       <c r="A26" s="1" t="s">
         <v>143</v>
       </c>
@@ -2712,7 +2710,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28">
+    <row r="27" spans="1:6" ht="30">
       <c r="A27" s="1" t="s">
         <v>143</v>
       </c>
@@ -2727,7 +2725,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="56">
+    <row r="28" spans="1:6" ht="60">
       <c r="A28" s="1" t="s">
         <v>143</v>
       </c>
@@ -2745,7 +2743,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="30">
       <c r="A29" s="1" t="s">
         <v>143</v>
       </c>
@@ -2760,7 +2758,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="28">
+    <row r="30" spans="1:6" ht="30">
       <c r="A30" s="1" t="s">
         <v>143</v>
       </c>
@@ -2775,7 +2773,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="30">
       <c r="A31" s="1" t="s">
         <v>143</v>
       </c>
@@ -2790,7 +2788,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28">
+    <row r="32" spans="1:6" ht="45">
       <c r="A32" s="1" t="s">
         <v>143</v>
       </c>
@@ -2808,7 +2806,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28">
+    <row r="33" spans="1:6" ht="45">
       <c r="A33" s="1" t="s">
         <v>143</v>
       </c>
@@ -2826,7 +2824,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28">
+    <row r="34" spans="1:6" ht="30">
       <c r="A34" s="1" t="s">
         <v>143</v>
       </c>
@@ -2841,7 +2839,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28">
+    <row r="35" spans="1:6" ht="30">
       <c r="A35" s="1" t="s">
         <v>143</v>
       </c>
@@ -2856,7 +2854,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="42">
+    <row r="36" spans="1:6" ht="45">
       <c r="A36" s="1" t="s">
         <v>143</v>
       </c>
@@ -2874,7 +2872,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="30">
       <c r="A37" s="1" t="s">
         <v>143</v>
       </c>
@@ -2892,7 +2890,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="28">
+    <row r="38" spans="1:6" ht="30">
       <c r="A38" s="1" t="s">
         <v>143</v>
       </c>
@@ -2907,7 +2905,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="28">
+    <row r="39" spans="1:6" ht="30">
       <c r="A39" s="1" t="s">
         <v>143</v>
       </c>
@@ -2922,7 +2920,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28">
+    <row r="40" spans="1:6" ht="45">
       <c r="A40" s="1" t="s">
         <v>143</v>
       </c>
@@ -2937,7 +2935,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="42">
+    <row r="41" spans="1:6" ht="45">
       <c r="A41" s="1" t="s">
         <v>143</v>
       </c>
@@ -2952,7 +2950,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28">
+    <row r="42" spans="1:6" ht="30">
       <c r="A42" s="1" t="s">
         <v>143</v>
       </c>
@@ -2967,7 +2965,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="30">
       <c r="A43" s="1" t="s">
         <v>143</v>
       </c>
@@ -2982,7 +2980,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="56">
+    <row r="44" spans="1:6" ht="60">
       <c r="A44" s="1" t="s">
         <v>143</v>
       </c>
@@ -3000,7 +2998,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="42">
+    <row r="45" spans="1:6" ht="45">
       <c r="A45" s="1" t="s">
         <v>143</v>
       </c>
@@ -3018,7 +3016,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="28">
+    <row r="46" spans="1:6" ht="30">
       <c r="A46" s="1" t="s">
         <v>143</v>
       </c>
@@ -3033,7 +3031,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28">
+    <row r="47" spans="1:6" ht="30">
       <c r="A47" s="1" t="s">
         <v>143</v>
       </c>
@@ -3048,7 +3046,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28">
+    <row r="48" spans="1:6" ht="30">
       <c r="A48" s="1" t="s">
         <v>143</v>
       </c>
@@ -3063,7 +3061,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="56">
+    <row r="49" spans="1:8" ht="60">
       <c r="A49" s="1" t="s">
         <v>143</v>
       </c>
@@ -3081,7 +3079,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="42">
+    <row r="50" spans="1:8" ht="45">
       <c r="A50" s="1" t="s">
         <v>143</v>
       </c>
@@ -3096,7 +3094,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="56">
+    <row r="51" spans="1:8" ht="75">
       <c r="A51" s="1" t="s">
         <v>143</v>
       </c>
@@ -3114,7 +3112,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" ht="30">
       <c r="A52" s="1" t="s">
         <v>143</v>
       </c>
@@ -3129,7 +3127,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="42">
+    <row r="53" spans="1:8" ht="45">
       <c r="A53" s="1" t="s">
         <v>143</v>
       </c>
@@ -3147,7 +3145,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="28">
+    <row r="54" spans="1:8" ht="45">
       <c r="A54" s="1" t="s">
         <v>143</v>
       </c>
@@ -3165,7 +3163,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="42">
+    <row r="55" spans="1:8" ht="45">
       <c r="A55" s="1" t="s">
         <v>143</v>
       </c>
@@ -3183,7 +3181,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="28">
+    <row r="56" spans="1:8" ht="30">
       <c r="A56" s="1" t="s">
         <v>143</v>
       </c>
@@ -3200,7 +3198,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="42">
+    <row r="57" spans="1:8" ht="45">
       <c r="A57" s="1" t="s">
         <v>143</v>
       </c>
@@ -3217,7 +3215,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="28">
+    <row r="58" spans="1:8" ht="45">
       <c r="A58" s="1" t="s">
         <v>143</v>
       </c>
@@ -3235,7 +3233,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="42">
+    <row r="59" spans="1:8" ht="45">
       <c r="A59" s="1" t="s">
         <v>143</v>
       </c>
@@ -3252,7 +3250,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="28">
+    <row r="60" spans="1:8" ht="30">
       <c r="A60" s="1" t="s">
         <v>143</v>
       </c>
@@ -3269,7 +3267,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="28">
+    <row r="61" spans="1:8" ht="30">
       <c r="A61" s="1" t="s">
         <v>274</v>
       </c>
@@ -3292,7 +3290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="28">
+    <row r="62" spans="1:8" ht="30">
       <c r="A62" s="1" t="s">
         <v>274</v>
       </c>
@@ -3315,7 +3313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="28">
+    <row r="63" spans="1:8" ht="45">
       <c r="A63" s="1" t="s">
         <v>274</v>
       </c>
@@ -3338,7 +3336,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="28">
+    <row r="64" spans="1:8" ht="30">
       <c r="A64" s="1" t="s">
         <v>274</v>
       </c>
@@ -3361,7 +3359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="28">
+    <row r="65" spans="1:8" ht="30">
       <c r="A65" s="1" t="s">
         <v>274</v>
       </c>
@@ -3384,7 +3382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="56">
+    <row r="66" spans="1:8" ht="75">
       <c r="A66" s="1" t="s">
         <v>274</v>
       </c>
@@ -3407,7 +3405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="28">
+    <row r="67" spans="1:8" ht="30">
       <c r="A67" s="1" t="s">
         <v>274</v>
       </c>
@@ -3430,7 +3428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="56">
+    <row r="68" spans="1:8" ht="75">
       <c r="A68" s="1" t="s">
         <v>274</v>
       </c>
@@ -3453,7 +3451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="42">
+    <row r="69" spans="1:8" ht="45">
       <c r="A69" s="1" t="s">
         <v>274</v>
       </c>
@@ -3476,7 +3474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="28">
+    <row r="70" spans="1:8" ht="30">
       <c r="A70" s="1" t="s">
         <v>274</v>
       </c>
@@ -3522,7 +3520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="28">
+    <row r="72" spans="1:8" ht="30">
       <c r="A72" s="1" t="s">
         <v>274</v>
       </c>
@@ -3545,7 +3543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="56">
+    <row r="73" spans="1:8" ht="60">
       <c r="A73" s="1" t="s">
         <v>274</v>
       </c>
@@ -3568,7 +3566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="28">
+    <row r="74" spans="1:8" ht="45">
       <c r="A74" s="1" t="s">
         <v>274</v>
       </c>
@@ -3591,7 +3589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="42">
+    <row r="75" spans="1:8" ht="60">
       <c r="A75" s="1" t="s">
         <v>274</v>
       </c>
@@ -3614,7 +3612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="42">
+    <row r="76" spans="1:8" ht="60">
       <c r="A76" s="1" t="s">
         <v>274</v>
       </c>
@@ -3637,7 +3635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="42">
+    <row r="77" spans="1:8" ht="60">
       <c r="A77" s="1" t="s">
         <v>274</v>
       </c>
@@ -3660,7 +3658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="42">
+    <row r="78" spans="1:8" ht="45">
       <c r="A78" s="1" t="s">
         <v>274</v>
       </c>
@@ -3683,7 +3681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="70">
+    <row r="79" spans="1:8" ht="90">
       <c r="A79" s="1" t="s">
         <v>274</v>
       </c>
@@ -3706,7 +3704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="98">
+    <row r="80" spans="1:8" ht="120">
       <c r="A80" s="1" t="s">
         <v>274</v>
       </c>
@@ -3729,7 +3727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="56">
+    <row r="81" spans="1:8" ht="75">
       <c r="A81" s="1" t="s">
         <v>274</v>
       </c>
@@ -3752,7 +3750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="42">
+    <row r="82" spans="1:8" ht="45">
       <c r="A82" s="1" t="s">
         <v>274</v>
       </c>
@@ -3775,7 +3773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="42">
+    <row r="83" spans="1:8" ht="60">
       <c r="A83" s="1" t="s">
         <v>274</v>
       </c>
@@ -3798,7 +3796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="28">
+    <row r="84" spans="1:8" ht="45">
       <c r="A84" s="1" t="s">
         <v>274</v>
       </c>
@@ -3821,7 +3819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="70">
+    <row r="85" spans="1:8" ht="75">
       <c r="A85" s="1" t="s">
         <v>274</v>
       </c>
@@ -3844,7 +3842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="98">
+    <row r="86" spans="1:8" ht="135">
       <c r="A86" s="1" t="s">
         <v>274</v>
       </c>
@@ -3867,7 +3865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="56">
+    <row r="87" spans="1:8" ht="75">
       <c r="A87" s="1" t="s">
         <v>274</v>
       </c>
@@ -3890,7 +3888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="42">
+    <row r="88" spans="1:8" ht="45">
       <c r="A88" s="1" t="s">
         <v>274</v>
       </c>
@@ -3913,7 +3911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="98">
+    <row r="89" spans="1:8" ht="120">
       <c r="A89" s="1" t="s">
         <v>274</v>
       </c>
@@ -3936,7 +3934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="56">
+    <row r="90" spans="1:8" ht="75">
       <c r="A90" s="1" t="s">
         <v>274</v>
       </c>
@@ -3980,7 +3978,7 @@
       </c>
       <c r="F92"/>
     </row>
-    <row r="93" spans="1:8" ht="28">
+    <row r="93" spans="1:8" ht="45">
       <c r="A93" s="1" t="s">
         <v>369</v>
       </c>
@@ -3992,7 +3990,7 @@
       </c>
       <c r="F93"/>
     </row>
-    <row r="94" spans="1:8" ht="56">
+    <row r="94" spans="1:8" ht="75">
       <c r="A94" s="1" t="s">
         <v>369</v>
       </c>
@@ -4016,7 +4014,7 @@
       </c>
       <c r="F95"/>
     </row>
-    <row r="96" spans="1:8" ht="42">
+    <row r="96" spans="1:8" ht="45">
       <c r="A96" s="1" t="s">
         <v>369</v>
       </c>
@@ -4040,7 +4038,7 @@
       </c>
       <c r="F97"/>
     </row>
-    <row r="98" spans="1:8" ht="42">
+    <row r="98" spans="1:8" ht="45">
       <c r="A98" s="1" t="s">
         <v>369</v>
       </c>
@@ -4060,7 +4058,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="28">
+    <row r="99" spans="1:8" ht="30">
       <c r="A99" s="1" t="s">
         <v>369</v>
       </c>
@@ -4081,7 +4079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="70">
+    <row r="100" spans="1:8" ht="75">
       <c r="A100" s="1" t="s">
         <v>369</v>
       </c>
@@ -4102,7 +4100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="42">
+    <row r="101" spans="1:8" ht="45">
       <c r="A101" s="1" t="s">
         <v>369</v>
       </c>
@@ -4123,7 +4121,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="70">
+    <row r="102" spans="1:8" ht="90">
       <c r="A102" s="1" t="s">
         <v>369</v>
       </c>
@@ -4144,7 +4142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="84">
+    <row r="103" spans="1:8" ht="105">
       <c r="A103" s="1" t="s">
         <v>369</v>
       </c>
@@ -4165,7 +4163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="70">
+    <row r="104" spans="1:8" ht="90">
       <c r="A104" s="1" t="s">
         <v>369</v>
       </c>
@@ -4186,7 +4184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="28">
+    <row r="105" spans="1:8" ht="45">
       <c r="A105" s="1" t="s">
         <v>369</v>
       </c>
@@ -4207,7 +4205,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="56">
+    <row r="106" spans="1:8" ht="60">
       <c r="A106" s="1" t="s">
         <v>369</v>
       </c>
@@ -4228,7 +4226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="56">
+    <row r="107" spans="1:8" ht="75">
       <c r="A107" s="1" t="s">
         <v>369</v>
       </c>
@@ -4249,7 +4247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="56">
+    <row r="108" spans="1:8" ht="75">
       <c r="A108" s="1" t="s">
         <v>369</v>
       </c>
@@ -4270,7 +4268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="70">
+    <row r="109" spans="1:8" ht="75">
       <c r="A109" s="1" t="s">
         <v>369</v>
       </c>
@@ -4291,7 +4289,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="28">
+    <row r="110" spans="1:8" ht="45">
       <c r="A110" s="1" t="s">
         <v>369</v>
       </c>
@@ -4312,7 +4310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="98">
+    <row r="111" spans="1:8" ht="120">
       <c r="A111" s="1" t="s">
         <v>369</v>
       </c>
@@ -4333,7 +4331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="28">
+    <row r="112" spans="1:8" ht="45">
       <c r="A112" s="1" t="s">
         <v>369</v>
       </c>
@@ -4354,7 +4352,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="70">
+    <row r="113" spans="1:8" ht="75">
       <c r="A113" s="1" t="s">
         <v>369</v>
       </c>
@@ -4375,7 +4373,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="56">
+    <row r="114" spans="1:8" ht="60">
       <c r="A114" s="1" t="s">
         <v>369</v>
       </c>
@@ -4396,7 +4394,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="56">
+    <row r="115" spans="1:8" ht="75">
       <c r="A115" s="1" t="s">
         <v>369</v>
       </c>
@@ -4417,7 +4415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="42">
+    <row r="116" spans="1:8" ht="60">
       <c r="A116" s="1" t="s">
         <v>369</v>
       </c>
@@ -4438,7 +4436,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="42">
+    <row r="117" spans="1:8" ht="45">
       <c r="A117" s="1" t="s">
         <v>369</v>
       </c>
@@ -4459,7 +4457,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="70">
+    <row r="118" spans="1:8" ht="90">
       <c r="A118" s="1" t="s">
         <v>369</v>
       </c>
@@ -4480,7 +4478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="84">
+    <row r="119" spans="1:8" ht="105">
       <c r="A119" s="1" t="s">
         <v>369</v>
       </c>
@@ -4501,7 +4499,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="84">
+    <row r="120" spans="1:8" ht="105">
       <c r="A120" s="1" t="s">
         <v>369</v>
       </c>
@@ -4522,7 +4520,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="70">
+    <row r="121" spans="1:8" ht="90">
       <c r="A121" s="1" t="s">
         <v>369</v>
       </c>
@@ -4544,7 +4542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="56">
+    <row r="122" spans="1:8" ht="75">
       <c r="A122" s="1" t="s">
         <v>79</v>
       </c>
@@ -4558,7 +4556,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="84">
+    <row r="123" spans="1:8" ht="105">
       <c r="A123" s="1" t="s">
         <v>79</v>
       </c>
@@ -4569,7 +4567,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="84">
+    <row r="124" spans="1:8" ht="105">
       <c r="A124" s="1" t="s">
         <v>79</v>
       </c>
@@ -4580,7 +4578,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="126">
+    <row r="125" spans="1:8" ht="165">
       <c r="A125" s="1" t="s">
         <v>79</v>
       </c>
@@ -4591,7 +4589,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="126">
+    <row r="126" spans="1:8" ht="150">
       <c r="A126" s="1" t="s">
         <v>79</v>
       </c>
@@ -4602,7 +4600,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="112">
+    <row r="127" spans="1:8" ht="150">
       <c r="A127" s="1" t="s">
         <v>79</v>
       </c>
@@ -4613,7 +4611,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="70">
+    <row r="128" spans="1:8" ht="90">
       <c r="A128" s="1" t="s">
         <v>79</v>
       </c>
@@ -4624,7 +4622,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="70">
+    <row r="129" spans="1:3" ht="75">
       <c r="A129" s="1" t="s">
         <v>79</v>
       </c>
@@ -4635,7 +4633,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="126">
+    <row r="130" spans="1:3" ht="150">
       <c r="A130" s="1" t="s">
         <v>79</v>
       </c>
@@ -4646,7 +4644,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="140">
+    <row r="131" spans="1:3" ht="180">
       <c r="A131" s="1" t="s">
         <v>79</v>
       </c>
@@ -4657,7 +4655,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="140">
+    <row r="132" spans="1:3" ht="165">
       <c r="A132" s="1" t="s">
         <v>79</v>
       </c>
@@ -4668,7 +4666,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="84">
+    <row r="133" spans="1:3" ht="105">
       <c r="A133" s="1" t="s">
         <v>79</v>
       </c>
@@ -4679,7 +4677,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="56">
+    <row r="134" spans="1:3" ht="75">
       <c r="A134" s="1" t="s">
         <v>79</v>
       </c>
@@ -4690,7 +4688,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="126">
+    <row r="135" spans="1:3" ht="150">
       <c r="A135" s="1" t="s">
         <v>79</v>
       </c>
@@ -4701,7 +4699,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="98">
+    <row r="136" spans="1:3" ht="120">
       <c r="A136" s="1" t="s">
         <v>79</v>
       </c>
@@ -4712,7 +4710,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="266">
+    <row r="137" spans="1:3" ht="300">
       <c r="A137" s="1" t="s">
         <v>79</v>
       </c>
@@ -4723,7 +4721,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="56">
+    <row r="138" spans="1:3" ht="60">
       <c r="A138" s="1" t="s">
         <v>79</v>
       </c>
@@ -4734,7 +4732,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="56">
+    <row r="139" spans="1:3" ht="60">
       <c r="A139" s="1" t="s">
         <v>79</v>
       </c>
@@ -4745,7 +4743,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="182">
+    <row r="140" spans="1:3" ht="210">
       <c r="A140" s="1" t="s">
         <v>79</v>
       </c>
@@ -4756,7 +4754,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="168">
+    <row r="141" spans="1:3" ht="210">
       <c r="A141" s="1" t="s">
         <v>79</v>
       </c>
@@ -4767,7 +4765,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="112">
+    <row r="142" spans="1:3" ht="135">
       <c r="A142" s="1" t="s">
         <v>79</v>
       </c>
@@ -4778,7 +4776,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="98">
+    <row r="143" spans="1:3" ht="120">
       <c r="A143" s="1" t="s">
         <v>79</v>
       </c>
@@ -4789,7 +4787,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="70">
+    <row r="144" spans="1:3" ht="90">
       <c r="A144" s="1" t="s">
         <v>79</v>
       </c>
@@ -4800,7 +4798,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="154">
+    <row r="145" spans="1:3" ht="180">
       <c r="A145" s="1" t="s">
         <v>79</v>
       </c>
@@ -4811,7 +4809,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="112">
+    <row r="146" spans="1:3" ht="120">
       <c r="A146" s="1" t="s">
         <v>79</v>
       </c>
@@ -4822,7 +4820,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="70">
+    <row r="147" spans="1:3" ht="90">
       <c r="A147" s="1" t="s">
         <v>79</v>
       </c>
@@ -4833,7 +4831,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="196">
+    <row r="148" spans="1:3" ht="240">
       <c r="A148" s="1" t="s">
         <v>79</v>
       </c>
@@ -4844,7 +4842,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="266">
+    <row r="149" spans="1:3" ht="345">
       <c r="A149" s="1" t="s">
         <v>79</v>
       </c>
@@ -4855,7 +4853,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="168">
+    <row r="150" spans="1:3" ht="210">
       <c r="A150" s="1" t="s">
         <v>79</v>
       </c>
@@ -4866,7 +4864,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="126">
+    <row r="151" spans="1:3" ht="165">
       <c r="A151" s="1" t="s">
         <v>79</v>
       </c>
@@ -4877,7 +4875,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="140">
+    <row r="152" spans="1:3" ht="180">
       <c r="A152" s="1" t="s">
         <v>79</v>
       </c>
@@ -4895,19 +4893,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$7</xm:f>
           </x14:formula1>
           <xm:sqref>F2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$B:$B</xm:f>
           </x14:formula1>
           <xm:sqref>F1 F3:F18 F20:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$65</xm:f>
           </x14:formula1>
@@ -4920,25 +4918,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="66.4140625" customWidth="1"/>
-    <col min="2" max="2" width="35.75" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="6" width="25.25" customWidth="1"/>
-    <col min="8" max="8" width="25.75" customWidth="1"/>
+    <col min="1" max="1" width="66.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.5">
+    <row r="1" spans="1:7" ht="18.75">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -4952,7 +4950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.5">
+    <row r="2" spans="1:7" ht="18.75">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4963,7 +4961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.5">
+    <row r="3" spans="1:7" ht="18.75">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4974,7 +4972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.5">
+    <row r="4" spans="1:7" ht="18.75">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4985,7 +4983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.5">
+    <row r="5" spans="1:7" ht="18.75">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4996,7 +4994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.5">
+    <row r="6" spans="1:7" ht="18.75">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5492,7 +5490,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A64 G1:G64" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A64 G1:G64">
       <formula1>Code</formula1>
     </dataValidation>
   </dataValidations>

--- a/Thematic-Coding.xlsx
+++ b/Thematic-Coding.xlsx
@@ -28,6 +28,7 @@
     <definedName name="Technology_Factors">Sheet2!$A$30:$A$38</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="449">
   <si>
     <t>CaseStudy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,10 +224,6 @@
   </si>
   <si>
     <t>Poor Trouble shooting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poor Management Factors</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -535,21 +532,6 @@
     <t>I have identified two principal causes of the inadequacies which led to the increase in contract price, the serious shortcomings in contract and project management, and in the State’s decision to settle with IBM. Those causes were: unwarranted urgency and a lack of diligence on the part of State officials. That lack of diligence manifested itself in the poor decisions which those officials made in scoping the Interim Solution; in their governance of the Project; and in failing to hold IBM to account to deliver a functional payroll system.</t>
   </si>
   <si>
-    <t>Numerous other variations to the contract followed. Many of the Changes effecting those variations offered as their basis that business requirements had been "missed”. No adequate inquiry appears to have been conducted as to the cause of that having occurred. The State, having been less than diligent in its participation in the scoping exercise, seemed content to agree to these variations and to pay IBM to make them. That there were missed requirements is evidence of deficiencies in the scoping exercise.
-Variations to the contract continued up until the system went live. They number in the order of 220. Some were proposed by IBM, some by the State. It is not always of significance which party initiated each change. In some cases, Changes were the culmination of negotiation or discussion, such as Change 184 which the parties had agreed well before that variation had been initiated, in a formal sense, by the State.
-The detail of all the Changes could not be pursued in evidence, and nor would it have been productive to do so. In each case, the parties willingly agreed them. The relevance of them to the Terms of Reference is the effect they had on price, on the time it took for the system to be completed and delivered, and what they reveal about the adequacy of the scoping of the system and whether the system was likely to function as a payroll system ought when it went live.</t>
-  </si>
-  <si>
-    <t>Contract and
-Project Management, Section 2.3, 2.31, 2.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Had the parties simply adhered to the controls which they had in place at the commencement of the Project, the system would never have progressed to the point at which serious compromises had to be made to Go Live. The system had reached that stage only because of conscious decisions made by the parties to "lower the bar” as
-Dr Manfield said39 by changing the criteria by which it would be permitted to proceed to the next stage and by decisions to downgrade the Severity of defects which had been identified. Being aware of the major functional issues, and having removed them as a basis for preventing the system progressing towards Go Live, the parties prepared a "Solution and Defect Management Plan” (Defect Management Plan). This plan proposed to deal with such defects as were then known by, among other mechanisms, what was known as a "workaround”, namely a manual intervention, or by simply deferring the fixing of the problem until after Go Live. This was folly, but it was made worse by the fact that, on no view could the parties have thought that all the major functional defects had been identified. Mr Cowan had made absolutely clear that it was likely that further major defects existed, which it was not the role or function of the type of testing he was conducting to discover .
-It was always inevitable, therefore, that without the Project being reset, these decisions would lead to a system which was seriously functionally deficient. Despite that, no real practical alternative was put in place. Although CorpTech had, very sensibly, resourced itself to maintain LATTICE, that option was either considered not feasible or was not sufficiently investigated. There appears to have been inadequate consideration given to the option of upgrading the LATTICE system or coming to some arrangement with its vendor (Talent2) to maintain support until some other alternative could be found.
-</t>
-  </si>
-  <si>
     <t>Contract and
 Project Management, Section 2.35, 2.36</t>
   </si>
@@ -1482,56 +1464,6 @@
   </si>
   <si>
     <t>NHS Failure Project</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Main factor impact IT Failure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haste</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>An unrealistic timetable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Failure to recognise the risks or limitations of big IT projects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No time to engage with users and privacy campaigners</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Failure to recognise that the longer the project takes, the more likely it is to be overtaken by new technology</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inadequate preliminary work</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sheer ambition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Failure to check progress against expectations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The project is too large for the leadership to manage competently</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Failure to test systems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Confidentiality issues</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1812,6 +1744,43 @@
   </si>
   <si>
     <t>P6,1</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Variations to the contract continued up until the system went live. They number in the order of 220. Some were proposed by IBM, some by the State. It is not always of significance which party initiated each change. In some cases, Changes were the culmination of negotiation or discussion, such as Change 184 which the parties had agreed well before that variation had been initiated, in a formal sense, by the State.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerous other variations to the contract followed. Many of the Changes effecting those variations offered as their basis that business requirements had been "missed”. No adequate inquiry appears to have been conducted as to the cause of that having occurred. The State, having been less than diligent in its participation in the scoping exercise, seemed content to agree to these variations and to pay IBM to make them. That there were missed requirements is evidence of deficiencies in the scoping exercise.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The detail of all the Changes could not be pursued in evidence, and nor would it have been productive to do so. In each case, the parties willingly agreed them. The relevance of them to the Terms of Reference is the effect they had on price, on the time it took for the system to be completed and delivered, and what they reveal about the adequacy of the scoping of the system and whether the system was likely to function as a payroll system ought when it went live.</t>
+  </si>
+  <si>
+    <t>Contract and
+Project Management, Section 2.31,</t>
+  </si>
+  <si>
+    <t>Contract and
+Project Management, Section 2.34</t>
+  </si>
+  <si>
+    <t>Contract and
+Project Management, Section 2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had the parties simply adhered to the controls which they had in place at the commencement of the Project, the system would never have progressed to the point at which serious compromises had to be made to Go Live. The system had reached that stage only because of conscious decisions made by the parties to "lower the bar” as
+Dr Manfield said39 by changing the criteria by which it would be permitted to proceed to the next stage and by decisions to downgrade the Severity of defects which had been identified. Being aware of the major functional issues, and having removed them as a basis for preventing the system progressing towards Go Live, the parties prepared a "Solution and Defect Management Plan” (Defect Management Plan). This plan proposed to deal with such defects as were then known by, among other mechanisms, what was known as a "workaround”, namely a manual intervention, or by simply deferring the fixing of the problem until after Go Live. This was folly, but it was made worse by the fact that, on no view could the parties have thought that all the major functional defects had been identified. Mr Cowan had made absolutely clear that it was likely that further major defects existed, which it was not the role or function of the type of testing he was conducting to discover .
+</t>
+  </si>
+  <si>
+    <t>It was always inevitable, therefore, that without the Project being reset, these decisions would lead to a system which was seriously functionally deficient. Despite that, no real practical alternative was put in place. Although CorpTech had, very sensibly, resourced itself to maintain LATTICE, that option was either considered not feasible or was not sufficiently investigated. There appears to have been inadequate consideration given to the option of upgrading the LATTICE system or coming to some arrangement with its vendor (Talent2) to maintain support until some other alternative could be found.</t>
+  </si>
+  <si>
+    <t>Lack of Project Management Skills</t>
   </si>
 </sst>
 </file>
@@ -2224,10 +2193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2252,10 +2221,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -2266,898 +2235,898 @@
     </row>
     <row r="2" spans="1:6" ht="64.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="56.25">
       <c r="A3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="84.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="56.25">
       <c r="A6" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45">
       <c r="A7" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="37.5">
       <c r="A8" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60">
       <c r="A9" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>189</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
       <c r="A10" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="60">
       <c r="A11" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="60">
       <c r="A12" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60">
       <c r="A13" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
       <c r="A14" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="75">
       <c r="A15" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45">
       <c r="A16" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="60">
       <c r="A17" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45">
       <c r="A18" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="60">
       <c r="A19" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30">
       <c r="A20" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C20" s="10"/>
       <c r="E20" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="60">
       <c r="A21" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30">
       <c r="A23" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="45">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30">
       <c r="A26" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C26" s="10"/>
       <c r="E26" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30">
       <c r="A27" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C27" s="10"/>
       <c r="E27" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="60">
       <c r="A28" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30">
       <c r="A29" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C29" s="10"/>
       <c r="E29" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30">
       <c r="A30" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C30" s="10"/>
       <c r="E30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30">
       <c r="A31" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C31" s="10"/>
       <c r="E31" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45">
       <c r="A32" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="45">
       <c r="A33" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30">
       <c r="A34" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C34" s="10"/>
       <c r="E34" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30">
       <c r="A35" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C35" s="10"/>
       <c r="E35" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="45">
       <c r="A36" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30">
       <c r="A37" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30">
       <c r="A38" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C38" s="10"/>
       <c r="E38" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30">
       <c r="A39" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C39" s="10"/>
       <c r="E39" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="45">
       <c r="A40" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C40" s="10"/>
       <c r="E40" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="45">
       <c r="A41" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C41" s="10"/>
       <c r="E41" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30">
       <c r="A42" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C42" s="10"/>
       <c r="E42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="30">
       <c r="A43" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C43" s="10"/>
       <c r="E43" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="60">
       <c r="A44" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="45">
       <c r="A45" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30">
       <c r="A46" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C46" s="10"/>
       <c r="E46" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30">
       <c r="A47" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C47" s="10"/>
       <c r="E47" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30">
       <c r="A48" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C48" s="10"/>
       <c r="E48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="60">
       <c r="A49" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="45">
       <c r="A50" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C50" s="10"/>
       <c r="E50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="75">
       <c r="A51" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="30">
       <c r="A52" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C52" s="10"/>
       <c r="E52" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="45">
       <c r="A53" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="45">
       <c r="A54" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>37</v>
@@ -3165,14 +3134,14 @@
     </row>
     <row r="55" spans="1:8" ht="45">
       <c r="A55" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>46</v>
@@ -3183,13 +3152,13 @@
     </row>
     <row r="56" spans="1:8" ht="30">
       <c r="A56" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>41</v>
@@ -3200,91 +3169,91 @@
     </row>
     <row r="57" spans="1:8" ht="45">
       <c r="A57" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="45">
       <c r="A58" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="45">
       <c r="A59" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30">
       <c r="A60" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="30">
       <c r="A61" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="H61">
         <v>12</v>
@@ -3292,22 +3261,22 @@
     </row>
     <row r="62" spans="1:8" ht="30">
       <c r="A62" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H62">
         <v>12</v>
@@ -3315,22 +3284,22 @@
     </row>
     <row r="63" spans="1:8" ht="45">
       <c r="A63" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H63">
         <v>12</v>
@@ -3338,22 +3307,22 @@
     </row>
     <row r="64" spans="1:8" ht="30">
       <c r="A64" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H64">
         <v>12</v>
@@ -3361,22 +3330,22 @@
     </row>
     <row r="65" spans="1:8" ht="30">
       <c r="A65" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H65">
         <v>12</v>
@@ -3384,22 +3353,22 @@
     </row>
     <row r="66" spans="1:8" ht="75">
       <c r="A66" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H66">
         <v>12</v>
@@ -3407,22 +3376,22 @@
     </row>
     <row r="67" spans="1:8" ht="30">
       <c r="A67" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="G67" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H67">
         <v>13</v>
@@ -3430,22 +3399,22 @@
     </row>
     <row r="68" spans="1:8" ht="75">
       <c r="A68" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H68">
         <v>13</v>
@@ -3453,22 +3422,22 @@
     </row>
     <row r="69" spans="1:8" ht="45">
       <c r="A69" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H69">
         <v>13</v>
@@ -3476,22 +3445,22 @@
     </row>
     <row r="70" spans="1:8" ht="30">
       <c r="A70" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H70">
         <v>13</v>
@@ -3499,22 +3468,22 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H71">
         <v>13</v>
@@ -3522,22 +3491,22 @@
     </row>
     <row r="72" spans="1:8" ht="30">
       <c r="A72" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H72">
         <v>13</v>
@@ -3545,22 +3514,22 @@
     </row>
     <row r="73" spans="1:8" ht="60">
       <c r="A73" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -3568,22 +3537,22 @@
     </row>
     <row r="74" spans="1:8" ht="45">
       <c r="A74" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -3591,22 +3560,22 @@
     </row>
     <row r="75" spans="1:8" ht="60">
       <c r="A75" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="E75" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -3614,22 +3583,22 @@
     </row>
     <row r="76" spans="1:8" ht="60">
       <c r="A76" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -3637,22 +3606,22 @@
     </row>
     <row r="77" spans="1:8" ht="60">
       <c r="A77" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>318</v>
+        <v>439</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -3660,22 +3629,22 @@
     </row>
     <row r="78" spans="1:8" ht="45">
       <c r="A78" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H78">
         <v>4</v>
@@ -3683,22 +3652,22 @@
     </row>
     <row r="79" spans="1:8" ht="90">
       <c r="A79" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H79">
         <v>4</v>
@@ -3706,22 +3675,22 @@
     </row>
     <row r="80" spans="1:8" ht="120">
       <c r="A80" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H80">
         <v>4</v>
@@ -3729,22 +3698,22 @@
     </row>
     <row r="81" spans="1:8" ht="75">
       <c r="A81" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="G81" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -3752,22 +3721,22 @@
     </row>
     <row r="82" spans="1:8" ht="45">
       <c r="A82" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H82">
         <v>3</v>
@@ -3775,22 +3744,22 @@
     </row>
     <row r="83" spans="1:8" ht="60">
       <c r="A83" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H83">
         <v>4</v>
@@ -3798,22 +3767,22 @@
     </row>
     <row r="84" spans="1:8" ht="45">
       <c r="A84" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H84">
         <v>4</v>
@@ -3821,22 +3790,22 @@
     </row>
     <row r="85" spans="1:8" ht="75">
       <c r="A85" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H85">
         <v>4</v>
@@ -3844,22 +3813,22 @@
     </row>
     <row r="86" spans="1:8" ht="135">
       <c r="A86" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H86">
         <v>4</v>
@@ -3867,22 +3836,22 @@
     </row>
     <row r="87" spans="1:8" ht="75">
       <c r="A87" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H87">
         <v>4</v>
@@ -3890,22 +3859,22 @@
     </row>
     <row r="88" spans="1:8" ht="45">
       <c r="A88" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H88">
         <v>5</v>
@@ -3913,22 +3882,22 @@
     </row>
     <row r="89" spans="1:8" ht="120">
       <c r="A89" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G89" s="11" t="s">
         <v>360</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>364</v>
       </c>
       <c r="H89">
         <v>5</v>
@@ -3936,51 +3905,71 @@
     </row>
     <row r="90" spans="1:8" ht="75">
       <c r="A90" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H90">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" ht="45">
       <c r="A91" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G91" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="H91">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="30">
+      <c r="A92" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F91"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="1" t="s">
+      <c r="D92" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F92"/>
+      <c r="G92" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="F92"/>
-    </row>
-    <row r="93" spans="1:8" ht="45">
+      <c r="H92">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="75">
       <c r="A93" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>373</v>
@@ -3988,331 +3977,377 @@
       <c r="D93" s="1" t="s">
         <v>374</v>
       </c>
+      <c r="E93" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="F93"/>
-    </row>
-    <row r="94" spans="1:8" ht="75">
+      <c r="G93" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H93">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="45">
       <c r="A94" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F94"/>
+      <c r="G94" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F94"/>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="H94">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="90">
       <c r="A95" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F95"/>
+      <c r="G95" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="F95"/>
-    </row>
-    <row r="96" spans="1:8" ht="45">
+      <c r="H95">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="105">
       <c r="A96" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="F96"/>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="G96" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="H96">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="90">
       <c r="A97" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>382</v>
+        <v>387</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="F97"/>
+      <c r="G97" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="H97">
+        <v>25</v>
+      </c>
     </row>
     <row r="98" spans="1:8" ht="45">
       <c r="A98" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D98" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="F98"/>
+      <c r="G98" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="G98" s="12" t="s">
-        <v>386</v>
-      </c>
       <c r="H98">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="60">
       <c r="A99" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F99"/>
       <c r="G99" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H99">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="75">
       <c r="A100" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F100"/>
       <c r="G100" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H100">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="75">
       <c r="A101" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F101"/>
       <c r="G101" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H101">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="90">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="75">
       <c r="A102" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F102"/>
       <c r="G102" s="12" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="H102">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="105">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="45">
       <c r="A103" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F103"/>
       <c r="G103" s="12" t="s">
         <v>402</v>
       </c>
       <c r="H103">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="90">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="120">
       <c r="A104" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F104"/>
       <c r="G104" s="12" t="s">
         <v>402</v>
       </c>
       <c r="H104">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="45">
       <c r="A105" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="F105"/>
       <c r="G105" s="12" t="s">
         <v>402</v>
       </c>
       <c r="H105">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="60">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="75">
       <c r="A106" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="F106"/>
       <c r="G106" s="12" t="s">
         <v>402</v>
       </c>
       <c r="H106">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="75">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="60">
       <c r="A107" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="F107"/>
       <c r="G107" s="12" t="s">
         <v>402</v>
       </c>
       <c r="H107">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="75">
       <c r="A108" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="F108"/>
       <c r="G108" s="12" t="s">
         <v>402</v>
       </c>
       <c r="H108">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="75">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="60">
       <c r="A109" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="F109"/>
       <c r="G109" s="12" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="H109">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="45">
       <c r="A110" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="F110"/>
       <c r="G110" s="12" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="H110">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="120">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="90">
       <c r="A111" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>423</v>
@@ -4325,15 +4360,15 @@
       </c>
       <c r="F111"/>
       <c r="G111" s="12" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="H111">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="105">
       <c r="A112" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>426</v>
@@ -4342,548 +4377,428 @@
         <v>427</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="F112"/>
       <c r="G112" s="12" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="H112">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="75">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="105">
       <c r="A113" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="F113"/>
-      <c r="G113" s="12" t="s">
-        <v>419</v>
+      <c r="G113" s="13" t="s">
+        <v>433</v>
       </c>
       <c r="H113">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="60">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="90">
       <c r="A114" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>430</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="C114" s="10"/>
       <c r="D114" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>405</v>
+        <v>436</v>
       </c>
       <c r="F114"/>
-      <c r="G114" s="12" t="s">
-        <v>419</v>
+      <c r="G114" s="13" t="s">
+        <v>433</v>
       </c>
       <c r="H114">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="75">
       <c r="A115" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>432</v>
+        <v>78</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="F115"/>
-      <c r="G115" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="H115">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="60">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="105">
       <c r="A116" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="F116"/>
-      <c r="G116" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="H116">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="45">
+        <v>78</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="105">
       <c r="A117" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="F117"/>
-      <c r="G117" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="H117">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="90">
+        <v>78</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="165">
       <c r="A118" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="F118"/>
-      <c r="G118" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="H118">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="105">
+        <v>78</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="150">
       <c r="A119" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="F119"/>
-      <c r="G119" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="H119">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="105">
+        <v>78</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="150">
       <c r="A120" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="F120"/>
-      <c r="G120" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="H120">
-        <v>30</v>
+        <v>78</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="90">
       <c r="A121" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C121" s="10"/>
-      <c r="D121" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F121"/>
-      <c r="G121" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="H121">
-        <v>30</v>
+        <v>78</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="75">
       <c r="A122" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="105">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="150">
       <c r="A123" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="105">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="180">
       <c r="A124" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="165">
       <c r="A125" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="150">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="105">
       <c r="A126" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="150">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="75">
       <c r="A127" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="90">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="150">
       <c r="A128" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="75">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="120">
       <c r="A129" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>87</v>
+        <v>78</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="150">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="300">
       <c r="A130" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B130" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="60">
+      <c r="A131" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="180">
-      <c r="A131" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="C131" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="165">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="60">
       <c r="A132" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>104</v>
+        <v>78</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="105">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="210">
       <c r="A133" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>100</v>
+        <v>78</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="75">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="210">
       <c r="A134" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>106</v>
+        <v>78</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="150">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="135">
       <c r="A135" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>127</v>
+        <v>78</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="120">
       <c r="A136" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>110</v>
+        <v>78</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="300">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="90">
       <c r="A137" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>111</v>
+        <v>78</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="60">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="180">
       <c r="A138" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>98</v>
+        <v>78</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="60">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="120">
       <c r="A139" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="210">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="90">
       <c r="A140" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="210">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="105">
       <c r="A141" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>117</v>
+        <v>441</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="135">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="75">
       <c r="A142" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>119</v>
+        <v>440</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="120">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="90">
       <c r="A143" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>121</v>
+        <v>442</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="90">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="255">
       <c r="A144" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>126</v>
+        <v>446</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="180">
-      <c r="A145" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="B145" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="120">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="210">
       <c r="A146" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="90">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="165">
       <c r="A147" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="240">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="180">
       <c r="A148" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="345">
-      <c r="A149" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="210">
-      <c r="A150" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B150" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="165">
-      <c r="A151" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="180">
-      <c r="A152" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4921,8 +4836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4944,7 +4859,7 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -4988,7 +4903,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -5096,7 +5011,7 @@
         <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5275,216 +5190,216 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" t="s">
         <v>76</v>
-      </c>
-      <c r="G39" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F56" t="s">
+        <v>64</v>
+      </c>
+      <c r="G56" t="s">
         <v>65</v>
-      </c>
-      <c r="G56" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Thematic-Coding.xlsx
+++ b/Thematic-Coding.xlsx
@@ -21,14 +21,13 @@
     <definedName name="_ftnref1" localSheetId="0">'Sheet1 (2)'!$B$21</definedName>
     <definedName name="_ftnref2" localSheetId="0">'Sheet1 (2)'!$B$23</definedName>
     <definedName name="Environmental_Factors">Sheet2!$A$1:$A$5</definedName>
-    <definedName name="Organizational_Factors">Sheet2!$A$6:$A$15</definedName>
-    <definedName name="Poor_Management_Factors">Sheet2!$A$39:$A$64</definedName>
-    <definedName name="Project_Factors">Sheet2!$A$24:$A$29</definedName>
-    <definedName name="Team_Factors">Sheet2!$A$16:$A$23</definedName>
-    <definedName name="Technology_Factors">Sheet2!$A$30:$A$38</definedName>
+    <definedName name="Organizational_Factors">Sheet2!$A$6:$A$14</definedName>
+    <definedName name="Poor_Management_Factors">Sheet2!$A$38:$A$63</definedName>
+    <definedName name="Project_Factors">Sheet2!$A$23:$A$28</definedName>
+    <definedName name="Team_Factors">Sheet2!$A$15:$A$22</definedName>
+    <definedName name="Technology_Factors">Sheet2!$A$29:$A$37</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="467">
   <si>
     <t>CaseStudy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lack of Senior Management Involvement,Support &amp;Commitment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Unrealistic Expectations</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,10 +103,6 @@
   </si>
   <si>
     <t>Poor Internal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Marketing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -360,21 +351,6 @@
     <t>It was not inevitable that the appointment of a Prime Contractor would fail to deliver what CorpTech hoped from it. History has shown that the decision to transfer responsibility for the SS Initiative to a private enterprise contractor was unsuccessful, but there were several reasons for that. Had there been a mature discussion about the proposal, those directing the State’s decisions might have gained a realisation that a Prime Contractor was not a panacea for the ills of the SS Initiative and that the work of the Prime Contractor required oversight. That realisation, acted upon, might have changed the course of events.</t>
   </si>
   <si>
-    <t>The haste with which the appointment was made is as remarkable as the lack of consideration preceding the decision to appoint the Prime Contractor. If one looks over the series of reviews which commenced with the Keliher Report in March 2007, one sees anxiety about the progress and cost of the SS Initiative turning to alarm which then overcame rational decision making. The issue of the RFP before the CEO Governing Board had authorised the appointment of a Prime Contractor is the clearest example. The terms of the RFP itself indicate haste and a disregard for detail. It is extraordinary that such a succinct communication should have been thought a suffiient basis for procuring a multi-million dollar contract. There is no doubt that was Ms Perrott’s and Mr Bradley’s intention. The ITO itself was so condensed in time as to make it all but inevitable that important questions of detail and principle would be overlooked or compromised.</t>
-  </si>
-  <si>
-    <t>That being plainly said, as it should be, it would be equally naïve not to consider that Mr Bloomfild, and his colleagues at IBM, knew that Mr Burns was behaving extraordinarily for a man charged with the responsibility of investigating a very substantial government IT program and guiding the procurement process for a contractor to take it over. Mr Bloomfild’s emails to his superiors indicate that he understood that a valuable business opportunity was being offered to IBM which it should do its utmost to exploit. He cannot have thought the same favouritism was extended to his competitors.It is likely, as I say, that Mr Burns hoped in some way for a personal benefi from his generosity to IBM. He certainly looked for advancement from the State and used his appointments to obtain it. It may be that, having secured that advantage, he had no further need to ingratiate himself with IBM</t>
-  </si>
-  <si>
-    <t>Mr Burns’ bias should have precluded him from taking any part at all in the procurement processes defied by the RFP and the ITO. Had his role been limited, as it was meant to be, to administrator and facilitator of the evaluation process, his bias may not have had much consequence. As it was, Ms Perrrott’s neglect of her responsibilities and in particular her obligation personally to oversee the evaluation process, and Mr Bradley’s empowerment of Mr Burns, gave him a free hand to inflence the selection of the Prime Contractor. Although Ms Perrott nominally led the process, Mr Burns was its de facto leader. His capacity to inflence events was increased by the haste and unnecessary sense of urgency which overlay the procurement and the blurred lines of responsibility under which Mr Burns was allowed to operate.</t>
-  </si>
-  <si>
-    <t>His intervention in the evaluation has been described at length. It was grossly improper. It is disappointing that of all the senior public servants who observed it, only Mr Bond took up the matter with the Executive Director of CorpTech, and extraordinary that Ms Perrott should not investigate it thoroughly. That intervention and the changed scoring flwed the process and tended to distort the result. That failure is the fault of the State and its offiers and is not something for which IBM can be criticised.</t>
-  </si>
-  <si>
-    <t>The evidence supports the conclusion that IBM’s price should have been the subject of full and careful scrutiny by Ms Perrott and the Cost Evaluation Panel with particular reference to the discrepancy between it and its earlier price, and between it and competitors’ prices. There was no such scrutiny. Ms Orange was unaware of the discrepancy and no one bothered to tell her of it. Ms Perrott, who was aware of it, failed to understand its signifiance, or disregarded it.</t>
-  </si>
-  <si>
     <t>Procurement, Section 6.2</t>
   </si>
   <si>
@@ -387,9 +363,6 @@
     <t>Procurement, Section 6.9</t>
   </si>
   <si>
-    <t>Procurement, Section 6.13, 6.14</t>
-  </si>
-  <si>
     <t>Procurement, Section 6.16</t>
   </si>
   <si>
@@ -400,9 +373,6 @@
   </si>
   <si>
     <t>Procurement, Section 6.27</t>
-  </si>
-  <si>
-    <t>Mr Burns’ intervention in the ITO evaluation requires another comment. Improper as it was, it would not have led to IBM becoming the highest ranked bidder had the Evaluation Panel leaders acted in accordance with their own logic. IBM’s proposed use of Workbrain, though offering accelerated roll out and reduced cost, was risky because it was untried. That was the view of the Panel members. Mr Burns urged the rewarding of innovation and his argument was accepted but with the qualifiation that the reference sites had to provide proof that the proposal worked in practice. That proof was not forthcoming. Logically, then, the situation should have reverted to the original. There should have been a third appraisal resulting in the reinstatement of the Accenture bid as the better one because it was less risky. But rationality and sense gave way to haste and muddle, and the State committed itself to an untried solution.</t>
   </si>
   <si>
     <t>The decision to Go Live miscarried. What was regarded as an imminent failure of LATTICE overshadowed any measured and analytical assessment and weighing of the relevant factors. By the time the Project Directorate and the Project Board met to consider whether to Go Live, the members of those bodies had made up their minds that the only option was to proceed.</t>
@@ -412,9 +382,6 @@
 Project Management, Section 6.46</t>
   </si>
   <si>
-    <t>The scope of the system was inadequately defied. Had the system as originally scoped been delivered, it would have failed entirely to function as any payroll system might reasonably be expected to function. That fact was known to IBM who, through the assumptions it enumerated in SOW 8 and the “issues” it listed in the QHIC Scope Defiition, notifid the State that changes to scope were likely to be required. Some of the State representatives, however, considered that the scope documents were to some extent beside the point because of IBM’s promise to deliver a payroll system that was “stable, supported and supportable”</t>
-  </si>
-  <si>
     <t>Contract and
 Project Management, Section 4.74</t>
   </si>
@@ -424,9 +391,6 @@
   </si>
   <si>
     <t>The system was inadequately scoped and neither party took any effective measures to stabilise it. Both parties ignored all the warning signs of a project in serious distress. Rather than reset the Project or take decisive steps to put it on a stable course, they altered or lowered the thresholds which had been put in place to protect against the very thing which eventuated: a system of poor quality which was not ready to Go Live. Doing so meant that the system, when it went live, would not be functional and constituted a clear breach of the most fundamental principles of project management. Poor decisions were made, Dr Manfield said, under the intense pressure of the time imperative . I would agree, and add only that the pressure of time was something which the parties had imposed upon themselves, and it was therefore something which it was within the control of the State, in particular, to deal with, including, as I have said, by investigating alternatives to upgrade LATTICE or maintain its support while hard decisions were made about the system then still under construction</t>
-  </si>
-  <si>
-    <t>2.47 The Project was, from the outset, one which was conducted in an atmosphere of urgency, and which, in large part, had been of the State’s creation in its failure at some earlier time to commence gathering its business requirements, making any necessary changes to its internal processes and deciding what measures it would take to either upgrade or replace the LATTICE system. When the Project was commenced, the timeframes within which the various stages of it were to be undertaken were hopelessly short, including for scoping. The Project was managed, contrary to the requirements of well-established project management methodology, by undertaking a number of tasks at the same time (including different forms of testing). There was a lack of rigour in this approach. It meant that the Project was not required to pass various checkpoints before proceeding. Where checkpoints did exist, their purpose was circumvented by changing the criteria required to meet them or by their being ignored altogether.</t>
   </si>
   <si>
     <t>Contract and
@@ -553,9 +517,6 @@
   <si>
     <t>Contract and
 Project Management, Section 7.29</t>
-  </si>
-  <si>
-    <t>It took time for the problems with the system to manifest themselves. As I have explained, retrospectiveprocessing did not commence until the second pay run. It may have been that staff took a pay or two to realise that their pay was inaccurate, or they were patient about pay irregularities, being aware that the system was new, no doubt thinking that whatever the problems with pay were that they would be corrected in due course. Whatever the reasons, I accept Ms Stewart’s evidence, because she was in the position to know, "there was a large number of issues that were surfacing that were not visible at the time of go live” , and that "it was probably other issues surfacing on top of the defect management plan that started to complicate the situation” . There is no doubt on the evidence that the Defect Management Plan could never have been a complete record of the defects which existed at Go Live . Mr Cowan had warned it to be likely that defects additional to those he had identified during UAT existed, given that this was not the function or purpose of UAT</t>
   </si>
   <si>
     <t>Summary</t>
@@ -1722,10 +1683,6 @@
     <t>With the advent of the economic crisis, it was impossible to continue investing in projects, but it could not stop. This also led to the failure of the project.</t>
   </si>
   <si>
-    <t xml:space="preserve"> lack advent communications</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The End of NPfIT</t>
   </si>
   <si>
@@ -1738,9 +1695,6 @@
   <si>
     <t>The over-expenditure of; lack expenditure communications</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prime contractor changed without chaning any of the model/reason for the initial failure.</t>
   </si>
   <si>
     <t>P6,1</t>
@@ -1781,6 +1735,102 @@
   </si>
   <si>
     <t>Lack of Project Management Skills</t>
+  </si>
+  <si>
+    <t>Prime contractor changed without changing any of the model/reason for the initial failure.</t>
+  </si>
+  <si>
+    <t>Lack of Senior Management Involvement,Support &amp;Commitment</t>
+  </si>
+  <si>
+    <t>Lack of analysis or consideration of the model and why is failed before assigning another prime contractor.</t>
+  </si>
+  <si>
+    <t>The haste with which the appointment was made is as remarkable as the lack of consideration preceding the decision to appoint the Prime Contractor. If one looks over the series of reviews which commenced with the Keliher Report in March 2007, one sees anxiety about the progress and cost of the SS Initiative turning to alarm which then overcame rational decision making. The issue of the RFP before the CEO Governing Board had authorised the appointment of a Prime Contractor is the clearest example. The terms of the RFP itself indicate haste and a disregard for detail. It is extraordinary that such a succinct communication should have been thought a sufficient basis for procuring a multi-million dollar contract. There is no doubt that was Ms Perrott’s and Mr Bradley’s intention. The ITO itself was so condensed in time as to make it all but inevitable that important questions of detail and principle would be overlooked or compromised.</t>
+  </si>
+  <si>
+    <t>Mr Burns’ bias should have precluded him from taking any part at all in the procurement processes defied by the RFP and the ITO. Had his role been limited, as it was meant to be, to administrator and facilitator of the evaluation process, his bias may not have had much consequence. As it was, Ms Perrrott’s neglect of her responsibilities and in particular her obligation personally to oversee the evaluation process, and Mr Bradley’s empowerment of Mr Burns, gave him a free hand to influence the selection of the Prime Contractor. Although Ms Perrott nominally led the process, Mr Burns was its de facto leader. His capacity to influence events was increased by the haste and unnecessary sense of urgency which overlay the procurement and the blurred lines of responsibility under which Mr Burns was allowed to operate.</t>
+  </si>
+  <si>
+    <t>His intervention in the evaluation has been described at length. It was grossly improper. It is disappointing that of all the senior public servants who observed it, only Mr Bond took up the matter with the Executive Director of CorpTech, and extraordinary that Ms Perrott should not investigate it thoroughly. That intervention and the changed scoring flawed the process and tended to distort the result. That failure is the fault of the State and its officers and is not something for which IBM can be criticised.</t>
+  </si>
+  <si>
+    <t>The evidence supports the conclusion that IBM’s price should have been the subject of full and careful scrutiny by Ms Perrott and the Cost Evaluation Panel with particular reference to the discrepancy between it and its earlier price, and between it and competitors’ prices. There was no such scrutiny. Ms Orange was unaware of the discrepancy and no one bothered to tell her of it. Ms Perrott, who was aware of it, failed to understand its significance, or disregarded it.</t>
+  </si>
+  <si>
+    <t>Mr Burns’ intervention in the ITO evaluation requires another comment. Improper as it was, it would not have led to IBM becoming the highest ranked bidder had the Evaluation Panel leaders acted in accordance with their own logic. IBM’s proposed use of Workbrain, though offering accelerated roll out and reduced cost, was risky because it was untried. That was the view of the Panel members. Mr Burns urged the rewarding of innovation and his argument was accepted but with the qualification that the reference sites had to provide proof that the proposal worked in practice. That proof was not forthcoming. Logically, then, the situation should have reverted to the original. There should have been a third appraisal resulting in the reinstatement of the Accenture bid as the better one because it was less risky. But rationality and sense gave way to haste and muddle, and the State committed itself to an untried solution.</t>
+  </si>
+  <si>
+    <t>The scope of the system was inadequately defied. Had the system as originally scoped been delivered, it would have failed entirely to function as any payroll system might reasonably be expected to function. That fact was known to IBM who, through the assumptions it enumerated in SOW 8 and the “issues” it listed in the QHIC Scope Definition, notified the State that changes to scope were likely to be required. Some of the State representatives, however, considered that the scope documents were to some extent beside the point because of IBM’s promise to deliver a payroll system that was “stable, supported and supportable”</t>
+  </si>
+  <si>
+    <t>It took time for the problems with the system to manifest themselves. As I have explained, retrospective processing did not commence until the second pay run. It may have been that staff took a pay or two to realise that their pay was inaccurate, or they were patient about pay irregularities, being aware that the system was new, no doubt thinking that whatever the problems with pay were that they would be corrected in due course. Whatever the reasons, I accept Ms Stewart’s evidence, because she was in the position to know, "there was a large number of issues that were surfacing that were not visible at the time of go live” , and that "it was probably other issues surfacing on top of the defect management plan that started to complicate the situation” . There is no doubt on the evidence that the Defect Management Plan could never have been a complete record of the defects which existed at Go Live . Mr Cowan had warned it to be likely that defects additional to those he had identified during UAT existed, given that this was not the function or purpose of UAT</t>
+  </si>
+  <si>
+    <t>failure to foresee transfer or responsibility to a private company will be a project failure</t>
+  </si>
+  <si>
+    <t>Unrealistic Expectations</t>
+  </si>
+  <si>
+    <t>haste in appointing a prime contractor was a lack of consideration</t>
+  </si>
+  <si>
+    <t>Failing to Understand Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That being plainly said, as it should be, it would be equally naïve not to consider that Mr Bloomfild, and his colleagues at IBM, knew that Mr Burns was behaving extraordinarily for a man charged with the responsibility of investigating a very substantial government IT program and guiding the procurement process for a contractor to take it over. Mr Bloomfild’s emails to his superiors indicate that he understood that a valuable business opportunity was being offered to IBM which it should do its utmost to exploit. He cannot have thought the same favouritism was extended to his competitors. </t>
+  </si>
+  <si>
+    <t>Procurement, Section 6.13</t>
+  </si>
+  <si>
+    <t>Procurement, Section 6.14</t>
+  </si>
+  <si>
+    <t>Stakeholder Politics</t>
+  </si>
+  <si>
+    <t>management had a relationship with IMB to secure the contract</t>
+  </si>
+  <si>
+    <t>It is likely, as I say, that Mr Burns hoped in some way for a personal benefit from his generosity to IBM. He certainly looked for advancement from the State and used his appointments to obtain it. It may be that, having secured that advantage, he had no further need to ingratiate himself with IBM</t>
+  </si>
+  <si>
+    <t>manager hoped to benefit from contract</t>
+  </si>
+  <si>
+    <t>Manger bias in the selecting the prime contractor</t>
+  </si>
+  <si>
+    <t>Fault ultimatly was with the organization for not doing something</t>
+  </si>
+  <si>
+    <t>Poor Internal Marketing</t>
+  </si>
+  <si>
+    <t>Poor Design</t>
+  </si>
+  <si>
+    <t>Lack of Senior Management Involvement, Support &amp;Commitment</t>
+  </si>
+  <si>
+    <t>Incorrect Assumptions</t>
+  </si>
+  <si>
+    <t>lack of knowledge of cost evaluation</t>
+  </si>
+  <si>
+    <t>Lack of knowledge around ranking or evolution contracts</t>
+  </si>
+  <si>
+    <t>Incorrect Status Reporting</t>
+  </si>
+  <si>
+    <t>Inadequately scoped and neither party took any effective measures to stabilise it.</t>
+  </si>
+  <si>
+    <t>The Project was, from the outset, one which was conducted in an atmosphere of urgency, and which, in large part, had been of the State’s creation in its failure at some earlier time to commence gathering its business requirements, making any necessary changes to its internal processes and deciding what measures it would take to either upgrade or replace the LATTICE system. When the Project was commenced, the timeframes within which the various stages of it were to be undertaken were hopelessly short, including for scoping. The Project was managed, contrary to the requirements of well-established project management methodology, by undertaking a number of tasks at the same time (including different forms of testing). There was a lack of rigour in this approach. It meant that the Project was not required to pass various checkpoints before proceeding. Where checkpoints did exist, their purpose was circumvented by changing the criteria required to meet them or by their being ignored altogether.</t>
   </si>
 </sst>
 </file>
@@ -2193,10 +2243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2221,10 +2271,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -2235,1025 +2285,1025 @@
     </row>
     <row r="2" spans="1:6" ht="64.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="56.25">
       <c r="A3" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="84.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60">
       <c r="A5" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="56.25">
       <c r="A6" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45">
       <c r="A7" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="37.5">
       <c r="A8" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60">
       <c r="A9" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
       <c r="A10" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="60">
       <c r="A11" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="60">
       <c r="A12" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60">
       <c r="A13" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
       <c r="A14" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="75">
       <c r="A15" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45">
       <c r="A16" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="60">
       <c r="A17" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45">
       <c r="A18" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="60">
       <c r="A19" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30">
       <c r="A20" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C20" s="10"/>
       <c r="E20" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="60">
       <c r="A21" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45">
       <c r="A22" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30">
       <c r="A23" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30">
       <c r="A24" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="45">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30">
       <c r="A26" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C26" s="10"/>
       <c r="E26" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30">
       <c r="A27" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C27" s="10"/>
       <c r="E27" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="60">
       <c r="A28" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30">
       <c r="A29" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C29" s="10"/>
       <c r="E29" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30">
       <c r="A30" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C30" s="10"/>
       <c r="E30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30">
       <c r="A31" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C31" s="10"/>
       <c r="E31" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45">
       <c r="A32" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="45">
       <c r="A33" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30">
       <c r="A34" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C34" s="10"/>
       <c r="E34" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30">
       <c r="A35" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C35" s="10"/>
       <c r="E35" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="45">
       <c r="A36" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30">
       <c r="A37" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="1" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30">
       <c r="A38" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C38" s="10"/>
       <c r="E38" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30">
       <c r="A39" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C39" s="10"/>
       <c r="E39" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="45">
       <c r="A40" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C40" s="10"/>
       <c r="E40" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="45">
       <c r="A41" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C41" s="10"/>
       <c r="E41" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30">
       <c r="A42" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C42" s="10"/>
       <c r="E42" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="30">
       <c r="A43" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C43" s="10"/>
       <c r="E43" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="60">
       <c r="A44" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="45">
       <c r="A45" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30">
       <c r="A46" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C46" s="10"/>
       <c r="E46" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30">
       <c r="A47" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C47" s="10"/>
       <c r="E47" s="1" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30">
       <c r="A48" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C48" s="10"/>
       <c r="E48" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="60">
       <c r="A49" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="45">
       <c r="A50" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C50" s="10"/>
       <c r="E50" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="75">
       <c r="A51" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="30">
       <c r="A52" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C52" s="10"/>
       <c r="E52" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="45">
       <c r="A53" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="45">
       <c r="A54" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="1" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="45">
       <c r="A55" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="1" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="30">
       <c r="A56" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="45">
       <c r="A57" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="45">
       <c r="A58" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="1" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="45">
       <c r="A59" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30">
       <c r="A60" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="30">
       <c r="A61" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="H61">
         <v>12</v>
@@ -3261,22 +3311,22 @@
     </row>
     <row r="62" spans="1:8" ht="30">
       <c r="A62" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="H62">
         <v>12</v>
@@ -3284,22 +3334,22 @@
     </row>
     <row r="63" spans="1:8" ht="45">
       <c r="A63" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="F63" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="H63">
         <v>12</v>
@@ -3307,22 +3357,22 @@
     </row>
     <row r="64" spans="1:8" ht="30">
       <c r="A64" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="H64">
         <v>12</v>
@@ -3330,22 +3380,22 @@
     </row>
     <row r="65" spans="1:8" ht="30">
       <c r="A65" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="H65">
         <v>12</v>
@@ -3353,22 +3403,22 @@
     </row>
     <row r="66" spans="1:8" ht="75">
       <c r="A66" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="H66">
         <v>12</v>
@@ -3376,22 +3426,22 @@
     </row>
     <row r="67" spans="1:8" ht="30">
       <c r="A67" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="H67">
         <v>13</v>
@@ -3399,22 +3449,22 @@
     </row>
     <row r="68" spans="1:8" ht="75">
       <c r="A68" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="F68" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="H68">
         <v>13</v>
@@ -3422,22 +3472,22 @@
     </row>
     <row r="69" spans="1:8" ht="45">
       <c r="A69" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="H69">
         <v>13</v>
@@ -3445,22 +3495,22 @@
     </row>
     <row r="70" spans="1:8" ht="30">
       <c r="A70" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="H70">
         <v>13</v>
@@ -3468,22 +3518,22 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="H71">
         <v>13</v>
@@ -3491,22 +3541,22 @@
     </row>
     <row r="72" spans="1:8" ht="30">
       <c r="A72" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="H72">
         <v>13</v>
@@ -3514,22 +3564,22 @@
     </row>
     <row r="73" spans="1:8" ht="60">
       <c r="A73" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -3537,22 +3587,22 @@
     </row>
     <row r="74" spans="1:8" ht="45">
       <c r="A74" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -3560,22 +3610,22 @@
     </row>
     <row r="75" spans="1:8" ht="60">
       <c r="A75" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -3583,22 +3633,22 @@
     </row>
     <row r="76" spans="1:8" ht="60">
       <c r="A76" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -3606,22 +3656,22 @@
     </row>
     <row r="77" spans="1:8" ht="60">
       <c r="A77" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -3629,22 +3679,22 @@
     </row>
     <row r="78" spans="1:8" ht="45">
       <c r="A78" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="H78">
         <v>4</v>
@@ -3652,22 +3702,22 @@
     </row>
     <row r="79" spans="1:8" ht="90">
       <c r="A79" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="H79">
         <v>4</v>
@@ -3675,22 +3725,22 @@
     </row>
     <row r="80" spans="1:8" ht="120">
       <c r="A80" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="H80">
         <v>4</v>
@@ -3698,22 +3748,22 @@
     </row>
     <row r="81" spans="1:8" ht="75">
       <c r="A81" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -3721,22 +3771,22 @@
     </row>
     <row r="82" spans="1:8" ht="45">
       <c r="A82" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H82">
         <v>3</v>
@@ -3744,22 +3794,22 @@
     </row>
     <row r="83" spans="1:8" ht="60">
       <c r="A83" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H83">
         <v>4</v>
@@ -3767,22 +3817,22 @@
     </row>
     <row r="84" spans="1:8" ht="45">
       <c r="A84" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="H84">
         <v>4</v>
@@ -3790,22 +3840,22 @@
     </row>
     <row r="85" spans="1:8" ht="75">
       <c r="A85" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H85">
         <v>4</v>
@@ -3813,22 +3863,22 @@
     </row>
     <row r="86" spans="1:8" ht="135">
       <c r="A86" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H86">
         <v>4</v>
@@ -3836,22 +3886,22 @@
     </row>
     <row r="87" spans="1:8" ht="75">
       <c r="A87" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="H87">
         <v>4</v>
@@ -3859,22 +3909,22 @@
     </row>
     <row r="88" spans="1:8" ht="45">
       <c r="A88" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="H88">
         <v>5</v>
@@ -3882,22 +3932,22 @@
     </row>
     <row r="89" spans="1:8" ht="120">
       <c r="A89" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="H89">
         <v>5</v>
@@ -3905,22 +3955,22 @@
     </row>
     <row r="90" spans="1:8" ht="75">
       <c r="A90" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="H90">
         <v>10</v>
@@ -3928,19 +3978,19 @@
     </row>
     <row r="91" spans="1:8" ht="45">
       <c r="A91" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="H91">
         <v>36</v>
@@ -3948,20 +3998,20 @@
     </row>
     <row r="92" spans="1:8" ht="30">
       <c r="A92" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="F92"/>
       <c r="G92" s="12" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="H92">
         <v>24</v>
@@ -3969,20 +4019,20 @@
     </row>
     <row r="93" spans="1:8" ht="75">
       <c r="A93" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="F93"/>
       <c r="G93" s="12" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="H93">
         <v>24</v>
@@ -3990,20 +4040,20 @@
     </row>
     <row r="94" spans="1:8" ht="45">
       <c r="A94" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="E94" s="1" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="F94"/>
       <c r="G94" s="12" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="H94">
         <v>24</v>
@@ -4011,20 +4061,20 @@
     </row>
     <row r="95" spans="1:8" ht="90">
       <c r="A95" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="F95"/>
       <c r="G95" s="12" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="H95">
         <v>24</v>
@@ -4032,20 +4082,20 @@
     </row>
     <row r="96" spans="1:8" ht="105">
       <c r="A96" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="F96"/>
       <c r="G96" s="12" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="H96">
         <v>25</v>
@@ -4053,20 +4103,20 @@
     </row>
     <row r="97" spans="1:8" ht="90">
       <c r="A97" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="F97"/>
       <c r="G97" s="12" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="H97">
         <v>25</v>
@@ -4074,20 +4124,20 @@
     </row>
     <row r="98" spans="1:8" ht="45">
       <c r="A98" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="F98"/>
       <c r="G98" s="12" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="H98">
         <v>25</v>
@@ -4095,20 +4145,20 @@
     </row>
     <row r="99" spans="1:8" ht="60">
       <c r="A99" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="F99"/>
       <c r="G99" s="12" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="H99">
         <v>25</v>
@@ -4116,20 +4166,20 @@
     </row>
     <row r="100" spans="1:8" ht="75">
       <c r="A100" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="F100"/>
       <c r="G100" s="12" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="H100">
         <v>26</v>
@@ -4137,20 +4187,20 @@
     </row>
     <row r="101" spans="1:8" ht="75">
       <c r="A101" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="F101"/>
       <c r="G101" s="12" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="H101">
         <v>26</v>
@@ -4158,20 +4208,20 @@
     </row>
     <row r="102" spans="1:8" ht="75">
       <c r="A102" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="F102"/>
       <c r="G102" s="12" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="H102">
         <v>27</v>
@@ -4179,20 +4229,20 @@
     </row>
     <row r="103" spans="1:8" ht="45">
       <c r="A103" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="F103"/>
       <c r="G103" s="12" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="H103">
         <v>27</v>
@@ -4200,20 +4250,20 @@
     </row>
     <row r="104" spans="1:8" ht="120">
       <c r="A104" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="F104"/>
       <c r="G104" s="12" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="H104">
         <v>27</v>
@@ -4221,20 +4271,20 @@
     </row>
     <row r="105" spans="1:8" ht="45">
       <c r="A105" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>388</v>
+        <v>459</v>
       </c>
       <c r="F105"/>
       <c r="G105" s="12" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="H105">
         <v>27</v>
@@ -4242,20 +4292,20 @@
     </row>
     <row r="106" spans="1:8" ht="75">
       <c r="A106" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="F106"/>
       <c r="G106" s="12" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="H106">
         <v>27</v>
@@ -4263,20 +4313,20 @@
     </row>
     <row r="107" spans="1:8" ht="60">
       <c r="A107" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="F107"/>
       <c r="G107" s="12" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="H107">
         <v>27</v>
@@ -4284,20 +4334,20 @@
     </row>
     <row r="108" spans="1:8" ht="75">
       <c r="A108" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="F108"/>
       <c r="G108" s="12" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="H108">
         <v>27</v>
@@ -4305,20 +4355,20 @@
     </row>
     <row r="109" spans="1:8" ht="60">
       <c r="A109" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="F109"/>
       <c r="G109" s="12" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="H109">
         <v>28</v>
@@ -4326,20 +4376,20 @@
     </row>
     <row r="110" spans="1:8" ht="45">
       <c r="A110" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="F110"/>
       <c r="G110" s="12" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="H110">
         <v>28</v>
@@ -4347,20 +4397,20 @@
     </row>
     <row r="111" spans="1:8" ht="90">
       <c r="A111" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F111"/>
       <c r="G111" s="12" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="H111">
         <v>28</v>
@@ -4368,20 +4418,20 @@
     </row>
     <row r="112" spans="1:8" ht="105">
       <c r="A112" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="F112"/>
       <c r="G112" s="12" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="H112">
         <v>28</v>
@@ -4389,20 +4439,20 @@
     </row>
     <row r="113" spans="1:8" ht="105">
       <c r="A113" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="F113"/>
       <c r="G113" s="13" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="H113">
         <v>30</v>
@@ -4410,21 +4460,21 @@
     </row>
     <row r="114" spans="1:8" ht="90">
       <c r="A114" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="1" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="F114"/>
       <c r="G114" s="13" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="H114">
         <v>30</v>
@@ -4432,373 +4482,447 @@
     </row>
     <row r="115" spans="1:8" ht="75">
       <c r="A115" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="105">
       <c r="A116" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="C116" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="105">
       <c r="A117" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="165">
       <c r="A118" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>82</v>
+        <v>438</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="105">
+      <c r="A119" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="60">
+      <c r="A120" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="150">
+      <c r="A121" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="90">
+      <c r="A122" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="75">
+      <c r="A123" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="150">
+      <c r="A124" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="180">
+      <c r="A125" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="165">
+      <c r="A126" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="105">
+      <c r="A127" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="150">
-      <c r="A119" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="150">
-      <c r="A120" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="90">
-      <c r="A121" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="75">
-      <c r="A122" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C122" s="1" t="s">
+    <row r="128" spans="1:8" ht="75">
+      <c r="A128" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" ht="150">
-      <c r="A123" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B123" s="6" t="s">
+      <c r="C128" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="150">
+      <c r="A129" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="180">
-      <c r="A124" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="165">
-      <c r="A125" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="105">
-      <c r="A126" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B126" s="6" t="s">
+    </row>
+    <row r="130" spans="1:3" ht="120">
+      <c r="A130" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="300">
+      <c r="A131" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="75">
-      <c r="A127" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="150">
-      <c r="A128" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="120">
-      <c r="A129" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="300">
-      <c r="A130" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="60">
-      <c r="A131" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="60">
       <c r="A132" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>112</v>
+        <v>76</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="210">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="60">
       <c r="A133" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="210">
       <c r="A134" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="210">
+      <c r="A135" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="135">
+      <c r="A136" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="120">
+      <c r="A137" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="90">
+      <c r="A138" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="180">
+      <c r="A139" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="120">
+      <c r="A140" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="135">
-      <c r="A135" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B135" s="1" t="s">
+    <row r="141" spans="1:3" ht="90">
+      <c r="A141" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="120">
-      <c r="A136" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B136" s="1" t="s">
+    </row>
+    <row r="142" spans="1:3" ht="105">
+      <c r="A142" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="75">
+      <c r="A143" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="90">
+      <c r="A144" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="255">
+      <c r="A145" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C136" s="1" t="s">
+    </row>
+    <row r="146" spans="1:3" ht="105">
+      <c r="B146" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="210">
+      <c r="A147" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" ht="90">
-      <c r="A137" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B137" s="1" t="s">
+      <c r="C147" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="165">
+      <c r="A148" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="180">
+      <c r="A149" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="180">
-      <c r="A138" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="120">
-      <c r="A139" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="90">
-      <c r="A140" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="105">
-      <c r="A141" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="75">
-      <c r="A142" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="90">
-      <c r="A143" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="255">
-      <c r="A144" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="B145" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="210">
-      <c r="A146" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="165">
-      <c r="A147" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="180">
-      <c r="A148" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4807,7 +4931,7 @@
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$7</xm:f>
@@ -4818,13 +4942,31 @@
           <x14:formula1>
             <xm:f>Sheet2!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>F1 F3:F18 F20:F1048576</xm:sqref>
+          <xm:sqref>F1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet2!$A$1:$A$65</xm:f>
+            <xm:f>Sheet2!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E18 E20:E1048576</xm:sqref>
+          <xm:sqref>F3:F18</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$B:$B</xm:f>
+          </x14:formula1>
+          <xm:sqref>F20:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$64</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E18</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$64</xm:f>
+          </x14:formula1>
+          <xm:sqref>E20:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4834,10 +4976,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4859,7 +5001,7 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -4870,7 +5012,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -4881,7 +5023,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -4892,7 +5034,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
@@ -4903,7 +5045,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -4911,7 +5053,7 @@
     </row>
     <row r="6" spans="1:7" ht="18.75">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>460</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -4920,492 +5062,484 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>20</v>
       </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
       <c r="G15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
         <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>448</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>29</v>
       </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
       <c r="G23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" t="s">
         <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>36</v>
       </c>
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
       <c r="G29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" t="s">
         <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="F38" t="s">
+        <v>73</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="G39" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G49" t="s">
-        <v>57</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>63</v>
       </c>
+      <c r="F55" t="s">
+        <v>62</v>
+      </c>
       <c r="G55" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>65</v>
-      </c>
-      <c r="F56" t="s">
         <v>64</v>
       </c>
       <c r="G56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G63" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" t="s">
-        <v>73</v>
-      </c>
-      <c r="G64" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A64 G1:G64">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G63 A1:A63">
       <formula1>Code</formula1>
     </dataValidation>
   </dataValidations>

--- a/Thematic-Coding.xlsx
+++ b/Thematic-Coding.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\Kieran Third year\BCIS301 &amp; AMIC700\Assignment 1\BCIS301---AMIC700---Thematic-Coding-Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\BCIS301---AMIC700---Thematic-Coding-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46001E07-A32E-490D-BB0D-BBB23E59B3BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
@@ -20,12 +21,12 @@
     <definedName name="_ftn2" localSheetId="0">'Sheet1 (2)'!$B$26</definedName>
     <definedName name="_ftnref1" localSheetId="0">'Sheet1 (2)'!$B$21</definedName>
     <definedName name="_ftnref2" localSheetId="0">'Sheet1 (2)'!$B$23</definedName>
-    <definedName name="Environmental_Factors">Sheet2!$A$1:$A$5</definedName>
-    <definedName name="Organizational_Factors">Sheet2!$A$6:$A$14</definedName>
-    <definedName name="Poor_Management_Factors">Sheet2!$A$38:$A$63</definedName>
-    <definedName name="Project_Factors">Sheet2!$A$23:$A$28</definedName>
-    <definedName name="Team_Factors">Sheet2!$A$15:$A$22</definedName>
-    <definedName name="Technology_Factors">Sheet2!$A$29:$A$37</definedName>
+    <definedName name="Environmental_Factors">Sheet2!$A$1:$A$14</definedName>
+    <definedName name="Organizational_Factors">Sheet2!$A$15:$A$24</definedName>
+    <definedName name="Poor_Management_Factors">Sheet2!$A$48:$A$74</definedName>
+    <definedName name="Project_Factors">Sheet2!$A$33:$A$38</definedName>
+    <definedName name="Team_Factors">Sheet2!$A$25:$A$32</definedName>
+    <definedName name="Technology_Factors">Sheet2!$A$39:$A$47</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="481">
   <si>
     <t>CaseStudy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1071,10 +1072,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Organizational Factor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Conclusion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1102,10 +1099,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Good Plan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Project Factor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1130,10 +1123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Good Communication with the team member.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Team Factor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1146,10 +1135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Good Analysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Communications can be instrumental for changes throughout different phases ERP implementation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1158,10 +1143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Good Communication with the stakeholders.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Nevertheless, more empirical evidence is needed to verify our current findings that in a mandated implementation environment, excessive project selling at the project preparation phase may have negative effects during the blueprint and realization phases but often times yields positive results during the operation and routinization stages. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1178,10 +1159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Clear Goal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Mostly, a great deal of effort has been paid to encourage user participation and involvement to enhance the success of the implementation. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1190,10 +1167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Good Communication with Users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Evironment Factor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1241,10 +1214,6 @@
     <t>The flow of people will have a negative impact.</t>
   </si>
   <si>
-    <t>Good management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Management Factor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1300,10 +1269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Good relationship among the different sections.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>For an ERP to be successful, it should seamlessly integrate and connect business functions together as well as link the usually disparate front-to-back office workflows along their value chain together to help improve business operations and provide a better way for communication and decision-making</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1312,10 +1277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Good Communication with different departments.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ERP implementation measures of success and failure</t>
   </si>
   <si>
@@ -1327,10 +1288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Good time and budgets plan.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">In ERP implementation, identifying success factors is as important as managing risk factors. Success factors emphasize factors which ensure the project’s attainment of budget, schedule and functionality targets. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1377,10 +1334,6 @@
     <t>Users are very important to project implementation, and their goals are the fundamental goals of the project.</t>
   </si>
   <si>
-    <t>Good communication with users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Role of user attitudes and expectations in ERP implementation</t>
   </si>
   <si>
@@ -1403,10 +1356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Evironment Factor; Management Factor;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ERP Implementation in public organizations</t>
   </si>
   <si>
@@ -1448,10 +1397,6 @@
   </si>
   <si>
     <t>Unstable stakeholder</t>
-  </si>
-  <si>
-    <t>did not choose correct stakeholder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The implementation featured some successes with elements of the programme that were on schedule and functioning well, however it was also marked by missed deadlines, unreliable software and a lack of engagement with end-users particularly heath-professionals and patients.</t>
@@ -1553,10 +1498,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Choose wrong stakeholders</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>In January 2008, Richard Granger resigned. His post was replaced with two positions, a Chief Information Officer and a Director of IT Programmes and System Delivery (Bacon &amp; Hope, 2013). This, and other changes in leadership positions within the Department further hindered engagement and rapport with health professionals and other NHS staff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1831,23 +1772,124 @@
   </si>
   <si>
     <t>The Project was, from the outset, one which was conducted in an atmosphere of urgency, and which, in large part, had been of the State’s creation in its failure at some earlier time to commence gathering its business requirements, making any necessary changes to its internal processes and deciding what measures it would take to either upgrade or replace the LATTICE system. When the Project was commenced, the timeframes within which the various stages of it were to be undertaken were hopelessly short, including for scoping. The Project was managed, contrary to the requirements of well-established project management methodology, by undertaking a number of tasks at the same time (including different forms of testing). There was a lack of rigour in this approach. It meant that the Project was not required to pass various checkpoints before proceeding. Where checkpoints did exist, their purpose was circumvented by changing the criteria required to meet them or by their being ignored altogether.</t>
+  </si>
+  <si>
+    <t>Good Stakeholder Involvement</t>
+  </si>
+  <si>
+    <t>Good Stakeholder Involvement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good Project Analysis</t>
+  </si>
+  <si>
+    <t>Good Project Planning</t>
+  </si>
+  <si>
+    <t>Good Project Planning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good Communication</t>
+  </si>
+  <si>
+    <t>Good Communication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good Project Analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Factors</t>
+  </si>
+  <si>
+    <t>Management Factors</t>
+  </si>
+  <si>
+    <t>Management Factors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good Employee Management</t>
+  </si>
+  <si>
+    <t>Good Employee Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Define The Clear Goal</t>
+  </si>
+  <si>
+    <t>Define The Clear Goal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good Project Management</t>
+  </si>
+  <si>
+    <t>Good Project Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team Factors</t>
+  </si>
+  <si>
+    <t>Good User Involvement</t>
+  </si>
+  <si>
+    <t>Good User Involvement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goode Department Involvement</t>
+  </si>
+  <si>
+    <t>Goode Department Involvement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good Budgets</t>
+  </si>
+  <si>
+    <t>Good Budgets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect Stakeholders</t>
+  </si>
+  <si>
+    <t>Incorrect Stakeholders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Information Factors</t>
+  </si>
+  <si>
+    <t>Information Factors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failing to Understand Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1856,7 +1898,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1866,7 +1908,7 @@
       <i/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1875,14 +1917,14 @@
       <i/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1910,12 +1952,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1930,7 +1978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1963,6 +2011,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2242,25 +2300,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="89.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" customWidth="1"/>
-    <col min="12" max="12" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="89.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="18.375" customWidth="1"/>
+    <col min="11" max="11" width="21.875" customWidth="1"/>
+    <col min="12" max="12" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="26.45" customHeight="1">
@@ -2291,7 +2349,7 @@
         <v>128</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>129</v>
@@ -2303,7 +2361,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="56.25">
+    <row r="3" spans="1:6" ht="54">
       <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
@@ -2339,7 +2397,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60">
+    <row r="5" spans="1:6" ht="54">
       <c r="A5" s="1" t="s">
         <v>127</v>
       </c>
@@ -2357,7 +2415,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="56.25">
+    <row r="6" spans="1:6" ht="54">
       <c r="A6" s="1" t="s">
         <v>127</v>
       </c>
@@ -2375,7 +2433,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45">
+    <row r="7" spans="1:6" ht="36">
       <c r="A7" s="1" t="s">
         <v>127</v>
       </c>
@@ -2393,7 +2451,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="37.5">
+    <row r="8" spans="1:6" ht="36">
       <c r="A8" s="1" t="s">
         <v>127</v>
       </c>
@@ -2411,7 +2469,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="60">
+    <row r="9" spans="1:6" ht="57">
       <c r="A9" s="1" t="s">
         <v>127</v>
       </c>
@@ -2429,7 +2487,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6" ht="28.5">
       <c r="A10" s="1" t="s">
         <v>127</v>
       </c>
@@ -2447,7 +2505,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="60">
+    <row r="11" spans="1:6" ht="57">
       <c r="A11" s="1" t="s">
         <v>127</v>
       </c>
@@ -2465,7 +2523,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="60">
+    <row r="12" spans="1:6" ht="57">
       <c r="A12" s="1" t="s">
         <v>127</v>
       </c>
@@ -2483,7 +2541,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="60">
+    <row r="13" spans="1:6" ht="57">
       <c r="A13" s="1" t="s">
         <v>127</v>
       </c>
@@ -2501,7 +2559,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30">
+    <row r="14" spans="1:6" ht="28.5">
       <c r="A14" s="1" t="s">
         <v>127</v>
       </c>
@@ -2519,7 +2577,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="75">
+    <row r="15" spans="1:6" ht="57">
       <c r="A15" s="1" t="s">
         <v>127</v>
       </c>
@@ -2537,7 +2595,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45">
+    <row r="16" spans="1:6" ht="42.75">
       <c r="A16" s="1" t="s">
         <v>127</v>
       </c>
@@ -2555,7 +2613,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="60">
+    <row r="17" spans="1:6" ht="57">
       <c r="A17" s="1" t="s">
         <v>127</v>
       </c>
@@ -2573,7 +2631,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="45">
+    <row r="18" spans="1:6" ht="42.75">
       <c r="A18" s="1" t="s">
         <v>127</v>
       </c>
@@ -2591,7 +2649,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="60">
+    <row r="19" spans="1:6" ht="42.75">
       <c r="A19" s="1" t="s">
         <v>127</v>
       </c>
@@ -2609,7 +2667,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30">
+    <row r="20" spans="1:6" ht="28.5">
       <c r="A20" s="1" t="s">
         <v>127</v>
       </c>
@@ -2624,7 +2682,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="60">
+    <row r="21" spans="1:6" ht="57">
       <c r="A21" s="1" t="s">
         <v>127</v>
       </c>
@@ -2642,7 +2700,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="45">
+    <row r="22" spans="1:6" ht="42.75">
       <c r="A22" s="1" t="s">
         <v>127</v>
       </c>
@@ -2660,7 +2718,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30">
+    <row r="23" spans="1:6" ht="28.5">
       <c r="A23" s="1" t="s">
         <v>127</v>
       </c>
@@ -2678,7 +2736,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30">
+    <row r="24" spans="1:6" ht="28.5">
       <c r="A24" s="1" t="s">
         <v>127</v>
       </c>
@@ -2696,7 +2754,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="45">
+    <row r="25" spans="1:6" ht="42.75">
       <c r="A25" s="1" t="s">
         <v>127</v>
       </c>
@@ -2714,7 +2772,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30">
+    <row r="26" spans="1:6" ht="28.5">
       <c r="A26" s="1" t="s">
         <v>127</v>
       </c>
@@ -2729,7 +2787,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30">
+    <row r="27" spans="1:6" ht="28.5">
       <c r="A27" s="1" t="s">
         <v>127</v>
       </c>
@@ -2744,7 +2802,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="60">
+    <row r="28" spans="1:6" ht="57">
       <c r="A28" s="1" t="s">
         <v>127</v>
       </c>
@@ -2762,7 +2820,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>127</v>
       </c>
@@ -2777,7 +2835,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30">
+    <row r="30" spans="1:6" ht="28.5">
       <c r="A30" s="1" t="s">
         <v>127</v>
       </c>
@@ -2792,7 +2850,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="30">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>127</v>
       </c>
@@ -2807,7 +2865,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="45">
+    <row r="32" spans="1:6" ht="28.5">
       <c r="A32" s="1" t="s">
         <v>127</v>
       </c>
@@ -2825,7 +2883,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="45">
+    <row r="33" spans="1:6" ht="28.5">
       <c r="A33" s="1" t="s">
         <v>127</v>
       </c>
@@ -2843,7 +2901,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30">
+    <row r="34" spans="1:6" ht="28.5">
       <c r="A34" s="1" t="s">
         <v>127</v>
       </c>
@@ -2858,7 +2916,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30">
+    <row r="35" spans="1:6" ht="28.5">
       <c r="A35" s="1" t="s">
         <v>127</v>
       </c>
@@ -2873,7 +2931,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="45">
+    <row r="36" spans="1:6" ht="42.75">
       <c r="A36" s="1" t="s">
         <v>127</v>
       </c>
@@ -2891,7 +2949,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>127</v>
       </c>
@@ -2909,7 +2967,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30">
+    <row r="38" spans="1:6" ht="28.5">
       <c r="A38" s="1" t="s">
         <v>127</v>
       </c>
@@ -2924,7 +2982,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30">
+    <row r="39" spans="1:6" ht="28.5">
       <c r="A39" s="1" t="s">
         <v>127</v>
       </c>
@@ -2939,7 +2997,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="45">
+    <row r="40" spans="1:6" ht="28.5">
       <c r="A40" s="1" t="s">
         <v>127</v>
       </c>
@@ -2954,7 +3012,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="45">
+    <row r="41" spans="1:6" ht="42.75">
       <c r="A41" s="1" t="s">
         <v>127</v>
       </c>
@@ -2969,7 +3027,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30">
+    <row r="42" spans="1:6" ht="28.5">
       <c r="A42" s="1" t="s">
         <v>127</v>
       </c>
@@ -2984,7 +3042,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>127</v>
       </c>
@@ -2999,7 +3057,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="60">
+    <row r="44" spans="1:6" ht="57">
       <c r="A44" s="1" t="s">
         <v>127</v>
       </c>
@@ -3017,7 +3075,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="45">
+    <row r="45" spans="1:6" ht="42.75">
       <c r="A45" s="1" t="s">
         <v>127</v>
       </c>
@@ -3035,7 +3093,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30">
+    <row r="46" spans="1:6" ht="28.5">
       <c r="A46" s="1" t="s">
         <v>127</v>
       </c>
@@ -3050,7 +3108,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30">
+    <row r="47" spans="1:6" ht="28.5">
       <c r="A47" s="1" t="s">
         <v>127</v>
       </c>
@@ -3065,7 +3123,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="30">
+    <row r="48" spans="1:6" ht="28.5">
       <c r="A48" s="1" t="s">
         <v>127</v>
       </c>
@@ -3080,7 +3138,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="60">
+    <row r="49" spans="1:8" ht="57">
       <c r="A49" s="1" t="s">
         <v>127</v>
       </c>
@@ -3098,7 +3156,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="45">
+    <row r="50" spans="1:8" ht="42.75">
       <c r="A50" s="1" t="s">
         <v>127</v>
       </c>
@@ -3113,7 +3171,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="75">
+    <row r="51" spans="1:8" ht="57">
       <c r="A51" s="1" t="s">
         <v>127</v>
       </c>
@@ -3131,7 +3189,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="30">
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>127</v>
       </c>
@@ -3146,7 +3204,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="45">
+    <row r="53" spans="1:8" ht="42.75">
       <c r="A53" s="1" t="s">
         <v>127</v>
       </c>
@@ -3164,7 +3222,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="45">
+    <row r="54" spans="1:8" ht="28.5">
       <c r="A54" s="1" t="s">
         <v>127</v>
       </c>
@@ -3182,7 +3240,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="45">
+    <row r="55" spans="1:8" ht="42.75">
       <c r="A55" s="1" t="s">
         <v>127</v>
       </c>
@@ -3200,7 +3258,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="30">
+    <row r="56" spans="1:8" ht="28.5">
       <c r="A56" s="1" t="s">
         <v>127</v>
       </c>
@@ -3217,7 +3275,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="45">
+    <row r="57" spans="1:8" ht="42.75">
       <c r="A57" s="1" t="s">
         <v>127</v>
       </c>
@@ -3234,7 +3292,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="45">
+    <row r="58" spans="1:8" ht="42.75">
       <c r="A58" s="1" t="s">
         <v>127</v>
       </c>
@@ -3252,7 +3310,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="45">
+    <row r="59" spans="1:8" ht="42.75">
       <c r="A59" s="1" t="s">
         <v>127</v>
       </c>
@@ -3269,7 +3327,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="30">
+    <row r="60" spans="1:8" ht="28.5">
       <c r="A60" s="1" t="s">
         <v>127</v>
       </c>
@@ -3286,7 +3344,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="30">
+    <row r="61" spans="1:8" ht="28.5">
       <c r="A61" s="1" t="s">
         <v>258</v>
       </c>
@@ -3300,217 +3358,217 @@
         <v>261</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="H61">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="30">
+    <row r="62" spans="1:8" ht="28.5">
       <c r="A62" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="G62" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H62">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="45">
+    <row r="63" spans="1:8" ht="42.75">
       <c r="A63" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="G63" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H63">
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30">
+    <row r="64" spans="1:8" ht="28.5">
       <c r="A64" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="F64" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H64">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30">
+    <row r="65" spans="1:8" ht="28.5">
       <c r="A65" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="G65" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H65">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="75">
+    <row r="66" spans="1:8" ht="57">
       <c r="A66" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>281</v>
+        <v>454</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>267</v>
+        <v>460</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H66">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="30">
+    <row r="67" spans="1:8" ht="28.5">
       <c r="A67" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>284</v>
+        <v>452</v>
       </c>
       <c r="F67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="H67">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="75">
+    <row r="68" spans="1:8" ht="57">
       <c r="A68" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>270</v>
+        <v>455</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H68">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="45">
+    <row r="69" spans="1:8" ht="42.75">
       <c r="A69" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>289</v>
+        <v>465</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H69">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="30">
+    <row r="70" spans="1:8" ht="28.5">
       <c r="A70" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>292</v>
+        <v>470</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>293</v>
+        <v>461</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H70">
         <v>13</v>
@@ -3521,966 +3579,1022 @@
         <v>258</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H71">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="30">
+    <row r="72" spans="1:8" ht="28.5">
       <c r="A72" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>289</v>
+        <v>454</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H72">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="60">
+    <row r="73" spans="1:8" ht="57">
       <c r="A73" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="45">
+    <row r="74" spans="1:8" ht="28.5">
       <c r="A74" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>305</v>
+        <v>463</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="60">
+    <row r="75" spans="1:8" ht="42.75">
       <c r="A75" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>305</v>
+        <v>463</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="60">
+    <row r="76" spans="1:8" ht="57">
       <c r="A76" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>289</v>
+        <v>465</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="60">
-      <c r="A77" s="1" t="s">
+    <row r="77" spans="1:8" s="15" customFormat="1" ht="42.75">
+      <c r="A77" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="H77">
+      <c r="B77" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="H77" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="45">
+    <row r="78" spans="1:8" ht="42.75">
       <c r="A78" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>305</v>
+        <v>467</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="H78">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="90">
+    <row r="79" spans="1:8" ht="71.25">
       <c r="A79" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>305</v>
+        <v>467</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="H79">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="120">
-      <c r="A80" s="1" t="s">
+    <row r="80" spans="1:8" s="15" customFormat="1" ht="99.75">
+      <c r="A80" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="H80">
+      <c r="B80" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="H80" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="75">
+    <row r="81" spans="1:8" ht="71.25">
       <c r="A81" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>323</v>
+        <v>472</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>262</v>
+        <v>72</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="H81">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="45">
+    <row r="82" spans="1:8" ht="42.75">
       <c r="A82" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>327</v>
+        <v>474</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="H82">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="60">
-      <c r="A83" s="1" t="s">
+    <row r="83" spans="1:8" s="19" customFormat="1" ht="42.75">
+      <c r="A83" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G83" s="11" t="s">
+      <c r="B83" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="G83" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="H83" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="19" customFormat="1" ht="28.5">
+      <c r="A84" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="G84" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="H84" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="19" customFormat="1" ht="71.25">
+      <c r="A85" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="H83">
+      <c r="E85" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="G85" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="H85" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="45">
-      <c r="A84" s="1" t="s">
+    <row r="86" spans="1:8" s="19" customFormat="1" ht="114">
+      <c r="A86" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="H84">
+      <c r="B86" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="G86" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="H86" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="75">
-      <c r="A85" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="H85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="135">
-      <c r="A86" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="H86">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="75">
+    <row r="87" spans="1:8" ht="57">
       <c r="A87" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>340</v>
+        <v>470</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>293</v>
+        <v>72</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="H87">
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="45">
+    <row r="88" spans="1:8" ht="42.75">
       <c r="A88" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>289</v>
+        <v>465</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="H88">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="120">
-      <c r="A89" s="1" t="s">
+    <row r="89" spans="1:8" s="15" customFormat="1" ht="114">
+      <c r="A89" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="H89">
+      <c r="B89" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="H89" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="75">
+    <row r="90" spans="1:8" ht="57">
       <c r="A90" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="H90">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="45">
+    <row r="91" spans="1:8" ht="42.75">
       <c r="A91" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>356</v>
+        <v>343</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="H91">
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="30">
+    <row r="92" spans="1:8" ht="28.5">
       <c r="A92" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F92"/>
+        <v>476</v>
+      </c>
+      <c r="F92" t="s">
+        <v>72</v>
+      </c>
       <c r="G92" s="12" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="H92">
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="75">
+    <row r="93" spans="1:8" ht="71.25">
       <c r="A93" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="F93"/>
+        <v>349</v>
+      </c>
+      <c r="F93" t="s">
+        <v>460</v>
+      </c>
       <c r="G93" s="12" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="H93">
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="45">
+    <row r="94" spans="1:8" ht="42.75">
       <c r="A94" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="F94"/>
+        <v>352</v>
+      </c>
+      <c r="F94" t="s">
+        <v>461</v>
+      </c>
       <c r="G94" s="12" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="H94">
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="90">
+    <row r="95" spans="1:8" ht="71.25">
       <c r="A95" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="D95" s="1" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F95"/>
+        <v>355</v>
+      </c>
+      <c r="F95" t="s">
+        <v>461</v>
+      </c>
       <c r="G95" s="12" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="H95">
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="105">
+    <row r="96" spans="1:8" ht="85.5">
       <c r="A96" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="F96"/>
+        <v>358</v>
+      </c>
+      <c r="F96" t="s">
+        <v>478</v>
+      </c>
       <c r="G96" s="12" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="H96">
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="90">
+    <row r="97" spans="1:8" ht="71.25">
       <c r="A97" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F97"/>
+        <v>362</v>
+      </c>
+      <c r="F97" t="s">
+        <v>460</v>
+      </c>
       <c r="G97" s="12" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="H97">
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="45">
+    <row r="98" spans="1:8" ht="28.5">
       <c r="A98" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="F98"/>
+        <v>358</v>
+      </c>
+      <c r="F98" t="s">
+        <v>478</v>
+      </c>
       <c r="G98" s="12" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="H98">
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="60">
+    <row r="99" spans="1:8" ht="57">
       <c r="A99" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F99"/>
+        <v>355</v>
+      </c>
+      <c r="F99" t="s">
+        <v>461</v>
+      </c>
       <c r="G99" s="12" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="H99">
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="75">
+    <row r="100" spans="1:8" ht="71.25">
       <c r="A100" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="F100"/>
+        <v>369</v>
+      </c>
+      <c r="F100" t="s">
+        <v>72</v>
+      </c>
       <c r="G100" s="12" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="H100">
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="75">
+    <row r="101" spans="1:8" ht="57">
       <c r="A101" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="F101"/>
+        <v>476</v>
+      </c>
+      <c r="F101" t="s">
+        <v>72</v>
+      </c>
       <c r="G101" s="12" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="H101">
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="75">
+    <row r="102" spans="1:8" ht="71.25">
       <c r="A102" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="F102"/>
+        <v>374</v>
+      </c>
+      <c r="F102" t="s">
+        <v>461</v>
+      </c>
       <c r="G102" s="12" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="H102">
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="45">
+    <row r="103" spans="1:8" ht="28.5">
       <c r="A103" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="F103"/>
+        <v>378</v>
+      </c>
+      <c r="F103" t="s">
+        <v>461</v>
+      </c>
       <c r="G103" s="12" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="H103">
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="120">
+    <row r="104" spans="1:8" ht="99.75">
       <c r="A104" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F104"/>
+        <v>381</v>
+      </c>
+      <c r="F104" t="s">
+        <v>478</v>
+      </c>
       <c r="G104" s="12" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="H104">
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="45">
+    <row r="105" spans="1:8" ht="42.75">
       <c r="A105" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="F105"/>
+        <v>444</v>
+      </c>
+      <c r="F105" t="s">
+        <v>460</v>
+      </c>
       <c r="G105" s="12" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="H105">
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="75">
+    <row r="106" spans="1:8" ht="71.25">
       <c r="A106" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F106"/>
+        <v>362</v>
+      </c>
+      <c r="F106" t="s">
+        <v>460</v>
+      </c>
       <c r="G106" s="12" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="H106">
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="60">
+    <row r="107" spans="1:8" ht="57">
       <c r="A107" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F107"/>
+        <v>362</v>
+      </c>
+      <c r="F107" t="s">
+        <v>460</v>
+      </c>
       <c r="G107" s="12" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="H107">
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="75">
+    <row r="108" spans="1:8" ht="57">
       <c r="A108" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F108"/>
+        <v>362</v>
+      </c>
+      <c r="F108" t="s">
+        <v>460</v>
+      </c>
       <c r="G108" s="12" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="H108">
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="60">
+    <row r="109" spans="1:8" ht="42.75">
       <c r="A109" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F109"/>
+        <v>362</v>
+      </c>
+      <c r="F109" t="s">
+        <v>460</v>
+      </c>
       <c r="G109" s="12" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="H109">
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="45">
+    <row r="110" spans="1:8" ht="42.75">
       <c r="A110" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="F110"/>
+        <v>394</v>
+      </c>
+      <c r="F110" t="s">
+        <v>461</v>
+      </c>
       <c r="G110" s="12" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="H110">
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="90">
+    <row r="111" spans="1:8" ht="71.25">
       <c r="A111" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="F111"/>
+        <v>398</v>
+      </c>
+      <c r="F111" t="s">
+        <v>461</v>
+      </c>
       <c r="G111" s="12" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="H111">
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="105">
+    <row r="112" spans="1:8" ht="85.5">
       <c r="A112" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="F112"/>
+        <v>401</v>
+      </c>
+      <c r="F112" t="s">
+        <v>461</v>
+      </c>
       <c r="G112" s="12" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="H112">
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="105">
+    <row r="113" spans="1:8" ht="85.5">
       <c r="A113" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="F113"/>
+        <v>480</v>
+      </c>
+      <c r="F113" t="s">
+        <v>478</v>
+      </c>
       <c r="G113" s="13" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="H113">
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="90">
+    <row r="114" spans="1:8" ht="71.25">
       <c r="A114" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="1" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F114"/>
+        <v>408</v>
+      </c>
+      <c r="F114" t="s">
+        <v>461</v>
+      </c>
       <c r="G114" s="13" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="H114">
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="75">
+    <row r="115" spans="1:8" ht="57">
       <c r="A115" s="1" t="s">
         <v>76</v>
       </c>
@@ -4491,13 +4605,13 @@
         <v>80</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="105">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="85.5">
       <c r="A116" s="1" t="s">
         <v>76</v>
       </c>
@@ -4508,13 +4622,13 @@
         <v>81</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="105">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="85.5">
       <c r="A117" s="1" t="s">
         <v>76</v>
       </c>
@@ -4525,132 +4639,132 @@
         <v>82</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="165">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="128.25">
       <c r="A118" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="105">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="85.5">
       <c r="A119" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="60">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="42.75">
       <c r="A120" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="150">
+    <row r="121" spans="1:8" ht="114">
       <c r="A121" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="90">
+    <row r="122" spans="1:8" ht="71.25">
       <c r="A122" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="75">
+    <row r="123" spans="1:8" ht="71.25">
       <c r="A123" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="150">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="128.25">
       <c r="A124" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="180">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="156.75">
       <c r="A125" s="1" t="s">
         <v>76</v>
       </c>
@@ -4661,35 +4775,35 @@
         <v>91</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="165">
+    <row r="126" spans="1:8" ht="142.5">
       <c r="A126" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="105">
+    <row r="127" spans="1:8" ht="85.5">
       <c r="A127" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="75">
+    <row r="128" spans="1:8" ht="57">
       <c r="A128" s="1" t="s">
         <v>76</v>
       </c>
@@ -4700,7 +4814,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="150">
+    <row r="129" spans="1:3" ht="128.25">
       <c r="A129" s="1" t="s">
         <v>76</v>
       </c>
@@ -4711,7 +4825,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="120">
+    <row r="130" spans="1:3" ht="99.75">
       <c r="A130" s="1" t="s">
         <v>76</v>
       </c>
@@ -4722,7 +4836,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="300">
+    <row r="131" spans="1:3" ht="270.75">
       <c r="A131" s="1" t="s">
         <v>76</v>
       </c>
@@ -4733,7 +4847,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="60">
+    <row r="132" spans="1:3" ht="57">
       <c r="A132" s="1" t="s">
         <v>76</v>
       </c>
@@ -4744,7 +4858,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="60">
+    <row r="133" spans="1:3" ht="57">
       <c r="A133" s="1" t="s">
         <v>76</v>
       </c>
@@ -4755,7 +4869,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="210">
+    <row r="134" spans="1:3" ht="185.25">
       <c r="A134" s="1" t="s">
         <v>76</v>
       </c>
@@ -4766,7 +4880,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="210">
+    <row r="135" spans="1:3" ht="171">
       <c r="A135" s="1" t="s">
         <v>76</v>
       </c>
@@ -4777,7 +4891,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="135">
+    <row r="136" spans="1:3" ht="114">
       <c r="A136" s="1" t="s">
         <v>76</v>
       </c>
@@ -4788,7 +4902,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="120">
+    <row r="137" spans="1:3" ht="99.75">
       <c r="A137" s="1" t="s">
         <v>76</v>
       </c>
@@ -4799,7 +4913,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="90">
+    <row r="138" spans="1:3" ht="85.5">
       <c r="A138" s="1" t="s">
         <v>76</v>
       </c>
@@ -4810,7 +4924,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="180">
+    <row r="139" spans="1:3" ht="156.75">
       <c r="A139" s="1" t="s">
         <v>76</v>
       </c>
@@ -4821,7 +4935,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="120">
+    <row r="140" spans="1:3" ht="114">
       <c r="A140" s="1" t="s">
         <v>76</v>
       </c>
@@ -4832,7 +4946,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="90">
+    <row r="141" spans="1:3" ht="71.25">
       <c r="A141" s="1" t="s">
         <v>76</v>
       </c>
@@ -4843,56 +4957,56 @@
         <v>118</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="105">
+    <row r="142" spans="1:3" ht="85.5">
       <c r="A142" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="75">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="57">
       <c r="A143" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="90">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="85.5">
       <c r="A144" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="255">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="228">
       <c r="A145" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="105">
+    <row r="146" spans="1:3" ht="85.5">
       <c r="B146" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="210">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="171">
       <c r="A147" s="1" t="s">
         <v>76</v>
       </c>
@@ -4903,7 +5017,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="165">
+    <row r="148" spans="1:3" ht="128.25">
       <c r="A148" s="1" t="s">
         <v>76</v>
       </c>
@@ -4914,12 +5028,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="180">
+    <row r="149" spans="1:3" ht="156.75">
       <c r="A149" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>125</v>
@@ -4931,42 +5045,24 @@
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$7</xm:f>
           </x14:formula1>
           <xm:sqref>F2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$75</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E18 E20:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet2!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>F1</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B:$B</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F18</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B:$B</xm:f>
-          </x14:formula1>
-          <xm:sqref>F20:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$A$1:$A$64</xm:f>
-          </x14:formula1>
-          <xm:sqref>E1:E18</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$A$1:$A$64</xm:f>
-          </x14:formula1>
-          <xm:sqref>E20:E1048576</xm:sqref>
+          <xm:sqref>F1 F3:F18 F20:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4975,25 +5071,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="66.42578125" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="66.375" customWidth="1"/>
+    <col min="2" max="2" width="35.75" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="25.25" customWidth="1"/>
+    <col min="7" max="7" width="58.5" customWidth="1"/>
+    <col min="8" max="8" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
+    <row r="1" spans="1:7" ht="18">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -5007,9 +5104,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75">
+    <row r="2" spans="1:7" ht="18">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>458</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>19</v>
@@ -5018,42 +5115,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75">
+    <row r="3" spans="1:7" ht="18">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>471</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.75">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18">
+      <c r="A5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="G5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.75">
+    <row r="6" spans="1:7" ht="18">
       <c r="A6" t="s">
-        <v>460</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -5062,487 +5159,549 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>464</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>479</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>466</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>468</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>452</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>459</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>458</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>445</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>434</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>456</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F23" t="s">
         <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F29" t="s">
         <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
         <v>73</v>
       </c>
       <c r="G38" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G49" t="s">
-        <v>459</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G50" t="s">
-        <v>57</v>
+        <v>444</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F55" t="s">
         <v>62</v>
       </c>
       <c r="G55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="G63" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="G64" t="s">
         <v>71</v>
       </c>
-      <c r="G63" t="s">
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G63 A1:A63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G64 A1:A74" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Code</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Thematic-Coding.xlsx
+++ b/Thematic-Coding.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\BCIS301---AMIC700---Thematic-Coding-Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidde\Dropbox\Kieran Third year\BCIS301 _ AMIC700\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46001E07-A32E-490D-BB0D-BBB23E59B3BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0CF40B-E257-47E2-8E05-FFF948BFD650}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="2805" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <definedName name="_ftn2" localSheetId="0">'Sheet1 (2)'!$B$26</definedName>
     <definedName name="_ftnref1" localSheetId="0">'Sheet1 (2)'!$B$21</definedName>
     <definedName name="_ftnref2" localSheetId="0">'Sheet1 (2)'!$B$23</definedName>
-    <definedName name="Environmental_Factors">Sheet2!$A$1:$A$14</definedName>
-    <definedName name="Organizational_Factors">Sheet2!$A$15:$A$24</definedName>
-    <definedName name="Poor_Management_Factors">Sheet2!$A$48:$A$74</definedName>
-    <definedName name="Project_Factors">Sheet2!$A$33:$A$38</definedName>
-    <definedName name="Team_Factors">Sheet2!$A$25:$A$32</definedName>
-    <definedName name="Technology_Factors">Sheet2!$A$39:$A$47</definedName>
+    <definedName name="Environmental_Factors">Sheet2!$A$1:$A$5</definedName>
+    <definedName name="Organizational_Factors">Sheet2!$A$6:$A$15</definedName>
+    <definedName name="Poor_Management_Factors">Sheet2!$A$39:$A$64</definedName>
+    <definedName name="Project_Factors">Sheet2!$A$24:$A$29</definedName>
+    <definedName name="Team_Factors">Sheet2!$A$16:$A$23</definedName>
+    <definedName name="Technology_Factors">Sheet2!$A$30:$A$38</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="469">
   <si>
     <t>CaseStudy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Lack of Senior Management Involvement,Support &amp;Commitment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Unrealistic Expectations</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,6 +108,10 @@
   </si>
   <si>
     <t>Poor Internal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marketing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -352,6 +360,21 @@
     <t>It was not inevitable that the appointment of a Prime Contractor would fail to deliver what CorpTech hoped from it. History has shown that the decision to transfer responsibility for the SS Initiative to a private enterprise contractor was unsuccessful, but there were several reasons for that. Had there been a mature discussion about the proposal, those directing the State’s decisions might have gained a realisation that a Prime Contractor was not a panacea for the ills of the SS Initiative and that the work of the Prime Contractor required oversight. That realisation, acted upon, might have changed the course of events.</t>
   </si>
   <si>
+    <t>The haste with which the appointment was made is as remarkable as the lack of consideration preceding the decision to appoint the Prime Contractor. If one looks over the series of reviews which commenced with the Keliher Report in March 2007, one sees anxiety about the progress and cost of the SS Initiative turning to alarm which then overcame rational decision making. The issue of the RFP before the CEO Governing Board had authorised the appointment of a Prime Contractor is the clearest example. The terms of the RFP itself indicate haste and a disregard for detail. It is extraordinary that such a succinct communication should have been thought a suffiient basis for procuring a multi-million dollar contract. There is no doubt that was Ms Perrott’s and Mr Bradley’s intention. The ITO itself was so condensed in time as to make it all but inevitable that important questions of detail and principle would be overlooked or compromised.</t>
+  </si>
+  <si>
+    <t>That being plainly said, as it should be, it would be equally naïve not to consider that Mr Bloomfild, and his colleagues at IBM, knew that Mr Burns was behaving extraordinarily for a man charged with the responsibility of investigating a very substantial government IT program and guiding the procurement process for a contractor to take it over. Mr Bloomfild’s emails to his superiors indicate that he understood that a valuable business opportunity was being offered to IBM which it should do its utmost to exploit. He cannot have thought the same favouritism was extended to his competitors.It is likely, as I say, that Mr Burns hoped in some way for a personal benefi from his generosity to IBM. He certainly looked for advancement from the State and used his appointments to obtain it. It may be that, having secured that advantage, he had no further need to ingratiate himself with IBM</t>
+  </si>
+  <si>
+    <t>Mr Burns’ bias should have precluded him from taking any part at all in the procurement processes defied by the RFP and the ITO. Had his role been limited, as it was meant to be, to administrator and facilitator of the evaluation process, his bias may not have had much consequence. As it was, Ms Perrrott’s neglect of her responsibilities and in particular her obligation personally to oversee the evaluation process, and Mr Bradley’s empowerment of Mr Burns, gave him a free hand to inflence the selection of the Prime Contractor. Although Ms Perrott nominally led the process, Mr Burns was its de facto leader. His capacity to inflence events was increased by the haste and unnecessary sense of urgency which overlay the procurement and the blurred lines of responsibility under which Mr Burns was allowed to operate.</t>
+  </si>
+  <si>
+    <t>His intervention in the evaluation has been described at length. It was grossly improper. It is disappointing that of all the senior public servants who observed it, only Mr Bond took up the matter with the Executive Director of CorpTech, and extraordinary that Ms Perrott should not investigate it thoroughly. That intervention and the changed scoring flwed the process and tended to distort the result. That failure is the fault of the State and its offiers and is not something for which IBM can be criticised.</t>
+  </si>
+  <si>
+    <t>The evidence supports the conclusion that IBM’s price should have been the subject of full and careful scrutiny by Ms Perrott and the Cost Evaluation Panel with particular reference to the discrepancy between it and its earlier price, and between it and competitors’ prices. There was no such scrutiny. Ms Orange was unaware of the discrepancy and no one bothered to tell her of it. Ms Perrott, who was aware of it, failed to understand its signifiance, or disregarded it.</t>
+  </si>
+  <si>
     <t>Procurement, Section 6.2</t>
   </si>
   <si>
@@ -364,6 +387,9 @@
     <t>Procurement, Section 6.9</t>
   </si>
   <si>
+    <t>Procurement, Section 6.13, 6.14</t>
+  </si>
+  <si>
     <t>Procurement, Section 6.16</t>
   </si>
   <si>
@@ -374,6 +400,9 @@
   </si>
   <si>
     <t>Procurement, Section 6.27</t>
+  </si>
+  <si>
+    <t>Mr Burns’ intervention in the ITO evaluation requires another comment. Improper as it was, it would not have led to IBM becoming the highest ranked bidder had the Evaluation Panel leaders acted in accordance with their own logic. IBM’s proposed use of Workbrain, though offering accelerated roll out and reduced cost, was risky because it was untried. That was the view of the Panel members. Mr Burns urged the rewarding of innovation and his argument was accepted but with the qualifiation that the reference sites had to provide proof that the proposal worked in practice. That proof was not forthcoming. Logically, then, the situation should have reverted to the original. There should have been a third appraisal resulting in the reinstatement of the Accenture bid as the better one because it was less risky. But rationality and sense gave way to haste and muddle, and the State committed itself to an untried solution.</t>
   </si>
   <si>
     <t>The decision to Go Live miscarried. What was regarded as an imminent failure of LATTICE overshadowed any measured and analytical assessment and weighing of the relevant factors. By the time the Project Directorate and the Project Board met to consider whether to Go Live, the members of those bodies had made up their minds that the only option was to proceed.</t>
@@ -383,6 +412,9 @@
 Project Management, Section 6.46</t>
   </si>
   <si>
+    <t>The scope of the system was inadequately defied. Had the system as originally scoped been delivered, it would have failed entirely to function as any payroll system might reasonably be expected to function. That fact was known to IBM who, through the assumptions it enumerated in SOW 8 and the “issues” it listed in the QHIC Scope Defiition, notifid the State that changes to scope were likely to be required. Some of the State representatives, however, considered that the scope documents were to some extent beside the point because of IBM’s promise to deliver a payroll system that was “stable, supported and supportable”</t>
+  </si>
+  <si>
     <t>Contract and
 Project Management, Section 4.74</t>
   </si>
@@ -392,6 +424,9 @@
   </si>
   <si>
     <t>The system was inadequately scoped and neither party took any effective measures to stabilise it. Both parties ignored all the warning signs of a project in serious distress. Rather than reset the Project or take decisive steps to put it on a stable course, they altered or lowered the thresholds which had been put in place to protect against the very thing which eventuated: a system of poor quality which was not ready to Go Live. Doing so meant that the system, when it went live, would not be functional and constituted a clear breach of the most fundamental principles of project management. Poor decisions were made, Dr Manfield said, under the intense pressure of the time imperative . I would agree, and add only that the pressure of time was something which the parties had imposed upon themselves, and it was therefore something which it was within the control of the State, in particular, to deal with, including, as I have said, by investigating alternatives to upgrade LATTICE or maintain its support while hard decisions were made about the system then still under construction</t>
+  </si>
+  <si>
+    <t>2.47 The Project was, from the outset, one which was conducted in an atmosphere of urgency, and which, in large part, had been of the State’s creation in its failure at some earlier time to commence gathering its business requirements, making any necessary changes to its internal processes and deciding what measures it would take to either upgrade or replace the LATTICE system. When the Project was commenced, the timeframes within which the various stages of it were to be undertaken were hopelessly short, including for scoping. The Project was managed, contrary to the requirements of well-established project management methodology, by undertaking a number of tasks at the same time (including different forms of testing). There was a lack of rigour in this approach. It meant that the Project was not required to pass various checkpoints before proceeding. Where checkpoints did exist, their purpose was circumvented by changing the criteria required to meet them or by their being ignored altogether.</t>
   </si>
   <si>
     <t>Contract and
@@ -520,6 +555,9 @@
 Project Management, Section 7.29</t>
   </si>
   <si>
+    <t>It took time for the problems with the system to manifest themselves. As I have explained, retrospectiveprocessing did not commence until the second pay run. It may have been that staff took a pay or two to realise that their pay was inaccurate, or they were patient about pay irregularities, being aware that the system was new, no doubt thinking that whatever the problems with pay were that they would be corrected in due course. Whatever the reasons, I accept Ms Stewart’s evidence, because she was in the position to know, "there was a large number of issues that were surfacing that were not visible at the time of go live” , and that "it was probably other issues surfacing on top of the defect management plan that started to complicate the situation” . There is no doubt on the evidence that the Defect Management Plan could never have been a complete record of the defects which existed at Go Live . Mr Cowan had warned it to be likely that defects additional to those he had identified during UAT existed, given that this was not the function or purpose of UAT</t>
+  </si>
+  <si>
     <t>Summary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1072,7 +1110,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Conclusion</t>
+    <t>Organizational Factor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1099,6 +1137,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Good Plan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Project Factor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1123,6 +1165,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Good Communication with the team member.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Team Factor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1135,6 +1181,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Good Analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Communications can be instrumental for changes throughout different phases ERP implementation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1143,6 +1193,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Good Communication with the stakeholders.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">Nevertheless, more empirical evidence is needed to verify our current findings that in a mandated implementation environment, excessive project selling at the project preparation phase may have negative effects during the blueprint and realization phases but often times yields positive results during the operation and routinization stages. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1159,6 +1213,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Clear Goal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">Mostly, a great deal of effort has been paid to encourage user participation and involvement to enhance the success of the implementation. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1167,6 +1225,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Good Communication with Users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Evironment Factor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1203,10 +1265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Abstract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Barriers to success such as high vendor team member turnover and frequent change of deputy governors were managed by hiring trusted, credible mediators to see the project through to fruition. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1214,6 +1272,10 @@
     <t>The flow of people will have a negative impact.</t>
   </si>
   <si>
+    <t>Good management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Management Factor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1250,10 +1312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Factors influencing the ERP implementation process</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>With its preempted integration, the ERP implementation process can be quite complex and involves different organizational units and different levels of management. Without management support, especially at the top, the implementation of ERP project would face unexpected problems and consequences.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1269,6 +1327,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Good relationship among the different sections.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>For an ERP to be successful, it should seamlessly integrate and connect business functions together as well as link the usually disparate front-to-back office workflows along their value chain together to help improve business operations and provide a better way for communication and decision-making</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1277,7 +1339,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ERP implementation measures of success and failure</t>
+    <t>Good Communication with different departments.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">The objective measures of success and failure of IT projects are project completion within time and budget. </t>
@@ -1288,6 +1351,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Good time and budgets plan.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">In ERP implementation, identifying success factors is as important as managing risk factors. Success factors emphasize factors which ensure the project’s attainment of budget, schedule and functionality targets. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1308,10 +1375,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ERP implementation measures of success and failure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>They also identified the top ten risk ERP factors as lack of senior manager commitment to the project, ineffective communication with users, insufficient training of end-users, failure to gain user support, lack of effective project management methodology, attempting to build bridges to legacy applications, conflicts between user departments, composition of project team members, failure to redesign business processes, and unclear/misunderstanding changing requirements.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1334,7 +1397,8 @@
     <t>Users are very important to project implementation, and their goals are the fundamental goals of the project.</t>
   </si>
   <si>
-    <t>Role of user attitudes and expectations in ERP implementation</t>
+    <t>Good communication with users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The up and down fluctuation of user attitudes and expectations can reveal how well the ERP will be utilized at the end.</t>
@@ -1356,7 +1420,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ERP Implementation in public organizations</t>
+    <t>Evironment Factor; Management Factor;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>With respect to ERP implementation, some might think that Energy was over zealous with internal public relations. However, it has always been a challenge to communicate to over twenty thousand employees. Thus, similar to a previous study (Finney, 2011), effective internal marketing communications for organizational stakeholders was an important success factor to mitigate change anxiety.</t>
@@ -1370,9 +1435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>To be informed is to change</t>
-  </si>
-  <si>
     <t>NHS Failure Project</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1389,9 +1451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Delivery and Implementation</t>
-  </si>
-  <si>
     <t>Problems continued beyond procurement and supplier departures through to the delivery and implementation of NPfIT’s systems and software.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1399,6 +1458,10 @@
     <t>Unstable stakeholder</t>
   </si>
   <si>
+    <t>did not choose correct stakeholder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>The implementation featured some successes with elements of the programme that were on schedule and functioning well, however it was also marked by missed deadlines, unreliable software and a lack of engagement with end-users particularly heath-professionals and patients.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1444,9 +1507,6 @@
   <si>
     <t>lack of data collect.</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Electronic Care Record Delays</t>
   </si>
   <si>
     <t>The specifications for Electronic Care Records in 2003 detailed a clear vision and timeframe however the scope became vague and inconsistent. By 2007, there was no word from the Department on a detailed timeline of when Trusts should expect to have the systems delivered. In 2007, the testing and deployment of the shared electronic records was two years behind schedule, the clinical software development was incomplete and work on the administrative software had ‘scarcely begun’ (Health Committee, 2007).</t>
@@ -1498,6 +1558,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Choose wrong stakeholders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>In January 2008, Richard Granger resigned. His post was replaced with two positions, a Chief Information Officer and a Director of IT Programmes and System Delivery (Bacon &amp; Hope, 2013). This, and other changes in leadership positions within the Department further hindered engagement and rapport with health professionals and other NHS staff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1510,9 +1574,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>System Functionality</t>
-  </si>
-  <si>
     <t>It is possible that thorough consultation with health professionals could have mitigated some of the risks of sharing electronic care records, one of which was the potential for miscommunication of information.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1587,9 +1648,6 @@
     <t>Timeout, over budget</t>
   </si>
   <si>
-    <t>Changes in suppliers</t>
-  </si>
-  <si>
     <t>In light of the changes within NPfIT (including the GP System of Choice Programme) since Fujitsu’s 10 year contract had been signed, there were disputes over whether the costings in the original 2004 contract were still sufficient for timely delivery of fully functional care records systems. After ten months, discussions broke down and Fujitsu withdrew from further negotiations. This move effectively breached contractual obligations with Connecting for Health and resulted in Fujitsu’s contract being terminated in 2008 and transferred to CSC.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1614,9 +1672,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Privacy Concerns</t>
-  </si>
-  <si>
     <t>Much of the debate over NPfIT could be characterised as a clash between those closest to it, who were committed to defending the programme and pushing through at all costs, and those who objected on practical, technical or professional grounds. The financial crisis of 2007-08 and the ensuing recession caused a step change in the surrounding political environment. “Investment” was no longer a byword for good governance; soon, “waste” and “fiscal responsibility” dominated the national debate. This instigated a new line of attack on NPfIT: scrap a failing programme to save money. It was easier said than done.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1624,7 +1679,8 @@
     <t>With the advent of the economic crisis, it was impossible to continue investing in projects, but it could not stop. This also led to the failure of the project.</t>
   </si>
   <si>
-    <t>The End of NPfIT</t>
+    <t xml:space="preserve"> lack advent communications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>In December 2009, the Secretary of State for Health, Andy Burnham, claimed in debate that the programme was “essential” (House of Commons Debate, 2009-10, 502, col. 21). Alistair Darling said the exact opposite in a television interview a few days later and duly cut the budget from £12.7 billion to £12.1 billion (Computer Weekly, 2009c). The Conservatives and Liberal Democrats went on to denounce the programme during their 2010 election campaigns and made promises to drastically change or scrap it (Barr, 2010; Bruce, 2010).</t>
@@ -1639,9 +1695,6 @@
   </si>
   <si>
     <t>P6,1</t>
-  </si>
-  <si>
-    <t>Abstract</t>
   </si>
   <si>
     <t>Variations to the contract continued up until the system went live. They number in the order of 220. Some were proposed by IBM, some by the State. It is not always of significance which party initiated each change. In some cases, Changes were the culmination of negotiation or discussion, such as Change 184 which the parties had agreed well before that variation had been initiated, in a formal sense, by the State.</t>
@@ -1678,36 +1731,72 @@
     <t>Lack of Project Management Skills</t>
   </si>
   <si>
+    <t>Conclusion, 12</t>
+  </si>
+  <si>
+    <t>Conclusion, 13</t>
+  </si>
+  <si>
+    <t>Abstract, 1</t>
+  </si>
+  <si>
+    <t>Factors influencing the ERP implementation process, 4</t>
+  </si>
+  <si>
+    <t>ERP implementation measures of success and failure, 3</t>
+  </si>
+  <si>
+    <t>ERP implementation measures of success and failure, 4</t>
+  </si>
+  <si>
+    <t>Role of user attitudes and expectations in ERP implementation, 4</t>
+  </si>
+  <si>
+    <t>Role of user attitudes and expectations in ERP implementation, 5</t>
+  </si>
+  <si>
+    <t>ERP Implementation in public organizations, 5</t>
+  </si>
+  <si>
+    <t>To be informed is to change, 10</t>
+  </si>
+  <si>
+    <t>Delivery and Implementation, 36</t>
+  </si>
+  <si>
+    <t>Delivery and Implementation, 24</t>
+  </si>
+  <si>
+    <t>Electronic Care Record Delays, 25</t>
+  </si>
+  <si>
+    <t>Electronic Care Record Delays, 26</t>
+  </si>
+  <si>
+    <t>System Functionality, 27</t>
+  </si>
+  <si>
+    <t>System Functionality, 28</t>
+  </si>
+  <si>
+    <t>Changes in suppliers, 28</t>
+  </si>
+  <si>
+    <t>Privacy Concerns, 28</t>
+  </si>
+  <si>
+    <t>The End of NPfIT, 30</t>
+  </si>
+  <si>
     <t>Prime contractor changed without changing any of the model/reason for the initial failure.</t>
   </si>
   <si>
+    <t>Lack of analysis or consideration of the model and why is failed before assigning another prime contractor.</t>
+  </si>
+  <si>
     <t>Lack of Senior Management Involvement,Support &amp;Commitment</t>
   </si>
   <si>
-    <t>Lack of analysis or consideration of the model and why is failed before assigning another prime contractor.</t>
-  </si>
-  <si>
-    <t>The haste with which the appointment was made is as remarkable as the lack of consideration preceding the decision to appoint the Prime Contractor. If one looks over the series of reviews which commenced with the Keliher Report in March 2007, one sees anxiety about the progress and cost of the SS Initiative turning to alarm which then overcame rational decision making. The issue of the RFP before the CEO Governing Board had authorised the appointment of a Prime Contractor is the clearest example. The terms of the RFP itself indicate haste and a disregard for detail. It is extraordinary that such a succinct communication should have been thought a sufficient basis for procuring a multi-million dollar contract. There is no doubt that was Ms Perrott’s and Mr Bradley’s intention. The ITO itself was so condensed in time as to make it all but inevitable that important questions of detail and principle would be overlooked or compromised.</t>
-  </si>
-  <si>
-    <t>Mr Burns’ bias should have precluded him from taking any part at all in the procurement processes defied by the RFP and the ITO. Had his role been limited, as it was meant to be, to administrator and facilitator of the evaluation process, his bias may not have had much consequence. As it was, Ms Perrrott’s neglect of her responsibilities and in particular her obligation personally to oversee the evaluation process, and Mr Bradley’s empowerment of Mr Burns, gave him a free hand to influence the selection of the Prime Contractor. Although Ms Perrott nominally led the process, Mr Burns was its de facto leader. His capacity to influence events was increased by the haste and unnecessary sense of urgency which overlay the procurement and the blurred lines of responsibility under which Mr Burns was allowed to operate.</t>
-  </si>
-  <si>
-    <t>His intervention in the evaluation has been described at length. It was grossly improper. It is disappointing that of all the senior public servants who observed it, only Mr Bond took up the matter with the Executive Director of CorpTech, and extraordinary that Ms Perrott should not investigate it thoroughly. That intervention and the changed scoring flawed the process and tended to distort the result. That failure is the fault of the State and its officers and is not something for which IBM can be criticised.</t>
-  </si>
-  <si>
-    <t>The evidence supports the conclusion that IBM’s price should have been the subject of full and careful scrutiny by Ms Perrott and the Cost Evaluation Panel with particular reference to the discrepancy between it and its earlier price, and between it and competitors’ prices. There was no such scrutiny. Ms Orange was unaware of the discrepancy and no one bothered to tell her of it. Ms Perrott, who was aware of it, failed to understand its significance, or disregarded it.</t>
-  </si>
-  <si>
-    <t>Mr Burns’ intervention in the ITO evaluation requires another comment. Improper as it was, it would not have led to IBM becoming the highest ranked bidder had the Evaluation Panel leaders acted in accordance with their own logic. IBM’s proposed use of Workbrain, though offering accelerated roll out and reduced cost, was risky because it was untried. That was the view of the Panel members. Mr Burns urged the rewarding of innovation and his argument was accepted but with the qualification that the reference sites had to provide proof that the proposal worked in practice. That proof was not forthcoming. Logically, then, the situation should have reverted to the original. There should have been a third appraisal resulting in the reinstatement of the Accenture bid as the better one because it was less risky. But rationality and sense gave way to haste and muddle, and the State committed itself to an untried solution.</t>
-  </si>
-  <si>
-    <t>The scope of the system was inadequately defied. Had the system as originally scoped been delivered, it would have failed entirely to function as any payroll system might reasonably be expected to function. That fact was known to IBM who, through the assumptions it enumerated in SOW 8 and the “issues” it listed in the QHIC Scope Definition, notified the State that changes to scope were likely to be required. Some of the State representatives, however, considered that the scope documents were to some extent beside the point because of IBM’s promise to deliver a payroll system that was “stable, supported and supportable”</t>
-  </si>
-  <si>
-    <t>It took time for the problems with the system to manifest themselves. As I have explained, retrospective processing did not commence until the second pay run. It may have been that staff took a pay or two to realise that their pay was inaccurate, or they were patient about pay irregularities, being aware that the system was new, no doubt thinking that whatever the problems with pay were that they would be corrected in due course. Whatever the reasons, I accept Ms Stewart’s evidence, because she was in the position to know, "there was a large number of issues that were surfacing that were not visible at the time of go live” , and that "it was probably other issues surfacing on top of the defect management plan that started to complicate the situation” . There is no doubt on the evidence that the Defect Management Plan could never have been a complete record of the defects which existed at Go Live . Mr Cowan had warned it to be likely that defects additional to those he had identified during UAT existed, given that this was not the function or purpose of UAT</t>
-  </si>
-  <si>
     <t>failure to foresee transfer or responsibility to a private company will be a project failure</t>
   </si>
   <si>
@@ -1720,24 +1809,12 @@
     <t>Failing to Understand Change</t>
   </si>
   <si>
-    <t xml:space="preserve">That being plainly said, as it should be, it would be equally naïve not to consider that Mr Bloomfild, and his colleagues at IBM, knew that Mr Burns was behaving extraordinarily for a man charged with the responsibility of investigating a very substantial government IT program and guiding the procurement process for a contractor to take it over. Mr Bloomfild’s emails to his superiors indicate that he understood that a valuable business opportunity was being offered to IBM which it should do its utmost to exploit. He cannot have thought the same favouritism was extended to his competitors. </t>
-  </si>
-  <si>
-    <t>Procurement, Section 6.13</t>
-  </si>
-  <si>
-    <t>Procurement, Section 6.14</t>
+    <t>management had a relationship with IMB to secure the contract</t>
   </si>
   <si>
     <t>Stakeholder Politics</t>
   </si>
   <si>
-    <t>management had a relationship with IMB to secure the contract</t>
-  </si>
-  <si>
-    <t>It is likely, as I say, that Mr Burns hoped in some way for a personal benefit from his generosity to IBM. He certainly looked for advancement from the State and used his appointments to obtain it. It may be that, having secured that advantage, he had no further need to ingratiate himself with IBM</t>
-  </si>
-  <si>
     <t>manager hoped to benefit from contract</t>
   </si>
   <si>
@@ -1747,21 +1824,12 @@
     <t>Fault ultimatly was with the organization for not doing something</t>
   </si>
   <si>
-    <t>Poor Internal Marketing</t>
-  </si>
-  <si>
-    <t>Poor Design</t>
-  </si>
-  <si>
-    <t>Lack of Senior Management Involvement, Support &amp;Commitment</t>
+    <t>lack of knowledge of cost evaluation</t>
   </si>
   <si>
     <t>Incorrect Assumptions</t>
   </si>
   <si>
-    <t>lack of knowledge of cost evaluation</t>
-  </si>
-  <si>
     <t>Lack of knowledge around ranking or evolution contracts</t>
   </si>
   <si>
@@ -1769,110 +1837,6 @@
   </si>
   <si>
     <t>Inadequately scoped and neither party took any effective measures to stabilise it.</t>
-  </si>
-  <si>
-    <t>The Project was, from the outset, one which was conducted in an atmosphere of urgency, and which, in large part, had been of the State’s creation in its failure at some earlier time to commence gathering its business requirements, making any necessary changes to its internal processes and deciding what measures it would take to either upgrade or replace the LATTICE system. When the Project was commenced, the timeframes within which the various stages of it were to be undertaken were hopelessly short, including for scoping. The Project was managed, contrary to the requirements of well-established project management methodology, by undertaking a number of tasks at the same time (including different forms of testing). There was a lack of rigour in this approach. It meant that the Project was not required to pass various checkpoints before proceeding. Where checkpoints did exist, their purpose was circumvented by changing the criteria required to meet them or by their being ignored altogether.</t>
-  </si>
-  <si>
-    <t>Good Stakeholder Involvement</t>
-  </si>
-  <si>
-    <t>Good Stakeholder Involvement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Good Project Analysis</t>
-  </si>
-  <si>
-    <t>Good Project Planning</t>
-  </si>
-  <si>
-    <t>Good Project Planning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Good Communication</t>
-  </si>
-  <si>
-    <t>Good Communication</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Good Project Analysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Factors</t>
-  </si>
-  <si>
-    <t>Management Factors</t>
-  </si>
-  <si>
-    <t>Management Factors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Good Employee Management</t>
-  </si>
-  <si>
-    <t>Good Employee Management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Define The Clear Goal</t>
-  </si>
-  <si>
-    <t>Define The Clear Goal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Good Project Management</t>
-  </si>
-  <si>
-    <t>Good Project Management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Team Factors</t>
-  </si>
-  <si>
-    <t>Good User Involvement</t>
-  </si>
-  <si>
-    <t>Good User Involvement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goode Department Involvement</t>
-  </si>
-  <si>
-    <t>Goode Department Involvement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Good Budgets</t>
-  </si>
-  <si>
-    <t>Good Budgets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incorrect Stakeholders</t>
-  </si>
-  <si>
-    <t>Incorrect Stakeholders</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Information Factors</t>
-  </si>
-  <si>
-    <t>Information Factors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Failing to Understand Change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1883,13 +1847,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1898,7 +1862,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1908,7 +1872,7 @@
       <i/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1917,14 +1881,14 @@
       <i/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1952,18 +1916,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1978,7 +1936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2011,16 +1969,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2301,24 +2249,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115:E125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="89.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
-    <col min="8" max="8" width="18.375" customWidth="1"/>
-    <col min="11" max="11" width="21.875" customWidth="1"/>
-    <col min="12" max="12" width="36.25" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="89.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1"/>
+    <col min="12" max="12" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="26.45" customHeight="1">
@@ -2329,10 +2277,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -2343,2700 +2291,2524 @@
     </row>
     <row r="2" spans="1:6" ht="64.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="54">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="56.25">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="84.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="54">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60">
       <c r="A5" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="54">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="56.25">
       <c r="A6" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="36">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45">
       <c r="A7" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="1" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="36">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="37.5">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="57">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60">
       <c r="A9" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="57">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60">
       <c r="A11" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="1" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="57">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60">
       <c r="A12" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="1" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="57">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="60">
       <c r="A13" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="1" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30">
       <c r="A14" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="1" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="57">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="75">
       <c r="A15" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="1" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="42.75">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45">
       <c r="A16" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="57">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60">
       <c r="A17" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="42.75">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45">
       <c r="A18" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="42.75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="60">
       <c r="A19" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="28.5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30">
       <c r="A20" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C20" s="10"/>
       <c r="E20" s="1" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="57">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="60">
       <c r="A21" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="1" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="42.75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45">
       <c r="A22" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="28.5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30">
       <c r="A23" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="28.5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="1" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="42.75">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45">
       <c r="A25" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="1" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="28.5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30">
       <c r="A26" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C26" s="10"/>
       <c r="E26" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="28.5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30">
       <c r="A27" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C27" s="10"/>
       <c r="E27" s="1" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="57">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="60">
       <c r="A28" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="1" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30">
       <c r="A29" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="C29" s="10"/>
       <c r="E29" s="1" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="28.5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30">
       <c r="A30" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C30" s="10"/>
       <c r="E30" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30">
       <c r="A31" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C31" s="10"/>
       <c r="E31" s="1" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="28.5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="45">
       <c r="A32" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="1" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="28.5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="45">
       <c r="A33" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="1" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="28.5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30">
       <c r="A34" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C34" s="10"/>
       <c r="E34" s="1" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="28.5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30">
       <c r="A35" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C35" s="10"/>
       <c r="E35" s="1" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="42.75">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="45">
       <c r="A36" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="1" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30">
       <c r="A37" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="1" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="28.5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30">
       <c r="A38" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C38" s="10"/>
       <c r="E38" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="28.5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30">
       <c r="A39" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C39" s="10"/>
       <c r="E39" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="28.5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="45">
       <c r="A40" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C40" s="10"/>
       <c r="E40" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="42.75">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="45">
       <c r="A41" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C41" s="10"/>
       <c r="E41" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="28.5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30">
       <c r="A42" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C42" s="10"/>
       <c r="E42" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30">
       <c r="A43" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C43" s="10"/>
       <c r="E43" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="57">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="60">
       <c r="A44" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="42.75">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="45">
       <c r="A45" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="1" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="28.5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30">
       <c r="A46" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C46" s="10"/>
       <c r="E46" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="28.5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="30">
       <c r="A47" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="C47" s="10"/>
       <c r="E47" s="1" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="28.5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30">
       <c r="A48" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C48" s="10"/>
       <c r="E48" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="57">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="60">
       <c r="A49" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="1" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="42.75">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="45">
       <c r="A50" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C50" s="10"/>
       <c r="E50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="57">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="75">
       <c r="A51" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="1" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30">
       <c r="A52" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C52" s="10"/>
       <c r="E52" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="42.75">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="45">
       <c r="A53" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="1" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="28.5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="45">
       <c r="A54" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="1" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="42.75">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="45">
       <c r="A55" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="1" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="28.5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30">
       <c r="A56" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="42.75">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="45">
       <c r="A57" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="42.75">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="45">
       <c r="A58" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="1" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="42.75">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="45">
       <c r="A59" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="30">
+      <c r="A60" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30">
+      <c r="A61" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C61" t="s">
+        <v>433</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" ht="30">
+      <c r="A62" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C62" t="s">
+        <v>433</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" ht="45">
+      <c r="A63" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C63" t="s">
+        <v>433</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" ht="30">
+      <c r="A64" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C64" t="s">
+        <v>433</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" ht="30">
+      <c r="A65" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C65" t="s">
+        <v>433</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" ht="75">
+      <c r="A66" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C66" t="s">
+        <v>433</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" ht="30">
+      <c r="A67" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C67" t="s">
+        <v>434</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" ht="75">
+      <c r="A68" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C68" t="s">
+        <v>434</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" ht="45">
+      <c r="A69" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C69" t="s">
+        <v>434</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" ht="30">
+      <c r="A70" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C70" t="s">
+        <v>434</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C71" t="s">
+        <v>434</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" ht="30">
+      <c r="A72" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C72" t="s">
+        <v>434</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" ht="60">
+      <c r="A73" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C73" t="s">
+        <v>435</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" ht="45">
+      <c r="A74" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C74" t="s">
+        <v>435</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" ht="60">
+      <c r="A75" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C75" t="s">
+        <v>435</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" ht="60">
+      <c r="A76" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C76" t="s">
+        <v>435</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" ht="60">
+      <c r="A77" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C77" t="s">
+        <v>435</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" ht="75">
+      <c r="A78" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G78" s="11"/>
+    </row>
+    <row r="79" spans="1:7" ht="90">
+      <c r="A79" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G79" s="11"/>
+    </row>
+    <row r="80" spans="1:7" ht="120">
+      <c r="A80" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G80" s="11"/>
+    </row>
+    <row r="81" spans="1:7" ht="75">
+      <c r="A81" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G81" s="11"/>
+    </row>
+    <row r="82" spans="1:7" ht="75">
+      <c r="A82" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G82" s="11"/>
+    </row>
+    <row r="83" spans="1:7" ht="75">
+      <c r="A83" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G83" s="11"/>
+    </row>
+    <row r="84" spans="1:7" ht="75">
+      <c r="A84" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G84" s="11"/>
+    </row>
+    <row r="85" spans="1:7" ht="75">
+      <c r="A85" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G85" s="11"/>
+    </row>
+    <row r="86" spans="1:7" ht="135">
+      <c r="A86" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G86" s="11"/>
+    </row>
+    <row r="87" spans="1:7" ht="90">
+      <c r="A87" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G87" s="11"/>
+    </row>
+    <row r="88" spans="1:7" ht="90">
+      <c r="A88" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G88" s="11"/>
+    </row>
+    <row r="89" spans="1:7" ht="120">
+      <c r="A89" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G89" s="11"/>
+    </row>
+    <row r="90" spans="1:7" ht="75">
+      <c r="A90" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G90" s="11"/>
+    </row>
+    <row r="91" spans="1:7" ht="45">
+      <c r="A91" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G91" s="12"/>
+    </row>
+    <row r="92" spans="1:7" ht="45">
+      <c r="A92" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F92"/>
+      <c r="G92" s="12"/>
+    </row>
+    <row r="93" spans="1:7" ht="75">
+      <c r="A93" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F93"/>
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94" spans="1:7" ht="45">
+      <c r="A94" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F94"/>
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95" spans="1:7" ht="90">
+      <c r="A95" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F95"/>
+      <c r="G95" s="12"/>
+    </row>
+    <row r="96" spans="1:7" ht="105">
+      <c r="A96" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F96"/>
+      <c r="G96" s="12"/>
+    </row>
+    <row r="97" spans="1:7" ht="90">
+      <c r="A97" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F97"/>
+      <c r="G97" s="12"/>
+    </row>
+    <row r="98" spans="1:7" ht="45">
+      <c r="A98" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F98"/>
+      <c r="G98" s="12"/>
+    </row>
+    <row r="99" spans="1:7" ht="60">
+      <c r="A99" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F99"/>
+      <c r="G99" s="12"/>
+    </row>
+    <row r="100" spans="1:7" ht="75">
+      <c r="A100" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F100"/>
+      <c r="G100" s="12"/>
+    </row>
+    <row r="101" spans="1:7" ht="75">
+      <c r="A101" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F101"/>
+      <c r="G101" s="12"/>
+    </row>
+    <row r="102" spans="1:7" ht="75">
+      <c r="A102" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F102"/>
+      <c r="G102" s="12"/>
+    </row>
+    <row r="103" spans="1:7" ht="45">
+      <c r="A103" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F103"/>
+      <c r="G103" s="12"/>
+    </row>
+    <row r="104" spans="1:7" ht="120">
+      <c r="A104" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F104"/>
+      <c r="G104" s="12"/>
+    </row>
+    <row r="105" spans="1:7" ht="45">
+      <c r="A105" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F105"/>
+      <c r="G105" s="12"/>
+    </row>
+    <row r="106" spans="1:7" ht="75">
+      <c r="A106" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F106"/>
+      <c r="G106" s="12"/>
+    </row>
+    <row r="107" spans="1:7" ht="60">
+      <c r="A107" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F107"/>
+      <c r="G107" s="12"/>
+    </row>
+    <row r="108" spans="1:7" ht="75">
+      <c r="A108" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F108"/>
+      <c r="G108" s="12"/>
+    </row>
+    <row r="109" spans="1:7" ht="60">
+      <c r="A109" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F109"/>
+      <c r="G109" s="12"/>
+    </row>
+    <row r="110" spans="1:7" ht="45">
+      <c r="A110" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F110"/>
+      <c r="G110" s="12"/>
+    </row>
+    <row r="111" spans="1:7" ht="90">
+      <c r="A111" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F111"/>
+      <c r="G111" s="12"/>
+    </row>
+    <row r="112" spans="1:7" ht="105">
+      <c r="A112" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F112"/>
+      <c r="G112" s="12"/>
+    </row>
+    <row r="113" spans="1:7" ht="105">
+      <c r="A113" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F113"/>
+      <c r="G113" s="13"/>
+    </row>
+    <row r="114" spans="1:7" ht="90">
+      <c r="A114" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F114"/>
+      <c r="G114" s="13"/>
+    </row>
+    <row r="115" spans="1:7" ht="75">
+      <c r="A115" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="105">
+      <c r="A116" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="105">
+      <c r="A117" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="165">
+      <c r="A118" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="150">
+      <c r="A119" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="150">
+      <c r="A120" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="90">
+      <c r="A121" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="75">
+      <c r="A122" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="150">
+      <c r="A123" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="180">
+      <c r="A124" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="165">
+      <c r="A125" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="105">
+      <c r="A126" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="75">
+      <c r="A127" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="150">
+      <c r="A128" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="120">
+      <c r="A129" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="300">
+      <c r="A130" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="60">
+      <c r="A131" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="60">
+      <c r="A132" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="210">
+      <c r="A133" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="210">
+      <c r="A134" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="135">
+      <c r="A135" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="120">
+      <c r="A136" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="90">
+      <c r="A137" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="180">
+      <c r="A138" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="120">
+      <c r="A139" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="28.5">
-      <c r="A60" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="28.5">
-      <c r="A61" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H61">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="28.5">
-      <c r="A62" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H62">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="42.75">
-      <c r="A63" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H63">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="28.5">
-      <c r="A64" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H64">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="28.5">
-      <c r="A65" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H65">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="57">
-      <c r="A66" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H66">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="28.5">
-      <c r="A67" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H67">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="57">
-      <c r="A68" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H68">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="42.75">
-      <c r="A69" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H69">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="28.5">
-      <c r="A70" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H70">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H71">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="28.5">
-      <c r="A72" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H72">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="57">
-      <c r="A73" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="28.5">
-      <c r="A74" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="42.75">
-      <c r="A75" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="57">
-      <c r="A76" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="15" customFormat="1" ht="42.75">
-      <c r="A77" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="E77" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="F77" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="G77" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="H77" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="42.75">
-      <c r="A78" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="H78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="71.25">
-      <c r="A79" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="H79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="15" customFormat="1" ht="99.75">
-      <c r="A80" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>469</v>
-      </c>
-      <c r="G80" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="H80" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="71.25">
-      <c r="A81" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="H81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="42.75">
-      <c r="A82" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="H82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="19" customFormat="1" ht="42.75">
-      <c r="A83" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="F83" s="17" t="s">
-        <v>461</v>
-      </c>
-      <c r="G83" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="H83" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="19" customFormat="1" ht="28.5">
-      <c r="A84" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="E84" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="F84" s="17" t="s">
-        <v>461</v>
-      </c>
-      <c r="G84" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="H84" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="19" customFormat="1" ht="71.25">
-      <c r="A85" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="E85" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="F85" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="G85" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="H85" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="19" customFormat="1" ht="114">
-      <c r="A86" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="E86" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="F86" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="G86" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="H86" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="57">
-      <c r="A87" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="H87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="42.75">
-      <c r="A88" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="H88">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" s="15" customFormat="1" ht="114">
-      <c r="A89" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="E89" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="F89" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="H89" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="57">
-      <c r="A90" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="H90">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="42.75">
-      <c r="A91" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="G91" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="H91">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="28.5">
-      <c r="A92" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="F92" t="s">
-        <v>72</v>
-      </c>
-      <c r="G92" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="H92">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="71.25">
-      <c r="A93" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F93" t="s">
-        <v>460</v>
-      </c>
-      <c r="G93" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="H93">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="42.75">
-      <c r="A94" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F94" t="s">
-        <v>461</v>
-      </c>
-      <c r="G94" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="H94">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="71.25">
-      <c r="A95" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F95" t="s">
-        <v>461</v>
-      </c>
-      <c r="G95" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="H95">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="85.5">
-      <c r="A96" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F96" t="s">
-        <v>478</v>
-      </c>
-      <c r="G96" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="H96">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="71.25">
-      <c r="A97" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="F97" t="s">
-        <v>460</v>
-      </c>
-      <c r="G97" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="H97">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="28.5">
-      <c r="A98" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F98" t="s">
-        <v>478</v>
-      </c>
-      <c r="G98" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="H98">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="57">
-      <c r="A99" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F99" t="s">
-        <v>461</v>
-      </c>
-      <c r="G99" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="H99">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="71.25">
-      <c r="A100" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F100" t="s">
-        <v>72</v>
-      </c>
-      <c r="G100" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="H100">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="57">
-      <c r="A101" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="F101" t="s">
-        <v>72</v>
-      </c>
-      <c r="G101" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="H101">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="71.25">
-      <c r="A102" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F102" t="s">
-        <v>461</v>
-      </c>
-      <c r="G102" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="H102">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="28.5">
-      <c r="A103" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="F103" t="s">
-        <v>461</v>
-      </c>
-      <c r="G103" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="H103">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="99.75">
-      <c r="A104" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="F104" t="s">
-        <v>478</v>
-      </c>
-      <c r="G104" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="H104">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="42.75">
-      <c r="A105" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F105" t="s">
-        <v>460</v>
-      </c>
-      <c r="G105" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="H105">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="71.25">
-      <c r="A106" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="F106" t="s">
-        <v>460</v>
-      </c>
-      <c r="G106" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="H106">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="57">
-      <c r="A107" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="F107" t="s">
-        <v>460</v>
-      </c>
-      <c r="G107" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="H107">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="57">
-      <c r="A108" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="F108" t="s">
-        <v>460</v>
-      </c>
-      <c r="G108" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="H108">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="42.75">
-      <c r="A109" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="F109" t="s">
-        <v>460</v>
-      </c>
-      <c r="G109" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="H109">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="42.75">
-      <c r="A110" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F110" t="s">
-        <v>461</v>
-      </c>
-      <c r="G110" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="H110">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="71.25">
-      <c r="A111" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="F111" t="s">
-        <v>461</v>
-      </c>
-      <c r="G111" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="H111">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="85.5">
-      <c r="A112" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="F112" t="s">
-        <v>461</v>
-      </c>
-      <c r="G112" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="H112">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="85.5">
-      <c r="A113" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="F113" t="s">
-        <v>478</v>
-      </c>
-      <c r="G113" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="H113">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="71.25">
-      <c r="A114" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C114" s="10"/>
-      <c r="D114" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F114" t="s">
-        <v>461</v>
-      </c>
-      <c r="G114" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="H114">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="57">
-      <c r="A115" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="85.5">
-      <c r="A116" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B116" s="6" t="s">
+      <c r="C139" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="90">
+      <c r="A140" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="85.5">
-      <c r="A117" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D117" s="1" t="s">
+      <c r="B140" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="105">
+      <c r="A141" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="75">
+      <c r="A142" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="90">
+      <c r="A143" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="255">
+      <c r="A144" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="C144" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="105">
+      <c r="B145" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="128.25">
-      <c r="A118" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="85.5">
-      <c r="A119" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="42.75">
-      <c r="A120" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="114">
-      <c r="A121" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="71.25">
-      <c r="A122" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="71.25">
-      <c r="A123" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="128.25">
-      <c r="A124" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="156.75">
-      <c r="A125" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="142.5">
-      <c r="A126" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="85.5">
-      <c r="A127" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="57">
-      <c r="A128" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="128.25">
-      <c r="A129" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="99.75">
-      <c r="A130" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="270.75">
-      <c r="A131" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="57">
-      <c r="A132" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="57">
-      <c r="A133" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="185.25">
-      <c r="A134" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="171">
-      <c r="A135" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="114">
-      <c r="A136" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="99.75">
-      <c r="A137" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="85.5">
-      <c r="A138" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="156.75">
-      <c r="A139" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="114">
-      <c r="A140" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="71.25">
-      <c r="A141" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="85.5">
-      <c r="A142" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="57">
-      <c r="A143" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="85.5">
-      <c r="A144" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="228">
-      <c r="A145" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="85.5">
+    <row r="146" spans="1:3" ht="210">
+      <c r="A146" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="B146" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="171">
+        <v>132</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="165">
       <c r="A147" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="128.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="180">
       <c r="A148" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="156.75">
-      <c r="A149" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5045,24 +4817,30 @@
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$7</xm:f>
           </x14:formula1>
           <xm:sqref>F2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$A$1:$A$75</xm:f>
-          </x14:formula1>
-          <xm:sqref>E1:E18 E20:E1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet2!$B:$B</xm:f>
           </x14:formula1>
           <xm:sqref>F1 F3:F18 F20:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$65</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E18 E20:E114 E126:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1000297D-424E-46C1-B37D-1322B7248674}">
+          <x14:formula1>
+            <xm:f>'[Thematic-Coding.xlsx]Sheet2'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>E115:E125</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5072,25 +4850,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B10:B11"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="66.375" customWidth="1"/>
-    <col min="2" max="2" width="35.75" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="25.25" customWidth="1"/>
-    <col min="7" max="7" width="58.5" customWidth="1"/>
-    <col min="8" max="8" width="25.75" customWidth="1"/>
+    <col min="1" max="1" width="66.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18">
+    <row r="1" spans="1:7" ht="18.75">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -5098,59 +4875,59 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18">
+    <row r="2" spans="1:7" ht="18.75">
       <c r="A2" t="s">
-        <v>458</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18">
+    <row r="3" spans="1:7" ht="18.75">
       <c r="A3" t="s">
-        <v>471</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75">
       <c r="A4" t="s">
-        <v>473</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75">
       <c r="A5" t="s">
-        <v>475</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>462</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -5159,549 +4936,495 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>464</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>479</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>445</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>466</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>468</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>452</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>459</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>443</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>445</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>456</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>47</v>
+      </c>
+      <c r="F39" t="s">
+        <v>75</v>
       </c>
       <c r="G39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G49" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>444</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G51" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>52</v>
-      </c>
-      <c r="F55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>65</v>
+      </c>
+      <c r="F56" t="s">
+        <v>64</v>
       </c>
       <c r="G56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G58" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="G59" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G60" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G61" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G62" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G63" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G64" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G64 A1:A74" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A64 G1:G64" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Code</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Thematic-Coding.xlsx
+++ b/Thematic-Coding.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidde\Dropbox\Kieran Third year\BCIS301 _ AMIC700\Assignment 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidde\Dropbox\Kieran Third year\BCIS301 _ AMIC700\Assignment 1\BCIS301---AMIC700---Thematic-Coding-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0CF40B-E257-47E2-8E05-FFF948BFD650}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674C72CC-2C16-4228-8E26-28E24B3E1026}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="2805" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8595" yWindow="195" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_ftn1" localSheetId="0">'Sheet1 (2)'!$B$25</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="480">
   <si>
     <t>CaseStudy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,9 +373,6 @@
     <t>His intervention in the evaluation has been described at length. It was grossly improper. It is disappointing that of all the senior public servants who observed it, only Mr Bond took up the matter with the Executive Director of CorpTech, and extraordinary that Ms Perrott should not investigate it thoroughly. That intervention and the changed scoring flwed the process and tended to distort the result. That failure is the fault of the State and its offiers and is not something for which IBM can be criticised.</t>
   </si>
   <si>
-    <t>The evidence supports the conclusion that IBM’s price should have been the subject of full and careful scrutiny by Ms Perrott and the Cost Evaluation Panel with particular reference to the discrepancy between it and its earlier price, and between it and competitors’ prices. There was no such scrutiny. Ms Orange was unaware of the discrepancy and no one bothered to tell her of it. Ms Perrott, who was aware of it, failed to understand its signifiance, or disregarded it.</t>
-  </si>
-  <si>
     <t>Procurement, Section 6.2</t>
   </si>
   <si>
@@ -391,9 +389,6 @@
   </si>
   <si>
     <t>Procurement, Section 6.16</t>
-  </si>
-  <si>
-    <t>Procurement, Section 6.16, 6.17</t>
   </si>
   <si>
     <t>Procurement, Section 6.24</t>
@@ -424,9 +419,6 @@
   </si>
   <si>
     <t>The system was inadequately scoped and neither party took any effective measures to stabilise it. Both parties ignored all the warning signs of a project in serious distress. Rather than reset the Project or take decisive steps to put it on a stable course, they altered or lowered the thresholds which had been put in place to protect against the very thing which eventuated: a system of poor quality which was not ready to Go Live. Doing so meant that the system, when it went live, would not be functional and constituted a clear breach of the most fundamental principles of project management. Poor decisions were made, Dr Manfield said, under the intense pressure of the time imperative . I would agree, and add only that the pressure of time was something which the parties had imposed upon themselves, and it was therefore something which it was within the control of the State, in particular, to deal with, including, as I have said, by investigating alternatives to upgrade LATTICE or maintain its support while hard decisions were made about the system then still under construction</t>
-  </si>
-  <si>
-    <t>2.47 The Project was, from the outset, one which was conducted in an atmosphere of urgency, and which, in large part, had been of the State’s creation in its failure at some earlier time to commence gathering its business requirements, making any necessary changes to its internal processes and deciding what measures it would take to either upgrade or replace the LATTICE system. When the Project was commenced, the timeframes within which the various stages of it were to be undertaken were hopelessly short, including for scoping. The Project was managed, contrary to the requirements of well-established project management methodology, by undertaking a number of tasks at the same time (including different forms of testing). There was a lack of rigour in this approach. It meant that the Project was not required to pass various checkpoints before proceeding. Where checkpoints did exist, their purpose was circumvented by changing the criteria required to meet them or by their being ignored altogether.</t>
   </si>
   <si>
     <t>Contract and
@@ -569,18 +561,10 @@
     <t xml:space="preserve"> It is our overall view that weaknesses in project governance and leadership allowed the service to go live with a number of significant risks which the Ministry and its vendors were over-confident of managing.When these risks resulted in service issues Post-Go Live, the Ministry and its vendors were overwhelmed by their nature and scale.</t>
   </si>
   <si>
-    <t>weaknesses in project governance and leadership</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Management Incorrect Assumptions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Over the course of the project, Talent2 had missed agreed milestones or deadlines, which eroded trust and confidence in its ability to deliver.        P6,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>miss agreed milestone or deadlines</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -588,18 +572,10 @@
     <t>Unrealistic Schedules/Deadlines</t>
   </si>
   <si>
-    <t xml:space="preserve"> We are confident that there is scope to address the weaknesses that we have found.Our findings and recommendations are mostly addressed at matters that emerged through the design and delivery of the project. Some of them, however, have relevance for the wider public sector, and other similar projects. We commend them to the attention of all those with public sector leadership roles.   P6,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>some of findings have relevance fro public sector and other projects</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The outcome of the procurement process was not inappropriate. On 22 April 2008 the Ministry selected Talent2 as the preferred vendor. The contract that was then negotiated between the Ministry and Talent2 was complex, and when signed on 11 August 2008 it still had significant schedules incomplete.  P7,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>procurement process was not inappropriate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -612,11 +588,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Work commenced on the requirements for the schools payroll project in October 2008. This process was lengthy, and was never actually completed. Even after Go Live, new requirements
-were being discovered    P7,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>work on requirements was lengthy and never completed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -625,19 +596,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>There was little direct customer (boards of trustees) or user (principals and school administrators) involvement in the definition of the requirements, and Datacom’s involvement was minimal.                     P7,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>there was little customer or user involvement</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Lack of Customer Involvement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Requirements definition, design, development and testing activity were all occurring in parallel,making it very difficult to maintain a known level of quality.    P7,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -673,10 +636,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>important areas were not fully tested</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Poor Testing</t>
   </si>
   <si>
@@ -778,23 +737,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>the relationship between the Ministry and school sector has been uneasy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>found that Ministers were not always well served. Reporting to Ministers has been inconsistent, at times unduly optimistic and sometimes misrepresented the situation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reports have been inconsistent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>We are also surprised that the financial management of this project seems not to have attracted greater attention</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inancial management not have enough attention</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -803,10 +746,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>no agreements before embarking on project</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Customers’ perspectives, particularly those of the boards of trustees, were insufficiently considered in the business case</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -824,10 +763,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lack of adequate support</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The Ministry did not establish the quality of governance required for a complex project of this nature</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -971,10 +906,6 @@
   </si>
   <si>
     <t>Poor Team Commitment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Team </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1803,27 +1734,12 @@
     <t>Unrealistic Expectations</t>
   </si>
   <si>
-    <t>haste in appointing a prime contractor was a lack of consideration</t>
-  </si>
-  <si>
     <t>Failing to Understand Change</t>
   </si>
   <si>
-    <t>management had a relationship with IMB to secure the contract</t>
-  </si>
-  <si>
     <t>Stakeholder Politics</t>
   </si>
   <si>
-    <t>manager hoped to benefit from contract</t>
-  </si>
-  <si>
-    <t>Manger bias in the selecting the prime contractor</t>
-  </si>
-  <si>
-    <t>Fault ultimatly was with the organization for not doing something</t>
-  </si>
-  <si>
     <t>lack of knowledge of cost evaluation</t>
   </si>
   <si>
@@ -1837,6 +1753,109 @@
   </si>
   <si>
     <t>Inadequately scoped and neither party took any effective measures to stabilise it.</t>
+  </si>
+  <si>
+    <t>The Project was, from the outset, one which was conducted in an atmosphere of urgency, and which, in large part, had been of the State’s creation in its failure at some earlier time to commence gathering its business requirements, making any necessary changes to its internal processes and deciding what measures it would take to either upgrade or replace the LATTICE system. When the Project was commenced, the timeframes within which the various stages of it were to be undertaken were hopelessly short, including for scoping. The Project was managed, contrary to the requirements of well-established project management methodology, by undertaking a number of tasks at the same time (including different forms of testing). There was a lack of rigour in this approach. It meant that the Project was not required to pass various checkpoints before proceeding. Where checkpoints did exist, their purpose was circumvented by changing the criteria required to meet them or by their being ignored altogether.</t>
+  </si>
+  <si>
+    <t>IBM new the scope would lead to prohect failure but didn’t intervenew</t>
+  </si>
+  <si>
+    <t>Too Much Optimism</t>
+  </si>
+  <si>
+    <t>To much stakeholder involment with lack of IBM input</t>
+  </si>
+  <si>
+    <t>Poor Leadership</t>
+  </si>
+  <si>
+    <t>Lack of Senior Management Involvement,Support &amp; Commitment</t>
+  </si>
+  <si>
+    <t>No Business Case</t>
+  </si>
+  <si>
+    <t>Manager hoped to benefit from contract</t>
+  </si>
+  <si>
+    <t>Project Complexity</t>
+  </si>
+  <si>
+    <t>Weaknesses in project governance and leadership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over the course of the project, Talent2 had missed agreed milestones or deadlines, which eroded trust and confidence in its ability to deliver. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We are confident that there is scope to address the weaknesses that we have found.Our findings and recommendations are mostly addressed at matters that emerged through the design and delivery of the project. Some of them, however, have relevance for the wider public sector, and other similar projects. We commend them to the attention of all those with public sector leadership roles.   </t>
+  </si>
+  <si>
+    <t>P6,2</t>
+  </si>
+  <si>
+    <t>The relationship between the Ministry and school sector has been uneasy</t>
+  </si>
+  <si>
+    <t>No agreements before embarking on project</t>
+  </si>
+  <si>
+    <t>Inancial management not have enough attention</t>
+  </si>
+  <si>
+    <t>Reports have been inconsistent</t>
+  </si>
+  <si>
+    <t>Found that Ministers were not always well served. Reporting to Ministers has been inconsistent, at times unduly optimistic and sometimes misrepresented the situation</t>
+  </si>
+  <si>
+    <t>Lack of adequate support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The outcome of the procurement process was not inappropriate. On 22 April 2008 the Ministry selected Talent2 as the preferred vendor. The contract that was then negotiated between the Ministry and Talent2 was complex, and when signed on 11 August 2008 it still had significant schedules incomplete.  </t>
+  </si>
+  <si>
+    <t>P7,2</t>
+  </si>
+  <si>
+    <t>P7,3</t>
+  </si>
+  <si>
+    <t>Work commenced on the requirements for the schools payroll project in October 2008. This process was lengthy, and was never actually completed. Even after Go Live, new requirements
+were being discovered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There was little direct customer (boards of trustees) or user (principals and school administrators) involvement in the definition of the requirements, and Datacom’s involvement was minimal.                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirements definition, design, development and testing activity were all occurring in parallel,making it very difficult to maintain a known level of quality. </t>
+  </si>
+  <si>
+    <t>P7,4</t>
+  </si>
+  <si>
+    <t>Important areas were not fully tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Factors </t>
+  </si>
+  <si>
+    <t>Procurement, Section 6.17</t>
+  </si>
+  <si>
+    <t>The evidence supports the conclusion that IBM’s price should have been the subject of full and careful scrutiny by Ms Perrott and the Cost Evaluation Panel with particular reference to the discrepancy between it and its earlier price, and between it and competitors’ prices. There was no such scrutiny. Ms Orange was unaware of the discrepancy and no one bothered to tell her of it. Ms Perrott, who was aware of it, failed to understand its significance, or disregarded it.</t>
+  </si>
+  <si>
+    <t>Fault ultimately was with the organization for not doing something</t>
+  </si>
+  <si>
+    <t>Improper evaluation lead to picking IBM off false scores</t>
+  </si>
+  <si>
+    <t>Management had a relationship with IMB to secure the contract</t>
+  </si>
+  <si>
+    <t>Haste in appointing a prime contractor was a lack of consideration</t>
   </si>
 </sst>
 </file>
@@ -1936,7 +1955,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1945,9 +1964,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1969,6 +1985,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2251,8 +2273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115:E125"/>
+    <sheetView tabSelected="1" topLeftCell="C118" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2262,7 +2284,7 @@
     <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
     <col min="11" max="11" width="21.85546875" customWidth="1"/>
@@ -2273,14 +2295,14 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -2291,322 +2313,334 @@
     </row>
     <row r="2" spans="1:6" ht="64.5" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="E3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="56.25">
-      <c r="A3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="84.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>458</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60">
       <c r="A5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>466</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="56.25">
+        <v>143</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45">
       <c r="A6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>467</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45">
       <c r="A7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>467</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F7" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="37.5">
+    <row r="8" spans="1:6" ht="30">
       <c r="A8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>471</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>161</v>
+        <v>150</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60">
       <c r="A9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="9"/>
       <c r="D9" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
       <c r="A10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="9"/>
       <c r="D10" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="60">
       <c r="A11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="9"/>
       <c r="D11" s="1" t="s">
-        <v>167</v>
+        <v>472</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="60">
       <c r="A12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="9"/>
       <c r="D12" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60">
       <c r="A13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="9"/>
       <c r="D13" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
       <c r="A14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="9"/>
       <c r="D14" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="75">
       <c r="A15" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="9"/>
       <c r="D15" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>151</v>
+      <c r="F15" s="13" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45">
       <c r="A16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="9"/>
       <c r="D16" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="60">
       <c r="A17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="9"/>
       <c r="D17" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45">
       <c r="A18" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="9"/>
       <c r="D18" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="60">
       <c r="A19" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="9"/>
       <c r="D19" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>68</v>
@@ -2617,14 +2651,14 @@
     </row>
     <row r="20" spans="1:6" ht="30">
       <c r="A20" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="9"/>
       <c r="E20" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>75</v>
@@ -2632,17 +2666,17 @@
     </row>
     <row r="21" spans="1:6" ht="60">
       <c r="A21" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C21" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="9"/>
       <c r="D21" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>75</v>
@@ -2650,17 +2684,17 @@
     </row>
     <row r="22" spans="1:6" ht="45">
       <c r="A22" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C22" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="9"/>
       <c r="D22" s="1" t="s">
-        <v>193</v>
+        <v>459</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>75</v>
@@ -2668,17 +2702,17 @@
     </row>
     <row r="23" spans="1:6" ht="30">
       <c r="A23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="C23" s="9"/>
       <c r="D23" s="1" t="s">
-        <v>195</v>
+        <v>462</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>75</v>
@@ -2686,35 +2720,35 @@
     </row>
     <row r="24" spans="1:6" ht="30">
       <c r="A24" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C24" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="9"/>
       <c r="D24" s="1" t="s">
-        <v>197</v>
+        <v>461</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="45">
       <c r="A25" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="9"/>
       <c r="D25" s="1" t="s">
-        <v>199</v>
+        <v>460</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>75</v>
@@ -2722,14 +2756,14 @@
     </row>
     <row r="26" spans="1:6" ht="30">
       <c r="A26" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C26" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="9"/>
       <c r="E26" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>75</v>
@@ -2737,452 +2771,452 @@
     </row>
     <row r="27" spans="1:6" ht="30">
       <c r="A27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C27" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="9"/>
       <c r="E27" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="60">
       <c r="A28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C28" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="9"/>
       <c r="D28" s="1" t="s">
-        <v>204</v>
+        <v>464</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30">
       <c r="A29" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C29" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="9"/>
       <c r="E29" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30">
       <c r="A30" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C30" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C30" s="9"/>
       <c r="E30" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30">
       <c r="A31" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C31" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" s="9"/>
       <c r="E31" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45">
       <c r="A32" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="9"/>
       <c r="D32" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="45">
       <c r="A33" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C33" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="9"/>
       <c r="D33" s="1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30">
       <c r="A34" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C34" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" s="9"/>
       <c r="E34" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30">
       <c r="A35" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C35" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="9"/>
       <c r="E35" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="45">
       <c r="A36" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C36" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" s="9"/>
       <c r="D36" s="1" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30">
       <c r="A37" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C37" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" s="9"/>
       <c r="D37" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30">
       <c r="A38" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C38" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="9"/>
       <c r="E38" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30">
       <c r="A39" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C39" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" s="9"/>
       <c r="E39" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="45">
       <c r="A40" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C40" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" s="9"/>
       <c r="E40" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="45">
       <c r="A41" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C41" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" s="9"/>
       <c r="E41" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30">
       <c r="A42" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C42" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C42" s="9"/>
       <c r="E42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="30">
       <c r="A43" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C43" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="9"/>
       <c r="E43" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="60">
       <c r="A44" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C44" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" s="9"/>
       <c r="D44" s="1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="45">
       <c r="A45" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" s="9"/>
       <c r="D45" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30">
       <c r="A46" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C46" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" s="9"/>
       <c r="E46" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30">
       <c r="A47" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C47" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" s="9"/>
       <c r="E47" s="1" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>241</v>
+        <v>473</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30">
       <c r="A48" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C48" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C48" s="9"/>
       <c r="E48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="60">
       <c r="A49" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C49" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C49" s="9"/>
       <c r="D49" s="1" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="45">
       <c r="A50" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C50" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C50" s="9"/>
       <c r="E50" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="75">
       <c r="A51" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C51" s="9"/>
       <c r="D51" s="1" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30">
       <c r="A52" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C52" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C52" s="9"/>
       <c r="E52" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="45">
       <c r="A53" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C53" s="9"/>
       <c r="D53" s="1" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="45">
       <c r="A54" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C54" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C54" s="9"/>
       <c r="D54" s="1" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>37</v>
@@ -3190,14 +3224,14 @@
     </row>
     <row r="55" spans="1:7" ht="45">
       <c r="A55" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C55" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C55" s="9"/>
       <c r="D55" s="1" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>46</v>
@@ -3208,13 +3242,13 @@
     </row>
     <row r="56" spans="1:7" ht="30">
       <c r="A56" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>256</v>
+        <v>136</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>41</v>
@@ -3225,1409 +3259,1454 @@
     </row>
     <row r="57" spans="1:7" ht="45">
       <c r="A57" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>258</v>
+        <v>136</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="45">
       <c r="A58" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="C58" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C58" s="9"/>
       <c r="D58" s="1" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="45">
       <c r="A59" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>264</v>
+        <v>136</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>246</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="30">
       <c r="A60" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>267</v>
+        <v>136</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="30">
       <c r="A61" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="C61" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" ht="30">
       <c r="A62" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="C62" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" ht="45">
       <c r="A63" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C63" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" ht="30">
       <c r="A64" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="C64" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" ht="30">
       <c r="A65" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C65" t="s">
+        <v>415</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C65" t="s">
-        <v>433</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="F65" s="1" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" ht="75">
       <c r="A66" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="C66" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" ht="30">
       <c r="A67" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="C67" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" ht="75">
       <c r="A68" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="C68" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="45">
       <c r="A69" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="C69" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" ht="30">
       <c r="A70" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C70" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>304</v>
+        <v>285</v>
+      </c>
+      <c r="F70" t="s">
+        <v>74</v>
       </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="C71" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" ht="30">
       <c r="A72" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="C72" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" ht="60">
       <c r="A73" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="C73" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
+      </c>
+      <c r="F73" t="s">
+        <v>74</v>
       </c>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" ht="45">
       <c r="A74" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C74" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" ht="60">
       <c r="A75" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C75" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" ht="60">
       <c r="A76" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="C76" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" ht="60">
       <c r="A77" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C77" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" ht="75">
       <c r="A78" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G78" s="11"/>
+        <v>298</v>
+      </c>
+      <c r="G78" s="10"/>
     </row>
     <row r="79" spans="1:7" ht="90">
       <c r="A79" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G79" s="11"/>
+        <v>298</v>
+      </c>
+      <c r="G79" s="10"/>
     </row>
     <row r="80" spans="1:7" ht="120">
       <c r="A80" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G80" s="11"/>
+      <c r="G80" s="10"/>
     </row>
     <row r="81" spans="1:7" ht="75">
       <c r="A81" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G81" s="11"/>
+        <v>256</v>
+      </c>
+      <c r="G81" s="10"/>
     </row>
     <row r="82" spans="1:7" ht="75">
       <c r="A82" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G82" s="11"/>
+        <v>264</v>
+      </c>
+      <c r="G82" s="10"/>
     </row>
     <row r="83" spans="1:7" ht="75">
       <c r="A83" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G83" s="11"/>
+        <v>264</v>
+      </c>
+      <c r="G83" s="10"/>
     </row>
     <row r="84" spans="1:7" ht="75">
       <c r="A84" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G84" s="11"/>
+        <v>298</v>
+      </c>
+      <c r="G84" s="10"/>
     </row>
     <row r="85" spans="1:7" ht="75">
       <c r="A85" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G85" s="11"/>
+        <v>298</v>
+      </c>
+      <c r="G85" s="10"/>
     </row>
     <row r="86" spans="1:7" ht="135">
       <c r="A86" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G86" s="11"/>
+        <v>298</v>
+      </c>
+      <c r="G86" s="10"/>
     </row>
     <row r="87" spans="1:7" ht="90">
       <c r="A87" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="G87" s="11"/>
+        <v>286</v>
+      </c>
+      <c r="G87" s="10"/>
     </row>
     <row r="88" spans="1:7" ht="90">
       <c r="A88" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G88" s="11"/>
+        <v>264</v>
+      </c>
+      <c r="G88" s="10"/>
     </row>
     <row r="89" spans="1:7" ht="120">
       <c r="A89" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G89" s="11"/>
+        <v>335</v>
+      </c>
+      <c r="G89" s="10"/>
     </row>
     <row r="90" spans="1:7" ht="75">
       <c r="A90" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G90" s="11"/>
+        <v>271</v>
+      </c>
+      <c r="G90" s="10"/>
     </row>
     <row r="91" spans="1:7" ht="45">
       <c r="A91" s="1" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G91" s="12"/>
+        <v>342</v>
+      </c>
+      <c r="G91" s="11"/>
     </row>
     <row r="92" spans="1:7" ht="45">
       <c r="A92" s="1" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="F92"/>
-      <c r="G92" s="12"/>
+      <c r="G92" s="11"/>
     </row>
     <row r="93" spans="1:7" ht="75">
       <c r="A93" s="1" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="F93"/>
-      <c r="G93" s="12"/>
+      <c r="G93" s="11"/>
     </row>
     <row r="94" spans="1:7" ht="45">
       <c r="A94" s="1" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="F94"/>
-      <c r="G94" s="12"/>
+      <c r="G94" s="11"/>
     </row>
     <row r="95" spans="1:7" ht="90">
       <c r="A95" s="1" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="F95"/>
-      <c r="G95" s="12"/>
+      <c r="G95" s="11"/>
     </row>
     <row r="96" spans="1:7" ht="105">
       <c r="A96" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="F96"/>
-      <c r="G96" s="12"/>
+      <c r="G96" s="11"/>
     </row>
     <row r="97" spans="1:7" ht="90">
       <c r="A97" s="1" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="F97"/>
-      <c r="G97" s="12"/>
+      <c r="G97" s="11"/>
     </row>
     <row r="98" spans="1:7" ht="45">
       <c r="A98" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="F98"/>
-      <c r="G98" s="12"/>
+      <c r="G98" s="11"/>
     </row>
     <row r="99" spans="1:7" ht="60">
       <c r="A99" s="1" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="F99"/>
-      <c r="G99" s="12"/>
+      <c r="G99" s="11"/>
     </row>
     <row r="100" spans="1:7" ht="75">
       <c r="A100" s="1" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="F100"/>
-      <c r="G100" s="12"/>
+      <c r="G100" s="11"/>
     </row>
     <row r="101" spans="1:7" ht="75">
       <c r="A101" s="1" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="F101"/>
-      <c r="G101" s="12"/>
+      <c r="G101" s="11"/>
     </row>
     <row r="102" spans="1:7" ht="75">
       <c r="A102" s="1" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="F102"/>
-      <c r="G102" s="12"/>
+      <c r="G102" s="11"/>
     </row>
     <row r="103" spans="1:7" ht="45">
       <c r="A103" s="1" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="F103"/>
-      <c r="G103" s="12"/>
+      <c r="G103" s="11"/>
     </row>
     <row r="104" spans="1:7" ht="120">
       <c r="A104" s="1" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="F104"/>
-      <c r="G104" s="12"/>
+      <c r="G104" s="11"/>
     </row>
     <row r="105" spans="1:7" ht="45">
       <c r="A105" s="1" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="F105"/>
-      <c r="G105" s="12"/>
+      <c r="G105" s="11"/>
     </row>
     <row r="106" spans="1:7" ht="75">
       <c r="A106" s="1" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="F106"/>
-      <c r="G106" s="12"/>
+      <c r="G106" s="11"/>
     </row>
     <row r="107" spans="1:7" ht="60">
       <c r="A107" s="1" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="F107"/>
-      <c r="G107" s="12"/>
+      <c r="G107" s="11"/>
     </row>
     <row r="108" spans="1:7" ht="75">
       <c r="A108" s="1" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="F108"/>
-      <c r="G108" s="12"/>
+      <c r="G108" s="11"/>
     </row>
     <row r="109" spans="1:7" ht="60">
       <c r="A109" s="1" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="F109"/>
-      <c r="G109" s="12"/>
+      <c r="G109" s="11"/>
     </row>
     <row r="110" spans="1:7" ht="45">
       <c r="A110" s="1" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="F110"/>
-      <c r="G110" s="12"/>
+      <c r="G110" s="11"/>
     </row>
     <row r="111" spans="1:7" ht="90">
       <c r="A111" s="1" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="F111"/>
-      <c r="G111" s="12"/>
+      <c r="G111" s="11"/>
     </row>
     <row r="112" spans="1:7" ht="105">
       <c r="A112" s="1" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="F112"/>
-      <c r="G112" s="12"/>
+      <c r="G112" s="11"/>
     </row>
     <row r="113" spans="1:7" ht="105">
       <c r="A113" s="1" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="F113"/>
-      <c r="G113" s="13"/>
+      <c r="G113" s="12"/>
     </row>
     <row r="114" spans="1:7" ht="90">
       <c r="A114" s="1" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F114"/>
-      <c r="G114" s="13"/>
+      <c r="G114" s="12"/>
     </row>
     <row r="115" spans="1:7" ht="75">
       <c r="A115" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>432</v>
+        <v>414</v>
+      </c>
+      <c r="F115" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="105">
       <c r="A116" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>454</v>
+        <v>436</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="105">
       <c r="A117" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>456</v>
+        <v>438</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="165">
       <c r="A118" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>458</v>
+        <v>439</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="150">
       <c r="A119" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>460</v>
+        <v>440</v>
+      </c>
+      <c r="F119" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="150">
       <c r="A120" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
+      </c>
+      <c r="F120" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="90">
       <c r="A121" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="6" t="s">
         <v>85</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>93</v>
+        <v>474</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>266</v>
+        <v>477</v>
+      </c>
+      <c r="E121" t="s">
+        <v>67</v>
+      </c>
+      <c r="F121" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="75">
       <c r="A122" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B122" s="8" t="s">
-        <v>86</v>
+      <c r="B122" s="7" t="s">
+        <v>475</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>213</v>
+        <v>196</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="150">
       <c r="A123" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B123" s="6" t="s">
-        <v>96</v>
+      <c r="B123" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="180">
       <c r="A124" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B124" s="8" t="s">
-        <v>102</v>
+      <c r="B124" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="165">
       <c r="A125" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B125" s="8" t="s">
-        <v>103</v>
+      <c r="B125" s="7" t="s">
+        <v>446</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>76</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="105">
       <c r="A126" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B126" s="6" t="s">
-        <v>99</v>
+      <c r="B126" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F126" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="75">
       <c r="A127" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B127" s="6" t="s">
-        <v>105</v>
+      <c r="B127" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F127" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="150">
       <c r="A128" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B128" s="6" t="s">
-        <v>126</v>
+      <c r="B128" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="120">
       <c r="A129" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B129" s="6" t="s">
-        <v>109</v>
+      <c r="B129" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="300">
       <c r="A130" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B130" s="6" t="s">
-        <v>110</v>
+      <c r="B130" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="60">
       <c r="A131" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B131" s="6" t="s">
-        <v>97</v>
+      <c r="B131" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="60">
@@ -4635,10 +4714,10 @@
         <v>78</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="210">
@@ -4646,10 +4725,10 @@
         <v>78</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="210">
@@ -4657,10 +4736,10 @@
         <v>78</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="135">
@@ -4668,10 +4747,10 @@
         <v>78</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="120">
@@ -4679,10 +4758,10 @@
         <v>78</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="90">
@@ -4690,10 +4769,10 @@
         <v>78</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="180">
@@ -4701,10 +4780,10 @@
         <v>78</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="120">
@@ -4712,10 +4791,10 @@
         <v>78</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="90">
@@ -4723,10 +4802,10 @@
         <v>78</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="105">
@@ -4734,10 +4813,10 @@
         <v>78</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="75">
@@ -4745,10 +4824,10 @@
         <v>78</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="90">
@@ -4756,10 +4835,10 @@
         <v>78</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="255">
@@ -4767,15 +4846,15 @@
         <v>78</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="105">
       <c r="B145" s="1" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="210">
@@ -4783,10 +4862,10 @@
         <v>78</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="165">
@@ -4794,10 +4873,10 @@
         <v>78</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="180">
@@ -4805,14 +4884,19 @@
         <v>78</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E121" xr:uid="{FED73E1F-3CAB-4959-A155-64A2784C84F4}">
+      <formula1>Code</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -4828,7 +4912,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>F1 F3:F18 F20:F1048576</xm:sqref>
+          <xm:sqref>F1 F3:F18 F74:F114 F20:F69 F71:F72 F128:F1048576 F123:F125</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
@@ -4838,9 +4922,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1000297D-424E-46C1-B37D-1322B7248674}">
           <x14:formula1>
-            <xm:f>'[Thematic-Coding.xlsx]Sheet2'!#REF!</xm:f>
+            <xm:f>Sheet2!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>E115:E125</xm:sqref>
+          <xm:sqref>E115:E120 E122:E125</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4852,8 +4936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4863,15 +4947,16 @@
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F1" t="s">
@@ -4885,7 +4970,7 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G2" t="s">
@@ -4896,7 +4981,7 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G3" t="s">
@@ -4907,7 +4992,7 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G4" t="s">
@@ -4918,7 +5003,7 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G5" t="s">
@@ -4929,14 +5014,14 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
+      <c r="B6" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4944,7 +5029,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4968,7 +5053,7 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5027,7 +5112,7 @@
         <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5075,7 +5160,7 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5094,7 +5179,7 @@
         <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5118,7 +5203,7 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5427,4 +5512,18 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E76EE64-0A9E-44AF-82E7-143946A1446C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Thematic-Coding.xlsx
+++ b/Thematic-Coding.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidde\Dropbox\Kieran Third year\BCIS301 _ AMIC700\Assignment 1\BCIS301---AMIC700---Thematic-Coding-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674C72CC-2C16-4228-8E26-28E24B3E1026}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41505DD4-9CE1-4302-9C0A-DE12E01063F0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8595" yWindow="195" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_ftn1" localSheetId="0">'Sheet1 (2)'!$B$25</definedName>
@@ -24,10 +23,10 @@
     <definedName name="_ftnref2" localSheetId="0">'Sheet1 (2)'!$B$23</definedName>
     <definedName name="Environmental_Factors">Sheet2!$A$1:$A$5</definedName>
     <definedName name="Organizational_Factors">Sheet2!$A$6:$A$15</definedName>
-    <definedName name="Poor_Management_Factors">Sheet2!$A$39:$A$64</definedName>
-    <definedName name="Project_Factors">Sheet2!$A$24:$A$29</definedName>
+    <definedName name="Poor_Management_Factors">Sheet2!$A$36:$A$54</definedName>
+    <definedName name="Project_Factors">Sheet2!$A$24:$A$28</definedName>
     <definedName name="Team_Factors">Sheet2!$A$16:$A$23</definedName>
-    <definedName name="Technology_Factors">Sheet2!$A$30:$A$38</definedName>
+    <definedName name="Technology_Factors">Sheet2!$A$29:$A$35</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="500">
   <si>
     <t>CaseStudy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Misfit between Project type and PM style</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Technology Factors</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Misalignment of IT with Business Processes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Poor Testing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,10 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Inappropriate Data Model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Too Many Bugs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,10 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PM Methodology/Process Used</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lack of Risk Management</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,22 +239,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Poor Quality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lack of Resources</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Poor Project Planning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inappropriate Estimations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Poor Design</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,10 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Changing Priorities</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ineffective Project Change Controls</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,10 +292,6 @@
   </si>
   <si>
     <t>Poor Documentation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Too Late Investments</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -418,9 +381,6 @@
 Project Management, Section 2.46</t>
   </si>
   <si>
-    <t>The system was inadequately scoped and neither party took any effective measures to stabilise it. Both parties ignored all the warning signs of a project in serious distress. Rather than reset the Project or take decisive steps to put it on a stable course, they altered or lowered the thresholds which had been put in place to protect against the very thing which eventuated: a system of poor quality which was not ready to Go Live. Doing so meant that the system, when it went live, would not be functional and constituted a clear breach of the most fundamental principles of project management. Poor decisions were made, Dr Manfield said, under the intense pressure of the time imperative . I would agree, and add only that the pressure of time was something which the parties had imposed upon themselves, and it was therefore something which it was within the control of the State, in particular, to deal with, including, as I have said, by investigating alternatives to upgrade LATTICE or maintain its support while hard decisions were made about the system then still under construction</t>
-  </si>
-  <si>
     <t>Contract and
 Project Management, Section 2.47</t>
   </si>
@@ -443,41 +403,11 @@
     <t>The genesis of many of these problems was the rushed scoping exercise. A total of about one month was allowed for this to occur. That, on any view, was too short. Mr Thatcher, Chief Information Officer of Mater Misericordiae Health Services, explained that in a recent successful HR roll out which he oversaw not only did the scoping exercise take three years, it was accompanied by considerable focus and discipline in deciding the "target state” that the organisation wished to achieve . Here, the parties had not only to arrive at a scope, but in the process of doing so had to make hard judgments about what was and was not to be required as part of a system which was to be both interim and have minimal functionality</t>
   </si>
   <si>
-    <t xml:space="preserve">Scope, having had this very unsatisfactory beginning, remained ill-defined, volatile and unclear. Neither party took any effective measures to define and stabilise scope at any time during the Project. IBM seemed content to have defined scope in a way which it must have known could not result in a functional payroll system and to rely, whenever challenged, on the text of the QHIC Scope Definition. Its task was to gather requirements. It did so incompletely, relying on its obligation to do so stopping short of being responsible for eliciting such requirements from its customer. The State, on the other hand, was recalcitrant in adopting a less than diligent approach to ascertaining and communicating its business requirements to IBM. It regarded IBM as responsible for eliciting requirements from it, and considered instead IBM’s obligation to deliver the project to be for a "stable, supported and supportable” system . In short, the State assumed it had contracted for, and would get, a system which paid staff accurately, perhaps with some manual intervention, but, largely, to do so in an automated way. IBM considered its obligation, subject to some matters set out below, to be to deliver the system which would follow (and no matter what it looked like as a result) from a strict application of the QHIC Scope Definition.
-Uncertainties as to scope are not uncommon problems in IT contracts. What is uncommon here is that, despite the problem being a known area of risk, the parties, both experienced in supplying and purchasing large IT systems respectively, were content to proceed notwithstanding they both had very different views as to scope. They thus ignored an area of risk which was known to them and one which they ought to have done more to resolve.
-</t>
-  </si>
-  <si>
-    <t>Contract and
-Project Management, Section 4.79, 4.80</t>
-  </si>
-  <si>
     <t>The decision to Go Live ought not to have been made when it was. Any rational assessment would have deferred the Go Live, with some very determined effort to reset the Project and make some alternative arrangements for the ongoing support of LATTICE if, indeed, more support than Mr Hood’s team was capable of providing was required.</t>
   </si>
   <si>
     <t>Contract and
 Project Management, Section 6.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is clear that many of the problems which were experienced after Go Live and which affected pay involved Workbrain. Ms Stewart identified Workbrain’s performance as the most significant system issue post-Go Live . This exhibited itself in slowness of the MVS, difficulties viewing, updating and publishing rosters in the MVS, individual users being unexpectedly locked out of Workbrain, and general slowness across the Workbrain application .
-Part of the problem was its sheer slowness in processing rosters. Payroll staff, as a result, Ms Jones explained, simply did not have enough time to add all the data in to the roster environment to get the rosters published . The problem may have been caused by a number of users in the same area using the system at the same time, thereby creating too much of a load on the system so that it would lock them out or freeze. Operators had to exit the system and re-enter it . The problem was something with which any system, whether interim and minimal or not, ought to have been capable of dealing. Ms Jones estimated that about 100 payroll staff across the state at any given time were affected by this problem .
-</t>
-  </si>
-  <si>
-    <t>Contract and
-Project Management, Section 7.49, 7.50</t>
-  </si>
-  <si>
-    <t>Mr Kwiatkowski sought also to catalogue what I have described as the business process problems which confronted the system on Go Live . They, as I have said, are accepted by Ms Jones and Ms Stewart to have contributed to the problems which were experienced after Go Live. But it remains that there were problems also with the computer system itself, problems which concerned the way in which it had been designed and/ or built and ones which, business processes aside, caused staff not to be paid or to be paid inaccurately.
-The IBM witnesses have, necessarily, incomplete knowledge of exactly what was required to bring the system to a state of reasonable functionality. Ms Stewart, who had responsibility for doing so, said that it took some considerable time to achieve that, and that process to have involved many changes to it and much work. She spoke, for example, of the need to rewrite "code”, that is the programming within the system after IBM had left the Project. She used, to achieve that, staff who had worked for IBM on the Project and who were quite capable of writing good code, code which more efficiently achieved its intended purpose than that which had been written under IBM’s supervision .</t>
-  </si>
-  <si>
-    <t>Contract and
-Project Management, Section 7.59, 7.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67 I find that the system, when it went live, and for some considerable period afterwards, had serious functional deficiencies. Mr Burns and Mr Shah had warned of this as being a real possibility in the Risk Assessment Report. Mr Cowan’s Final UAT Report had identified it as likely and perhaps inevitable. It must have been obvious, by the time the decision was made to Go Live, that the system, given these warnings, and the problems with scope which had never properly been resolved, would experience those kinds of problems. The Final UAT Report had made clear also that there were likely to exist in the system functional deficiencies which UAT had not discovered, having (quite properly) tested only part of the system.
-</t>
   </si>
   <si>
     <t>Contract and
@@ -493,24 +423,6 @@
 Project Management, Section 7.68, 7.69</t>
   </si>
   <si>
-    <t>Settlement, Section 7.3, 7.4</t>
-  </si>
-  <si>
-    <t>Settlement, Section 7.6, 7.7</t>
-  </si>
-  <si>
-    <t>The decision to settle was taken without any proper analysis or examination of the factors identified in the submissions to the CBRC as risks, the avoidance of which motivated the settlement. In particular, advice, repeated several times, that an opinion be obtained about the value of the State’s rights against IBM was never acted on, and the State released those rights without ever having obtained an assessment of their value. They were potentially worth tens of millions of dollars.
-The settlement was driven by assumptions that without IBM’s presence there was a substantial risk that the payroll system would fail utterly and that if the State insisted upon its contractual right to terminate, IBM would disregard its disengagement obligations and refuse to assist with the remediation and/or improvement of the system. The first assumption was wrong as inquiries of Ms Stewart and her team would have shown. The second assumption (which became irrelevant if the first assumption was invalid) was never tested and appears on its face unlikely.</t>
-  </si>
-  <si>
-    <t>The State preferred to reach a negotiated agreement with IBM rather than commencing legal proceedings. That preference cannot be criticised: it was reasonable subject to being able to reach acceptable terms with IBM.
-The State’s solicitors, and a number of its qualified public servants, advised that the State’s negotiating position would be strengthened by terminating the contract. There was no impediment to negotiating an agreement with IBM after termination.</t>
-  </si>
-  <si>
-    <t>For the State representatives to take such a view was unjustified and grossly negligent. IBM, commercially motivated as it was, had communicated the points beyond which further agreement would be required to be reached (and implying the need to pay more money). These points were not ones which would have resulted in a functional payroll system, and that is a matter which reflects poorly on IBM. But it had been sufficiently clear in stating these limitations. The State, however, ignored those statements and 
-proceeded as if, whether it assisted or not, IBM would be both capable of delivering, and would be obliged to deliver, a functional payroll system. Both of those assumptions were wrong. They are based, I think, on a fundamental misconception that, by appointing a prime contractor, the State had no responsibility to ensure the system was designed and built properly.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The State’s response to the delivery of a malfunctioning payroll system was timid. Its attempts to recover any recompense for the delivery of a malfunctioning payroll system were ineffectual. The information and advice available at the time were enough to indicate that the settlement should not have been agreed. The responsibility rests principally upon Mr Grierson who at the meeting of 16 August 2010 chose the option that gave the State the least chance of obtaining satisfaction from IBM and gave IBM the best chance of securing a release from liability. That bad decision was compounded by Mr Grierson’s capitulation in the negotiations on 19 August 2010.
 </t>
   </si>
@@ -521,17 +433,6 @@
     <t>Recommendations, Section 2.3</t>
   </si>
   <si>
-    <t>I have identified two principal causes of the inadequacies which led to the increase in contract price, the serious shortcomings in contract and project management, and in the State’s decision to settle with IBM. Those causes were: unwarranted urgency and a lack of diligence on the part of State officials. That lack of diligence manifested itself in the poor decisions which those officials made in scoping the Interim Solution; in their governance of the Project; and in failing to hold IBM to account to deliver a functional payroll system.</t>
-  </si>
-  <si>
-    <t>Contract and
-Project Management, Section 2.35, 2.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I found Ms Stewart’s evidence about the problems which were experienced in the system and its related processes to be more informative and reliable than that of Ms Jones. Ms Stewart’s knowledge of the relevant events was more balanced and she was able better to recall (and explain) the technical and other difficulties which were experienced in the period after Go Live. She had the advantage also of having had a close involvement with the system for a longer period post-Go Live than Ms Jones, and in particular by seeing and being involved in how the deficiencies with it and related processes were resolved. Ms Stewart had helped to prepare the three post-Go Live updates of 19 March (Updates 1 and 2) and 9 April 2010 (Update 3)  and knew which issues persisted beyond the first three pay runs . This gave her an insight into the nature of the problems, their seriousness and the work which was required to correct them which Ms Jones did not have. This makes her in my view a far superior witness to Ms Jones, and a witness whose evidence is supported by that of Mr Michael Walsh, Executive Program Director, Payroll Stabilisation Project, and by Mr Cowan.
-</t>
-  </si>
-  <si>
     <t>Contract and
 Project Management, Section 7.9</t>
   </si>
@@ -547,9 +448,6 @@
 Project Management, Section 7.29</t>
   </si>
   <si>
-    <t>It took time for the problems with the system to manifest themselves. As I have explained, retrospectiveprocessing did not commence until the second pay run. It may have been that staff took a pay or two to realise that their pay was inaccurate, or they were patient about pay irregularities, being aware that the system was new, no doubt thinking that whatever the problems with pay were that they would be corrected in due course. Whatever the reasons, I accept Ms Stewart’s evidence, because she was in the position to know, "there was a large number of issues that were surfacing that were not visible at the time of go live” , and that "it was probably other issues surfacing on top of the defect management plan that started to complicate the situation” . There is no doubt on the evidence that the Defect Management Plan could never have been a complete record of the defects which existed at Go Live . Mr Cowan had warned it to be likely that defects additional to those he had identified during UAT existed, given that this was not the function or purpose of UAT</t>
-  </si>
-  <si>
     <t>Summary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -581,10 +479,6 @@
   </si>
   <si>
     <t>Ineffective Communication</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poor Management Factors</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -639,17 +533,6 @@
     <t>Poor Testing</t>
   </si>
   <si>
-    <t>Technology Factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> However, it underestimated the impacts of the changes required of the schools by the introduction of the new payroll service. The execution of the change management plans which the Ministry did have was inadequate, and roles were unclear.The engagement with the payroll service’s customers and users was also insufficient   P8,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>the execution of change management was inadequate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>At the 9 February 2012 meeting of the Project Board, the Novopay Business Owner indicated that a Go Live date of 14 August 2012 was the “absolutely last preferred date”. At this time
 the project defined two Confidence Points, endorsed by PricewaterhouseCoopers, which were intended to act as project stage gates.    P8,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -679,15 +562,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The lack of discussion by the Project Board about the State Services Commission’s guidelines for the management and monitoring of major IT projects was a major failing. There
-was a large degree of turnover in key project leadership positions throughout    P5,3</t>
-  </si>
-  <si>
     <t>The lack of discussion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The lack of a Programme Director with overall accountability reporting to the project’s Senior Responsible Officer meant that the Project Board and the Business Owner were the effective points of integration for programme planning and management.   P11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -737,10 +612,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>We are also surprised that the financial management of this project seems not to have attracted greater attention</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The schools payroll environment is overly complex as a result of an accumulation of historical changes. There was no serious attempt to simplify collective agreements or Ministry or school
 business processes before embarking on the Novopay project</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -827,10 +698,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The schools payroll environment is overly complex as a result of an accumulation of historical changes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -839,15 +706,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Project</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The Ministry’s requirements for the outsourced service, as outlined in the RFP, were too high level to convey the full complexity of the required solution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>management</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -864,14 +723,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The contract did not have appropriately escalating mechanisms for performance management.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>project</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The process of gathering user requirements was poorly managed and took too long</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -977,11 +828,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Key system support processes such as incident management, defect management and change and release management existed but did not always operate effectively in the weeks
-following Go Live</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">P57,6 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1104,10 +950,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">From a theoretical standpoint, the present SOE case demonstrates success based on existing literature, albeit some challenges were apparent, namely in communication as the catalyst in change management, organizational culture as the salient determinants of an organization’s attitudes, thought processes and actions, or various tradeoffs regarding project management issues and consultant-user relationships. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Need do great and engouh research about the project.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1203,10 +1045,6 @@
     <t>The flow of people will have a negative impact.</t>
   </si>
   <si>
-    <t>Good management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Management Factor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1235,29 +1073,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The single most indisputable factor that influences the success of system implementation documented by information systems theorists and organizational theorists in the past forty years is “top management support”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>the  most important factor effecy IT project is Management Support.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>With its preempted integration, the ERP implementation process can be quite complex and involves different organizational units and different levels of management. Without management support, especially at the top, the implementation of ERP project would face unexpected problems and consequences.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The implementation of the project is very complicated and involves many departments, so it requires the control of senior management.</t>
-  </si>
-  <si>
-    <t>Besides top management support, other factors determining ERP project success are user involvement, effective change management, vendor support, turnover of vendors and project team members, and organizational culture fit.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Other factors effect IT project include user involvement, effective change management, vendor support, turnover of vendors and project team members, and organizational culture fit.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Good relationship among the different sections.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1298,23 +1117,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Risk factors, on the other hand, focused on strategic and organizational success factors. The most important risk factor categories in ERP implementation are “selection and adaptation” and “change management”. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Risk Factors analysis is also important.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>They also identified the top ten risk ERP factors as lack of senior manager commitment to the project, ineffective communication with users, insufficient training of end-users, failure to gain user support, lack of effective project management methodology, attempting to build bridges to legacy applications, conflicts between user departments, composition of project team members, failure to redesign business processes, and unclear/misunderstanding changing requirements.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Here are ten key risk factors that will impact the success and failure of IT projects.</t>
-  </si>
-  <si>
-    <t>They stated that ineffective project management techniques, inadequate change management, and inadequate training and instruction are the highest risk factors in the implementation/deployment phase. Top management and user involvement were not rated as high of a risk factor as inadequate ERP selection. These risk factors seem to play a role only at the early phases of ERP implementation. However, risk factors become less of a focal point once the ERP has been stabilized and enters the post implementation stage.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Several important risk factors are proposed here, but according to the final research performance, these factors play an important role in the initial stage of the project. But in the later period, they have no effect.</t>
@@ -1497,10 +1304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The departure of key management personnel led to personnel changes and insufficient project follow-up. The last project failed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Frequent personnel changes; lack of communications</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1524,10 +1327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lack of knowledg management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The delivery and implementation of Connecting for Health’s IT systems was characterised by ongoing functionality concerns which began soon after the earliest installations of NPfIT software.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1629,10 +1428,6 @@
   </si>
   <si>
     <t>Variations to the contract continued up until the system went live. They number in the order of 220. Some were proposed by IBM, some by the State. It is not always of significance which party initiated each change. In some cases, Changes were the culmination of negotiation or discussion, such as Change 184 which the parties had agreed well before that variation had been initiated, in a formal sense, by the State.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numerous other variations to the contract followed. Many of the Changes effecting those variations offered as their basis that business requirements had been "missed”. No adequate inquiry appears to have been conducted as to the cause of that having occurred. The State, having been less than diligent in its participation in the scoping exercise, seemed content to agree to these variations and to pay IBM to make them. That there were missed requirements is evidence of deficiencies in the scoping exercise.
-</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1647,15 +1442,6 @@
 Project Management, Section 2.34</t>
   </si>
   <si>
-    <t>Contract and
-Project Management, Section 2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Had the parties simply adhered to the controls which they had in place at the commencement of the Project, the system would never have progressed to the point at which serious compromises had to be made to Go Live. The system had reached that stage only because of conscious decisions made by the parties to "lower the bar” as
-Dr Manfield said39 by changing the criteria by which it would be permitted to proceed to the next stage and by decisions to downgrade the Severity of defects which had been identified. Being aware of the major functional issues, and having removed them as a basis for preventing the system progressing towards Go Live, the parties prepared a "Solution and Defect Management Plan” (Defect Management Plan). This plan proposed to deal with such defects as were then known by, among other mechanisms, what was known as a "workaround”, namely a manual intervention, or by simply deferring the fixing of the problem until after Go Live. This was folly, but it was made worse by the fact that, on no view could the parties have thought that all the major functional defects had been identified. Mr Cowan had made absolutely clear that it was likely that further major defects existed, which it was not the role or function of the type of testing he was conducting to discover .
-</t>
-  </si>
-  <si>
     <t>It was always inevitable, therefore, that without the Project being reset, these decisions would lead to a system which was seriously functionally deficient. Despite that, no real practical alternative was put in place. Although CorpTech had, very sensibly, resourced itself to maintain LATTICE, that option was either considered not feasible or was not sufficiently investigated. There appears to have been inadequate consideration given to the option of upgrading the LATTICE system or coming to some arrangement with its vendor (Talent2) to maintain support until some other alternative could be found.</t>
   </si>
   <si>
@@ -1755,9 +1541,6 @@
     <t>Inadequately scoped and neither party took any effective measures to stabilise it.</t>
   </si>
   <si>
-    <t>The Project was, from the outset, one which was conducted in an atmosphere of urgency, and which, in large part, had been of the State’s creation in its failure at some earlier time to commence gathering its business requirements, making any necessary changes to its internal processes and deciding what measures it would take to either upgrade or replace the LATTICE system. When the Project was commenced, the timeframes within which the various stages of it were to be undertaken were hopelessly short, including for scoping. The Project was managed, contrary to the requirements of well-established project management methodology, by undertaking a number of tasks at the same time (including different forms of testing). There was a lack of rigour in this approach. It meant that the Project was not required to pass various checkpoints before proceeding. Where checkpoints did exist, their purpose was circumvented by changing the criteria required to meet them or by their being ignored altogether.</t>
-  </si>
-  <si>
     <t>IBM new the scope would lead to prohect failure but didn’t intervenew</t>
   </si>
   <si>
@@ -1798,9 +1581,6 @@
   </si>
   <si>
     <t>No agreements before embarking on project</t>
-  </si>
-  <si>
-    <t>Inancial management not have enough attention</t>
   </si>
   <si>
     <t>Reports have been inconsistent</t>
@@ -1856,6 +1636,248 @@
   </si>
   <si>
     <t>Haste in appointing a prime contractor was a lack of consideration</t>
+  </si>
+  <si>
+    <t>For the State representatives to take such a view was unjustified and grossly negligent. IBM, commercially motivated as it was, had communicated the points beyond which further agreement would be required to be reached (and implying the need to pay more money). These points were not ones which would have resulted in a functional payroll system, and that is a matter which reflects poorly on IBM. But it had been sufficiently clear in stating these limitations. The State, however, ignored those statements and proceeded as if, whether it assisted or not, IBM would be both capable of delivering, and would be obliged to deliver, a functional payroll system. Both of those assumptions were wrong. They are based, I think, on a fundamental misconception that, by appointing a prime contractor, the State had no responsibility to ensure the system was designed and built properly.</t>
+  </si>
+  <si>
+    <t>Stakeholder ignored the limitations IBM stated and misconceptions of who was responsible for the project</t>
+  </si>
+  <si>
+    <t>The parties had not only to arrive at a scope after the initial rushed scope and three years of deveopments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scope, having had this very unsatisfactory beginning, remained ill-defined, volatile and unclear. Neither party took any effective measures to define and stabilise scope at any time during the Project. IBM seemed content to have defined scope in a way which it must have known could not result in a functional payroll system and to rely, whenever challenged, on the text of the QHIC Scope Definition. Its task was to gather requirements. It did so incompletely, relying on its obligation to do so stopping short of being responsible for eliciting such requirements from its customer. The State, on the other hand, was recalcitrant in adopting a less than diligent approach to ascertaining and communicating its business requirements to IBM. It regarded IBM as responsible for eliciting requirements from it, and considered instead IBM’s obligation to deliver the project to be for a "stable, supported and supportable” system . In short, the State assumed it had contracted for, and would get, a system which paid staff accurately, perhaps with some manual intervention, but, largely, to do so in an automated way. IBM considered its obligation, subject to some matters set out below, to be to deliver the system which would follow (and no matter what it looked like as a result) from a strict application of the QHIC Scope Definition.
+</t>
+  </si>
+  <si>
+    <t>Uncertainties as to scope are not uncommon problems in IT contracts. What is uncommon here is that, despite the problem being a known area of risk, the parties, both experienced in supplying and purchasing large IT systems respectively, were content to proceed notwithstanding they both had very different views as to scope. They thus ignored an area of risk which was known to them and one which they ought to have done more to resolve.</t>
+  </si>
+  <si>
+    <t>Contract and
+Project Management, Section 4.80</t>
+  </si>
+  <si>
+    <t>Contract and
+Project Management, Section 4.79</t>
+  </si>
+  <si>
+    <t>Scope, having had this very unsatisfactory beginning, remained ill-defined, volatile and unclear.</t>
+  </si>
+  <si>
+    <t>They thus ignored an area of risk which was known to them and one which they ought to have done more to resolve.</t>
+  </si>
+  <si>
+    <t>Overshadowed any measured and analytical assessment and weighing of the relevant factors</t>
+  </si>
+  <si>
+    <t>The decision to Go Live ought not to have been made when it was</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is clear that many of the problems which were experienced after Go Live and which affected pay involved Workbrain. Ms Stewart identified Workbrain’s performance as the most significant system issue post-Go Live . This exhibited itself in slowness of the MVS, difficulties viewing, updating and publishing rosters in the MVS, individual users being unexpectedly locked out of Workbrain, and general slowness across the Workbrain application .
+</t>
+  </si>
+  <si>
+    <t>Part of the problem was its sheer slowness in processing rosters. Payroll staff, as a result, Ms Jones explained, simply did not have enough time to add all the data in to the roster environment to get the rosters published . The problem may have been caused by a number of users in the same area using the system at the same time, thereby creating too much of a load on the system so that it would lock them out or freeze. Operators had to exit the system and re-enter it . The problem was something with which any system, whether interim and minimal or not, ought to have been capable of dealing. Ms Jones estimated that about 100 payroll staff across the state at any given time were affected by this problem.</t>
+  </si>
+  <si>
+    <t>Contract and
+Project Management, Section 7.49</t>
+  </si>
+  <si>
+    <t>Contract and
+Project Management, Section 7.50</t>
+  </si>
+  <si>
+    <t>Technical issue with there system being to slow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I find that the system, when it went live, and for some considerable period afterwards, had serious functional deficiencies. Mr Burns and Mr Shah had warned of this as being a real possibility in the Risk Assessment Report. Mr Cowan’s Final UAT Report had identified it as likely and perhaps inevitable. It must have been obvious, by the time the decision was made to Go Live, that the system, given these warnings, and the problems with scope which had never properly been resolved, would experience those kinds of problems. The Final UAT Report had made clear also that there were likely to exist in the system functional deficiencies which UAT had not discovered, having (quite properly) tested only part of the system.
+</t>
+  </si>
+  <si>
+    <t>Mr Kwiatkowski sought also to catalogue what I have described as the business process problems which confronted the system on Go Live . They, as I have said, are accepted by Ms Jones and Ms Stewart to have contributed to the problems which were experienced after Go Live. But it remains that there were problems also with the computer system itself, problems which concerned the way in which it had been designed and/ or built and ones which, business processes aside, caused staff not to be paid or to be paid inaccurately.</t>
+  </si>
+  <si>
+    <t>The IBM witnesses have, necessarily, incomplete knowledge of exactly what was required to bring the system to a state of reasonable functionality. Ms Stewart, who had responsibility for doing so, said that it took some considerable time to achieve that, and that process to have involved many changes to it and much work. She spoke, for example, of the need to rewrite "code”, that is the programming within the system after IBM had left the Project. She used, to achieve that, staff who had worked for IBM on the Project and who were quite capable of writing good code, code which more efficiently achieved its intended purpose than that which had been written under IBM’s supervision .</t>
+  </si>
+  <si>
+    <t>Contract and
+Project Management, Section 7.60</t>
+  </si>
+  <si>
+    <t>Contract and
+Project Management, Section 7.59</t>
+  </si>
+  <si>
+    <t>Problems with scope which had never properly been resolved, would experience those kinds of problem</t>
+  </si>
+  <si>
+    <t>The IBM witnesses have, necessarily, incomplete knowledge of exactly what was required to bring the system to a state of reasonable functionality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problems which concerned the way in which it had been designed and/ or built </t>
+  </si>
+  <si>
+    <t>Defect Management Plan, impracticable anyway on its own, was by no means an exhaustive list of the problems</t>
+  </si>
+  <si>
+    <t>Delivery Factors</t>
+  </si>
+  <si>
+    <t>Ineffective Project Change Controls</t>
+  </si>
+  <si>
+    <t>Management Factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> However, it underestimated the impacts of the changes required of the schools by the introduction of the new payroll service. The execution of the change Management Factors plans which the Ministry did have was inadequate, and roles were unclear.The engagement with the payroll service’s customers and users was also insufficient   P8,2</t>
+  </si>
+  <si>
+    <t>the execution of change Management Factors was inadequate</t>
+  </si>
+  <si>
+    <t>The lack of discussion by the Project Board about the State Services Commission’s guidelines for the Management Factors and monitoring of major IT projects was a major failing. There
+was a large degree of turnover in key project leadership positions throughout    P5,3</t>
+  </si>
+  <si>
+    <t>The lack of a Programme Director with overall accountability reporting to the project’s Senior Responsible Officer meant that the Project Board and the Business Owner were the effective points of integration for programme planning and Management Factors.   P11</t>
+  </si>
+  <si>
+    <t>We are also surprised that the financial Management Factors of this project seems not to have attracted greater attention</t>
+  </si>
+  <si>
+    <t>Inancial Management Factors not have enough attention</t>
+  </si>
+  <si>
+    <t>The contract did not have appropriately escalating mechanisms for performance Management Factors.</t>
+  </si>
+  <si>
+    <t>Key system support processes such as incident Management Factors, defect Management Factors and change and release Management Factors existed but did not always operate effectively in the weeks
+following Go Live</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From a theoretical standpoint, the present SOE case demonstrates success based on existing literature, albeit some challenges were apparent, namely in communication as the catalyst in change Management Factors, organizational culture as the salient determinants of an organization’s attitudes, thought processes and actions, or various tradeoffs regarding project Management Factors issues and consultant-user relationships. </t>
+  </si>
+  <si>
+    <t>Good Management Factors</t>
+  </si>
+  <si>
+    <t>The single most indisputable factor that influences the success of system implementation documented by information systems theorists and organizational theorists in the past forty years is “top Management Factors support”</t>
+  </si>
+  <si>
+    <t>With its preempted integration, the ERP implementation process can be quite complex and involves different organizational units and different levels of Management Factors. Without Management Factors support, especially at the top, the implementation of ERP project would face unexpected problems and consequences.</t>
+  </si>
+  <si>
+    <t>The implementation of the project is very complicated and involves many departments, so it requires the control of senior Management Factors.</t>
+  </si>
+  <si>
+    <t>Besides top Management Factors support, other factors determining ERP project success are user involvement, effective change Management Factors, vendor support, turnover of vendors and project team members, and organizational culture fit.</t>
+  </si>
+  <si>
+    <t>Other factors effect IT project include user involvement, effective change Management Factors, vendor support, turnover of vendors and project team members, and organizational culture fit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk factors, on the other hand, focused on strategic and organizational success factors. The most important risk factor categories in ERP implementation are “selection and adaptation” and “change Management Factors”. </t>
+  </si>
+  <si>
+    <t>They also identified the top ten risk ERP factors as lack of senior manager commitment to the project, ineffective communication with users, insufficient training of end-users, failure to gain user support, lack of effective project Management Factors methodology, attempting to build bridges to legacy applications, conflicts between user departments, composition of project team members, failure to redesign business processes, and unclear/misunderstanding changing requirements.</t>
+  </si>
+  <si>
+    <t>They stated that ineffective project Management Factors techniques, inadequate change Management Factors, and inadequate training and instruction are the highest risk factors in the implementation/deployment phase. Top Management Factors and user involvement were not rated as high of a risk factor as inadequate ERP selection. These risk factors seem to play a role only at the early phases of ERP implementation. However, risk factors become less of a focal point once the ERP has been stabilized and enters the post implementation stage.</t>
+  </si>
+  <si>
+    <t>The departure of key Management Factors personnel led to personnel changes and insufficient project follow-up. The last project failed.</t>
+  </si>
+  <si>
+    <t>lack of knowledg Management Factors</t>
+  </si>
+  <si>
+    <t>The system was inadequately scoped and neither party took any effective measures to stabilise it. Both parties ignored all the warning signs of a project in serious distress. Rather than reset the Project or take decisive steps to put it on a stable course, they altered or lowered the thresholds which had been put in place to protect against the very thing which eventuated: a system of poor quality which was not ready to Go Live. Doing so meant that the system, when it went live, would not be functional and constituted a clear breach of the most fundamental principles of project Management Factors. Poor decisions were made, Dr Manfield said, under the intense pressure of the time imperative . I would agree, and add only that the pressure of time was something which the parties had imposed upon themselves, and it was therefore something which it was within the control of the State, in particular, to deal with, including, as I have said, by investigating alternatives to upgrade LATTICE or maintain its support while hard decisions were made about the system then still under construction</t>
+  </si>
+  <si>
+    <t>The Project was, from the outset, one which was conducted in an atmosphere of urgency, and which, in large part, had been of the State’s creation in its failure at some earlier time to commence gathering its business requirements, making any necessary changes to its internal processes and deciding what measures it would take to either upgrade or replace the LATTICE system. When the Project was commenced, the timeframes within which the various stages of it were to be undertaken were hopelessly short, including for scoping. The Project was managed, contrary to the requirements of well-established project Management Factors methodology, by undertaking a number of tasks at the same time (including different forms of testing). There was a lack of rigour in this approach. It meant that the Project was not required to pass various checkpoints before proceeding. Where checkpoints did exist, their purpose was circumvented by changing the criteria required to meet them or by their being ignored altogether.</t>
+  </si>
+  <si>
+    <t>I have identified two principal causes of the inadequacies which led to the increase in contract price, the serious shortcomings in contract and project Management Factors, and in the State’s decision to settle with IBM. Those causes were: unwarranted urgency and a lack of diligence on the part of State officials. That lack of diligence manifested itself in the poor decisions which those officials made in scoping the Interim Solution; in their governance of the Project; and in failing to hold IBM to account to deliver a functional payroll system.</t>
+  </si>
+  <si>
+    <t>It took time for the problems with the system to manifest themselves. As I have explained, retrospectiveprocessing did not commence until the second pay run. It may have been that staff took a pay or two to realise that their pay was inaccurate, or they were patient about pay irregularities, being aware that the system was new, no doubt thinking that whatever the problems with pay were that they would be corrected in due course. Whatever the reasons, I accept Ms Stewart’s evidence, because she was in the position to know, "there was a large number of issues that were surfacing that were not visible at the time of go live” , and that "it was probably other issues surfacing on top of the defect Management Factors plan that started to complicate the situation” . There is no doubt on the evidence that the Defect Management Plan could never have been a complete record of the defects which existed at Go Live . Mr Cowan had warned it to be likely that defects additional to those he had identified during UAT existed, given that this was not the function or purpose of UAT</t>
+  </si>
+  <si>
+    <t>Poor Defect Management</t>
+  </si>
+  <si>
+    <t>The settlement was driven by assumptions that without IBM’s presence there was a substantial risk that the payroll system would fail utterly</t>
+  </si>
+  <si>
+    <t>The decision to settle was taken without any proper analysis or examination of the factors identified in the submissions to the CBRC as risks, the avoidance of which motivated the settlement. In particular, advice, repeated several times, that an opinion be obtained about the value of the State’s rights against IBM was never acted on, and the State released those rights without ever having obtained an assessment of their value. They were potentially worth tens of millions of dollars.</t>
+  </si>
+  <si>
+    <t>The settlement was driven by assumptions that without IBM’s presence there was a substantial risk that the payroll system would fail utterly and that if the State insisted upon its contractual right to terminate, IBM would disregard its disengagement obligations and refuse to assist with the remediation and/or improvement of the system. The first assumption was wrong as inquiries of Ms Stewart and her team would have shown. The second assumption (which became irrelevant if the first assumption was invalid) was never tested and appears on its face unlikely.</t>
+  </si>
+  <si>
+    <t>Settlement, Section 7.7</t>
+  </si>
+  <si>
+    <t>Settlement, Section 7.6</t>
+  </si>
+  <si>
+    <t>The decision to settle was taken without any proper analysis or examination of the factors</t>
+  </si>
+  <si>
+    <t>No recovery of the failing project and just moved on to lawsuit.</t>
+  </si>
+  <si>
+    <t>inadequacies which led to the increase in contract price, the serious shortcomings in contract</t>
+  </si>
+  <si>
+    <t>Variations to the contract continued up until the system went live. They number in the order of 220. Some were proposed by IBM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In each case, the parties willingly agreed them. </t>
+  </si>
+  <si>
+    <t>Had the parties simply adhered to the controls which they had in place at the commencement of the Project, the system would never have progressed to the point at which serious compromises had to be made to Go Live. The system had reached that stage only because of conscious decisions made by the parties to "lower the bar” as</t>
+  </si>
+  <si>
+    <t>Dr Manfield said39 by changing the criteria by which it would be permitted to proceed to the next stage and by decisions to downgrade the Severity of defects which had been identified. Being aware of the major functional issues, and having removed them as a basis for preventing the system progressing towards Go Live, the parties prepared a "Solution and Defect Management Plan” (Defect Management Plan). This plan proposed to deal with such defects as were then known by, among other mechanisms, what was known as a "workaround”, namely a manual intervention, or by simply deferring the fixing of the problem until after Go Live. This was folly, but it was made worse by the fact that, on no view could the parties have thought that all the major functional defects had been identified. Mr Cowan had made absolutely clear that it was likely that further major defects existed, which it was not the role or function of the type of testing he was conducting to discover .</t>
+  </si>
+  <si>
+    <t>Contract and
+Project Management, Section 2.36</t>
+  </si>
+  <si>
+    <t>Contract and
+Project Management, Section 2.35,</t>
+  </si>
+  <si>
+    <t>Contract and
+Project Management, Section 7.8</t>
+  </si>
+  <si>
+    <t>Had the parties simply adhered to the controls</t>
+  </si>
+  <si>
+    <t>Mr Cowan had made absolutely clear that it was likely that further major defects existed, which it was not the role or function of the type of testing he was conducting to discover .</t>
+  </si>
+  <si>
+    <t>On failed [project lead onto it failing again without changing requirements.</t>
+  </si>
+  <si>
+    <t>Ms Stewart’s evidence about the problems</t>
+  </si>
+  <si>
+    <t>I found Ms Stewart’s evidence about the problems which were experienced in the system and its related processes to be more informative and reliable than that of Ms Jones. Ms Stewart’s knowledge of the relevant events was more balanced and she was able better to recall (and explain) the technical and other difficulties which were experienced in the period after Go Live. She had the advantage also of having had a close involvement with the system for a longer period post-Go Live than Ms Jones, and in particular by seeing and being involved in how the deficiencies with it and related processes were resolved. Ms Stewart had helped to prepare the three post-Go Live updates of 19 March (Updates 1 and 2) and 9 April 2010 (Update 3)  and knew which issues persisted beyond the first three pay runs . This gave her an insight into the nature of the problems, their seriousness and the work which was required to correct them which Ms Jones did not have. This makes her in my view a far superior witness to Ms Jones, and a witness whose evidence is supported by that of Mr Michael Walsh, Executive Program Director, Payroll Stabilisation Project, and by Mr Cowan.</t>
+  </si>
+  <si>
+    <t>A flow-on effect of delaying the overnight interim pay run process so that it would still be running in the morning . That in turn had an impact, as I have said, on the performance of SAP</t>
+  </si>
+  <si>
+    <t>Poor Testing Tools</t>
+  </si>
+  <si>
+    <t>It took time for the problems with the system to manifest themselves. As I have explained, retrospectiveprocessing did not commence until the second pay run.</t>
   </si>
 </sst>
 </file>
@@ -1955,7 +1977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1990,6 +2012,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2271,10 +2296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C118" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2299,10 +2324,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -2313,2119 +2338,2128 @@
     </row>
     <row r="2" spans="1:6" ht="64.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>405</v>
+        <v>354</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>455</v>
+        <v>400</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>75</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
       <c r="A3" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>456</v>
+        <v>401</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>405</v>
+        <v>354</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>75</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="84.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>457</v>
+        <v>402</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>458</v>
+        <v>403</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>75</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60">
       <c r="A5" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>465</v>
+        <v>409</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>466</v>
+        <v>410</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>144</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45">
       <c r="A6" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>468</v>
+        <v>412</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>467</v>
+        <v>411</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>144</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45">
       <c r="A7" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>469</v>
+        <v>413</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>467</v>
+        <v>411</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
       <c r="A8" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>470</v>
+        <v>414</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>471</v>
+        <v>415</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60">
       <c r="A9" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="1" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>75</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
       <c r="A10" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="60">
       <c r="A11" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="1" t="s">
-        <v>472</v>
+        <v>416</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>158</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="60">
       <c r="A12" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>159</v>
+        <v>452</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="1" t="s">
-        <v>160</v>
+        <v>453</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>75</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60">
       <c r="A13" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="1" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>75</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
       <c r="A14" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="1" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>75</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="75">
       <c r="A15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="1" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>144</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45">
       <c r="A16" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>168</v>
+        <v>454</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="1" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>75</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="60">
       <c r="A17" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>170</v>
+        <v>455</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="1" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45">
       <c r="A18" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="1" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>75</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="60">
       <c r="A19" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="1" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="C20" s="9"/>
       <c r="E20" s="1" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>75</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="60">
       <c r="A21" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="1" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>75</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45">
       <c r="A22" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="1" t="s">
-        <v>459</v>
+        <v>404</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>75</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30">
       <c r="A23" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>463</v>
+        <v>407</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="1" t="s">
-        <v>462</v>
+        <v>406</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="45">
       <c r="A24" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>182</v>
+        <v>456</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>144</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="45">
       <c r="A25" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="1" t="s">
-        <v>460</v>
+        <v>405</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>75</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30">
       <c r="A26" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C26" s="9"/>
       <c r="E26" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>75</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30">
       <c r="A27" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="C27" s="9"/>
       <c r="E27" s="1" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="60">
       <c r="A28" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="1" t="s">
-        <v>464</v>
+        <v>408</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30">
       <c r="A29" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="C29" s="9"/>
       <c r="E29" s="1" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30">
       <c r="A30" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="C30" s="9"/>
       <c r="E30" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>144</v>
+        <v>451</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30">
       <c r="A31" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="C31" s="9"/>
       <c r="E31" s="1" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45">
       <c r="A32" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="1" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="45">
       <c r="A33" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="1" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30">
       <c r="A34" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="C34" s="9"/>
       <c r="E34" s="1" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="C35" s="9"/>
       <c r="E35" s="1" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>144</v>
+        <v>451</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="45">
       <c r="A36" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="1" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>204</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30">
       <c r="A37" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="1" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>207</v>
+      <c r="F37" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30">
       <c r="A38" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="C38" s="9"/>
       <c r="E38" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>209</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30">
       <c r="A39" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="C39" s="9"/>
       <c r="E39" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>209</v>
+        <v>451</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="45">
       <c r="A40" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="C40" s="9"/>
       <c r="E40" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>209</v>
+        <v>451</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="45">
       <c r="A41" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="C41" s="9"/>
       <c r="E41" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>209</v>
+        <v>451</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30">
       <c r="A42" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>213</v>
+        <v>458</v>
       </c>
       <c r="C42" s="9"/>
       <c r="E42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>214</v>
+      <c r="F42" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="30">
       <c r="A43" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="C43" s="9"/>
       <c r="E43" s="1" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="60">
       <c r="A44" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="1" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>209</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="45">
       <c r="A45" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="1" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30">
       <c r="A46" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="C46" s="9"/>
       <c r="E46" s="1" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30">
       <c r="A47" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="C47" s="9"/>
       <c r="E47" s="1" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>473</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30">
       <c r="A48" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="C48" s="9"/>
       <c r="E48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="60">
       <c r="A49" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="1" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="45">
       <c r="A50" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="C50" s="9"/>
       <c r="E50" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>204</v>
+        <v>451</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="75">
       <c r="A51" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="1" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30">
       <c r="A52" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="C52" s="9"/>
       <c r="E52" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>204</v>
+        <v>451</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="45">
       <c r="A53" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="1" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>204</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="45">
       <c r="A54" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>37</v>
+        <v>449</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="45">
       <c r="A55" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="1" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>37</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="30">
       <c r="A56" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="45">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="60">
       <c r="A57" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>240</v>
+        <v>459</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>204</v>
+        <v>451</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="45">
       <c r="A58" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="1" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>204</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="45">
       <c r="A59" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>204</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="30">
       <c r="A60" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>204</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="30">
       <c r="A61" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="C61" t="s">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" ht="30">
       <c r="A62" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="C62" t="s">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" ht="45">
       <c r="A63" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="C63" t="s">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" ht="30">
       <c r="A64" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="C64" t="s">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" ht="30">
       <c r="A65" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="C65" t="s">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" ht="75">
       <c r="A66" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>272</v>
+        <v>460</v>
       </c>
       <c r="C66" t="s">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" ht="30">
       <c r="A67" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="C67" t="s">
-        <v>416</v>
+        <v>362</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" ht="75">
       <c r="A68" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="C68" t="s">
-        <v>416</v>
+        <v>362</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="45">
       <c r="A69" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="C69" t="s">
-        <v>416</v>
+        <v>362</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" ht="30">
       <c r="A70" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="C70" t="s">
-        <v>416</v>
+        <v>362</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="F70" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="C71" t="s">
-        <v>416</v>
+        <v>362</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" ht="30">
       <c r="A72" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="C72" t="s">
-        <v>416</v>
+        <v>362</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" ht="60">
       <c r="A73" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="C73" t="s">
-        <v>417</v>
+        <v>363</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="F73" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" ht="45">
       <c r="A74" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="C74" t="s">
-        <v>417</v>
+        <v>363</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>297</v>
+        <v>461</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" ht="60">
       <c r="A75" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="C75" t="s">
-        <v>417</v>
+        <v>363</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>297</v>
+        <v>461</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" ht="60">
       <c r="A76" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="C76" t="s">
-        <v>417</v>
+        <v>363</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" ht="60">
       <c r="A77" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="C77" t="s">
-        <v>417</v>
+        <v>363</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" ht="75">
       <c r="A78" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>305</v>
+        <v>462</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>418</v>
+        <v>364</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>297</v>
+        <v>461</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="G78" s="10"/>
     </row>
     <row r="79" spans="1:7" ht="90">
       <c r="A79" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>307</v>
+        <v>463</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>418</v>
+        <v>364</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>308</v>
+        <v>464</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>297</v>
+        <v>461</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="G79" s="10"/>
     </row>
     <row r="80" spans="1:7" ht="120">
       <c r="A80" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>309</v>
+        <v>465</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>418</v>
+        <v>364</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>310</v>
+        <v>466</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G80" s="10"/>
     </row>
     <row r="81" spans="1:7" ht="75">
       <c r="A81" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>313</v>
+        <v>267</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="G81" s="10"/>
     </row>
     <row r="82" spans="1:7" ht="75">
       <c r="A82" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="G82" s="10"/>
     </row>
     <row r="83" spans="1:7" ht="75">
       <c r="A83" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>420</v>
+        <v>366</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="G83" s="10"/>
     </row>
     <row r="84" spans="1:7" ht="75">
       <c r="A84" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>321</v>
+        <v>467</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>420</v>
+        <v>366</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="G84" s="10"/>
     </row>
-    <row r="85" spans="1:7" ht="75">
+    <row r="85" spans="1:7" ht="90">
       <c r="A85" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>323</v>
+        <v>468</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>420</v>
+        <v>366</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="G85" s="10"/>
     </row>
     <row r="86" spans="1:7" ht="135">
       <c r="A86" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>325</v>
+        <v>469</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>420</v>
+        <v>366</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="G86" s="10"/>
     </row>
     <row r="87" spans="1:7" ht="90">
       <c r="A87" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>421</v>
+        <v>367</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="G87" s="10"/>
     </row>
     <row r="88" spans="1:7" ht="90">
       <c r="A88" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>422</v>
+        <v>368</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="G88" s="10"/>
     </row>
     <row r="89" spans="1:7" ht="120">
       <c r="A89" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>423</v>
+        <v>369</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="G89" s="10"/>
     </row>
     <row r="90" spans="1:7" ht="75">
       <c r="A90" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>424</v>
+        <v>370</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="G90" s="10"/>
     </row>
     <row r="91" spans="1:7" ht="45">
       <c r="A91" s="1" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>425</v>
+        <v>371</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="G91" s="11"/>
     </row>
     <row r="92" spans="1:7" ht="45">
       <c r="A92" s="1" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>426</v>
+        <v>372</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="F92"/>
       <c r="G92" s="11"/>
     </row>
     <row r="93" spans="1:7" ht="75">
       <c r="A93" s="1" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>426</v>
+        <v>372</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="F93"/>
       <c r="G93" s="11"/>
     </row>
     <row r="94" spans="1:7" ht="45">
       <c r="A94" s="1" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>426</v>
+        <v>372</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="F94"/>
       <c r="G94" s="11"/>
     </row>
     <row r="95" spans="1:7" ht="90">
       <c r="A95" s="1" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>426</v>
+        <v>372</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="F95"/>
       <c r="G95" s="11"/>
     </row>
     <row r="96" spans="1:7" ht="105">
       <c r="A96" s="1" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>427</v>
+        <v>373</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="F96"/>
       <c r="G96" s="11"/>
     </row>
     <row r="97" spans="1:7" ht="90">
       <c r="A97" s="1" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>427</v>
+        <v>373</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="F97"/>
       <c r="G97" s="11"/>
     </row>
     <row r="98" spans="1:7" ht="45">
       <c r="A98" s="1" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>427</v>
+        <v>373</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="F98"/>
       <c r="G98" s="11"/>
     </row>
     <row r="99" spans="1:7" ht="60">
       <c r="A99" s="1" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>427</v>
+        <v>373</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="F99"/>
       <c r="G99" s="11"/>
     </row>
     <row r="100" spans="1:7" ht="75">
       <c r="A100" s="1" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>428</v>
+        <v>374</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="F100"/>
       <c r="G100" s="11"/>
     </row>
     <row r="101" spans="1:7" ht="75">
       <c r="A101" s="1" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>428</v>
+        <v>374</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="F101"/>
       <c r="G101" s="11"/>
     </row>
-    <row r="102" spans="1:7" ht="75">
+    <row r="102" spans="1:7" ht="90">
       <c r="A102" s="1" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>429</v>
+        <v>375</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>372</v>
+        <v>470</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="F102"/>
       <c r="G102" s="11"/>
     </row>
     <row r="103" spans="1:7" ht="45">
       <c r="A103" s="1" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>429</v>
+        <v>375</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>375</v>
+        <v>325</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>376</v>
+        <v>326</v>
       </c>
       <c r="F103"/>
       <c r="G103" s="11"/>
     </row>
     <row r="104" spans="1:7" ht="120">
       <c r="A104" s="1" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>429</v>
+        <v>375</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>379</v>
+        <v>471</v>
       </c>
       <c r="F104"/>
-      <c r="G104" s="11"/>
     </row>
     <row r="105" spans="1:7" ht="45">
       <c r="A105" s="1" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>429</v>
+        <v>375</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F105"/>
+        <v>311</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>451</v>
+      </c>
       <c r="G105" s="11"/>
     </row>
     <row r="106" spans="1:7" ht="75">
       <c r="A106" s="1" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>429</v>
+        <v>375</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F106"/>
+        <v>311</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>451</v>
+      </c>
       <c r="G106" s="11"/>
     </row>
     <row r="107" spans="1:7" ht="60">
       <c r="A107" s="1" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>429</v>
+        <v>375</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F107"/>
+        <v>311</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>451</v>
+      </c>
       <c r="G107" s="11"/>
     </row>
     <row r="108" spans="1:7" ht="75">
       <c r="A108" s="1" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>429</v>
+        <v>375</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F108"/>
+        <v>311</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>451</v>
+      </c>
       <c r="G108" s="11"/>
     </row>
     <row r="109" spans="1:7" ht="60">
       <c r="A109" s="1" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>430</v>
+        <v>376</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F109"/>
+        <v>338</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F109" s="15" t="s">
+        <v>449</v>
+      </c>
       <c r="G109" s="11"/>
     </row>
     <row r="110" spans="1:7" ht="45">
       <c r="A110" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="C110" s="1" t="s">
-        <v>431</v>
+        <v>377</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="F110"/>
       <c r="G110" s="11"/>
     </row>
     <row r="111" spans="1:7" ht="90">
       <c r="A111" s="1" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>431</v>
+        <v>377</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>394</v>
+        <v>343</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>395</v>
+        <v>344</v>
       </c>
       <c r="F111"/>
       <c r="G111" s="11"/>
     </row>
     <row r="112" spans="1:7" ht="105">
       <c r="A112" s="1" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>396</v>
+        <v>345</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>432</v>
+        <v>378</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>398</v>
+        <v>347</v>
       </c>
       <c r="F112"/>
       <c r="G112" s="11"/>
     </row>
     <row r="113" spans="1:7" ht="105">
       <c r="A113" s="1" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>433</v>
+        <v>379</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>400</v>
+        <v>349</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="F113"/>
       <c r="G113" s="12"/>
     </row>
     <row r="114" spans="1:7" ht="90">
       <c r="A114" s="1" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>402</v>
+        <v>351</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>433</v>
+        <v>379</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>403</v>
+        <v>352</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>404</v>
+        <v>353</v>
       </c>
       <c r="F114"/>
       <c r="G114" s="12"/>
     </row>
     <row r="115" spans="1:7" ht="75">
       <c r="A115" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>434</v>
+        <v>380</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>414</v>
+        <v>360</v>
       </c>
       <c r="F115" t="s">
         <v>21</v>
@@ -4433,19 +4467,19 @@
     </row>
     <row r="116" spans="1:7" ht="105">
       <c r="A116" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B116" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="D116" s="1" t="s">
-        <v>435</v>
+        <v>381</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>436</v>
+        <v>382</v>
       </c>
       <c r="F116" t="s">
         <v>10</v>
@@ -4453,19 +4487,19 @@
     </row>
     <row r="117" spans="1:7" ht="105">
       <c r="A117" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>437</v>
+        <v>383</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>438</v>
+        <v>384</v>
       </c>
       <c r="F117" t="s">
         <v>10</v>
@@ -4473,19 +4507,19 @@
     </row>
     <row r="118" spans="1:7" ht="165">
       <c r="A118" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>479</v>
+        <v>423</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>439</v>
+        <v>385</v>
       </c>
       <c r="F118" s="14" t="s">
         <v>10</v>
@@ -4493,79 +4527,79 @@
     </row>
     <row r="119" spans="1:7" ht="150">
       <c r="A119" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>478</v>
+        <v>422</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>440</v>
+        <v>386</v>
       </c>
       <c r="F119" t="s">
-        <v>75</v>
+        <v>451</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="150">
       <c r="A120" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>453</v>
+        <v>398</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="F120" t="s">
-        <v>75</v>
+        <v>451</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="90">
       <c r="A121" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>474</v>
+        <v>418</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>477</v>
+        <v>421</v>
       </c>
       <c r="E121" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F121" t="s">
-        <v>75</v>
+        <v>451</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="75">
       <c r="A122" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>476</v>
+        <v>420</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="F122" t="s">
         <v>10</v>
@@ -4573,327 +4607,585 @@
     </row>
     <row r="123" spans="1:7" ht="150">
       <c r="A123" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>441</v>
+        <v>387</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>442</v>
+        <v>388</v>
+      </c>
+      <c r="F123" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="180">
       <c r="A124" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>100</v>
+        <v>472</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>443</v>
+        <v>389</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>444</v>
+        <v>390</v>
+      </c>
+      <c r="F124" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="165">
       <c r="A125" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>445</v>
+        <v>391</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>75</v>
+        <v>451</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="105">
       <c r="A126" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>447</v>
+        <v>392</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="F126" t="s">
+        <v>393</v>
+      </c>
+      <c r="F126" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="75">
       <c r="A127" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>449</v>
+        <v>394</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F127" t="s">
+        <v>397</v>
+      </c>
+      <c r="F127" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="150">
       <c r="A128" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>123</v>
+        <v>424</v>
       </c>
       <c r="C128" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E128" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="120">
+      <c r="A129" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="225">
+      <c r="A130" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="75">
+      <c r="A131" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="60">
+      <c r="A132" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E132" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="60">
+      <c r="A133" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E133" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="105">
+      <c r="A134" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="120">
+      <c r="A135" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E135" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="90">
+      <c r="A136" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E136" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="120">
+      <c r="A137" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F137" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="135">
+      <c r="A138" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E138" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="120">
+      <c r="A139" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E139" t="s">
+        <v>476</v>
+      </c>
+      <c r="F139" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="90">
+      <c r="A140" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="90">
+      <c r="A141" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E141" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="120">
+      <c r="A142" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="90">
+      <c r="A143" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="120">
-      <c r="A129" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B129" s="5" t="s">
+      <c r="D143" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="90">
+      <c r="A144" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E144" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="F144" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="90">
+      <c r="A145" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E145" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="60">
+      <c r="A146" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="165">
+      <c r="A147" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="E147" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="105">
+      <c r="A148" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="195">
+      <c r="A149" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E149" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="F149" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="165">
+      <c r="A150" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="300">
-      <c r="A130" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B130" s="5" t="s">
+      <c r="C150" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D150" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E150" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="F150" s="14" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="180">
+      <c r="A151" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" ht="60">
-      <c r="A131" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="60">
-      <c r="A132" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="210">
-      <c r="A133" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="210">
-      <c r="A134" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="135">
-      <c r="A135" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="120">
-      <c r="A136" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="90">
-      <c r="A137" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="180">
-      <c r="A138" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="120">
-      <c r="A139" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="90">
-      <c r="A140" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="105">
-      <c r="A141" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="75">
-      <c r="A142" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="90">
-      <c r="A143" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="255">
-      <c r="A144" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="105">
-      <c r="B145" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="210">
-      <c r="A146" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="165">
-      <c r="A147" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="180">
-      <c r="A148" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>133</v>
+      <c r="D151" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F151" s="14" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E121" xr:uid="{FED73E1F-3CAB-4959-A155-64A2784C84F4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E121 E109 D143 E128:E151 D147" xr:uid="{FED73E1F-3CAB-4959-A155-64A2784C84F4}">
       <formula1>Code</formula1>
     </dataValidation>
   </dataValidations>
@@ -4908,23 +5200,23 @@
           </x14:formula1>
           <xm:sqref>F2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$B:$B</xm:f>
-          </x14:formula1>
-          <xm:sqref>F1 F3:F18 F74:F114 F20:F69 F71:F72 F128:F1048576 F123:F125</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$A$1:$A$65</xm:f>
-          </x14:formula1>
-          <xm:sqref>E1:E18 E20:E114 E126:E1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1000297D-424E-46C1-B37D-1322B7248674}">
           <x14:formula1>
             <xm:f>Sheet2!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E115:E120 E122:E125</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>Sheet2!$B:$B</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1 F3:F18 F110:F114 F43:F69 F71:F72 F125 F74:F104 F20:F36 F38:F41 F136:F138 F147 F152:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$55</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E18 E110:E114 E126:E127 E20:E108 E152:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4934,10 +5226,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4960,7 +5252,7 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -4993,7 +5285,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
@@ -5004,7 +5296,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -5015,13 +5307,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>451</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5029,7 +5321,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>438</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5053,7 +5345,7 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>450</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5112,7 +5404,7 @@
         <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>414</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5160,7 +5452,7 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>448</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5179,7 +5471,7 @@
         <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>454</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5203,24 +5495,24 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>452</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="F29" t="s">
+        <v>449</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>38</v>
       </c>
-      <c r="F30" t="s">
-        <v>37</v>
-      </c>
       <c r="G30" t="s">
         <v>38</v>
       </c>
@@ -5246,7 +5538,7 @@
         <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>476</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -5269,8 +5561,11 @@
       <c r="A36" t="s">
         <v>44</v>
       </c>
+      <c r="F36" t="s">
+        <v>451</v>
+      </c>
       <c r="G36" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5293,11 +5588,8 @@
       <c r="A39" t="s">
         <v>47</v>
       </c>
-      <c r="F39" t="s">
-        <v>75</v>
-      </c>
       <c r="G39" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5361,169 +5653,68 @@
         <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>55</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" t="s">
         <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G49" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G50" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" t="s">
-        <v>62</v>
-      </c>
-      <c r="G54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
         <v>63</v>
-      </c>
-      <c r="G55" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" t="s">
-        <v>65</v>
-      </c>
-      <c r="F56" t="s">
-        <v>64</v>
-      </c>
-      <c r="G56" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" t="s">
-        <v>66</v>
-      </c>
-      <c r="G57" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" t="s">
-        <v>68</v>
-      </c>
-      <c r="G59" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" t="s">
-        <v>69</v>
-      </c>
-      <c r="G60" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" t="s">
-        <v>70</v>
-      </c>
-      <c r="G61" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" t="s">
-        <v>71</v>
-      </c>
-      <c r="G62" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" t="s">
-        <v>72</v>
-      </c>
-      <c r="G63" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" t="s">
-        <v>73</v>
-      </c>
-      <c r="G64" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A64 G1:G64" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A54 G1:G54" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Code</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E76EE64-0A9E-44AF-82E7-143946A1446C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Thematic-Coding.xlsx
+++ b/Thematic-Coding.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidde\Dropbox\Kieran Third year\BCIS301 _ AMIC700\Assignment 1\BCIS301---AMIC700---Thematic-Coding-Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\BCIS301---AMIC700---Thematic-Coding-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41505DD4-9CE1-4302-9C0A-DE12E01063F0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930E0143-B507-4779-AF48-F57F6EA26E5F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
@@ -1888,13 +1888,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1903,7 +1903,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1913,7 +1913,7 @@
       <i/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1922,14 +1922,14 @@
       <i/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2298,22 +2298,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="F151" sqref="F151"/>
+    <sheetView topLeftCell="A52" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="89.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" customWidth="1"/>
-    <col min="12" max="12" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="89.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="18.375" customWidth="1"/>
+    <col min="11" max="11" width="21.875" customWidth="1"/>
+    <col min="12" max="12" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="26.45" customHeight="1">
@@ -2356,7 +2356,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
+    <row r="3" spans="1:6" ht="28.5">
       <c r="A3" s="1" t="s">
         <v>110</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60">
+    <row r="5" spans="1:6" ht="42.75">
       <c r="A5" s="1" t="s">
         <v>110</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45">
+    <row r="6" spans="1:6" ht="42.75">
       <c r="A6" s="1" t="s">
         <v>110</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45">
+    <row r="7" spans="1:6" ht="28.5">
       <c r="A7" s="1" t="s">
         <v>110</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30">
+    <row r="8" spans="1:6" ht="28.5">
       <c r="A8" s="1" t="s">
         <v>110</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="60">
+    <row r="9" spans="1:6" ht="57">
       <c r="A9" s="1" t="s">
         <v>110</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6" ht="28.5">
       <c r="A10" s="1" t="s">
         <v>110</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="60">
+    <row r="11" spans="1:6" ht="57">
       <c r="A11" s="1" t="s">
         <v>110</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="60">
+    <row r="12" spans="1:6" ht="57">
       <c r="A12" s="1" t="s">
         <v>110</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="60">
+    <row r="13" spans="1:6" ht="57">
       <c r="A13" s="1" t="s">
         <v>110</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30">
+    <row r="14" spans="1:6" ht="28.5">
       <c r="A14" s="1" t="s">
         <v>110</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="75">
+    <row r="15" spans="1:6" ht="57">
       <c r="A15" s="1" t="s">
         <v>110</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45">
+    <row r="16" spans="1:6" ht="42.75">
       <c r="A16" s="1" t="s">
         <v>110</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="60">
+    <row r="17" spans="1:6" ht="57">
       <c r="A17" s="1" t="s">
         <v>110</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="45">
+    <row r="18" spans="1:6" ht="42.75">
       <c r="A18" s="1" t="s">
         <v>110</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="60">
+    <row r="19" spans="1:6" ht="42.75">
       <c r="A19" s="1" t="s">
         <v>110</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="60">
+    <row r="21" spans="1:6" ht="57">
       <c r="A21" s="1" t="s">
         <v>110</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="45">
+    <row r="22" spans="1:6" ht="42.75">
       <c r="A22" s="1" t="s">
         <v>110</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30">
+    <row r="23" spans="1:6" ht="28.5">
       <c r="A23" s="1" t="s">
         <v>110</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="45">
+    <row r="24" spans="1:6" ht="28.5">
       <c r="A24" s="1" t="s">
         <v>110</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="45">
+    <row r="25" spans="1:6" ht="42.75">
       <c r="A25" s="1" t="s">
         <v>110</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30">
+    <row r="26" spans="1:6" ht="28.5">
       <c r="A26" s="1" t="s">
         <v>110</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30">
+    <row r="27" spans="1:6" ht="28.5">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="60">
+    <row r="28" spans="1:6" ht="57">
       <c r="A28" s="1" t="s">
         <v>110</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>110</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30">
+    <row r="30" spans="1:6" ht="28.5">
       <c r="A30" s="1" t="s">
         <v>110</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="30">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>110</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="45">
+    <row r="32" spans="1:6" ht="28.5">
       <c r="A32" s="1" t="s">
         <v>110</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="45">
+    <row r="33" spans="1:6" ht="28.5">
       <c r="A33" s="1" t="s">
         <v>110</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>110</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="45">
+    <row r="36" spans="1:6" ht="42.75">
       <c r="A36" s="1" t="s">
         <v>110</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>110</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30">
+    <row r="38" spans="1:6" ht="28.5">
       <c r="A38" s="1" t="s">
         <v>110</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30">
+    <row r="39" spans="1:6" ht="28.5">
       <c r="A39" s="1" t="s">
         <v>110</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="45">
+    <row r="40" spans="1:6" ht="28.5">
       <c r="A40" s="1" t="s">
         <v>110</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="45">
+    <row r="41" spans="1:6" ht="42.75">
       <c r="A41" s="1" t="s">
         <v>110</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30">
+    <row r="42" spans="1:6" ht="28.5">
       <c r="A42" s="1" t="s">
         <v>110</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>110</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="60">
+    <row r="44" spans="1:6" ht="57">
       <c r="A44" s="1" t="s">
         <v>110</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="45">
+    <row r="45" spans="1:6" ht="42.75">
       <c r="A45" s="1" t="s">
         <v>110</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30">
+    <row r="46" spans="1:6" ht="28.5">
       <c r="A46" s="1" t="s">
         <v>110</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30">
+    <row r="47" spans="1:6" ht="28.5">
       <c r="A47" s="1" t="s">
         <v>110</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="30">
+    <row r="48" spans="1:6" ht="28.5">
       <c r="A48" s="1" t="s">
         <v>110</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="60">
+    <row r="49" spans="1:7" ht="57">
       <c r="A49" s="1" t="s">
         <v>110</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="45">
+    <row r="50" spans="1:7" ht="42.75">
       <c r="A50" s="1" t="s">
         <v>110</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="75">
+    <row r="51" spans="1:7" ht="57">
       <c r="A51" s="1" t="s">
         <v>110</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30">
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>110</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="45">
+    <row r="53" spans="1:7" ht="42.75">
       <c r="A53" s="1" t="s">
         <v>110</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="45">
+    <row r="54" spans="1:7" ht="28.5">
       <c r="A54" s="1" t="s">
         <v>110</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="45">
+    <row r="55" spans="1:7" ht="42.75">
       <c r="A55" s="1" t="s">
         <v>110</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30">
+    <row r="56" spans="1:7" ht="28.5">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="60">
+    <row r="57" spans="1:7" ht="42.75">
       <c r="A57" s="1" t="s">
         <v>110</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="45">
+    <row r="58" spans="1:7" ht="42.75">
       <c r="A58" s="1" t="s">
         <v>110</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="45">
+    <row r="59" spans="1:7" ht="42.75">
       <c r="A59" s="1" t="s">
         <v>110</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="30">
+    <row r="60" spans="1:7" ht="28.5">
       <c r="A60" s="1" t="s">
         <v>110</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="30">
+    <row r="61" spans="1:7" ht="28.5">
       <c r="A61" s="1" t="s">
         <v>213</v>
       </c>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" ht="30">
+    <row r="62" spans="1:7" ht="28.5">
       <c r="A62" s="1" t="s">
         <v>213</v>
       </c>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" ht="45">
+    <row r="63" spans="1:7" ht="42.75">
       <c r="A63" s="1" t="s">
         <v>213</v>
       </c>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" ht="30">
+    <row r="64" spans="1:7" ht="28.5">
       <c r="A64" s="1" t="s">
         <v>213</v>
       </c>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" ht="30">
+    <row r="65" spans="1:7" ht="28.5">
       <c r="A65" s="1" t="s">
         <v>213</v>
       </c>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" ht="75">
+    <row r="66" spans="1:7" ht="57">
       <c r="A66" s="1" t="s">
         <v>213</v>
       </c>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" ht="30">
+    <row r="67" spans="1:7" ht="28.5">
       <c r="A67" s="1" t="s">
         <v>213</v>
       </c>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" ht="75">
+    <row r="68" spans="1:7" ht="57">
       <c r="A68" s="1" t="s">
         <v>213</v>
       </c>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" ht="45">
+    <row r="69" spans="1:7" ht="42.75">
       <c r="A69" s="1" t="s">
         <v>213</v>
       </c>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="30">
+    <row r="70" spans="1:7" ht="28.5">
       <c r="A70" s="1" t="s">
         <v>213</v>
       </c>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="30">
+    <row r="72" spans="1:7" ht="28.5">
       <c r="A72" s="1" t="s">
         <v>213</v>
       </c>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="60">
+    <row r="73" spans="1:7" ht="57">
       <c r="A73" s="1" t="s">
         <v>213</v>
       </c>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="45">
+    <row r="74" spans="1:7" ht="28.5">
       <c r="A74" s="1" t="s">
         <v>213</v>
       </c>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" ht="60">
+    <row r="75" spans="1:7" ht="42.75">
       <c r="A75" s="1" t="s">
         <v>213</v>
       </c>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" ht="60">
+    <row r="76" spans="1:7" ht="57">
       <c r="A76" s="1" t="s">
         <v>213</v>
       </c>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" ht="60">
+    <row r="77" spans="1:7" ht="42.75">
       <c r="A77" s="1" t="s">
         <v>213</v>
       </c>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" ht="75">
+    <row r="78" spans="1:7" ht="71.25">
       <c r="A78" s="1" t="s">
         <v>213</v>
       </c>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="G78" s="10"/>
     </row>
-    <row r="79" spans="1:7" ht="90">
+    <row r="79" spans="1:7" ht="71.25">
       <c r="A79" s="1" t="s">
         <v>213</v>
       </c>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="G79" s="10"/>
     </row>
-    <row r="80" spans="1:7" ht="120">
+    <row r="80" spans="1:7" ht="99.75">
       <c r="A80" s="1" t="s">
         <v>213</v>
       </c>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="G80" s="10"/>
     </row>
-    <row r="81" spans="1:7" ht="75">
+    <row r="81" spans="1:7" ht="71.25">
       <c r="A81" s="1" t="s">
         <v>213</v>
       </c>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="G81" s="10"/>
     </row>
-    <row r="82" spans="1:7" ht="75">
+    <row r="82" spans="1:7" ht="71.25">
       <c r="A82" s="1" t="s">
         <v>213</v>
       </c>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="G82" s="10"/>
     </row>
-    <row r="83" spans="1:7" ht="75">
+    <row r="83" spans="1:7" ht="71.25">
       <c r="A83" s="1" t="s">
         <v>213</v>
       </c>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="G83" s="10"/>
     </row>
-    <row r="84" spans="1:7" ht="75">
+    <row r="84" spans="1:7" ht="71.25">
       <c r="A84" s="1" t="s">
         <v>213</v>
       </c>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="G84" s="10"/>
     </row>
-    <row r="85" spans="1:7" ht="90">
+    <row r="85" spans="1:7" ht="71.25">
       <c r="A85" s="1" t="s">
         <v>213</v>
       </c>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="G85" s="10"/>
     </row>
-    <row r="86" spans="1:7" ht="135">
+    <row r="86" spans="1:7" ht="114">
       <c r="A86" s="1" t="s">
         <v>213</v>
       </c>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="G86" s="10"/>
     </row>
-    <row r="87" spans="1:7" ht="90">
+    <row r="87" spans="1:7" ht="85.5">
       <c r="A87" s="1" t="s">
         <v>213</v>
       </c>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="G87" s="10"/>
     </row>
-    <row r="88" spans="1:7" ht="90">
+    <row r="88" spans="1:7" ht="85.5">
       <c r="A88" s="1" t="s">
         <v>213</v>
       </c>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="G88" s="10"/>
     </row>
-    <row r="89" spans="1:7" ht="120">
+    <row r="89" spans="1:7" ht="114">
       <c r="A89" s="1" t="s">
         <v>213</v>
       </c>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="G89" s="10"/>
     </row>
-    <row r="90" spans="1:7" ht="75">
+    <row r="90" spans="1:7" ht="57">
       <c r="A90" s="1" t="s">
         <v>213</v>
       </c>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="G90" s="10"/>
     </row>
-    <row r="91" spans="1:7" ht="45">
+    <row r="91" spans="1:7" ht="42.75">
       <c r="A91" s="1" t="s">
         <v>290</v>
       </c>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="G91" s="11"/>
     </row>
-    <row r="92" spans="1:7" ht="45">
+    <row r="92" spans="1:7" ht="42.75">
       <c r="A92" s="1" t="s">
         <v>290</v>
       </c>
@@ -4018,7 +4018,7 @@
       <c r="F92"/>
       <c r="G92" s="11"/>
     </row>
-    <row r="93" spans="1:7" ht="75">
+    <row r="93" spans="1:7" ht="71.25">
       <c r="A93" s="1" t="s">
         <v>290</v>
       </c>
@@ -4037,7 +4037,7 @@
       <c r="F93"/>
       <c r="G93" s="11"/>
     </row>
-    <row r="94" spans="1:7" ht="45">
+    <row r="94" spans="1:7" ht="42.75">
       <c r="A94" s="1" t="s">
         <v>290</v>
       </c>
@@ -4056,7 +4056,7 @@
       <c r="F94"/>
       <c r="G94" s="11"/>
     </row>
-    <row r="95" spans="1:7" ht="90">
+    <row r="95" spans="1:7" ht="71.25">
       <c r="A95" s="1" t="s">
         <v>290</v>
       </c>
@@ -4075,7 +4075,7 @@
       <c r="F95"/>
       <c r="G95" s="11"/>
     </row>
-    <row r="96" spans="1:7" ht="105">
+    <row r="96" spans="1:7" ht="85.5">
       <c r="A96" s="1" t="s">
         <v>290</v>
       </c>
@@ -4094,7 +4094,7 @@
       <c r="F96"/>
       <c r="G96" s="11"/>
     </row>
-    <row r="97" spans="1:7" ht="90">
+    <row r="97" spans="1:7" ht="71.25">
       <c r="A97" s="1" t="s">
         <v>290</v>
       </c>
@@ -4113,7 +4113,7 @@
       <c r="F97"/>
       <c r="G97" s="11"/>
     </row>
-    <row r="98" spans="1:7" ht="45">
+    <row r="98" spans="1:7" ht="42.75">
       <c r="A98" s="1" t="s">
         <v>290</v>
       </c>
@@ -4132,7 +4132,7 @@
       <c r="F98"/>
       <c r="G98" s="11"/>
     </row>
-    <row r="99" spans="1:7" ht="60">
+    <row r="99" spans="1:7" ht="57">
       <c r="A99" s="1" t="s">
         <v>290</v>
       </c>
@@ -4151,7 +4151,7 @@
       <c r="F99"/>
       <c r="G99" s="11"/>
     </row>
-    <row r="100" spans="1:7" ht="75">
+    <row r="100" spans="1:7" ht="71.25">
       <c r="A100" s="1" t="s">
         <v>290</v>
       </c>
@@ -4170,7 +4170,7 @@
       <c r="F100"/>
       <c r="G100" s="11"/>
     </row>
-    <row r="101" spans="1:7" ht="75">
+    <row r="101" spans="1:7" ht="57">
       <c r="A101" s="1" t="s">
         <v>290</v>
       </c>
@@ -4189,7 +4189,7 @@
       <c r="F101"/>
       <c r="G101" s="11"/>
     </row>
-    <row r="102" spans="1:7" ht="90">
+    <row r="102" spans="1:7" ht="71.25">
       <c r="A102" s="1" t="s">
         <v>290</v>
       </c>
@@ -4208,7 +4208,7 @@
       <c r="F102"/>
       <c r="G102" s="11"/>
     </row>
-    <row r="103" spans="1:7" ht="45">
+    <row r="103" spans="1:7" ht="28.5">
       <c r="A103" s="1" t="s">
         <v>290</v>
       </c>
@@ -4227,7 +4227,7 @@
       <c r="F103"/>
       <c r="G103" s="11"/>
     </row>
-    <row r="104" spans="1:7" ht="120">
+    <row r="104" spans="1:7" ht="99.75">
       <c r="A104" s="1" t="s">
         <v>290</v>
       </c>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="F104"/>
     </row>
-    <row r="105" spans="1:7" ht="45">
+    <row r="105" spans="1:7" ht="42.75">
       <c r="A105" s="1" t="s">
         <v>290</v>
       </c>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="G105" s="11"/>
     </row>
-    <row r="106" spans="1:7" ht="75">
+    <row r="106" spans="1:7" ht="71.25">
       <c r="A106" s="1" t="s">
         <v>290</v>
       </c>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="G106" s="11"/>
     </row>
-    <row r="107" spans="1:7" ht="60">
+    <row r="107" spans="1:7" ht="57">
       <c r="A107" s="1" t="s">
         <v>290</v>
       </c>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="G107" s="11"/>
     </row>
-    <row r="108" spans="1:7" ht="75">
+    <row r="108" spans="1:7" ht="57">
       <c r="A108" s="1" t="s">
         <v>290</v>
       </c>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="G108" s="11"/>
     </row>
-    <row r="109" spans="1:7" ht="60">
+    <row r="109" spans="1:7" ht="42.75">
       <c r="A109" s="1" t="s">
         <v>290</v>
       </c>
@@ -4350,7 +4350,7 @@
       </c>
       <c r="G109" s="11"/>
     </row>
-    <row r="110" spans="1:7" ht="45">
+    <row r="110" spans="1:7" ht="42.75">
       <c r="A110" s="1" t="s">
         <v>290</v>
       </c>
@@ -4369,7 +4369,7 @@
       <c r="F110"/>
       <c r="G110" s="11"/>
     </row>
-    <row r="111" spans="1:7" ht="90">
+    <row r="111" spans="1:7" ht="71.25">
       <c r="A111" s="1" t="s">
         <v>290</v>
       </c>
@@ -4388,7 +4388,7 @@
       <c r="F111"/>
       <c r="G111" s="11"/>
     </row>
-    <row r="112" spans="1:7" ht="105">
+    <row r="112" spans="1:7" ht="85.5">
       <c r="A112" s="1" t="s">
         <v>290</v>
       </c>
@@ -4407,7 +4407,7 @@
       <c r="F112"/>
       <c r="G112" s="11"/>
     </row>
-    <row r="113" spans="1:7" ht="105">
+    <row r="113" spans="1:7" ht="85.5">
       <c r="A113" s="1" t="s">
         <v>290</v>
       </c>
@@ -4426,7 +4426,7 @@
       <c r="F113"/>
       <c r="G113" s="12"/>
     </row>
-    <row r="114" spans="1:7" ht="90">
+    <row r="114" spans="1:7" ht="71.25">
       <c r="A114" s="1" t="s">
         <v>290</v>
       </c>
@@ -4445,7 +4445,7 @@
       <c r="F114"/>
       <c r="G114" s="12"/>
     </row>
-    <row r="115" spans="1:7" ht="75">
+    <row r="115" spans="1:7" ht="57">
       <c r="A115" s="1" t="s">
         <v>69</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="105">
+    <row r="116" spans="1:7" ht="85.5">
       <c r="A116" s="1" t="s">
         <v>69</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="105">
+    <row r="117" spans="1:7" ht="85.5">
       <c r="A117" s="1" t="s">
         <v>69</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="165">
+    <row r="118" spans="1:7" ht="128.25">
       <c r="A118" s="1" t="s">
         <v>69</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="150">
+    <row r="119" spans="1:7" ht="128.25">
       <c r="A119" s="1" t="s">
         <v>69</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="150">
+    <row r="120" spans="1:7" ht="114">
       <c r="A120" s="1" t="s">
         <v>69</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="90">
+    <row r="121" spans="1:7" ht="71.25">
       <c r="A121" s="1" t="s">
         <v>69</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="75">
+    <row r="122" spans="1:7" ht="71.25">
       <c r="A122" s="1" t="s">
         <v>69</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="150">
+    <row r="123" spans="1:7" ht="128.25">
       <c r="A123" s="1" t="s">
         <v>69</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="180">
+    <row r="124" spans="1:7" ht="156.75">
       <c r="A124" s="1" t="s">
         <v>69</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="165">
+    <row r="125" spans="1:7" ht="142.5">
       <c r="A125" s="1" t="s">
         <v>69</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="105">
+    <row r="126" spans="1:7" ht="85.5">
       <c r="A126" s="1" t="s">
         <v>69</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="75">
+    <row r="127" spans="1:7" ht="57">
       <c r="A127" s="1" t="s">
         <v>69</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="150">
+    <row r="128" spans="1:7" ht="128.25">
       <c r="A128" s="1" t="s">
         <v>69</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="120">
+    <row r="129" spans="1:6" ht="99.75">
       <c r="A129" s="1" t="s">
         <v>69</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="225">
+    <row r="130" spans="1:6" ht="199.5">
       <c r="A130" s="1" t="s">
         <v>69</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="75">
+    <row r="131" spans="1:6" ht="71.25">
       <c r="A131" s="1" t="s">
         <v>69</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="60">
+    <row r="132" spans="1:6" ht="57">
       <c r="A132" s="1" t="s">
         <v>69</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="60">
+    <row r="133" spans="1:6" ht="57">
       <c r="A133" s="1" t="s">
         <v>69</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="105">
+    <row r="134" spans="1:6" ht="99.75">
       <c r="A134" s="1" t="s">
         <v>69</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="120">
+    <row r="135" spans="1:6" ht="99.75">
       <c r="A135" s="1" t="s">
         <v>69</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="90">
+    <row r="136" spans="1:6" ht="71.25">
       <c r="A136" s="1" t="s">
         <v>69</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="120">
+    <row r="137" spans="1:6" ht="99.75">
       <c r="A137" s="1" t="s">
         <v>69</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="135">
+    <row r="138" spans="1:6" ht="114">
       <c r="A138" s="1" t="s">
         <v>69</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="120">
+    <row r="139" spans="1:6" ht="99.75">
       <c r="A139" s="1" t="s">
         <v>69</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="90">
+    <row r="140" spans="1:6" ht="71.25">
       <c r="A140" s="1" t="s">
         <v>69</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="90">
+    <row r="141" spans="1:6" ht="85.5">
       <c r="A141" s="1" t="s">
         <v>69</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="120">
+    <row r="142" spans="1:6" ht="114">
       <c r="A142" s="1" t="s">
         <v>69</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="90">
+    <row r="143" spans="1:6" ht="71.25">
       <c r="A143" s="1" t="s">
         <v>69</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="90">
+    <row r="144" spans="1:6" ht="71.25">
       <c r="A144" s="1" t="s">
         <v>69</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="90">
+    <row r="145" spans="1:6" ht="85.5">
       <c r="A145" s="1" t="s">
         <v>69</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="60">
+    <row r="146" spans="1:6" ht="57">
       <c r="A146" s="1" t="s">
         <v>69</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="165">
+    <row r="147" spans="1:6" ht="142.5">
       <c r="A147" s="1" t="s">
         <v>69</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="105">
+    <row r="148" spans="1:6" ht="85.5">
       <c r="A148" s="1" t="s">
         <v>69</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="195">
+    <row r="149" spans="1:6" ht="156.75">
       <c r="A149" s="1" t="s">
         <v>69</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="165">
+    <row r="150" spans="1:6" ht="128.25">
       <c r="A150" s="1" t="s">
         <v>69</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="180">
+    <row r="151" spans="1:6" ht="156.75">
       <c r="A151" s="1" t="s">
         <v>69</v>
       </c>
@@ -5228,23 +5228,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="66.42578125" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="59.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="66.375" customWidth="1"/>
+    <col min="2" max="2" width="35.75" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="59.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
+    <row r="1" spans="1:7" ht="18">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75">
+    <row r="2" spans="1:7" ht="18">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75">
+    <row r="3" spans="1:7" ht="18">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75">
+    <row r="4" spans="1:7" ht="18">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75">
+    <row r="5" spans="1:7" ht="18">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75">
+    <row r="6" spans="1:7" ht="18">
       <c r="A6" t="s">
         <v>11</v>
       </c>

--- a/Thematic-Coding.xlsx
+++ b/Thematic-Coding.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\BCIS301---AMIC700---Thematic-Coding-Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\GitHub\BCIS301---AMIC700---Thematic-Coding-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930E0143-B507-4779-AF48-F57F6EA26E5F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B790F49-9B66-4507-92A4-9E91E54DC5D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Total of SuperGroup" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_ftn1" localSheetId="0">'Sheet1 (2)'!$B$25</definedName>
-    <definedName name="_ftn2" localSheetId="0">'Sheet1 (2)'!$B$26</definedName>
-    <definedName name="_ftnref1" localSheetId="0">'Sheet1 (2)'!$B$21</definedName>
-    <definedName name="_ftnref2" localSheetId="0">'Sheet1 (2)'!$B$23</definedName>
+    <definedName name="_ftn1" localSheetId="1">'Sheet1 (2)'!$B$24</definedName>
+    <definedName name="_ftn2" localSheetId="1">'Sheet1 (2)'!$B$25</definedName>
+    <definedName name="_ftnref1" localSheetId="1">'Sheet1 (2)'!$B$20</definedName>
+    <definedName name="_ftnref2" localSheetId="1">'Sheet1 (2)'!$B$22</definedName>
     <definedName name="Environmental_Factors">Sheet2!$A$1:$A$5</definedName>
     <definedName name="Organizational_Factors">Sheet2!$A$6:$A$15</definedName>
     <definedName name="Poor_Management_Factors">Sheet2!$A$36:$A$54</definedName>
@@ -29,6 +31,10 @@
     <definedName name="Technology_Factors">Sheet2!$A$29:$A$35</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="548">
   <si>
     <t>CaseStudy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,10 +277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Conflicts Among Stakeholders</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Incorrect Assumptions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,9 +302,6 @@
   </si>
   <si>
     <t>Environmental Factors</t>
-  </si>
-  <si>
-    <t>Poor Management Factors</t>
   </si>
   <si>
     <t>Scope Creep</t>
@@ -459,10 +458,6 @@
     <t xml:space="preserve"> It is our overall view that weaknesses in project governance and leadership allowed the service to go live with a number of significant risks which the Ministry and its vendors were over-confident of managing.When these risks resulted in service issues Post-Go Live, the Ministry and its vendors were overwhelmed by their nature and scale.</t>
   </si>
   <si>
-    <t>Management Incorrect Assumptions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>miss agreed milestone or deadlines</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -486,15 +481,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Poor Project Planning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>there was little customer or user involvement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lack of Customer Involvement</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -533,23 +520,10 @@
     <t>Poor Testing</t>
   </si>
   <si>
-    <t>At the 9 February 2012 meeting of the Project Board, the Novopay Business Owner indicated that a Go Live date of 14 August 2012 was the “absolutely last preferred date”. At this time
-the project defined two Confidence Points, endorsed by PricewaterhouseCoopers, which were intended to act as project stage gates.    P8,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>two confidence points endorsed by PricewaterhouseCoopers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Inappropriate Estimations</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Project governance and leadership allowed a combination of significant risks to be carried into Go Live and overestimated the ability of the Ministry, Talent2 and schools to manage them    P10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>overestimated the ability of the Ministry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -567,10 +541,6 @@
   </si>
   <si>
     <t>The lack of a Programme Directo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lack of Senior Management Involvement,Support &amp;Commitment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -673,15 +643,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Risk mangement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Long-duration projects will rarely meet the expectations established at their inception</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Change Controls</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -694,10 +656,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Good Marketing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The schools payroll environment is overly complex as a result of an accumulation of historical changes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -887,10 +845,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Organizational Factor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The case study method also allows researchers to gain first-hand information in a real natural setting.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -918,10 +872,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Project Factor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Primary data sources include survey results collected from end-users at the design stage, before the deployment stage and a little over one year after the new system change over.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -946,10 +896,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Team Factor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Need do great and engouh research about the project.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1002,10 +948,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Evironment Factor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Our findings suggest that expectations should be well managed.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1045,10 +987,6 @@
     <t>The flow of people will have a negative impact.</t>
   </si>
   <si>
-    <t>Management Factor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>To hire trusted employees and managers to directly influence the success of the project.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1155,10 +1093,6 @@
   </si>
   <si>
     <t>Government support</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Evironment Factor; Management Factor;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1601,283 +1535,491 @@
     <t>P7,3</t>
   </si>
   <si>
+    <t xml:space="preserve">There was little direct customer (boards of trustees) or user (principals and school administrators) involvement in the definition of the requirements, and Datacom’s involvement was minimal.                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirements definition, design, development and testing activity were all occurring in parallel,making it very difficult to maintain a known level of quality. </t>
+  </si>
+  <si>
+    <t>P7,4</t>
+  </si>
+  <si>
+    <t>Important areas were not fully tested</t>
+  </si>
+  <si>
+    <t>Procurement, Section 6.17</t>
+  </si>
+  <si>
+    <t>The evidence supports the conclusion that IBM’s price should have been the subject of full and careful scrutiny by Ms Perrott and the Cost Evaluation Panel with particular reference to the discrepancy between it and its earlier price, and between it and competitors’ prices. There was no such scrutiny. Ms Orange was unaware of the discrepancy and no one bothered to tell her of it. Ms Perrott, who was aware of it, failed to understand its significance, or disregarded it.</t>
+  </si>
+  <si>
+    <t>Fault ultimately was with the organization for not doing something</t>
+  </si>
+  <si>
+    <t>Improper evaluation lead to picking IBM off false scores</t>
+  </si>
+  <si>
+    <t>Management had a relationship with IMB to secure the contract</t>
+  </si>
+  <si>
+    <t>Haste in appointing a prime contractor was a lack of consideration</t>
+  </si>
+  <si>
+    <t>For the State representatives to take such a view was unjustified and grossly negligent. IBM, commercially motivated as it was, had communicated the points beyond which further agreement would be required to be reached (and implying the need to pay more money). These points were not ones which would have resulted in a functional payroll system, and that is a matter which reflects poorly on IBM. But it had been sufficiently clear in stating these limitations. The State, however, ignored those statements and proceeded as if, whether it assisted or not, IBM would be both capable of delivering, and would be obliged to deliver, a functional payroll system. Both of those assumptions were wrong. They are based, I think, on a fundamental misconception that, by appointing a prime contractor, the State had no responsibility to ensure the system was designed and built properly.</t>
+  </si>
+  <si>
+    <t>Stakeholder ignored the limitations IBM stated and misconceptions of who was responsible for the project</t>
+  </si>
+  <si>
+    <t>The parties had not only to arrive at a scope after the initial rushed scope and three years of deveopments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scope, having had this very unsatisfactory beginning, remained ill-defined, volatile and unclear. Neither party took any effective measures to define and stabilise scope at any time during the Project. IBM seemed content to have defined scope in a way which it must have known could not result in a functional payroll system and to rely, whenever challenged, on the text of the QHIC Scope Definition. Its task was to gather requirements. It did so incompletely, relying on its obligation to do so stopping short of being responsible for eliciting such requirements from its customer. The State, on the other hand, was recalcitrant in adopting a less than diligent approach to ascertaining and communicating its business requirements to IBM. It regarded IBM as responsible for eliciting requirements from it, and considered instead IBM’s obligation to deliver the project to be for a "stable, supported and supportable” system . In short, the State assumed it had contracted for, and would get, a system which paid staff accurately, perhaps with some manual intervention, but, largely, to do so in an automated way. IBM considered its obligation, subject to some matters set out below, to be to deliver the system which would follow (and no matter what it looked like as a result) from a strict application of the QHIC Scope Definition.
+</t>
+  </si>
+  <si>
+    <t>Uncertainties as to scope are not uncommon problems in IT contracts. What is uncommon here is that, despite the problem being a known area of risk, the parties, both experienced in supplying and purchasing large IT systems respectively, were content to proceed notwithstanding they both had very different views as to scope. They thus ignored an area of risk which was known to them and one which they ought to have done more to resolve.</t>
+  </si>
+  <si>
+    <t>Contract and
+Project Management, Section 4.80</t>
+  </si>
+  <si>
+    <t>Contract and
+Project Management, Section 4.79</t>
+  </si>
+  <si>
+    <t>Scope, having had this very unsatisfactory beginning, remained ill-defined, volatile and unclear.</t>
+  </si>
+  <si>
+    <t>They thus ignored an area of risk which was known to them and one which they ought to have done more to resolve.</t>
+  </si>
+  <si>
+    <t>Overshadowed any measured and analytical assessment and weighing of the relevant factors</t>
+  </si>
+  <si>
+    <t>The decision to Go Live ought not to have been made when it was</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is clear that many of the problems which were experienced after Go Live and which affected pay involved Workbrain. Ms Stewart identified Workbrain’s performance as the most significant system issue post-Go Live . This exhibited itself in slowness of the MVS, difficulties viewing, updating and publishing rosters in the MVS, individual users being unexpectedly locked out of Workbrain, and general slowness across the Workbrain application .
+</t>
+  </si>
+  <si>
+    <t>Part of the problem was its sheer slowness in processing rosters. Payroll staff, as a result, Ms Jones explained, simply did not have enough time to add all the data in to the roster environment to get the rosters published . The problem may have been caused by a number of users in the same area using the system at the same time, thereby creating too much of a load on the system so that it would lock them out or freeze. Operators had to exit the system and re-enter it . The problem was something with which any system, whether interim and minimal or not, ought to have been capable of dealing. Ms Jones estimated that about 100 payroll staff across the state at any given time were affected by this problem.</t>
+  </si>
+  <si>
+    <t>Contract and
+Project Management, Section 7.49</t>
+  </si>
+  <si>
+    <t>Contract and
+Project Management, Section 7.50</t>
+  </si>
+  <si>
+    <t>Technical issue with there system being to slow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I find that the system, when it went live, and for some considerable period afterwards, had serious functional deficiencies. Mr Burns and Mr Shah had warned of this as being a real possibility in the Risk Assessment Report. Mr Cowan’s Final UAT Report had identified it as likely and perhaps inevitable. It must have been obvious, by the time the decision was made to Go Live, that the system, given these warnings, and the problems with scope which had never properly been resolved, would experience those kinds of problems. The Final UAT Report had made clear also that there were likely to exist in the system functional deficiencies which UAT had not discovered, having (quite properly) tested only part of the system.
+</t>
+  </si>
+  <si>
+    <t>Mr Kwiatkowski sought also to catalogue what I have described as the business process problems which confronted the system on Go Live . They, as I have said, are accepted by Ms Jones and Ms Stewart to have contributed to the problems which were experienced after Go Live. But it remains that there were problems also with the computer system itself, problems which concerned the way in which it had been designed and/ or built and ones which, business processes aside, caused staff not to be paid or to be paid inaccurately.</t>
+  </si>
+  <si>
+    <t>The IBM witnesses have, necessarily, incomplete knowledge of exactly what was required to bring the system to a state of reasonable functionality. Ms Stewart, who had responsibility for doing so, said that it took some considerable time to achieve that, and that process to have involved many changes to it and much work. She spoke, for example, of the need to rewrite "code”, that is the programming within the system after IBM had left the Project. She used, to achieve that, staff who had worked for IBM on the Project and who were quite capable of writing good code, code which more efficiently achieved its intended purpose than that which had been written under IBM’s supervision .</t>
+  </si>
+  <si>
+    <t>Contract and
+Project Management, Section 7.60</t>
+  </si>
+  <si>
+    <t>Contract and
+Project Management, Section 7.59</t>
+  </si>
+  <si>
+    <t>Problems with scope which had never properly been resolved, would experience those kinds of problem</t>
+  </si>
+  <si>
+    <t>The IBM witnesses have, necessarily, incomplete knowledge of exactly what was required to bring the system to a state of reasonable functionality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problems which concerned the way in which it had been designed and/ or built </t>
+  </si>
+  <si>
+    <t>Defect Management Plan, impracticable anyway on its own, was by no means an exhaustive list of the problems</t>
+  </si>
+  <si>
+    <t>Delivery Factors</t>
+  </si>
+  <si>
+    <t>Ineffective Project Change Controls</t>
+  </si>
+  <si>
+    <t>Management Factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> However, it underestimated the impacts of the changes required of the schools by the introduction of the new payroll service. The execution of the change Management Factors plans which the Ministry did have was inadequate, and roles were unclear.The engagement with the payroll service’s customers and users was also insufficient   P8,2</t>
+  </si>
+  <si>
+    <t>the execution of change Management Factors was inadequate</t>
+  </si>
+  <si>
+    <t>The lack of discussion by the Project Board about the State Services Commission’s guidelines for the Management Factors and monitoring of major IT projects was a major failing. There
+was a large degree of turnover in key project leadership positions throughout    P5,3</t>
+  </si>
+  <si>
+    <t>The lack of a Programme Director with overall accountability reporting to the project’s Senior Responsible Officer meant that the Project Board and the Business Owner were the effective points of integration for programme planning and Management Factors.   P11</t>
+  </si>
+  <si>
+    <t>We are also surprised that the financial Management Factors of this project seems not to have attracted greater attention</t>
+  </si>
+  <si>
+    <t>Inancial Management Factors not have enough attention</t>
+  </si>
+  <si>
+    <t>The contract did not have appropriately escalating mechanisms for performance Management Factors.</t>
+  </si>
+  <si>
+    <t>Key system support processes such as incident Management Factors, defect Management Factors and change and release Management Factors existed but did not always operate effectively in the weeks
+following Go Live</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From a theoretical standpoint, the present SOE case demonstrates success based on existing literature, albeit some challenges were apparent, namely in communication as the catalyst in change Management Factors, organizational culture as the salient determinants of an organization’s attitudes, thought processes and actions, or various tradeoffs regarding project Management Factors issues and consultant-user relationships. </t>
+  </si>
+  <si>
+    <t>Good Management Factors</t>
+  </si>
+  <si>
+    <t>The single most indisputable factor that influences the success of system implementation documented by information systems theorists and organizational theorists in the past forty years is “top Management Factors support”</t>
+  </si>
+  <si>
+    <t>With its preempted integration, the ERP implementation process can be quite complex and involves different organizational units and different levels of Management Factors. Without Management Factors support, especially at the top, the implementation of ERP project would face unexpected problems and consequences.</t>
+  </si>
+  <si>
+    <t>The implementation of the project is very complicated and involves many departments, so it requires the control of senior Management Factors.</t>
+  </si>
+  <si>
+    <t>Besides top Management Factors support, other factors determining ERP project success are user involvement, effective change Management Factors, vendor support, turnover of vendors and project team members, and organizational culture fit.</t>
+  </si>
+  <si>
+    <t>Other factors effect IT project include user involvement, effective change Management Factors, vendor support, turnover of vendors and project team members, and organizational culture fit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk factors, on the other hand, focused on strategic and organizational success factors. The most important risk factor categories in ERP implementation are “selection and adaptation” and “change Management Factors”. </t>
+  </si>
+  <si>
+    <t>They also identified the top ten risk ERP factors as lack of senior manager commitment to the project, ineffective communication with users, insufficient training of end-users, failure to gain user support, lack of effective project Management Factors methodology, attempting to build bridges to legacy applications, conflicts between user departments, composition of project team members, failure to redesign business processes, and unclear/misunderstanding changing requirements.</t>
+  </si>
+  <si>
+    <t>They stated that ineffective project Management Factors techniques, inadequate change Management Factors, and inadequate training and instruction are the highest risk factors in the implementation/deployment phase. Top Management Factors and user involvement were not rated as high of a risk factor as inadequate ERP selection. These risk factors seem to play a role only at the early phases of ERP implementation. However, risk factors become less of a focal point once the ERP has been stabilized and enters the post implementation stage.</t>
+  </si>
+  <si>
+    <t>The departure of key Management Factors personnel led to personnel changes and insufficient project follow-up. The last project failed.</t>
+  </si>
+  <si>
+    <t>lack of knowledg Management Factors</t>
+  </si>
+  <si>
+    <t>The system was inadequately scoped and neither party took any effective measures to stabilise it. Both parties ignored all the warning signs of a project in serious distress. Rather than reset the Project or take decisive steps to put it on a stable course, they altered or lowered the thresholds which had been put in place to protect against the very thing which eventuated: a system of poor quality which was not ready to Go Live. Doing so meant that the system, when it went live, would not be functional and constituted a clear breach of the most fundamental principles of project Management Factors. Poor decisions were made, Dr Manfield said, under the intense pressure of the time imperative . I would agree, and add only that the pressure of time was something which the parties had imposed upon themselves, and it was therefore something which it was within the control of the State, in particular, to deal with, including, as I have said, by investigating alternatives to upgrade LATTICE or maintain its support while hard decisions were made about the system then still under construction</t>
+  </si>
+  <si>
+    <t>The Project was, from the outset, one which was conducted in an atmosphere of urgency, and which, in large part, had been of the State’s creation in its failure at some earlier time to commence gathering its business requirements, making any necessary changes to its internal processes and deciding what measures it would take to either upgrade or replace the LATTICE system. When the Project was commenced, the timeframes within which the various stages of it were to be undertaken were hopelessly short, including for scoping. The Project was managed, contrary to the requirements of well-established project Management Factors methodology, by undertaking a number of tasks at the same time (including different forms of testing). There was a lack of rigour in this approach. It meant that the Project was not required to pass various checkpoints before proceeding. Where checkpoints did exist, their purpose was circumvented by changing the criteria required to meet them or by their being ignored altogether.</t>
+  </si>
+  <si>
+    <t>I have identified two principal causes of the inadequacies which led to the increase in contract price, the serious shortcomings in contract and project Management Factors, and in the State’s decision to settle with IBM. Those causes were: unwarranted urgency and a lack of diligence on the part of State officials. That lack of diligence manifested itself in the poor decisions which those officials made in scoping the Interim Solution; in their governance of the Project; and in failing to hold IBM to account to deliver a functional payroll system.</t>
+  </si>
+  <si>
+    <t>It took time for the problems with the system to manifest themselves. As I have explained, retrospectiveprocessing did not commence until the second pay run. It may have been that staff took a pay or two to realise that their pay was inaccurate, or they were patient about pay irregularities, being aware that the system was new, no doubt thinking that whatever the problems with pay were that they would be corrected in due course. Whatever the reasons, I accept Ms Stewart’s evidence, because she was in the position to know, "there was a large number of issues that were surfacing that were not visible at the time of go live” , and that "it was probably other issues surfacing on top of the defect Management Factors plan that started to complicate the situation” . There is no doubt on the evidence that the Defect Management Plan could never have been a complete record of the defects which existed at Go Live . Mr Cowan had warned it to be likely that defects additional to those he had identified during UAT existed, given that this was not the function or purpose of UAT</t>
+  </si>
+  <si>
+    <t>Poor Defect Management</t>
+  </si>
+  <si>
+    <t>The settlement was driven by assumptions that without IBM’s presence there was a substantial risk that the payroll system would fail utterly</t>
+  </si>
+  <si>
+    <t>The decision to settle was taken without any proper analysis or examination of the factors identified in the submissions to the CBRC as risks, the avoidance of which motivated the settlement. In particular, advice, repeated several times, that an opinion be obtained about the value of the State’s rights against IBM was never acted on, and the State released those rights without ever having obtained an assessment of their value. They were potentially worth tens of millions of dollars.</t>
+  </si>
+  <si>
+    <t>The settlement was driven by assumptions that without IBM’s presence there was a substantial risk that the payroll system would fail utterly and that if the State insisted upon its contractual right to terminate, IBM would disregard its disengagement obligations and refuse to assist with the remediation and/or improvement of the system. The first assumption was wrong as inquiries of Ms Stewart and her team would have shown. The second assumption (which became irrelevant if the first assumption was invalid) was never tested and appears on its face unlikely.</t>
+  </si>
+  <si>
+    <t>Settlement, Section 7.7</t>
+  </si>
+  <si>
+    <t>Settlement, Section 7.6</t>
+  </si>
+  <si>
+    <t>The decision to settle was taken without any proper analysis or examination of the factors</t>
+  </si>
+  <si>
+    <t>No recovery of the failing project and just moved on to lawsuit.</t>
+  </si>
+  <si>
+    <t>inadequacies which led to the increase in contract price, the serious shortcomings in contract</t>
+  </si>
+  <si>
+    <t>Variations to the contract continued up until the system went live. They number in the order of 220. Some were proposed by IBM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In each case, the parties willingly agreed them. </t>
+  </si>
+  <si>
+    <t>Had the parties simply adhered to the controls which they had in place at the commencement of the Project, the system would never have progressed to the point at which serious compromises had to be made to Go Live. The system had reached that stage only because of conscious decisions made by the parties to "lower the bar” as</t>
+  </si>
+  <si>
+    <t>Dr Manfield said39 by changing the criteria by which it would be permitted to proceed to the next stage and by decisions to downgrade the Severity of defects which had been identified. Being aware of the major functional issues, and having removed them as a basis for preventing the system progressing towards Go Live, the parties prepared a "Solution and Defect Management Plan” (Defect Management Plan). This plan proposed to deal with such defects as were then known by, among other mechanisms, what was known as a "workaround”, namely a manual intervention, or by simply deferring the fixing of the problem until after Go Live. This was folly, but it was made worse by the fact that, on no view could the parties have thought that all the major functional defects had been identified. Mr Cowan had made absolutely clear that it was likely that further major defects existed, which it was not the role or function of the type of testing he was conducting to discover .</t>
+  </si>
+  <si>
+    <t>Contract and
+Project Management, Section 2.36</t>
+  </si>
+  <si>
+    <t>Contract and
+Project Management, Section 2.35,</t>
+  </si>
+  <si>
+    <t>Contract and
+Project Management, Section 7.8</t>
+  </si>
+  <si>
+    <t>Had the parties simply adhered to the controls</t>
+  </si>
+  <si>
+    <t>Mr Cowan had made absolutely clear that it was likely that further major defects existed, which it was not the role or function of the type of testing he was conducting to discover .</t>
+  </si>
+  <si>
+    <t>On failed [project lead onto it failing again without changing requirements.</t>
+  </si>
+  <si>
+    <t>Ms Stewart’s evidence about the problems</t>
+  </si>
+  <si>
+    <t>I found Ms Stewart’s evidence about the problems which were experienced in the system and its related processes to be more informative and reliable than that of Ms Jones. Ms Stewart’s knowledge of the relevant events was more balanced and she was able better to recall (and explain) the technical and other difficulties which were experienced in the period after Go Live. She had the advantage also of having had a close involvement with the system for a longer period post-Go Live than Ms Jones, and in particular by seeing and being involved in how the deficiencies with it and related processes were resolved. Ms Stewart had helped to prepare the three post-Go Live updates of 19 March (Updates 1 and 2) and 9 April 2010 (Update 3)  and knew which issues persisted beyond the first three pay runs . This gave her an insight into the nature of the problems, their seriousness and the work which was required to correct them which Ms Jones did not have. This makes her in my view a far superior witness to Ms Jones, and a witness whose evidence is supported by that of Mr Michael Walsh, Executive Program Director, Payroll Stabilisation Project, and by Mr Cowan.</t>
+  </si>
+  <si>
+    <t>A flow-on effect of delaying the overnight interim pay run process so that it would still be running in the morning . That in turn had an impact, as I have said, on the performance of SAP</t>
+  </si>
+  <si>
+    <t>Poor Testing Tools</t>
+  </si>
+  <si>
+    <t>It took time for the problems with the system to manifest themselves. As I have explained, retrospectiveprocessing did not commence until the second pay run.</t>
+  </si>
+  <si>
+    <t>行标签</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lack advent communications</t>
+  </si>
+  <si>
+    <t>Changing Requirements</t>
+  </si>
+  <si>
+    <t>Choose wrong stakeholders</t>
+  </si>
+  <si>
+    <t>Clear Goal</t>
+  </si>
+  <si>
+    <t>Complex implementation process</t>
+  </si>
+  <si>
+    <t>did not choose correct stakeholder</t>
+  </si>
+  <si>
+    <t>Do not have clear goal</t>
+  </si>
+  <si>
+    <t>Effect of Big-Bang Approach</t>
+  </si>
+  <si>
+    <t>Frequent personnel changes; lack of communications</t>
+  </si>
+  <si>
+    <t>Frequent replacement of suppliers; lack of communications</t>
+  </si>
+  <si>
+    <t>Good Analysis</t>
+  </si>
+  <si>
+    <t>Good Communication with different departments.</t>
+  </si>
+  <si>
+    <t>Good Communication with the stakeholders.</t>
+  </si>
+  <si>
+    <t>Good Communication with the team member.</t>
+  </si>
+  <si>
+    <t>Good Communication with Users</t>
+  </si>
+  <si>
+    <t>Good expectations.</t>
+  </si>
+  <si>
+    <t>Good internal incentives</t>
+  </si>
+  <si>
+    <t>Good Leaning</t>
+  </si>
+  <si>
+    <t>Good organization structure</t>
+  </si>
+  <si>
+    <t>Good Plan</t>
+  </si>
+  <si>
+    <t>Good relationship among the different sections.</t>
+  </si>
+  <si>
+    <t>Good risk analysis</t>
+  </si>
+  <si>
+    <t>Good Social Structure; Good orgnization clture.</t>
+  </si>
+  <si>
+    <t>Good time and budgets plan.</t>
+  </si>
+  <si>
+    <t>Government support</t>
+  </si>
+  <si>
+    <t>Inappropriate Estimations</t>
+  </si>
+  <si>
+    <t>Inappropriate Governance</t>
+  </si>
+  <si>
+    <t>Ineffective Communication</t>
+  </si>
+  <si>
+    <t>lack of communications</t>
+  </si>
+  <si>
+    <t>lack of data collect.</t>
+  </si>
+  <si>
+    <t>lack of Design</t>
+  </si>
+  <si>
+    <t>Lack of Employee Incentives</t>
+  </si>
+  <si>
+    <t>Lack of information exchange; lack information communications</t>
+  </si>
+  <si>
+    <t>Lack of Management Skills</t>
+  </si>
+  <si>
+    <t>lack of marketing</t>
+  </si>
+  <si>
+    <t>Lack of Performance Measures</t>
+  </si>
+  <si>
+    <t>Lack of Risk Management</t>
+  </si>
+  <si>
+    <t>Lack of Stakeholder Involvement</t>
+  </si>
+  <si>
+    <t>Lack of Technical Skills &amp; Knowledge</t>
+  </si>
+  <si>
+    <t>lack of time mangement</t>
+  </si>
+  <si>
+    <t>Poor Design</t>
+  </si>
+  <si>
+    <t>Poor Documentation</t>
+  </si>
+  <si>
+    <t>Poor Project Monitoring</t>
+  </si>
+  <si>
+    <t>Poor Team Commitment</t>
+  </si>
+  <si>
+    <t>Poor Technology Tools</t>
+  </si>
+  <si>
+    <t>Poor Trouble shooting</t>
+  </si>
+  <si>
+    <t>Schedule Overrun</t>
+  </si>
+  <si>
+    <t>The over-expenditure of; lack expenditure communications</t>
+  </si>
+  <si>
+    <t>Too Many Bugs</t>
+  </si>
+  <si>
+    <t>Unclear Project Objectives and Goals</t>
+  </si>
+  <si>
+    <t>Vague Requirements &amp; Scope</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>计数项:Code</t>
+  </si>
+  <si>
+    <t>Information Factor</t>
+  </si>
+  <si>
+    <t>Project Factors</t>
+  </si>
+  <si>
+    <t>Team Factors</t>
+  </si>
+  <si>
+    <t>(空白)</t>
+  </si>
+  <si>
+    <t>计数项:SuperGroup</t>
+  </si>
+  <si>
+    <t>Delivery Factors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Management Factors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poor Defect Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Work commenced on the requirements for the schools payroll project in October 2008. This process was lengthy, and was never actually completed. Even after Go Live, new requirements
 were being discovered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There was little direct customer (boards of trustees) or user (principals and school administrators) involvement in the definition of the requirements, and Datacom’s involvement was minimal.                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requirements definition, design, development and testing activity were all occurring in parallel,making it very difficult to maintain a known level of quality. </t>
-  </si>
-  <si>
-    <t>P7,4</t>
-  </si>
-  <si>
-    <t>Important areas were not fully tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team Factors </t>
-  </si>
-  <si>
-    <t>Procurement, Section 6.17</t>
-  </si>
-  <si>
-    <t>The evidence supports the conclusion that IBM’s price should have been the subject of full and careful scrutiny by Ms Perrott and the Cost Evaluation Panel with particular reference to the discrepancy between it and its earlier price, and between it and competitors’ prices. There was no such scrutiny. Ms Orange was unaware of the discrepancy and no one bothered to tell her of it. Ms Perrott, who was aware of it, failed to understand its significance, or disregarded it.</t>
-  </si>
-  <si>
-    <t>Fault ultimately was with the organization for not doing something</t>
-  </si>
-  <si>
-    <t>Improper evaluation lead to picking IBM off false scores</t>
-  </si>
-  <si>
-    <t>Management had a relationship with IMB to secure the contract</t>
-  </si>
-  <si>
-    <t>Haste in appointing a prime contractor was a lack of consideration</t>
-  </si>
-  <si>
-    <t>For the State representatives to take such a view was unjustified and grossly negligent. IBM, commercially motivated as it was, had communicated the points beyond which further agreement would be required to be reached (and implying the need to pay more money). These points were not ones which would have resulted in a functional payroll system, and that is a matter which reflects poorly on IBM. But it had been sufficiently clear in stating these limitations. The State, however, ignored those statements and proceeded as if, whether it assisted or not, IBM would be both capable of delivering, and would be obliged to deliver, a functional payroll system. Both of those assumptions were wrong. They are based, I think, on a fundamental misconception that, by appointing a prime contractor, the State had no responsibility to ensure the system was designed and built properly.</t>
-  </si>
-  <si>
-    <t>Stakeholder ignored the limitations IBM stated and misconceptions of who was responsible for the project</t>
-  </si>
-  <si>
-    <t>The parties had not only to arrive at a scope after the initial rushed scope and three years of deveopments.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scope, having had this very unsatisfactory beginning, remained ill-defined, volatile and unclear. Neither party took any effective measures to define and stabilise scope at any time during the Project. IBM seemed content to have defined scope in a way which it must have known could not result in a functional payroll system and to rely, whenever challenged, on the text of the QHIC Scope Definition. Its task was to gather requirements. It did so incompletely, relying on its obligation to do so stopping short of being responsible for eliciting such requirements from its customer. The State, on the other hand, was recalcitrant in adopting a less than diligent approach to ascertaining and communicating its business requirements to IBM. It regarded IBM as responsible for eliciting requirements from it, and considered instead IBM’s obligation to deliver the project to be for a "stable, supported and supportable” system . In short, the State assumed it had contracted for, and would get, a system which paid staff accurately, perhaps with some manual intervention, but, largely, to do so in an automated way. IBM considered its obligation, subject to some matters set out below, to be to deliver the system which would follow (and no matter what it looked like as a result) from a strict application of the QHIC Scope Definition.
-</t>
-  </si>
-  <si>
-    <t>Uncertainties as to scope are not uncommon problems in IT contracts. What is uncommon here is that, despite the problem being a known area of risk, the parties, both experienced in supplying and purchasing large IT systems respectively, were content to proceed notwithstanding they both had very different views as to scope. They thus ignored an area of risk which was known to them and one which they ought to have done more to resolve.</t>
-  </si>
-  <si>
-    <t>Contract and
-Project Management, Section 4.80</t>
-  </si>
-  <si>
-    <t>Contract and
-Project Management, Section 4.79</t>
-  </si>
-  <si>
-    <t>Scope, having had this very unsatisfactory beginning, remained ill-defined, volatile and unclear.</t>
-  </si>
-  <si>
-    <t>They thus ignored an area of risk which was known to them and one which they ought to have done more to resolve.</t>
-  </si>
-  <si>
-    <t>Overshadowed any measured and analytical assessment and weighing of the relevant factors</t>
-  </si>
-  <si>
-    <t>The decision to Go Live ought not to have been made when it was</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is clear that many of the problems which were experienced after Go Live and which affected pay involved Workbrain. Ms Stewart identified Workbrain’s performance as the most significant system issue post-Go Live . This exhibited itself in slowness of the MVS, difficulties viewing, updating and publishing rosters in the MVS, individual users being unexpectedly locked out of Workbrain, and general slowness across the Workbrain application .
-</t>
-  </si>
-  <si>
-    <t>Part of the problem was its sheer slowness in processing rosters. Payroll staff, as a result, Ms Jones explained, simply did not have enough time to add all the data in to the roster environment to get the rosters published . The problem may have been caused by a number of users in the same area using the system at the same time, thereby creating too much of a load on the system so that it would lock them out or freeze. Operators had to exit the system and re-enter it . The problem was something with which any system, whether interim and minimal or not, ought to have been capable of dealing. Ms Jones estimated that about 100 payroll staff across the state at any given time were affected by this problem.</t>
-  </si>
-  <si>
-    <t>Contract and
-Project Management, Section 7.49</t>
-  </si>
-  <si>
-    <t>Contract and
-Project Management, Section 7.50</t>
-  </si>
-  <si>
-    <t>Technical issue with there system being to slow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I find that the system, when it went live, and for some considerable period afterwards, had serious functional deficiencies. Mr Burns and Mr Shah had warned of this as being a real possibility in the Risk Assessment Report. Mr Cowan’s Final UAT Report had identified it as likely and perhaps inevitable. It must have been obvious, by the time the decision was made to Go Live, that the system, given these warnings, and the problems with scope which had never properly been resolved, would experience those kinds of problems. The Final UAT Report had made clear also that there were likely to exist in the system functional deficiencies which UAT had not discovered, having (quite properly) tested only part of the system.
-</t>
-  </si>
-  <si>
-    <t>Mr Kwiatkowski sought also to catalogue what I have described as the business process problems which confronted the system on Go Live . They, as I have said, are accepted by Ms Jones and Ms Stewart to have contributed to the problems which were experienced after Go Live. But it remains that there were problems also with the computer system itself, problems which concerned the way in which it had been designed and/ or built and ones which, business processes aside, caused staff not to be paid or to be paid inaccurately.</t>
-  </si>
-  <si>
-    <t>The IBM witnesses have, necessarily, incomplete knowledge of exactly what was required to bring the system to a state of reasonable functionality. Ms Stewart, who had responsibility for doing so, said that it took some considerable time to achieve that, and that process to have involved many changes to it and much work. She spoke, for example, of the need to rewrite "code”, that is the programming within the system after IBM had left the Project. She used, to achieve that, staff who had worked for IBM on the Project and who were quite capable of writing good code, code which more efficiently achieved its intended purpose than that which had been written under IBM’s supervision .</t>
-  </si>
-  <si>
-    <t>Contract and
-Project Management, Section 7.60</t>
-  </si>
-  <si>
-    <t>Contract and
-Project Management, Section 7.59</t>
-  </si>
-  <si>
-    <t>Problems with scope which had never properly been resolved, would experience those kinds of problem</t>
-  </si>
-  <si>
-    <t>The IBM witnesses have, necessarily, incomplete knowledge of exactly what was required to bring the system to a state of reasonable functionality.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Problems which concerned the way in which it had been designed and/ or built </t>
-  </si>
-  <si>
-    <t>Defect Management Plan, impracticable anyway on its own, was by no means an exhaustive list of the problems</t>
-  </si>
-  <si>
-    <t>Delivery Factors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Ineffective Project Change Controls</t>
-  </si>
-  <si>
-    <t>Management Factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> However, it underestimated the impacts of the changes required of the schools by the introduction of the new payroll service. The execution of the change Management Factors plans which the Ministry did have was inadequate, and roles were unclear.The engagement with the payroll service’s customers and users was also insufficient   P8,2</t>
-  </si>
-  <si>
-    <t>the execution of change Management Factors was inadequate</t>
-  </si>
-  <si>
-    <t>The lack of discussion by the Project Board about the State Services Commission’s guidelines for the Management Factors and monitoring of major IT projects was a major failing. There
-was a large degree of turnover in key project leadership positions throughout    P5,3</t>
-  </si>
-  <si>
-    <t>The lack of a Programme Director with overall accountability reporting to the project’s Senior Responsible Officer meant that the Project Board and the Business Owner were the effective points of integration for programme planning and Management Factors.   P11</t>
-  </si>
-  <si>
-    <t>We are also surprised that the financial Management Factors of this project seems not to have attracted greater attention</t>
-  </si>
-  <si>
-    <t>Inancial Management Factors not have enough attention</t>
-  </si>
-  <si>
-    <t>The contract did not have appropriately escalating mechanisms for performance Management Factors.</t>
-  </si>
-  <si>
-    <t>Key system support processes such as incident Management Factors, defect Management Factors and change and release Management Factors existed but did not always operate effectively in the weeks
-following Go Live</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From a theoretical standpoint, the present SOE case demonstrates success based on existing literature, albeit some challenges were apparent, namely in communication as the catalyst in change Management Factors, organizational culture as the salient determinants of an organization’s attitudes, thought processes and actions, or various tradeoffs regarding project Management Factors issues and consultant-user relationships. </t>
-  </si>
-  <si>
-    <t>Good Management Factors</t>
-  </si>
-  <si>
-    <t>The single most indisputable factor that influences the success of system implementation documented by information systems theorists and organizational theorists in the past forty years is “top Management Factors support”</t>
-  </si>
-  <si>
-    <t>With its preempted integration, the ERP implementation process can be quite complex and involves different organizational units and different levels of Management Factors. Without Management Factors support, especially at the top, the implementation of ERP project would face unexpected problems and consequences.</t>
-  </si>
-  <si>
-    <t>The implementation of the project is very complicated and involves many departments, so it requires the control of senior Management Factors.</t>
-  </si>
-  <si>
-    <t>Besides top Management Factors support, other factors determining ERP project success are user involvement, effective change Management Factors, vendor support, turnover of vendors and project team members, and organizational culture fit.</t>
-  </si>
-  <si>
-    <t>Other factors effect IT project include user involvement, effective change Management Factors, vendor support, turnover of vendors and project team members, and organizational culture fit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Risk factors, on the other hand, focused on strategic and organizational success factors. The most important risk factor categories in ERP implementation are “selection and adaptation” and “change Management Factors”. </t>
-  </si>
-  <si>
-    <t>They also identified the top ten risk ERP factors as lack of senior manager commitment to the project, ineffective communication with users, insufficient training of end-users, failure to gain user support, lack of effective project Management Factors methodology, attempting to build bridges to legacy applications, conflicts between user departments, composition of project team members, failure to redesign business processes, and unclear/misunderstanding changing requirements.</t>
-  </si>
-  <si>
-    <t>They stated that ineffective project Management Factors techniques, inadequate change Management Factors, and inadequate training and instruction are the highest risk factors in the implementation/deployment phase. Top Management Factors and user involvement were not rated as high of a risk factor as inadequate ERP selection. These risk factors seem to play a role only at the early phases of ERP implementation. However, risk factors become less of a focal point once the ERP has been stabilized and enters the post implementation stage.</t>
-  </si>
-  <si>
-    <t>The departure of key Management Factors personnel led to personnel changes and insufficient project follow-up. The last project failed.</t>
-  </si>
-  <si>
-    <t>lack of knowledg Management Factors</t>
-  </si>
-  <si>
-    <t>The system was inadequately scoped and neither party took any effective measures to stabilise it. Both parties ignored all the warning signs of a project in serious distress. Rather than reset the Project or take decisive steps to put it on a stable course, they altered or lowered the thresholds which had been put in place to protect against the very thing which eventuated: a system of poor quality which was not ready to Go Live. Doing so meant that the system, when it went live, would not be functional and constituted a clear breach of the most fundamental principles of project Management Factors. Poor decisions were made, Dr Manfield said, under the intense pressure of the time imperative . I would agree, and add only that the pressure of time was something which the parties had imposed upon themselves, and it was therefore something which it was within the control of the State, in particular, to deal with, including, as I have said, by investigating alternatives to upgrade LATTICE or maintain its support while hard decisions were made about the system then still under construction</t>
-  </si>
-  <si>
-    <t>The Project was, from the outset, one which was conducted in an atmosphere of urgency, and which, in large part, had been of the State’s creation in its failure at some earlier time to commence gathering its business requirements, making any necessary changes to its internal processes and deciding what measures it would take to either upgrade or replace the LATTICE system. When the Project was commenced, the timeframes within which the various stages of it were to be undertaken were hopelessly short, including for scoping. The Project was managed, contrary to the requirements of well-established project Management Factors methodology, by undertaking a number of tasks at the same time (including different forms of testing). There was a lack of rigour in this approach. It meant that the Project was not required to pass various checkpoints before proceeding. Where checkpoints did exist, their purpose was circumvented by changing the criteria required to meet them or by their being ignored altogether.</t>
-  </si>
-  <si>
-    <t>I have identified two principal causes of the inadequacies which led to the increase in contract price, the serious shortcomings in contract and project Management Factors, and in the State’s decision to settle with IBM. Those causes were: unwarranted urgency and a lack of diligence on the part of State officials. That lack of diligence manifested itself in the poor decisions which those officials made in scoping the Interim Solution; in their governance of the Project; and in failing to hold IBM to account to deliver a functional payroll system.</t>
-  </si>
-  <si>
-    <t>It took time for the problems with the system to manifest themselves. As I have explained, retrospectiveprocessing did not commence until the second pay run. It may have been that staff took a pay or two to realise that their pay was inaccurate, or they were patient about pay irregularities, being aware that the system was new, no doubt thinking that whatever the problems with pay were that they would be corrected in due course. Whatever the reasons, I accept Ms Stewart’s evidence, because she was in the position to know, "there was a large number of issues that were surfacing that were not visible at the time of go live” , and that "it was probably other issues surfacing on top of the defect Management Factors plan that started to complicate the situation” . There is no doubt on the evidence that the Defect Management Plan could never have been a complete record of the defects which existed at Go Live . Mr Cowan had warned it to be likely that defects additional to those he had identified during UAT existed, given that this was not the function or purpose of UAT</t>
-  </si>
-  <si>
-    <t>Poor Defect Management</t>
-  </si>
-  <si>
-    <t>The settlement was driven by assumptions that without IBM’s presence there was a substantial risk that the payroll system would fail utterly</t>
-  </si>
-  <si>
-    <t>The decision to settle was taken without any proper analysis or examination of the factors identified in the submissions to the CBRC as risks, the avoidance of which motivated the settlement. In particular, advice, repeated several times, that an opinion be obtained about the value of the State’s rights against IBM was never acted on, and the State released those rights without ever having obtained an assessment of their value. They were potentially worth tens of millions of dollars.</t>
-  </si>
-  <si>
-    <t>The settlement was driven by assumptions that without IBM’s presence there was a substantial risk that the payroll system would fail utterly and that if the State insisted upon its contractual right to terminate, IBM would disregard its disengagement obligations and refuse to assist with the remediation and/or improvement of the system. The first assumption was wrong as inquiries of Ms Stewart and her team would have shown. The second assumption (which became irrelevant if the first assumption was invalid) was never tested and appears on its face unlikely.</t>
-  </si>
-  <si>
-    <t>Settlement, Section 7.7</t>
-  </si>
-  <si>
-    <t>Settlement, Section 7.6</t>
-  </si>
-  <si>
-    <t>The decision to settle was taken without any proper analysis or examination of the factors</t>
-  </si>
-  <si>
-    <t>No recovery of the failing project and just moved on to lawsuit.</t>
-  </si>
-  <si>
-    <t>inadequacies which led to the increase in contract price, the serious shortcomings in contract</t>
-  </si>
-  <si>
-    <t>Variations to the contract continued up until the system went live. They number in the order of 220. Some were proposed by IBM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In each case, the parties willingly agreed them. </t>
-  </si>
-  <si>
-    <t>Had the parties simply adhered to the controls which they had in place at the commencement of the Project, the system would never have progressed to the point at which serious compromises had to be made to Go Live. The system had reached that stage only because of conscious decisions made by the parties to "lower the bar” as</t>
-  </si>
-  <si>
-    <t>Dr Manfield said39 by changing the criteria by which it would be permitted to proceed to the next stage and by decisions to downgrade the Severity of defects which had been identified. Being aware of the major functional issues, and having removed them as a basis for preventing the system progressing towards Go Live, the parties prepared a "Solution and Defect Management Plan” (Defect Management Plan). This plan proposed to deal with such defects as were then known by, among other mechanisms, what was known as a "workaround”, namely a manual intervention, or by simply deferring the fixing of the problem until after Go Live. This was folly, but it was made worse by the fact that, on no view could the parties have thought that all the major functional defects had been identified. Mr Cowan had made absolutely clear that it was likely that further major defects existed, which it was not the role or function of the type of testing he was conducting to discover .</t>
-  </si>
-  <si>
-    <t>Contract and
-Project Management, Section 2.36</t>
-  </si>
-  <si>
-    <t>Contract and
-Project Management, Section 2.35,</t>
-  </si>
-  <si>
-    <t>Contract and
-Project Management, Section 7.8</t>
-  </si>
-  <si>
-    <t>Had the parties simply adhered to the controls</t>
-  </si>
-  <si>
-    <t>Mr Cowan had made absolutely clear that it was likely that further major defects existed, which it was not the role or function of the type of testing he was conducting to discover .</t>
-  </si>
-  <si>
-    <t>On failed [project lead onto it failing again without changing requirements.</t>
-  </si>
-  <si>
-    <t>Ms Stewart’s evidence about the problems</t>
-  </si>
-  <si>
-    <t>I found Ms Stewart’s evidence about the problems which were experienced in the system and its related processes to be more informative and reliable than that of Ms Jones. Ms Stewart’s knowledge of the relevant events was more balanced and she was able better to recall (and explain) the technical and other difficulties which were experienced in the period after Go Live. She had the advantage also of having had a close involvement with the system for a longer period post-Go Live than Ms Jones, and in particular by seeing and being involved in how the deficiencies with it and related processes were resolved. Ms Stewart had helped to prepare the three post-Go Live updates of 19 March (Updates 1 and 2) and 9 April 2010 (Update 3)  and knew which issues persisted beyond the first three pay runs . This gave her an insight into the nature of the problems, their seriousness and the work which was required to correct them which Ms Jones did not have. This makes her in my view a far superior witness to Ms Jones, and a witness whose evidence is supported by that of Mr Michael Walsh, Executive Program Director, Payroll Stabilisation Project, and by Mr Cowan.</t>
-  </si>
-  <si>
-    <t>A flow-on effect of delaying the overnight interim pay run process so that it would still be running in the morning . That in turn had an impact, as I have said, on the performance of SAP</t>
-  </si>
-  <si>
-    <t>Poor Testing Tools</t>
-  </si>
-  <si>
-    <t>It took time for the problems with the system to manifest themselves. As I have explained, retrospectiveprocessing did not commence until the second pay run.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The real Go Live decision was made on 31 May 2012, despite the Confidence Point Two criteria
+not having been met and schools not being ready. Project governance and leadership allowed
+a combination of significant risks to be carried into Go Live and overestimated the ability of the
+Ministry, Talent2 and schools to manage them</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Too much Attrition in Team</t>
+  </si>
+  <si>
+    <t>Poor Leadership</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marketing</t>
   </si>
 </sst>
 </file>
@@ -1977,7 +2119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2016,9 +2158,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2031,6 +2178,1464 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jerry" refreshedDate="43734.38153796296" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="151" xr:uid="{D8C17AEB-781A-486A-AC61-055C3F888D07}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="F1:F151" sheet="Sheet1 (2)"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="SuperGroup" numFmtId="0">
+      <sharedItems containsBlank="1" count="8">
+        <s v="Management Factors"/>
+        <s v="Environmental Factors"/>
+        <s v="Organizational Factors"/>
+        <s v="Delivery Factors"/>
+        <s v="Project Factors"/>
+        <s v="Team Factors"/>
+        <s v="Information Factor"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jerry" refreshedDate="43734.45760115741" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="150" xr:uid="{DD96F0DD-2456-45C2-8AA6-9A13D829CE93}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="E1:E151" sheet="Sheet1 (2)"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="Code" numFmtId="0">
+      <sharedItems count="79">
+        <s v="Incorrect Assumptions"/>
+        <s v="Unrealistic Schedules/Deadlines"/>
+        <s v="Scope Creep"/>
+        <s v="Ineffective Communication"/>
+        <s v="Vague Requirements &amp; Scope"/>
+        <s v="Lack of Customer Involvement"/>
+        <s v="Inappropriate Governance"/>
+        <s v="Cost Overrun"/>
+        <s v="Poor Testing"/>
+        <s v="Ineffective Project Change Controls"/>
+        <s v="Lack of Risk Management"/>
+        <s v="Lack of Senior Management Involvement,Support &amp;Commitment"/>
+        <s v="Too much Attrition in Team"/>
+        <s v="Poor Project Monitoring"/>
+        <s v="Poor Leadership"/>
+        <s v="Schedule Overrun"/>
+        <s v="Poor Organizational Culture"/>
+        <s v="Marketing"/>
+        <s v="Project Complexity"/>
+        <s v="Poor Documentation"/>
+        <s v="Unfavourable Contract"/>
+        <s v="Lack of Performance Measures"/>
+        <s v="Lack of Employee Incentives"/>
+        <s v="Poor Team Commitment"/>
+        <s v="Unrealistic Expectations"/>
+        <s v="Lack of Management Skills"/>
+        <s v="Changing Requirements"/>
+        <s v="Inappropriate Estimations"/>
+        <s v="Effect of Big-Bang Approach"/>
+        <s v="Too Many Bugs"/>
+        <s v="Poor Trouble shooting"/>
+        <s v="Poor Technology Tools"/>
+        <s v="Good organization structure"/>
+        <s v="Timely access to information"/>
+        <s v="Good Plan"/>
+        <s v="Good Communication with the team member."/>
+        <s v="Good Analysis"/>
+        <s v="Good Communication with the stakeholders."/>
+        <s v="Clear Goal"/>
+        <s v="Good Communication with Users"/>
+        <s v="Good expectations."/>
+        <s v="Good Social Structure; Good orgnization clture."/>
+        <s v="Good Management Factors"/>
+        <s v="Good Leaning"/>
+        <s v="Good relationship among the different sections."/>
+        <s v="Good Communication with different departments."/>
+        <s v="Good time and budgets plan."/>
+        <s v="Good risk analysis"/>
+        <s v="Government support"/>
+        <s v="Good internal incentives"/>
+        <s v="lack of Design"/>
+        <s v="did not choose correct stakeholder"/>
+        <s v="Do not have clear goal"/>
+        <s v="lack of marketing"/>
+        <s v="lack of time mangement"/>
+        <s v="lack of data collect."/>
+        <s v="Complex implementation process"/>
+        <s v="Choose wrong stakeholders"/>
+        <s v="Frequent personnel changes; lack of communications"/>
+        <s v="lack of communications"/>
+        <s v="lack of knowledg Management Factors"/>
+        <s v="Timeout, over budget"/>
+        <s v="Frequent replacement of suppliers; lack of communications"/>
+        <s v="Lack of information exchange; lack information communications"/>
+        <s v=" lack advent communications"/>
+        <s v="The over-expenditure of; lack expenditure communications"/>
+        <s v="Lack of Project Management Skills"/>
+        <s v="Failing to Understand Change"/>
+        <s v="Stakeholder Politics"/>
+        <s v="Incorrect Status Reporting"/>
+        <s v="Too Much Optimism"/>
+        <s v="No Business Case"/>
+        <s v="Lack of Stakeholder Involvement"/>
+        <s v="Unclear Project Objectives and Goals"/>
+        <s v="Poor Design"/>
+        <s v="Lack of Technical Skills &amp; Knowledge"/>
+        <s v="Poor Defect Management"/>
+        <s v="Lack of Senior Management Involvement,Support &amp; Commitment"/>
+        <s v="Poor Testing Tools"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="151">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="150">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="62"/>
+  </r>
+  <r>
+    <x v="63"/>
+  </r>
+  <r>
+    <x v="64"/>
+  </r>
+  <r>
+    <x v="65"/>
+  </r>
+  <r>
+    <x v="66"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="67"/>
+  </r>
+  <r>
+    <x v="68"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="69"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="70"/>
+  </r>
+  <r>
+    <x v="71"/>
+  </r>
+  <r>
+    <x v="72"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="73"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="76"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="68"/>
+  </r>
+  <r>
+    <x v="68"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="77"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="76"/>
+  </r>
+  <r>
+    <x v="73"/>
+  </r>
+  <r>
+    <x v="71"/>
+  </r>
+  <r>
+    <x v="78"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="48"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7B597A4-1531-45AD-B8DF-14DAD51F1480}" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B83" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="80">
+        <item x="64"/>
+        <item x="26"/>
+        <item x="57"/>
+        <item x="38"/>
+        <item x="56"/>
+        <item x="7"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="28"/>
+        <item x="67"/>
+        <item x="58"/>
+        <item x="62"/>
+        <item x="36"/>
+        <item x="45"/>
+        <item x="37"/>
+        <item x="35"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="49"/>
+        <item x="43"/>
+        <item x="42"/>
+        <item x="32"/>
+        <item x="34"/>
+        <item x="44"/>
+        <item x="47"/>
+        <item x="41"/>
+        <item x="46"/>
+        <item x="48"/>
+        <item x="27"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="69"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="59"/>
+        <item x="5"/>
+        <item x="55"/>
+        <item x="50"/>
+        <item x="22"/>
+        <item x="63"/>
+        <item x="60"/>
+        <item x="25"/>
+        <item x="53"/>
+        <item x="21"/>
+        <item x="66"/>
+        <item x="10"/>
+        <item x="77"/>
+        <item x="11"/>
+        <item x="72"/>
+        <item x="75"/>
+        <item x="54"/>
+        <item x="17"/>
+        <item x="71"/>
+        <item x="76"/>
+        <item x="74"/>
+        <item x="19"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="23"/>
+        <item x="31"/>
+        <item x="8"/>
+        <item x="78"/>
+        <item x="30"/>
+        <item x="18"/>
+        <item x="15"/>
+        <item x="2"/>
+        <item x="68"/>
+        <item x="65"/>
+        <item x="33"/>
+        <item x="61"/>
+        <item x="29"/>
+        <item x="12"/>
+        <item x="70"/>
+        <item x="73"/>
+        <item x="20"/>
+        <item x="24"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="80">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="计数项:Code" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81DBBA73-B981-46A1-A836-E2F01454E305}" name="数据透视表4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="9">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="计数项:SuperGroup" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2295,28 +3900,696 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD7FB7F-10D9-4208-A900-CA223695BC5E}">
+  <dimension ref="A3:B83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="61.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="B4" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="B5" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="B6" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="B7" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="B8" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="B10" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="B12" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="B13" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="B14" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="B15" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="B16" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="B17" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="B18" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="B19" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="B20" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="B21" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="B22" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="B23" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="B24" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="B25" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="B26" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="B27" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="B28" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="B29" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="B30" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="B31" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="B32" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="B33" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="B34" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="B35" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="B36" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="B37" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="B38" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="B40" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="B41" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="B42" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="B43" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="B44" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="B45" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="B46" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="B47" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="B48" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="B49" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B50" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="B51" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="B52" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="B53" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="B54" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="B55" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="B56" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="B57" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="B58" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="B59" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="B60" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="B62" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="B63" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="B64" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="B66" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="B67" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="B68" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="B69" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="B71" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="B72" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B73" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="B74" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="B75" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="B76" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="B77" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="B78" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B79" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B80" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="B82" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="B83" s="18">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166"/>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="20.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="89.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
-    <col min="8" max="8" width="18.375" customWidth="1"/>
-    <col min="11" max="11" width="21.875" customWidth="1"/>
-    <col min="12" max="12" width="36.25" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="89.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="21.88671875" customWidth="1"/>
+    <col min="12" max="12" width="36.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="26.45" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="26.4" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2324,10 +4597,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -2338,2725 +4611,2727 @@
     </row>
     <row r="2" spans="1:6" ht="64.5" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27.6">
+      <c r="A3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="E3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.5">
-      <c r="A3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="F3" s="13" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="84.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="41.4">
+      <c r="A5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="41.4">
+      <c r="A6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="42.75">
-      <c r="A5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27.6">
+      <c r="A7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27.6">
+      <c r="A8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="42.75">
-      <c r="A6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F8" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.5">
-      <c r="A7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="55.2">
+      <c r="A9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.5">
-      <c r="A8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="57">
-      <c r="A9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27.6">
       <c r="A10" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F10" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="55.2">
+      <c r="A11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="57">
-      <c r="A11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="1" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="57">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="55.2">
       <c r="A12" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="1" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="57">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="55.2">
       <c r="A13" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>131</v>
+        <v>544</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>133</v>
+        <v>517</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="69">
       <c r="A14" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="57">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="41.4">
       <c r="A15" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>136</v>
+        <v>434</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="42.75">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="55.2">
       <c r="A16" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>117</v>
+        <v>364</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="57">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="41.4">
       <c r="A17" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>455</v>
+        <v>132</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>140</v>
+        <v>545</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="42.75">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="55.2">
       <c r="A18" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="42.75">
+        <v>59</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="55.2">
       <c r="A20" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C20" s="9"/>
+      <c r="D20" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="E20" s="1" t="s">
-        <v>146</v>
+        <v>507</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="57">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="41.4">
       <c r="A21" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="1" t="s">
-        <v>148</v>
+        <v>386</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="42.75">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="27.6">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>149</v>
+        <v>389</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="1" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="28.5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="27.6">
       <c r="A23" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="1" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="28.5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="41.4">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>456</v>
+        <v>141</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="1" t="s">
-        <v>457</v>
+        <v>387</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="42.75">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="27.6">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="1" t="s">
-        <v>405</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="28.5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="27.6">
       <c r="A26" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C26" s="9"/>
       <c r="E26" s="1" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="28.5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="55.2">
       <c r="A27" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C27" s="9"/>
+      <c r="D27" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="E27" s="1" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="57">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="27.6">
       <c r="A29" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C29" s="9"/>
       <c r="E29" s="1" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="28.5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C30" s="9"/>
       <c r="E30" s="1" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="27.6">
       <c r="A31" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C31" s="9"/>
+      <c r="D31" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="E31" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="28.5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="41.4">
       <c r="A32" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="27.6">
+      <c r="A33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="E33" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="27.6">
+      <c r="A34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="28.5">
-      <c r="A33" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>164</v>
       </c>
       <c r="C34" s="9"/>
       <c r="E34" s="1" t="s">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="41.4">
       <c r="A35" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C35" s="9"/>
+      <c r="D35" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="E35" s="1" t="s">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="42.75">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="27.6">
       <c r="A37" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C37" s="9"/>
-      <c r="D37" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="28.5">
+        <v>62</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="27.6">
       <c r="A38" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C38" s="9"/>
       <c r="E38" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="28.5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="27.6">
       <c r="A39" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C39" s="9"/>
       <c r="E39" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="28.5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="41.4">
       <c r="A40" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C40" s="9"/>
       <c r="E40" s="1" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="42.75">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="27.6">
       <c r="A41" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>176</v>
+        <v>438</v>
       </c>
       <c r="C41" s="9"/>
       <c r="E41" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="28.5">
+        <v>34</v>
+      </c>
+      <c r="F41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="28.8" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>458</v>
+        <v>165</v>
       </c>
       <c r="C42" s="9"/>
       <c r="E42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="55.2">
       <c r="A43" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C43" s="9"/>
+      <c r="D43" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="E43" s="1" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="57">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="41.4">
       <c r="A44" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="42.75">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="27.6">
       <c r="A45" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C45" s="9"/>
-      <c r="D45" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="28.5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="27.6">
       <c r="A46" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C46" s="9"/>
       <c r="E46" s="1" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="28.5">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="27.6">
       <c r="A47" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C47" s="9"/>
       <c r="E47" s="1" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="28.5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="55.2">
       <c r="A48" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C48" s="9"/>
+      <c r="D48" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="E48" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="57">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="41.4">
       <c r="A49" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C49" s="9"/>
-      <c r="D49" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="42.75">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="69">
       <c r="A50" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C50" s="9"/>
+      <c r="D50" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="E50" s="1" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="57">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="33" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C51" s="9"/>
-      <c r="D51" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="41.4">
       <c r="A52" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C52" s="9"/>
+      <c r="D52" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="E52" s="1" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="42.75">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="27.6">
       <c r="A53" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="28.5">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="41.4">
       <c r="A54" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="27.6">
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="41.4">
+      <c r="A56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="41.4">
+      <c r="A57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="41.4">
+      <c r="A58" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F58" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="27.6">
+      <c r="A59" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="27.6">
+      <c r="A60" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C60" t="s">
+        <v>343</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" ht="27.6">
+      <c r="A61" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C61" t="s">
+        <v>343</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" ht="41.4">
+      <c r="A62" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C62" t="s">
+        <v>343</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" ht="27.6">
+      <c r="A63" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C63" t="s">
+        <v>343</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" ht="27.6">
+      <c r="A64" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C64" t="s">
+        <v>343</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" ht="69">
+      <c r="A65" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C65" t="s">
+        <v>343</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" ht="27.6">
+      <c r="A66" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C66" t="s">
+        <v>344</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" ht="69">
+      <c r="A67" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C67" t="s">
+        <v>344</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" ht="41.4">
+      <c r="A68" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C68" t="s">
+        <v>344</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" ht="27.6">
+      <c r="A69" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C69" t="s">
+        <v>344</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F69" t="s">
+        <v>64</v>
+      </c>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C70" t="s">
+        <v>344</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" ht="27.6">
+      <c r="A71" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C71" t="s">
+        <v>344</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" ht="55.2">
+      <c r="A72" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C72" t="s">
+        <v>345</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F72" t="s">
+        <v>64</v>
+      </c>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" ht="27.6">
+      <c r="A73" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C73" t="s">
+        <v>345</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" ht="41.4">
+      <c r="A74" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C74" t="s">
+        <v>345</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" ht="55.2">
+      <c r="A75" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C75" t="s">
+        <v>345</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" ht="41.4">
+      <c r="A76" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C76" t="s">
+        <v>345</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" ht="69">
+      <c r="A77" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G77" s="10"/>
+    </row>
+    <row r="78" spans="1:7" ht="82.8">
+      <c r="A78" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G78" s="10"/>
+    </row>
+    <row r="79" spans="1:7" ht="96.6">
+      <c r="A79" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G79" s="10"/>
+    </row>
+    <row r="80" spans="1:7" ht="69">
+      <c r="A80" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G80" s="10"/>
+    </row>
+    <row r="81" spans="1:7" ht="69">
+      <c r="A81" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G81" s="10"/>
+    </row>
+    <row r="82" spans="1:7" ht="69">
+      <c r="A82" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G82" s="10"/>
+    </row>
+    <row r="83" spans="1:7" ht="69">
+      <c r="A83" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G83" s="10"/>
+    </row>
+    <row r="84" spans="1:7" ht="69">
+      <c r="A84" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G84" s="10"/>
+    </row>
+    <row r="85" spans="1:7" ht="110.4">
+      <c r="A85" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="42.75">
-      <c r="A55" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="28.5">
-      <c r="A56" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="C85" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G85" s="10"/>
+    </row>
+    <row r="86" spans="1:7" ht="82.8">
+      <c r="A86" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="42.75">
-      <c r="A57" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="42.75">
-      <c r="A58" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="42.75">
-      <c r="A59" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="28.5">
-      <c r="A60" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="28.5">
-      <c r="A61" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C61" t="s">
-        <v>361</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:7" ht="28.5">
-      <c r="A62" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C62" t="s">
-        <v>361</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" ht="42.75">
-      <c r="A63" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C63" t="s">
-        <v>361</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" ht="28.5">
-      <c r="A64" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C64" t="s">
-        <v>361</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="B86" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G86" s="10"/>
+    </row>
+    <row r="87" spans="1:7" ht="82.8">
+      <c r="A87" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:7" ht="28.5">
-      <c r="A65" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C65" t="s">
-        <v>361</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:7" ht="57">
-      <c r="A66" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C66" t="s">
-        <v>361</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7" ht="28.5">
-      <c r="A67" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C67" t="s">
-        <v>362</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="1:7" ht="57">
-      <c r="A68" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C68" t="s">
-        <v>362</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7" ht="42.75">
-      <c r="A69" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C69" t="s">
-        <v>362</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:7" ht="28.5">
-      <c r="A70" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C70" t="s">
-        <v>362</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F70" t="s">
-        <v>65</v>
-      </c>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C71" t="s">
-        <v>362</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:7" ht="28.5">
-      <c r="A72" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C72" t="s">
-        <v>362</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7" ht="57">
-      <c r="A73" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C73" t="s">
-        <v>363</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F73" t="s">
-        <v>65</v>
-      </c>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" ht="28.5">
-      <c r="A74" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C74" t="s">
-        <v>363</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" ht="42.75">
-      <c r="A75" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C75" t="s">
-        <v>363</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:7" ht="57">
-      <c r="A76" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C76" t="s">
-        <v>363</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" ht="42.75">
-      <c r="A77" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C77" t="s">
-        <v>363</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="1:7" ht="71.25">
-      <c r="A78" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G78" s="10"/>
-    </row>
-    <row r="79" spans="1:7" ht="71.25">
-      <c r="A79" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G79" s="10"/>
-    </row>
-    <row r="80" spans="1:7" ht="99.75">
-      <c r="A80" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G80" s="10"/>
-    </row>
-    <row r="81" spans="1:7" ht="71.25">
-      <c r="A81" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B81" s="1" t="s">
+      <c r="F87" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G87" s="10"/>
+    </row>
+    <row r="88" spans="1:7" ht="110.4">
+      <c r="A88" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="C88" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G81" s="10"/>
-    </row>
-    <row r="82" spans="1:7" ht="71.25">
-      <c r="A82" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B82" s="1" t="s">
+      <c r="F88" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G88" s="10"/>
+    </row>
+    <row r="89" spans="1:7" ht="55.2">
+      <c r="A89" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="C89" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G82" s="10"/>
-    </row>
-    <row r="83" spans="1:7" ht="71.25">
-      <c r="A83" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B83" s="1" t="s">
+      <c r="F89" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G89" s="10"/>
+    </row>
+    <row r="90" spans="1:7" ht="41.4">
+      <c r="A90" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D83" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="C90" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G83" s="10"/>
-    </row>
-    <row r="84" spans="1:7" ht="71.25">
-      <c r="A84" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D84" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G84" s="10"/>
-    </row>
-    <row r="85" spans="1:7" ht="71.25">
-      <c r="A85" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D85" s="1" t="s">
+      <c r="G90" s="11"/>
+    </row>
+    <row r="91" spans="1:7" ht="41.4">
+      <c r="A91" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G85" s="10"/>
-    </row>
-    <row r="86" spans="1:7" ht="114">
-      <c r="A86" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D86" s="1" t="s">
+      <c r="C91" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G86" s="10"/>
-    </row>
-    <row r="87" spans="1:7" ht="85.5">
-      <c r="A87" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D87" s="1" t="s">
+      <c r="F91"/>
+      <c r="G91" s="11"/>
+    </row>
+    <row r="92" spans="1:7" ht="69">
+      <c r="A92" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="C92" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G87" s="10"/>
-    </row>
-    <row r="88" spans="1:7" ht="85.5">
-      <c r="A88" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B88" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G88" s="10"/>
-    </row>
-    <row r="89" spans="1:7" ht="114">
-      <c r="A89" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G89" s="10"/>
-    </row>
-    <row r="90" spans="1:7" ht="57">
-      <c r="A90" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G90" s="10"/>
-    </row>
-    <row r="91" spans="1:7" ht="42.75">
-      <c r="A91" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G91" s="11"/>
-    </row>
-    <row r="92" spans="1:7" ht="42.75">
-      <c r="A92" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="F92"/>
       <c r="G92" s="11"/>
     </row>
-    <row r="93" spans="1:7" ht="71.25">
+    <row r="93" spans="1:7" ht="41.4">
       <c r="A93" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="F93"/>
       <c r="G93" s="11"/>
     </row>
-    <row r="94" spans="1:7" ht="42.75">
+    <row r="94" spans="1:7" ht="82.8">
       <c r="A94" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="F94"/>
       <c r="G94" s="11"/>
     </row>
-    <row r="95" spans="1:7" ht="71.25">
+    <row r="95" spans="1:7" ht="96.6">
       <c r="A95" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="F95"/>
       <c r="G95" s="11"/>
     </row>
-    <row r="96" spans="1:7" ht="85.5">
+    <row r="96" spans="1:7" ht="82.8">
       <c r="A96" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="F96"/>
       <c r="G96" s="11"/>
     </row>
-    <row r="97" spans="1:7" ht="71.25">
+    <row r="97" spans="1:7" ht="41.4">
       <c r="A97" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="F97"/>
       <c r="G97" s="11"/>
     </row>
-    <row r="98" spans="1:7" ht="42.75">
+    <row r="98" spans="1:7" ht="55.2">
       <c r="A98" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="F98"/>
       <c r="G98" s="11"/>
     </row>
-    <row r="99" spans="1:7" ht="57">
+    <row r="99" spans="1:7" ht="69">
       <c r="A99" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F99"/>
       <c r="G99" s="11"/>
     </row>
-    <row r="100" spans="1:7" ht="71.25">
+    <row r="100" spans="1:7" ht="69">
       <c r="A100" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="F100"/>
       <c r="G100" s="11"/>
     </row>
-    <row r="101" spans="1:7" ht="57">
+    <row r="101" spans="1:7" ht="82.8">
       <c r="A101" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="F101"/>
       <c r="G101" s="11"/>
     </row>
-    <row r="102" spans="1:7" ht="71.25">
+    <row r="102" spans="1:7" ht="41.4">
       <c r="A102" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>470</v>
+        <v>307</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="F102"/>
       <c r="G102" s="11"/>
     </row>
-    <row r="103" spans="1:7" ht="28.5">
+    <row r="103" spans="1:7" ht="110.4">
       <c r="A103" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F103"/>
+    </row>
+    <row r="104" spans="1:7" ht="41.4">
+      <c r="A104" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="G104" s="11"/>
+    </row>
+    <row r="105" spans="1:7" ht="69">
+      <c r="A105" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="G105" s="11"/>
+    </row>
+    <row r="106" spans="1:7" ht="55.2">
+      <c r="A106" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="G106" s="11"/>
+    </row>
+    <row r="107" spans="1:7" ht="55.2">
+      <c r="A107" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="G107" s="11"/>
+    </row>
+    <row r="108" spans="1:7" ht="55.2">
+      <c r="A108" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="G108" s="11"/>
+    </row>
+    <row r="109" spans="1:7" ht="41.4">
+      <c r="A109" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F109"/>
+      <c r="G109" s="11"/>
+    </row>
+    <row r="110" spans="1:7" ht="82.8">
+      <c r="A110" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D103" s="1" t="s">
+      <c r="C110" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="F103"/>
-      <c r="G103" s="11"/>
-    </row>
-    <row r="104" spans="1:7" ht="99.75">
-      <c r="A104" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F104"/>
-    </row>
-    <row r="105" spans="1:7" ht="42.75">
-      <c r="A105" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F105" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="G105" s="11"/>
-    </row>
-    <row r="106" spans="1:7" ht="71.25">
-      <c r="A106" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F106" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="G106" s="11"/>
-    </row>
-    <row r="107" spans="1:7" ht="57">
-      <c r="A107" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F107" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="G107" s="11"/>
-    </row>
-    <row r="108" spans="1:7" ht="57">
-      <c r="A108" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F108" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="G108" s="11"/>
-    </row>
-    <row r="109" spans="1:7" ht="42.75">
-      <c r="A109" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E109" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F109" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="G109" s="11"/>
-    </row>
-    <row r="110" spans="1:7" ht="42.75">
-      <c r="A110" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="F110"/>
       <c r="G110" s="11"/>
     </row>
-    <row r="111" spans="1:7" ht="71.25">
+    <row r="111" spans="1:7" ht="82.8">
       <c r="A111" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="F111"/>
       <c r="G111" s="11"/>
     </row>
-    <row r="112" spans="1:7" ht="85.5">
+    <row r="112" spans="1:7" ht="82.8">
       <c r="A112" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="F112"/>
-      <c r="G112" s="11"/>
-    </row>
-    <row r="113" spans="1:7" ht="85.5">
+      <c r="G112" s="12"/>
+    </row>
+    <row r="113" spans="1:7" ht="82.8">
       <c r="A113" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="F113"/>
       <c r="G113" s="12"/>
     </row>
-    <row r="114" spans="1:7" ht="71.25">
+    <row r="114" spans="1:7" ht="69">
       <c r="A114" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>351</v>
+        <v>67</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>379</v>
+        <v>75</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="F114"/>
-      <c r="G114" s="12"/>
-    </row>
-    <row r="115" spans="1:7" ht="57">
+        <v>342</v>
+      </c>
+      <c r="F114" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="96.6">
       <c r="A115" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="C115" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="96.6">
+      <c r="A116" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F115" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="85.5">
-      <c r="A116" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="D116" s="1" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="F116" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="85.5">
+    <row r="117" spans="1:7" ht="138">
       <c r="A117" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B117" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="124.2">
+      <c r="A118" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F117" t="s">
+      <c r="D118" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F118" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="124.2">
+      <c r="A119" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F119" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="82.8">
+      <c r="A120" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E120" t="s">
+        <v>58</v>
+      </c>
+      <c r="F120" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="69">
+      <c r="A121" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F121" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="128.25">
-      <c r="A118" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D118" s="1" t="s">
+    <row r="122" spans="1:7" ht="138">
+      <c r="A122" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F122" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="151.80000000000001">
+      <c r="A123" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F123" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="151.80000000000001">
+      <c r="A124" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="96.6">
+      <c r="A125" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="69">
+      <c r="A126" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="124.2">
+      <c r="A127" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E127" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="110.4">
+      <c r="A128" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="193.2">
+      <c r="A129" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="69">
+      <c r="A130" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="55.2">
+      <c r="A131" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E131" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="55.2">
+      <c r="A132" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E132" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="96.6">
+      <c r="A133" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="96.6">
+      <c r="A134" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E134" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="82.8">
+      <c r="A135" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="96.6">
+      <c r="A136" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F118" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="128.25">
-      <c r="A119" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="F119" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="114">
-      <c r="A120" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F120" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="71.25">
-      <c r="A121" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E121" t="s">
-        <v>59</v>
-      </c>
-      <c r="F121" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="71.25">
-      <c r="A122" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D122" s="1" t="s">
+      <c r="D136" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E136" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="124.2">
+      <c r="A137" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F122" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="128.25">
-      <c r="A123" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="F123" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="156.75">
-      <c r="A124" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F124" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="142.5">
-      <c r="A125" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="E125" s="1" t="s">
+      <c r="C137" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F137" s="14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="96.6">
+      <c r="A138" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="85.5">
-      <c r="A126" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="F126" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="57">
-      <c r="A127" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F127" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="128.25">
-      <c r="A128" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E128" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F128" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="99.75">
-      <c r="A129" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E129" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F129" s="14" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="199.5">
-      <c r="A130" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E130" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F130" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="71.25">
-      <c r="A131" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="E131" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F131" s="14" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="57">
-      <c r="A132" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E132" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F132" s="14" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="57">
-      <c r="A133" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C133" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E133" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F133" s="14" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="99.75">
-      <c r="A134" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E134" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F134" s="14" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="99.75">
-      <c r="A135" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E135" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F135" s="14" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="71.25">
-      <c r="A136" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="E136" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F136" s="14" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="99.75">
-      <c r="A137" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E137" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F137" s="14" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="114">
-      <c r="A138" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="E138" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F138" s="14" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="99.75">
+        <v>428</v>
+      </c>
+      <c r="E138" t="s">
+        <v>456</v>
+      </c>
+      <c r="F138" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="69">
       <c r="A139" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="82.8">
+      <c r="A140" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="110.4">
+      <c r="A141" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E139" t="s">
-        <v>476</v>
-      </c>
-      <c r="F139" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="71.25">
-      <c r="A140" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E140" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F140" s="14" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="85.5">
-      <c r="A141" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>480</v>
-      </c>
       <c r="D141" s="1" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="114">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="82.8">
       <c r="A142" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>483</v>
+      <c r="D142" s="9" t="s">
+        <v>464</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="71.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="69">
       <c r="A143" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>474</v>
+        <v>337</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D143" s="9" t="s">
-        <v>484</v>
+        <v>339</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>53</v>
+        <v>378</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="71.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="82.8">
       <c r="A144" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>396</v>
+        <v>20</v>
       </c>
       <c r="F144" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="85.5">
+    <row r="145" spans="1:7" ht="55.2">
       <c r="A145" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>356</v>
+        <v>467</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>358</v>
+        <v>470</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="E145" s="14" t="s">
         <v>20</v>
@@ -5065,127 +7340,128 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="57">
+    <row r="146" spans="1:7" ht="138">
       <c r="A146" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="E146" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F146" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="142.5">
+        <v>469</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="E146" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="82.8">
       <c r="A147" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>488</v>
+        <v>341</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D147" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="E147" t="s">
+        <v>471</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E147" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="165.6">
+      <c r="A148" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="85.5">
-      <c r="A148" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="C148" s="1" t="s">
-        <v>491</v>
+        <v>103</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="E148" s="14" t="s">
-        <v>31</v>
+        <v>379</v>
       </c>
       <c r="F148" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="156.75">
+    <row r="149" spans="1:7" ht="138">
       <c r="A149" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>496</v>
+        <v>104</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="E149" s="14" t="s">
-        <v>397</v>
+        <v>478</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="128.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="151.80000000000001">
       <c r="A150" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="D150" s="1" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="E150" s="14" t="s">
-        <v>498</v>
+        <v>43</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="156.75">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="110.4">
       <c r="A151" s="1" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>475</v>
+        <v>266</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>108</v>
+        <v>351</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="E151" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F151" s="14" t="s">
-        <v>449</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G151" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E121 E109 D143 E128:E151 D147" xr:uid="{FED73E1F-3CAB-4959-A155-64A2784C84F4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D142 D146" xr:uid="{FED73E1F-3CAB-4959-A155-64A2784C84F4}">
       <formula1>Code</formula1>
     </dataValidation>
   </dataValidations>
@@ -5193,30 +7469,18 @@
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>F2</xm:sqref>
+          <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1000297D-424E-46C1-B37D-1322B7248674}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E780DF94-0951-416B-849F-BE9D622B22EE}">
           <x14:formula1>
-            <xm:f>Sheet2!#REF!</xm:f>
+            <xm:f>Sheet2!$A$1:$A$53</xm:f>
           </x14:formula1>
-          <xm:sqref>E115:E120 E122:E125</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$B:$B</xm:f>
-          </x14:formula1>
-          <xm:sqref>F1 F3:F18 F110:F114 F43:F69 F71:F72 F125 F74:F104 F20:F36 F38:F41 F136:F138 F147 F152:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$A$1:$A$55</xm:f>
-          </x14:formula1>
-          <xm:sqref>E1:E18 E110:E114 E126:E127 E20:E108 E152:E1048576</xm:sqref>
+          <xm:sqref>E1:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5224,27 +7488,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="66.375" customWidth="1"/>
-    <col min="2" max="2" width="35.75" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="59.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.75" customWidth="1"/>
+    <col min="1" max="1" width="66.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18">
+    <row r="1" spans="1:7" ht="17.399999999999999">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -5252,13 +7516,13 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18">
+    <row r="2" spans="1:7" ht="17.399999999999999">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5269,7 +7533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18">
+    <row r="3" spans="1:7" ht="17.399999999999999">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5280,7 +7544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18">
+    <row r="4" spans="1:7" ht="17.399999999999999">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5291,37 +7555,40 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18">
+    <row r="5" spans="1:7" ht="17.399999999999999">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>540</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18">
+    <row r="6" spans="1:7" ht="17.399999999999999">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.399999999999999">
       <c r="A7" t="s">
         <v>12</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>539</v>
+      </c>
       <c r="G7" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5345,7 +7612,7 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>395</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5404,7 +7671,7 @@
         <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5452,7 +7719,7 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5471,7 +7738,7 @@
         <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5495,7 +7762,7 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5503,7 +7770,7 @@
         <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>449</v>
+        <v>539</v>
       </c>
       <c r="G29" t="s">
         <v>37</v>
@@ -5538,7 +7805,7 @@
         <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>476</v>
+        <v>541</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -5562,10 +7829,10 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="G36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5653,7 +7920,7 @@
         <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>450</v>
+        <v>543</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5669,42 +7936,42 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -5717,4 +7984,103 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA6260C-0DB3-4D2D-B332-C8A9D1AE679F}">
+  <dimension ref="A3:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="B4" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="B6" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="B7" s="18">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="B9" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="B10" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="B11" s="18"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="B12" s="18">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Thematic-Coding.xlsx
+++ b/Thematic-Coding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidde\Dropbox\Kieran Third year\BCIS301 _ AMIC700\Assignment 1\BCIS301---AMIC700---Thematic-Coding-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCFC80E-E82A-4D64-AA35-7982E139717B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4917BD7-D00D-49EF-9CE9-1703E9F8371F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,15 @@
     <definedName name="_ftnref2" localSheetId="0">'Sheet1 (2)'!$B$22</definedName>
     <definedName name="Environmental_Factors">Sheet2!#REF!</definedName>
     <definedName name="Organizational_Factors">Sheet2!$A$1:$A$4</definedName>
-    <definedName name="Poor_Management_Factors">Sheet2!$A$25:$A$42</definedName>
-    <definedName name="Project_Factors">Sheet2!$A$13:$A$17</definedName>
+    <definedName name="Poor_Management_Factors">Sheet2!$A$24:$A$41</definedName>
+    <definedName name="Project_Factors">Sheet2!$A$13:$A$16</definedName>
     <definedName name="Team_Factors">Sheet2!$A$5:$A$12</definedName>
-    <definedName name="Technology_Factors">Sheet2!$A$18:$A$24</definedName>
+    <definedName name="Technology_Factors">Sheet2!$A$17:$A$23</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="34" r:id="rId5"/>
-    <pivotCache cacheId="43" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="504">
   <si>
     <t>CaseStudy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,10 +158,6 @@
   </si>
   <si>
     <t>Lack of Performance Measures</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Business Case</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1046,10 +1042,6 @@
     <t>The communication was not smooth and the project failed.</t>
   </si>
   <si>
-    <t>lack of communications</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>During the initial implementation phase of NPfIT, there was no whole-of-system coding language. A universal coding language is needed when critical health care decisions are made by complete strangers, for example in Accident and Emergency Departments. For example, the word ‘diabetes’ in a patient care record could be interpreted as a family history of diabetes, a predisposition to the illness or a diagnosis. Any shorthand, assumed knowledge or incomplete information in a patient’s care records is potentially a risk to patient safety. Such concerns were reflected in a 2007 House of Commons Report which recommended that there be clear standards and timetables for the introduction of a universal coding language.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1588,9 +1580,6 @@
   </si>
   <si>
     <t>Ineffective Communication</t>
-  </si>
-  <si>
-    <t>lack of communications</t>
   </si>
   <si>
     <t>lack of data collect.</t>
@@ -2035,7 +2024,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="kieran abelen" refreshedDate="43737.710121643519" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="149" xr:uid="{DD96F0DD-2456-45C2-8AA6-9A13D829CE93}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="kieran abelen" refreshedDate="43739.50701134259" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="149" xr:uid="{DD96F0DD-2456-45C2-8AA6-9A13D829CE93}">
   <cacheSource type="worksheet">
     <worksheetSource ref="E1:E150" sheet="Sheet1 (2)"/>
   </cacheSource>
@@ -2085,7 +2074,6 @@
         <s v="lack of marketing"/>
         <s v="lack of time mangement"/>
         <s v="lack of data collect."/>
-        <s v="lack of communications"/>
         <s v="lack of knowledg Management Factors"/>
         <s v="Timeout, over budget"/>
         <s v="Lack of information exchange; lack information communications"/>
@@ -2102,40 +2090,41 @@
         <s v="Poor Defect Management"/>
         <s v="Lack of Senior Management Involvement,Support &amp; Commitment"/>
         <s v="Poor Testing Tools"/>
+        <s v="Too Much Optimism" u="1"/>
+        <s v="Good relationship among the different sections." u="1"/>
+        <s v="Cost Overrun" u="1"/>
+        <s v="Good Leaning" u="1"/>
+        <s v="Good Communication with the stakeholders." u="1"/>
+        <s v="Failing to Understand Change" u="1"/>
+        <s v="Government support" u="1"/>
+        <s v="Complex implementation process" u="1"/>
+        <s v="Good Communication with different departments." u="1"/>
+        <s v="Good Social Structure; Good orgnization clture." u="1"/>
+        <s v="Good Analysis" u="1"/>
+        <s v="Good Communication with Users" u="1"/>
+        <s v="Inappropriate Estimations" u="1"/>
+        <s v="Good Communication with the team member." u="1"/>
+        <s v="Good Plan" u="1"/>
+        <s v="did not choose correct stakeholder" u="1"/>
+        <s v="Changing Requirements" u="1"/>
+        <s v="Too Many Bugs" u="1"/>
         <s v="Effect of Big-Bang Approach" u="1"/>
+        <s v=" lack advent communications" u="1"/>
+        <s v="Good time and budgets plan." u="1"/>
+        <s v="Incorrect Status Reporting" u="1"/>
+        <s v="Good risk analysis" u="1"/>
+        <s v="Frequent replacement of suppliers; lack of communications" u="1"/>
         <s v="Frequent personnel changes; lack of communications" u="1"/>
+        <s v="Clear Goal" u="1"/>
+        <s v="Good internal incentives" u="1"/>
+        <s v="lack of communications" u="1"/>
+        <s v="Good Management Factors" u="1"/>
+        <s v="Good organization structure" u="1"/>
+        <s v="Do not have clear goal" u="1"/>
+        <s v="Choose wrong stakeholders" u="1"/>
+        <s v="Good expectations." u="1"/>
+        <s v="Poor Documentation" u="1"/>
         <s v="Project Analysis" u="1"/>
-        <s v="Good risk analysis" u="1"/>
-        <s v="Good organization structure" u="1"/>
-        <s v="Good Communication with the team member." u="1"/>
-        <s v="Government support" u="1"/>
-        <s v="Incorrect Status Reporting" u="1"/>
-        <s v="Good time and budgets plan." u="1"/>
-        <s v=" lack advent communications" u="1"/>
-        <s v="Good Analysis" u="1"/>
-        <s v="Inappropriate Estimations" u="1"/>
-        <s v="Poor Documentation" u="1"/>
-        <s v="Too Many Bugs" u="1"/>
-        <s v="Changing Requirements" u="1"/>
-        <s v="Frequent replacement of suppliers; lack of communications" u="1"/>
-        <s v="Good Communication with different departments." u="1"/>
-        <s v="Complex implementation process" u="1"/>
-        <s v="did not choose correct stakeholder" u="1"/>
-        <s v="Good Plan" u="1"/>
-        <s v="Cost Overrun" u="1"/>
-        <s v="Failing to Understand Change" u="1"/>
-        <s v="Good Communication with Users" u="1"/>
-        <s v="Good Social Structure; Good orgnization clture." u="1"/>
-        <s v="Do not have clear goal" u="1"/>
-        <s v="Good expectations." u="1"/>
-        <s v="Good relationship among the different sections." u="1"/>
-        <s v="Good Management Factors" u="1"/>
-        <s v="Good internal incentives" u="1"/>
-        <s v="Good Communication with the stakeholders." u="1"/>
-        <s v="Clear Goal" u="1"/>
-        <s v="Too Much Optimism" u="1"/>
-        <s v="Good Leaning" u="1"/>
-        <s v="Choose wrong stakeholders" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -2905,148 +2894,148 @@
     <x v="33"/>
   </r>
   <r>
+    <x v="27"/>
+  </r>
+  <r>
     <x v="43"/>
   </r>
   <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
     <x v="44"/>
   </r>
   <r>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="39"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
   </r>
   <r>
     <x v="30"/>
   </r>
   <r>
-    <x v="45"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="46"/>
-  </r>
-  <r>
-    <x v="47"/>
-  </r>
-  <r>
-    <x v="48"/>
-  </r>
-  <r>
-    <x v="49"/>
-  </r>
-  <r>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="24"/>
-  </r>
-  <r>
-    <x v="19"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="0"/>
   </r>
   <r>
     <x v="33"/>
   </r>
   <r>
+    <x v="33"/>
+  </r>
+  <r>
     <x v="20"/>
   </r>
   <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="53"/>
   </r>
   <r>
     <x v="50"/>
   </r>
   <r>
-    <x v="51"/>
-  </r>
-  <r>
-    <x v="52"/>
-  </r>
-  <r>
-    <x v="53"/>
-  </r>
-  <r>
-    <x v="54"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="30"/>
-  </r>
-  <r>
-    <x v="55"/>
-  </r>
-  <r>
-    <x v="56"/>
-  </r>
-  <r>
-    <x v="53"/>
-  </r>
-  <r>
-    <x v="57"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="20"/>
-  </r>
-  <r>
     <x v="58"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="57"/>
-  </r>
-  <r>
-    <x v="54"/>
-  </r>
-  <r>
-    <x v="51"/>
-  </r>
-  <r>
-    <x v="59"/>
   </r>
   <r>
     <x v="30"/>
@@ -3055,86 +3044,86 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7B597A4-1531-45AD-B8DF-14DAD51F1480}" name="数据透视表1" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7B597A4-1531-45AD-B8DF-14DAD51F1480}" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:B61" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="ascending">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="95">
-        <item m="1" x="69"/>
-        <item m="1" x="74"/>
-        <item m="1" x="93"/>
+        <item m="1" x="78"/>
+        <item m="1" x="75"/>
         <item m="1" x="90"/>
-        <item m="1" x="77"/>
+        <item m="1" x="84"/>
+        <item m="1" x="66"/>
         <item x="19"/>
-        <item m="1" x="80"/>
+        <item m="1" x="61"/>
         <item x="26"/>
         <item x="22"/>
-        <item m="1" x="78"/>
-        <item m="1" x="84"/>
+        <item m="1" x="74"/>
+        <item m="1" x="89"/>
+        <item m="1" x="77"/>
+        <item m="1" x="64"/>
+        <item m="1" x="83"/>
+        <item m="1" x="82"/>
+        <item m="1" x="69"/>
+        <item m="1" x="67"/>
+        <item m="1" x="63"/>
+        <item m="1" x="72"/>
+        <item m="1" x="70"/>
+        <item m="1" x="91"/>
+        <item m="1" x="85"/>
+        <item m="1" x="62"/>
+        <item m="1" x="87"/>
+        <item m="1" x="88"/>
+        <item m="1" x="73"/>
         <item m="1" x="60"/>
         <item m="1" x="81"/>
-        <item m="1" x="61"/>
-        <item m="1" x="75"/>
-        <item m="1" x="70"/>
-        <item m="1" x="76"/>
-        <item m="1" x="89"/>
+        <item m="1" x="68"/>
+        <item m="1" x="79"/>
         <item m="1" x="65"/>
-        <item m="1" x="82"/>
-        <item m="1" x="85"/>
-        <item m="1" x="88"/>
-        <item m="1" x="92"/>
-        <item m="1" x="87"/>
-        <item m="1" x="64"/>
-        <item m="1" x="79"/>
-        <item m="1" x="86"/>
-        <item m="1" x="63"/>
-        <item m="1" x="83"/>
-        <item m="1" x="68"/>
-        <item m="1" x="66"/>
         <item m="1" x="71"/>
         <item x="5"/>
         <item x="0"/>
-        <item m="1" x="67"/>
+        <item m="1" x="80"/>
         <item x="3"/>
         <item x="8"/>
         <item x="28"/>
-        <item x="43"/>
+        <item m="1" x="86"/>
         <item x="4"/>
         <item x="42"/>
         <item x="39"/>
-        <item x="47"/>
         <item x="46"/>
-        <item x="44"/>
+        <item x="45"/>
+        <item x="43"/>
         <item x="25"/>
         <item x="40"/>
         <item x="21"/>
-        <item x="49"/>
+        <item x="48"/>
         <item x="9"/>
-        <item x="58"/>
+        <item x="57"/>
         <item x="10"/>
-        <item x="52"/>
-        <item x="56"/>
+        <item x="51"/>
+        <item x="55"/>
         <item x="41"/>
         <item x="13"/>
         <item x="17"/>
-        <item x="51"/>
+        <item x="50"/>
         <item x="37"/>
-        <item x="57"/>
-        <item x="55"/>
-        <item m="1" x="72"/>
+        <item x="56"/>
+        <item x="54"/>
+        <item m="1" x="92"/>
         <item x="14"/>
         <item x="16"/>
         <item x="12"/>
         <item x="23"/>
         <item x="31"/>
         <item x="7"/>
-        <item x="59"/>
+        <item x="58"/>
         <item x="30"/>
-        <item m="1" x="62"/>
+        <item m="1" x="93"/>
         <item x="18"/>
         <item x="32"/>
         <item x="35"/>
-        <item x="50"/>
+        <item x="49"/>
         <item x="36"/>
         <item x="15"/>
         <item x="38"/>
@@ -3142,17 +3131,17 @@
         <item x="29"/>
         <item x="33"/>
         <item x="6"/>
-        <item x="48"/>
+        <item x="47"/>
         <item x="34"/>
-        <item x="45"/>
-        <item m="1" x="73"/>
+        <item x="44"/>
+        <item m="1" x="76"/>
         <item x="11"/>
-        <item m="1" x="91"/>
-        <item x="54"/>
+        <item m="1" x="59"/>
+        <item x="53"/>
         <item x="20"/>
         <item x="24"/>
         <item x="1"/>
-        <item x="53"/>
+        <item x="52"/>
         <item x="27"/>
         <item t="default"/>
       </items>
@@ -3161,7 +3150,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="61">
+  <rowItems count="60">
     <i>
       <x v="5"/>
     </i>
@@ -3185,9 +3174,6 @@
     </i>
     <i>
       <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
     </i>
     <i>
       <x v="39"/>
@@ -3365,7 +3351,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81DBBA73-B981-46A1-A836-E2F01454E305}" name="数据透视表4" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81DBBA73-B981-46A1-A836-E2F01454E305}" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -3705,8 +3691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3731,10 +3717,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>3</v>
@@ -3745,616 +3731,616 @@
     </row>
     <row r="2" spans="1:6" ht="64.5" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="F3" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="84.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="F5" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>4</v>
+        <v>107</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>465</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>56</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="16" t="s">
         <v>110</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E9" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
       <c r="A10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>110</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="60">
       <c r="A11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="60">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="75">
       <c r="A14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="60">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="45">
       <c r="A17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>454</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="60">
       <c r="A18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" s="8"/>
       <c r="E19" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="60">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="45">
       <c r="A21" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30">
       <c r="A22" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45">
       <c r="A23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="45">
       <c r="A24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30">
       <c r="A25" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="8"/>
       <c r="E25" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30">
       <c r="A26" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="60">
       <c r="A27" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30">
       <c r="A28" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C28" s="8"/>
       <c r="E28" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" s="8"/>
       <c r="E29" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30">
       <c r="A30" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30" s="8"/>
       <c r="E30" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="45">
       <c r="A31" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45">
       <c r="A32" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>141</v>
-      </c>
       <c r="F32" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C33" s="8"/>
       <c r="E33" s="8" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30">
       <c r="A34" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C34" s="8"/>
       <c r="E34" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="45">
       <c r="A35" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="30">
       <c r="A36" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>26</v>
@@ -4365,70 +4351,70 @@
     </row>
     <row r="37" spans="1:6" ht="30">
       <c r="A37" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C37" s="8"/>
       <c r="E37" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30">
       <c r="A38" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C38" s="8"/>
       <c r="E38" s="17" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="45">
       <c r="A39" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C39" s="8"/>
       <c r="E39" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="45">
       <c r="A40" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C40" s="8"/>
       <c r="E40" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30">
       <c r="A41" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C41" s="8"/>
       <c r="E41" s="8" t="s">
@@ -4440,1434 +4426,1434 @@
     </row>
     <row r="42" spans="1:6" ht="28.9" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C42" s="8"/>
       <c r="E42" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="60">
       <c r="A43" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="45">
       <c r="A44" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="30">
       <c r="A45" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C45" s="8"/>
       <c r="E45" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30">
       <c r="A46" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C46" s="8"/>
       <c r="E46" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30">
       <c r="A47" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C47" s="8"/>
       <c r="E47" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="60">
       <c r="A48" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="45">
       <c r="A49" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="75">
       <c r="A50" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="33" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C51" s="8"/>
       <c r="E51" s="17" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="45">
       <c r="A52" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="45">
       <c r="A53" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="45">
       <c r="A54" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="30">
       <c r="A55" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="E55" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="60">
       <c r="A56" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>174</v>
-      </c>
       <c r="F56" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="45">
       <c r="A57" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="45">
       <c r="A58" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B58" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="E58" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E58" s="8" t="s">
-        <v>178</v>
-      </c>
       <c r="F58" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="30">
       <c r="A59" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="E59" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="E59" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="F59" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="30">
       <c r="A60" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="C60" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" ht="30">
       <c r="A61" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" t="s">
+        <v>288</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C61" t="s">
-        <v>290</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E61" s="8" t="s">
+      <c r="F61" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>186</v>
       </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" ht="45">
       <c r="A62" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C62" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" ht="30">
       <c r="A63" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" t="s">
+        <v>288</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C63" t="s">
-        <v>290</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>189</v>
-      </c>
       <c r="F63" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" ht="30">
       <c r="A64" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C64" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" ht="75">
       <c r="A65" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C65" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" ht="60">
       <c r="A66" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C66" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" ht="75">
       <c r="A67" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C67" t="s">
+        <v>289</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C67" t="s">
-        <v>291</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="E67" s="17" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" ht="45">
       <c r="A68" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" t="s">
+        <v>289</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C68" t="s">
-        <v>291</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="E68" s="17" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="30">
       <c r="A69" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" t="s">
+        <v>289</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C69" t="s">
-        <v>291</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="E69" s="17" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" t="s">
+        <v>289</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C70" t="s">
-        <v>291</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="E70" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" ht="30">
       <c r="A71" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" t="s">
+        <v>289</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C71" t="s">
-        <v>291</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="E71" s="17" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" ht="60">
       <c r="A72" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" t="s">
+        <v>290</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C72" t="s">
-        <v>292</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="E72" s="17" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" ht="45">
       <c r="A73" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C73" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" ht="60">
       <c r="A74" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C74" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" ht="60">
       <c r="A75" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" t="s">
+        <v>290</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C75" t="s">
-        <v>292</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E75" s="17" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" ht="60">
       <c r="A76" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C76" t="s">
+        <v>290</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C76" t="s">
-        <v>292</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="E76" s="17" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" ht="75">
       <c r="A77" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" ht="90">
       <c r="A78" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" ht="120">
       <c r="A79" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" ht="75">
       <c r="A80" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="E80" s="17" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G80" s="9"/>
     </row>
     <row r="81" spans="1:7" ht="75">
       <c r="A81" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="E81" s="17" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G81" s="9"/>
     </row>
     <row r="82" spans="1:7" ht="75">
       <c r="A82" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="E82" s="8" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G82" s="9"/>
     </row>
     <row r="83" spans="1:7" ht="75">
       <c r="A83" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G83" s="9"/>
     </row>
     <row r="84" spans="1:7" ht="90">
       <c r="A84" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G84" s="9"/>
     </row>
     <row r="85" spans="1:7" ht="135">
       <c r="A85" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G85" s="9"/>
     </row>
     <row r="86" spans="1:7" ht="90">
       <c r="A86" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="E86" s="17" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G86" s="9"/>
     </row>
     <row r="87" spans="1:7" ht="90">
       <c r="A87" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="E87" s="17" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G87" s="9"/>
     </row>
     <row r="88" spans="1:7" ht="120">
       <c r="A88" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="E88" s="17" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G88" s="9"/>
     </row>
     <row r="89" spans="1:7" ht="75">
       <c r="A89" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="E89" s="17" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G89" s="9"/>
     </row>
     <row r="90" spans="1:7" ht="45">
       <c r="A90" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>229</v>
       </c>
       <c r="G90" s="10"/>
     </row>
     <row r="91" spans="1:7" ht="45">
       <c r="A91" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="E91" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G91" s="10"/>
     </row>
     <row r="92" spans="1:7" ht="75">
       <c r="A92" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="E92" s="17" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G92" s="10"/>
     </row>
     <row r="93" spans="1:7" ht="45">
       <c r="A93" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="F93" s="12"/>
       <c r="G93" s="10"/>
     </row>
     <row r="94" spans="1:7" ht="90">
       <c r="A94" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>239</v>
       </c>
       <c r="F94" s="12"/>
       <c r="G94" s="10"/>
     </row>
     <row r="95" spans="1:7" ht="105">
       <c r="A95" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D95" s="1" t="s">
+      <c r="E95" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>242</v>
       </c>
       <c r="F95" s="12"/>
       <c r="G95" s="10"/>
     </row>
     <row r="96" spans="1:7" ht="90">
       <c r="A96" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D96" s="1" t="s">
+      <c r="E96" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>245</v>
       </c>
       <c r="F96" s="12"/>
       <c r="G96" s="10"/>
     </row>
     <row r="97" spans="1:7" ht="45">
       <c r="A97" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="E97" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F97" s="12"/>
       <c r="G97" s="10"/>
     </row>
     <row r="98" spans="1:7" ht="60">
       <c r="A98" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="E98" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F98" s="12"/>
       <c r="G98" s="10"/>
     </row>
     <row r="99" spans="1:7" ht="75">
       <c r="A99" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="E99" s="17" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G99" s="10"/>
     </row>
     <row r="100" spans="1:7" ht="75">
       <c r="A100" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="E100" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G100" s="10"/>
     </row>
     <row r="101" spans="1:7" ht="90">
       <c r="A101" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G101" s="10"/>
     </row>
     <row r="102" spans="1:7" ht="45">
       <c r="A102" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>257</v>
+      <c r="E102" s="17" t="s">
+        <v>486</v>
       </c>
       <c r="F102" s="12"/>
       <c r="G102" s="10"/>
     </row>
     <row r="103" spans="1:7" ht="120">
       <c r="A103" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F103" s="12"/>
     </row>
     <row r="104" spans="1:7" ht="45">
       <c r="A104" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G104" s="10"/>
     </row>
     <row r="105" spans="1:7" ht="75">
       <c r="A105" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G105" s="10"/>
     </row>
     <row r="106" spans="1:7" ht="60">
       <c r="A106" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G106" s="10"/>
     </row>
     <row r="107" spans="1:7" ht="75">
       <c r="A107" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G107" s="10"/>
     </row>
     <row r="108" spans="1:7" ht="60">
       <c r="A108" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G108" s="10"/>
     </row>
     <row r="109" spans="1:7" ht="45">
       <c r="A109" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E109" s="8" t="s">
         <v>270</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>272</v>
       </c>
       <c r="F109" s="12"/>
       <c r="G109" s="10"/>
     </row>
     <row r="110" spans="1:7" ht="90">
       <c r="A110" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G110" s="10"/>
     </row>
     <row r="111" spans="1:7" ht="105">
       <c r="A111" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E111" s="8" t="s">
         <v>275</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>277</v>
       </c>
       <c r="F111" s="12"/>
       <c r="G111" s="10"/>
     </row>
     <row r="112" spans="1:7" ht="105">
       <c r="A112" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G112" s="11"/>
     </row>
     <row r="113" spans="1:7" ht="90">
       <c r="A113" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E113" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>282</v>
       </c>
       <c r="F113" s="12"/>
       <c r="G113" s="11"/>
     </row>
     <row r="114" spans="1:7" ht="75">
       <c r="A114" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="C114" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F114" s="12" t="s">
         <v>17</v>
@@ -5875,19 +5861,19 @@
     </row>
     <row r="115" spans="1:7" ht="105">
       <c r="A115" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F115" s="12" t="s">
         <v>8</v>
@@ -5895,19 +5881,19 @@
     </row>
     <row r="116" spans="1:7" ht="105">
       <c r="A116" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F116" s="12" t="s">
         <v>8</v>
@@ -5915,99 +5901,99 @@
     </row>
     <row r="117" spans="1:7" ht="150">
       <c r="A117" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E117" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="150">
       <c r="A118" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="150">
       <c r="A119" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="90">
       <c r="A120" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="75">
       <c r="A121" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F121" s="12" t="s">
         <v>8</v>
@@ -6015,99 +6001,99 @@
     </row>
     <row r="122" spans="1:7" ht="150">
       <c r="A122" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="180">
       <c r="A123" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="165">
       <c r="A124" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="105">
       <c r="A125" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B125" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="D125" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="75">
       <c r="A126" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B126" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="D126" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F126" s="12" t="s">
         <v>24</v>
@@ -6115,56 +6101,56 @@
     </row>
     <row r="127" spans="1:7" ht="150">
       <c r="A127" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E127" s="12" t="s">
         <v>6</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="120">
       <c r="A128" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="225">
       <c r="A129" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E129" s="12" t="s">
         <v>25</v>
@@ -6175,279 +6161,279 @@
     </row>
     <row r="130" spans="1:6" ht="75">
       <c r="A130" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="60">
       <c r="A131" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B131" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="D131" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="60">
       <c r="A132" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="D132" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="105">
       <c r="A133" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="E133" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="120">
       <c r="A134" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B134" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="D134" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="90">
       <c r="A135" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="120">
       <c r="A136" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E136" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="135">
       <c r="A137" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="120">
       <c r="A138" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D138" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="90">
       <c r="A139" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="90">
       <c r="A140" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="120">
       <c r="A141" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="D141" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="90">
       <c r="A142" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="90">
       <c r="A143" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="D143" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F143" s="12" t="s">
         <v>8</v>
@@ -6455,16 +6441,16 @@
     </row>
     <row r="144" spans="1:6" ht="90">
       <c r="A144" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="D144" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E144" s="12" t="s">
         <v>16</v>
@@ -6475,16 +6461,16 @@
     </row>
     <row r="145" spans="1:6" ht="60">
       <c r="A145" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C145" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="E145" s="12" t="s">
         <v>16</v>
@@ -6495,33 +6481,33 @@
     </row>
     <row r="146" spans="1:6" ht="165">
       <c r="A146" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="105">
       <c r="A147" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E147" s="12" t="s">
         <v>25</v>
@@ -6532,19 +6518,19 @@
     </row>
     <row r="148" spans="1:6" ht="195">
       <c r="A148" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F148" s="12" t="s">
         <v>24</v>
@@ -6552,48 +6538,48 @@
     </row>
     <row r="149" spans="1:6" ht="165">
       <c r="A149" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="D149" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="180">
       <c r="A150" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D142 D146 E67:E68 E70:E72 E75 E92 E99 E9 E19 E117 E37:E38 E57 E87:E89 E44 E77:E78 E62 E81 E51 E53 E125" xr:uid="{FED73E1F-3CAB-4959-A155-64A2784C84F4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D142 D146 E67:E68 E70:E72 E75 E92 E99 E9 E19 E117 E37:E38 E57 E87:E89 E44 E77:E78 E62 E81 E51 E53 E125 E102 E7" xr:uid="{FED73E1F-3CAB-4959-A155-64A2784C84F4}">
       <formula1>Code</formula1>
     </dataValidation>
   </dataValidations>
@@ -6610,9 +6596,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E780DF94-0951-416B-849F-BE9D622B22EE}">
           <x14:formula1>
-            <xm:f>Sheet2!$A$1:$A$41</xm:f>
+            <xm:f>Sheet2!$A$1:$A$40</xm:f>
           </x14:formula1>
-          <xm:sqref>E65 E54:E56 E39:E43 E82:E85 E90:E91 E20:E36 E100:E116 E58:E61 E73:E74 E63 E93:E98 E1:E8 E10:E18 E45:E50 E52 E118:E124 E126:E1048576</xm:sqref>
+          <xm:sqref>E65 E103:E116 E100:E101 E118:E124 E52 E45:E50 E10:E18 E54:E56 E93:E98 E63 E73:E74 E58:E61 E126:E1048576 E20:E36 E90:E91 E82:E85 E39:E43 E1:E6 E8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6624,8 +6610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6645,10 +6631,10 @@
         <v>9</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -6659,7 +6645,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -6667,21 +6653,21 @@
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="A3" s="17" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="17" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
@@ -6696,21 +6682,21 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B6" s="17"/>
       <c r="G6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="17" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B7" s="17"/>
       <c r="G7" t="s">
@@ -6732,7 +6718,7 @@
       </c>
       <c r="B9" s="17"/>
       <c r="G9" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6755,7 +6741,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B12" s="17"/>
       <c r="G12" t="s">
@@ -6764,7 +6750,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="17" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B13" s="17"/>
       <c r="G13" t="s">
@@ -6794,16 +6780,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="17" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B16" s="17"/>
       <c r="G16" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="17" t="s">
-        <v>29</v>
+        <v>474</v>
       </c>
       <c r="B17" s="17"/>
       <c r="G17" t="s">
@@ -6812,7 +6798,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="17" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B18" s="17"/>
       <c r="G18" t="s">
@@ -6821,7 +6807,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B19" s="17"/>
       <c r="G19" t="s">
@@ -6830,7 +6816,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="17" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B20" s="17"/>
       <c r="G20" t="s">
@@ -6839,7 +6825,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="17" t="s">
-        <v>478</v>
+        <v>33</v>
       </c>
       <c r="B21" s="17"/>
       <c r="G21" t="s">
@@ -6848,16 +6834,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="17" t="s">
-        <v>34</v>
+        <v>481</v>
       </c>
       <c r="B22" s="17"/>
       <c r="G22" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="17" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="B23" s="17"/>
       <c r="F23" t="s">
@@ -6869,11 +6855,11 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="17" t="s">
-        <v>468</v>
+        <v>36</v>
       </c>
       <c r="B24" s="17"/>
       <c r="G24" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -6900,7 +6886,7 @@
       </c>
       <c r="B27" s="17"/>
       <c r="G27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -6909,28 +6895,28 @@
       </c>
       <c r="B28" s="17"/>
       <c r="F28" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="17" t="s">
-        <v>41</v>
+        <v>477</v>
       </c>
       <c r="B29" s="17"/>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="17" t="s">
-        <v>480</v>
+        <v>42</v>
       </c>
       <c r="B30" s="17"/>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -6939,173 +6925,170 @@
       </c>
       <c r="B31" s="17"/>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="17" t="s">
-        <v>44</v>
+        <v>499</v>
       </c>
       <c r="B32" s="17"/>
       <c r="G32" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="17" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="B33" s="17"/>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="17" t="s">
-        <v>485</v>
+        <v>46</v>
       </c>
       <c r="B34" s="17"/>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="17" t="s">
-        <v>47</v>
+        <v>500</v>
       </c>
       <c r="B35" s="17"/>
       <c r="F35" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="17" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="B36" s="17"/>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B37" s="17"/>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="17" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B38" s="17"/>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="17" t="s">
-        <v>491</v>
+        <v>52</v>
       </c>
       <c r="B39" s="17"/>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="17" t="s">
-        <v>53</v>
+        <v>501</v>
       </c>
       <c r="B40" s="17"/>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="17" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="B41" s="17"/>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="17" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B42" s="17"/>
       <c r="G42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="17" t="s">
-        <v>489</v>
-      </c>
       <c r="B43" s="17"/>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="B44" s="17"/>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="G46" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="F47" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" t="s">
         <v>49</v>
-      </c>
-      <c r="G47" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="G48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="7:7">
       <c r="G50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="7:7">
       <c r="G51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="7:7">
       <c r="G52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G53 A1:A43" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G53 A1:A42" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Code</formula1>
     </dataValidation>
   </dataValidations>
@@ -7116,10 +7099,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD7FB7F-10D9-4208-A900-CA223695BC5E}">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7209,15 +7192,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="13" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B2" s="15">
         <v>3</v>
@@ -7225,7 +7208,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B3" s="15">
         <v>1</v>
@@ -7233,7 +7216,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="14" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B4" s="15">
         <v>2</v>
@@ -7241,7 +7224,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B5" s="15">
         <v>8</v>
@@ -7249,7 +7232,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B6" s="15">
         <v>6</v>
@@ -7257,7 +7240,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B7" s="15">
         <v>7</v>
@@ -7265,7 +7248,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B8" s="15">
         <v>3</v>
@@ -7273,7 +7256,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="14" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B9" s="15">
         <v>2</v>
@@ -7281,7 +7264,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="14" t="s">
-        <v>425</v>
+        <v>4</v>
       </c>
       <c r="B10" s="15">
         <v>1</v>
@@ -7289,31 +7272,31 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="14" t="s">
-        <v>4</v>
+        <v>423</v>
       </c>
       <c r="B11" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B12" s="15">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B13" s="15">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B14" s="15">
         <v>1</v>
@@ -7321,7 +7304,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="14" t="s">
-        <v>429</v>
+        <v>392</v>
       </c>
       <c r="B15" s="15">
         <v>1</v>
@@ -7329,7 +7312,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="14" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="B16" s="15">
         <v>1</v>
@@ -7337,7 +7320,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B17" s="15">
         <v>1</v>
@@ -7345,7 +7328,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B18" s="15">
         <v>1</v>
@@ -7353,7 +7336,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="14" t="s">
-        <v>432</v>
+        <v>287</v>
       </c>
       <c r="B19" s="15">
         <v>1</v>
@@ -7361,39 +7344,39 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="14" t="s">
-        <v>289</v>
+        <v>430</v>
       </c>
       <c r="B20" s="15">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="14" t="s">
-        <v>433</v>
+        <v>320</v>
       </c>
       <c r="B21" s="15">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="14" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B22" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="14" t="s">
-        <v>311</v>
+        <v>431</v>
       </c>
       <c r="B23" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B24" s="15">
         <v>1</v>
@@ -7401,23 +7384,23 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B25" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="14" t="s">
-        <v>436</v>
+        <v>479</v>
       </c>
       <c r="B26" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="14" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="B27" s="15">
         <v>1</v>
@@ -7425,55 +7408,55 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="14" t="s">
-        <v>456</v>
+        <v>321</v>
       </c>
       <c r="B28" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="14" t="s">
-        <v>323</v>
+        <v>467</v>
       </c>
       <c r="B29" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="14" t="s">
-        <v>470</v>
+        <v>397</v>
       </c>
       <c r="B30" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="14" t="s">
-        <v>399</v>
+        <v>434</v>
       </c>
       <c r="B31" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="14" t="s">
-        <v>437</v>
+        <v>319</v>
       </c>
       <c r="B32" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="14" t="s">
-        <v>321</v>
+        <v>140</v>
       </c>
       <c r="B33" s="15">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="14" t="s">
-        <v>141</v>
+        <v>435</v>
       </c>
       <c r="B34" s="15">
         <v>2</v>
@@ -7481,15 +7464,15 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B35" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B36" s="15">
         <v>1</v>
@@ -7497,39 +7480,39 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="14" t="s">
-        <v>440</v>
+        <v>115</v>
       </c>
       <c r="B37" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="14" t="s">
-        <v>116</v>
+        <v>419</v>
       </c>
       <c r="B38" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="14" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="B39" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="14" t="s">
-        <v>441</v>
+        <v>323</v>
       </c>
       <c r="B40" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="14" t="s">
-        <v>325</v>
+        <v>488</v>
       </c>
       <c r="B41" s="15">
         <v>1</v>
@@ -7537,39 +7520,39 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="14" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B42" s="15">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="14" t="s">
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="B43" s="15">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="14" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="B44" s="15">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="14" t="s">
-        <v>490</v>
+        <v>439</v>
       </c>
       <c r="B45" s="15">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="14" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="B46" s="15">
         <v>1</v>
@@ -7577,63 +7560,63 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="14" t="s">
-        <v>502</v>
+        <v>56</v>
       </c>
       <c r="B47" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="14" t="s">
-        <v>57</v>
+        <v>481</v>
       </c>
       <c r="B48" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="14" t="s">
-        <v>484</v>
+        <v>312</v>
       </c>
       <c r="B49" s="15">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="14" t="s">
-        <v>314</v>
+        <v>477</v>
       </c>
       <c r="B50" s="15">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="14" t="s">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="B51" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="14" t="s">
-        <v>443</v>
+        <v>184</v>
       </c>
       <c r="B52" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="14" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="B53" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="14" t="s">
-        <v>272</v>
+        <v>451</v>
       </c>
       <c r="B54" s="15">
         <v>1</v>
@@ -7641,65 +7624,57 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="14" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="B55" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="14" t="s">
-        <v>444</v>
+        <v>177</v>
       </c>
       <c r="B56" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="14" t="s">
-        <v>178</v>
+        <v>311</v>
       </c>
       <c r="B57" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="14" t="s">
-        <v>313</v>
+        <v>102</v>
       </c>
       <c r="B58" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="14" t="s">
-        <v>103</v>
+        <v>442</v>
       </c>
       <c r="B59" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="14" t="s">
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="B60" s="15">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="14" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="B61" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="B62" s="15">
         <v>149</v>
       </c>
     </row>
@@ -7726,15 +7701,15 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" s="13" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B4" s="15">
         <v>14</v>
@@ -7742,7 +7717,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="15">
         <v>4</v>
@@ -7750,7 +7725,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="14" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
@@ -7758,7 +7733,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B7" s="15">
         <v>59</v>
@@ -7766,7 +7741,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="15">
         <v>22</v>
@@ -7774,7 +7749,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="14" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B9" s="15">
         <v>7</v>
@@ -7782,7 +7757,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="14" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B10" s="15">
         <v>4</v>
@@ -7790,13 +7765,13 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="14" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B11" s="15"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B12" s="15">
         <v>10</v>
@@ -7804,7 +7779,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="14" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B13" s="15">
         <v>15</v>
@@ -7812,7 +7787,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B14" s="15">
         <v>137</v>

--- a/Thematic-Coding.xlsx
+++ b/Thematic-Coding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidde\Dropbox\Kieran Third year\BCIS301 _ AMIC700\Assignment 1\BCIS301---AMIC700---Thematic-Coding-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4917BD7-D00D-49EF-9CE9-1703E9F8371F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07575205-6AEC-4218-9711-AD3B9D485E1E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,16 +24,16 @@
     <definedName name="_ftnref1" localSheetId="0">'Sheet1 (2)'!$B$20</definedName>
     <definedName name="_ftnref2" localSheetId="0">'Sheet1 (2)'!$B$22</definedName>
     <definedName name="Environmental_Factors">Sheet2!#REF!</definedName>
-    <definedName name="Organizational_Factors">Sheet2!$A$1:$A$4</definedName>
-    <definedName name="Poor_Management_Factors">Sheet2!$A$24:$A$41</definedName>
-    <definedName name="Project_Factors">Sheet2!$A$13:$A$16</definedName>
-    <definedName name="Team_Factors">Sheet2!$A$5:$A$12</definedName>
-    <definedName name="Technology_Factors">Sheet2!$A$17:$A$23</definedName>
+    <definedName name="Organizational_Factors">Sheet2!$A$1:$A$2</definedName>
+    <definedName name="Poor_Management_Factors">Sheet2!$A$15:$A$21</definedName>
+    <definedName name="Project_Factors">Sheet2!$A$6:$A$9</definedName>
+    <definedName name="Team_Factors">Sheet2!$A$3:$A$5</definedName>
+    <definedName name="Technology_Factors">Sheet2!$A$10:$A$14</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="37" r:id="rId5"/>
+    <pivotCache cacheId="40" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="439">
   <si>
     <t>CaseStudy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lack of Stakeholder Involvement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Too many Vendors</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unrealistic Expectations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lack of Management Skills</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Poor Data Migration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Too Many Bugs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,10 +218,6 @@
   </si>
   <si>
     <t>Poor Coordination</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ineffective Project Change Controls</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -426,9 +410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unrealistic Schedules/Deadlines</t>
-  </si>
-  <si>
     <t>some of findings have relevance fro public sector and other projects</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -437,10 +418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ineffective Communication</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>work on requirements was lengthy and never completed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -451,13 +428,6 @@
   <si>
     <t>all occurring in parallel</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inappropriate Governance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Organizational Factors</t>
   </si>
   <si>
     <t>The Ministry and Talent2 were concerned about the quality and pace of software development and testing. This resulted in Talent2 sub-contracting two local companies, Asparona and Assurity, at its own cost to provide additional capacity and capabilities for custom development and testing from December 2010.             P7,5</t>
@@ -477,9 +447,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Poor Testing</t>
-  </si>
-  <si>
     <t>overestimated the ability of the Ministry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -540,23 +507,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Poor Leadership</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A lack of adequate support resulted in significant stress and required additional time and effort from schools and the Ministry to manage the payroll. It also contributed directly to
-additional errors and system defects, through missed, inaccurate or duplicate transaction processing, and poorly-controlled system changes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The Ministry did not establish the quality of governance required for a complex project of this nature</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Organizational Factors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Talent2’s inability to deliver consistently against milestones led to a loss of trust and confidence in its ability to deliver the solution</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -579,9 +533,6 @@
   <si>
     <t>The Ministry was not always willing to take or act on advice</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poor Organizational Culture</t>
   </si>
   <si>
     <t>Ensure there is a viable contingency plan that enables risks and possible delays to be managed appropriately</t>
@@ -617,19 +568,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The ‘agree to agree’ approach involving deferral of agreement on key contract schedules without a defined scoping phase to develop requirements fully was poor practice for a project of this nature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> There was too much emphasis on the total fixed price and KPIs. Apparent ‘wins’, and associated ‘losses’, during the
 contract negotiations contributed to and exacerbated later relationship and delivery problems</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The process of gathering user requirements was poorly managed and took too long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Neither the Ministry nor Talent2 adequately recognised, in a timely manner,the change in the nature of the project from a configured package to extensive customisation. Not only did this compromise the original intent, it required expertise
 and disciplines for which the main parties were ill prepared</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -655,16 +598,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Poor Team Commitment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Adherence to the 20 August 2012 Go Live date severely compromised the completeness of the testing programme. Testing was reduced in scope and quality expectations were lowered</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neither the Ministry nor Talent2 demonstrated the level of capability required to plan, manage and execute effective testing. As a consequence of poor requirements definition, early testing was wasted. It was on the introduction of Assurity that testing
-practices began to meet the expected level of good practice.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -719,10 +653,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lack of Risk Management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Formal project documentation, where it existed, generally complied with ourexpectations, although it was not always well maintained. We found examples of good project documentation being produced, but not executed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -735,9 +665,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unfavourable Contract</t>
-  </si>
-  <si>
     <t>As a consequence of its involvement with the Project Board and efforts to get the project over the line, SSC was not able to exercise its monitoring role properly, as it had lost its detachment.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -746,10 +673,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Poor Project Monitoring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Success Project ERP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -758,17 +681,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The case study method also allows researchers to gain first-hand information in a real natural setting.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Timely access to information</t>
-  </si>
-  <si>
-    <t>Information Factor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>They include TAM, Expectancy Theory, Change Model and implementation life-cycle.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -777,10 +689,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Timely access to information</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>In-depth interviews and focus groups were conducted with key users, business process owners, project director, and different groups of consultants and project team members.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -932,10 +840,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lack of Design</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Problems continued beyond procurement and supplier departures through to the delivery and implementation of NPfIT’s systems and software.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -959,10 +863,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lack of marketing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">The patient administration systems were out of date due to delays in the deliveries from LSPs. According to Connecting for Health’s plans from 2005, 151 NHS Acute Trusts would have their new patient administration systems by April 2007. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -971,10 +871,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lack of time mangement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The systems for hosting the Detailed Care Records were to be delivered and implemented in three releases. The first release involved enabling administrative functionality only with no real clinical benefits. The second and third releases supported clinical functionality and electronic integration between staff and settings. By late 2006, release one had not yet been completed and there were no published timelines with expected delivery dates. In May 2008, the National Audit Office published an updated review of NPfIT which highlighted the failure to deliver the Detailed Care Record, which by this point was four years late.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -982,19 +878,11 @@
     <t>At the project design stage, no consideration was made. The data was not followed up in time, which led to the extension of the project.</t>
   </si>
   <si>
-    <t>lack of data collect.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The specifications for Electronic Care Records in 2003 detailed a clear vision and timeframe however the scope became vague and inconsistent. By 2007, there was no word from the Department on a detailed timeline of when Trusts should expect to have the systems delivered. In 2007, the testing and deployment of the shared electronic records was two years behind schedule, the clinical software development was incomplete and work on the administrative software had ‘scarcely begun’ (Health Committee, 2007).</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The function was not well thought out, the project was too big, resulting in an extension, and the data could not keep up.</t>
-  </si>
-  <si>
-    <t>lack of design</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>According to Connecting for Health, by the end of 2007, 155 of the 176 acute trusts should have installed operating systems, however by this deadline only 15 of the 155 were install.</t>
@@ -1098,9 +986,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Timeout, over budget</t>
-  </si>
-  <si>
     <t>In light of the changes within NPfIT (including the GP System of Choice Programme) since Fujitsu’s 10 year contract had been signed, there were disputes over whether the costings in the original 2004 contract were still sufficient for timely delivery of fully functional care records systems. After ten months, discussions broke down and Fujitsu withdrew from further negotiations. This move effectively breached contractual obligations with Connecting for Health and resulted in Fujitsu’s contract being terminated in 2008 and transferred to CSC.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1117,10 +1002,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lack of information exchange; lack information communications</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Much of the debate over NPfIT could be characterised as a clash between those closest to it, who were committed to defending the programme and pushing through at all costs, and those who objected on practical, technical or professional grounds. The financial crisis of 2007-08 and the ensuing recession caused a step change in the surrounding political environment. “Investment” was no longer a byword for good governance; soon, “waste” and “fiscal responsibility” dominated the national debate. This instigated a new line of attack on NPfIT: scrap a failing programme to save money. It was easier said than done.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1133,10 +1014,6 @@
   </si>
   <si>
     <t>The over-expenditure of the budget has kept the government unwilling to support the project. Caused the failure of the project.</t>
-  </si>
-  <si>
-    <t>The over-expenditure of; lack expenditure communications</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P6,1</t>
@@ -1226,12 +1103,6 @@
     <t>Lack of analysis or consideration of the model and why is failed before assigning another prime contractor.</t>
   </si>
   <si>
-    <t>Lack of Senior Management Involvement,Support &amp;Commitment</t>
-  </si>
-  <si>
-    <t>failure to foresee transfer or responsibility to a private company will be a project failure</t>
-  </si>
-  <si>
     <t>Unrealistic Expectations</t>
   </si>
   <si>
@@ -1241,9 +1112,6 @@
     <t>lack of knowledge of cost evaluation</t>
   </si>
   <si>
-    <t>Incorrect Assumptions</t>
-  </si>
-  <si>
     <t>Lack of knowledge around ranking or evolution contracts</t>
   </si>
   <si>
@@ -1256,12 +1124,6 @@
     <t>To much stakeholder involment with lack of IBM input</t>
   </si>
   <si>
-    <t>Poor Leadership</t>
-  </si>
-  <si>
-    <t>Lack of Senior Management Involvement,Support &amp; Commitment</t>
-  </si>
-  <si>
     <t>No Business Case</t>
   </si>
   <si>
@@ -1335,12 +1197,6 @@
   </si>
   <si>
     <t>Haste in appointing a prime contractor was a lack of consideration</t>
-  </si>
-  <si>
-    <t>For the State representatives to take such a view was unjustified and grossly negligent. IBM, commercially motivated as it was, had communicated the points beyond which further agreement would be required to be reached (and implying the need to pay more money). These points were not ones which would have resulted in a functional payroll system, and that is a matter which reflects poorly on IBM. But it had been sufficiently clear in stating these limitations. The State, however, ignored those statements and proceeded as if, whether it assisted or not, IBM would be both capable of delivering, and would be obliged to deliver, a functional payroll system. Both of those assumptions were wrong. They are based, I think, on a fundamental misconception that, by appointing a prime contractor, the State had no responsibility to ensure the system was designed and built properly.</t>
-  </si>
-  <si>
-    <t>Stakeholder ignored the limitations IBM stated and misconceptions of who was responsible for the project</t>
   </si>
   <si>
     <t>The parties had not only to arrive at a scope after the initial rushed scope and three years of deveopments.</t>
@@ -1373,13 +1229,6 @@
     <t>The decision to Go Live ought not to have been made when it was</t>
   </si>
   <si>
-    <t xml:space="preserve">It is clear that many of the problems which were experienced after Go Live and which affected pay involved Workbrain. Ms Stewart identified Workbrain’s performance as the most significant system issue post-Go Live . This exhibited itself in slowness of the MVS, difficulties viewing, updating and publishing rosters in the MVS, individual users being unexpectedly locked out of Workbrain, and general slowness across the Workbrain application .
-</t>
-  </si>
-  <si>
-    <t>Part of the problem was its sheer slowness in processing rosters. Payroll staff, as a result, Ms Jones explained, simply did not have enough time to add all the data in to the roster environment to get the rosters published . The problem may have been caused by a number of users in the same area using the system at the same time, thereby creating too much of a load on the system so that it would lock them out or freeze. Operators had to exit the system and re-enter it . The problem was something with which any system, whether interim and minimal or not, ought to have been capable of dealing. Ms Jones estimated that about 100 payroll staff across the state at any given time were affected by this problem.</t>
-  </si>
-  <si>
     <t>Contract and
 Project Management, Section 7.49</t>
   </si>
@@ -1424,9 +1273,6 @@
     <t>Delivery Factors</t>
   </si>
   <si>
-    <t>Ineffective Project Change Controls</t>
-  </si>
-  <si>
     <t>Management Factors</t>
   </si>
   <si>
@@ -1486,22 +1332,10 @@
     <t>The departure of key Management Factors personnel led to personnel changes and insufficient project follow-up. The last project failed.</t>
   </si>
   <si>
-    <t>lack of knowledg Management Factors</t>
-  </si>
-  <si>
-    <t>The system was inadequately scoped and neither party took any effective measures to stabilise it. Both parties ignored all the warning signs of a project in serious distress. Rather than reset the Project or take decisive steps to put it on a stable course, they altered or lowered the thresholds which had been put in place to protect against the very thing which eventuated: a system of poor quality which was not ready to Go Live. Doing so meant that the system, when it went live, would not be functional and constituted a clear breach of the most fundamental principles of project Management Factors. Poor decisions were made, Dr Manfield said, under the intense pressure of the time imperative . I would agree, and add only that the pressure of time was something which the parties had imposed upon themselves, and it was therefore something which it was within the control of the State, in particular, to deal with, including, as I have said, by investigating alternatives to upgrade LATTICE or maintain its support while hard decisions were made about the system then still under construction</t>
-  </si>
-  <si>
     <t>The Project was, from the outset, one which was conducted in an atmosphere of urgency, and which, in large part, had been of the State’s creation in its failure at some earlier time to commence gathering its business requirements, making any necessary changes to its internal processes and deciding what measures it would take to either upgrade or replace the LATTICE system. When the Project was commenced, the timeframes within which the various stages of it were to be undertaken were hopelessly short, including for scoping. The Project was managed, contrary to the requirements of well-established project Management Factors methodology, by undertaking a number of tasks at the same time (including different forms of testing). There was a lack of rigour in this approach. It meant that the Project was not required to pass various checkpoints before proceeding. Where checkpoints did exist, their purpose was circumvented by changing the criteria required to meet them or by their being ignored altogether.</t>
   </si>
   <si>
-    <t>I have identified two principal causes of the inadequacies which led to the increase in contract price, the serious shortcomings in contract and project Management Factors, and in the State’s decision to settle with IBM. Those causes were: unwarranted urgency and a lack of diligence on the part of State officials. That lack of diligence manifested itself in the poor decisions which those officials made in scoping the Interim Solution; in their governance of the Project; and in failing to hold IBM to account to deliver a functional payroll system.</t>
-  </si>
-  <si>
     <t>It took time for the problems with the system to manifest themselves. As I have explained, retrospectiveprocessing did not commence until the second pay run. It may have been that staff took a pay or two to realise that their pay was inaccurate, or they were patient about pay irregularities, being aware that the system was new, no doubt thinking that whatever the problems with pay were that they would be corrected in due course. Whatever the reasons, I accept Ms Stewart’s evidence, because she was in the position to know, "there was a large number of issues that were surfacing that were not visible at the time of go live” , and that "it was probably other issues surfacing on top of the defect Management Factors plan that started to complicate the situation” . There is no doubt on the evidence that the Defect Management Plan could never have been a complete record of the defects which existed at Go Live . Mr Cowan had warned it to be likely that defects additional to those he had identified during UAT existed, given that this was not the function or purpose of UAT</t>
-  </si>
-  <si>
-    <t>Poor Defect Management</t>
   </si>
   <si>
     <t>The settlement was driven by assumptions that without IBM’s presence there was a substantial risk that the payroll system would fail utterly</t>
@@ -1570,85 +1404,10 @@
     <t>A flow-on effect of delaying the overnight interim pay run process so that it would still be running in the morning . That in turn had an impact, as I have said, on the performance of SAP</t>
   </si>
   <si>
-    <t>Poor Testing Tools</t>
-  </si>
-  <si>
     <t>It took time for the problems with the system to manifest themselves. As I have explained, retrospectiveprocessing did not commence until the second pay run.</t>
   </si>
   <si>
-    <t>Inappropriate Governance</t>
-  </si>
-  <si>
-    <t>Ineffective Communication</t>
-  </si>
-  <si>
-    <t>lack of data collect.</t>
-  </si>
-  <si>
-    <t>lack of Design</t>
-  </si>
-  <si>
-    <t>Lack of Employee Incentives</t>
-  </si>
-  <si>
-    <t>Lack of information exchange; lack information communications</t>
-  </si>
-  <si>
-    <t>Lack of Management Skills</t>
-  </si>
-  <si>
-    <t>lack of marketing</t>
-  </si>
-  <si>
-    <t>Lack of Performance Measures</t>
-  </si>
-  <si>
-    <t>Lack of Risk Management</t>
-  </si>
-  <si>
     <t>Lack of Stakeholder Involvement</t>
-  </si>
-  <si>
-    <t>Lack of Technical Skills &amp; Knowledge</t>
-  </si>
-  <si>
-    <t>lack of time mangement</t>
-  </si>
-  <si>
-    <t>Poor Design</t>
-  </si>
-  <si>
-    <t>Poor Project Monitoring</t>
-  </si>
-  <si>
-    <t>Poor Team Commitment</t>
-  </si>
-  <si>
-    <t>Poor Technology Tools</t>
-  </si>
-  <si>
-    <t>Poor Trouble shooting</t>
-  </si>
-  <si>
-    <t>Schedule Overrun</t>
-  </si>
-  <si>
-    <t>The over-expenditure of; lack expenditure communications</t>
-  </si>
-  <si>
-    <t>Unclear Project Objectives and Goals</t>
-  </si>
-  <si>
-    <t>Vague Requirements &amp; Scope</t>
-  </si>
-  <si>
-    <t>Information Factor</t>
-  </si>
-  <si>
-    <t>Project Factors</t>
-  </si>
-  <si>
-    <t>Team Factors</t>
   </si>
   <si>
     <t>计数项:SuperGroup</t>
@@ -1673,14 +1432,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Too much Attrition in Team</t>
-  </si>
-  <si>
     <t>Poor Leadership</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Marketing</t>
   </si>
   <si>
     <t>Implementation Factors</t>
@@ -1717,18 +1470,12 @@
     <t>Count of Code</t>
   </si>
   <si>
-    <t>Poor Trouble Shooting</t>
-  </si>
-  <si>
     <t>Development Incentives</t>
   </si>
   <si>
     <t>Organizational Culture</t>
   </si>
   <si>
-    <t>(blank)</t>
-  </si>
-  <si>
     <t>Deployment Testing</t>
   </si>
   <si>
@@ -1738,15 +1485,9 @@
     <t>The increasing level of customisation made testing more difficult but also more important.The abandonment of the phased rollout and the pilot increased the project’s dependency on testing. Neither the Ministry nor Talent2 fully appreciated this increased dependency</t>
   </si>
   <si>
-    <t>Scope creep lead to poor testing</t>
-  </si>
-  <si>
     <t>Project Objectives and Goals</t>
   </si>
   <si>
-    <t>New/Immature Technology</t>
-  </si>
-  <si>
     <t>Integration of Software</t>
   </si>
   <si>
@@ -1762,24 +1503,12 @@
     <t>Management Assumptions</t>
   </si>
   <si>
-    <t>Poor requirements definition, testing wasted</t>
-  </si>
-  <si>
-    <t>Software Bug Testing</t>
-  </si>
-  <si>
     <t>Contract Status</t>
   </si>
   <si>
-    <t>Technical Skills &amp; Knowledge</t>
-  </si>
-  <si>
     <t>Project Management Skills</t>
   </si>
   <si>
-    <t>Performance Measures</t>
-  </si>
-  <si>
     <t>Workflow Communication</t>
   </si>
   <si>
@@ -1801,9 +1530,6 @@
     <t>Project need complete plan and follow the plan finish project</t>
   </si>
   <si>
-    <t>Need the lastest news about the project</t>
-  </si>
-  <si>
     <t>Define different type of stakeholders</t>
   </si>
   <si>
@@ -1822,16 +1548,69 @@
     <t>Schedules/Deadlines</t>
   </si>
   <si>
-    <t>Project Change Controls</t>
-  </si>
-  <si>
-    <t>Status Reporting</t>
-  </si>
-  <si>
-    <t>Project Optimism</t>
-  </si>
-  <si>
     <t>IBM new the scope would lead to project failure but didn’t intervenew</t>
+  </si>
+  <si>
+    <t>Trouble Shooting</t>
+  </si>
+  <si>
+    <t>Project Investigation</t>
+  </si>
+  <si>
+    <t>Project Expertise</t>
+  </si>
+  <si>
+    <t>A lack of adequate support resulted in significant stress and required additional time and effort from schools and the Ministry to manage the payroll. It also contributed directly to
+additional errors and system defects, through missed, inaccurate or duplicate transaction processing, and ly-controlled system changes</t>
+  </si>
+  <si>
+    <t>The ‘agree to agree’ approach involving deferral of agreement on key contract schedules without a defined scoping phase to develop requirements fully was  practice for a project of this nature</t>
+  </si>
+  <si>
+    <t>The process of gathering user requirements was ly managed and took too long</t>
+  </si>
+  <si>
+    <t>Neither the Ministry nor Talent2 demonstrated the level of capability required to plan, manage and execute effective testing. As a consequence of  requirements definition, early testing was wasted. It was on the introduction of Assurity that testing
+practices began to meet the expected level of good practice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> requirements definition, testing wasted</t>
+  </si>
+  <si>
+    <t>Scope creep lead to  testing</t>
+  </si>
+  <si>
+    <t>The system was inadequately scoped and neither party took any effective measures to stabilise it. Both parties ignored all the warning signs of a project in serious distress. Rather than reset the Project or take decisive steps to put it on a stable course, they altered or lowered the thresholds which had been put in place to protect against the very thing which eventuated: a system of  quality which was not ready to Go Live. Doing so meant that the system, when it went live, would not be functional and constituted a clear breach of the most fundamental principles of project Management Factors.  decisions were made, Dr Manfield said, under the intense pressure of the time imperative . I would agree, and add only that the pressure of time was something which the parties had imposed upon themselves, and it was therefore something which it was within the control of the State, in particular, to deal with, including, as I have said, by investigating alternatives to upgrade LATTICE or maintain its support while hard decisions were made about the system then still under construction</t>
+  </si>
+  <si>
+    <t>For the State representatives to take such a view was unjustified and grossly negligent. IBM, commercially motivated as it was, had communicated the points beyond which further agreement would be required to be reached (and implying the need to pay more money). These points were not ones which would have resulted in a functional payroll system, and that is a matter which reflects ly on IBM. But it had been sufficiently clear in stating these limitations. The State, however, ignored those statements and proceeded as if, whether it assisted or not, IBM would be both capable of delivering, and would be obliged to deliver, a functional payroll system. Both of those assumptions were wrong. They are based, I think, on a fundamental misconception that, by appointing a prime contractor, the State had no responsibility to ensure the system was designed and built properly.</t>
+  </si>
+  <si>
+    <t>I have identified two principal causes of the inadequacies which led to the increase in contract price, the serious shortcomings in contract and project Management Factors, and in the State’s decision to settle with IBM. Those causes were: unwarranted urgency and a lack of diligence on the part of State officials. That lack of diligence manifested itself in the  decisions which those officials made in scoping the Interim Solution; in their governance of the Project; and in failing to hold IBM to account to deliver a functional payroll system.</t>
+  </si>
+  <si>
+    <t>Failure to foresee transfer or responsibility to a private company will be a project failure</t>
+  </si>
+  <si>
+    <t>The State, however, ignored those statements and proceeded as if, whether it assisted or not, IBM would be both capable of delivering, and would be obliged to deliver, a functional payroll system. Both of those assumptions were wrong. They are based, I think, on a fundamental misconception that, by appointing a prime contractor, the State had no responsibility to ensure the system was designed and built properly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stakeholder ignored the limitations </t>
+  </si>
+  <si>
+    <t>IBM stated and misconceptions of who was responsible for the project</t>
+  </si>
+  <si>
+    <t>Operators had to exit the system and re-enter it . The problem was something with which any system, whether interim and minimal or not, ought to have been capable of dealing. Ms Jones estimated that about 100 payroll staff across the state at any given time were affected by this problem</t>
+  </si>
+  <si>
+    <t>Part of the problem was its sheer slowness in processing rosters. Payroll staff, as a result, Ms Jones explained, simply did not have enough time to add all the data in to the roster environment to get the rosters published . The problem may have been caused by a number of users in the same area using the system at the same time, thereby creating too much of a load on the system so that it would lock them out or freeze.</t>
+  </si>
+  <si>
+    <t>bugs inside the payroll system</t>
+  </si>
+  <si>
+    <t>It is clear that many of the problems which were experienced after Go Live and which affected pay involved Workbrain. Ms Stewart identified Workbrain’s performance as the most significant system issue post-Go Live . This exhibited itself in slowness of the MVS, difficulties viewing, updating and publishing rosters in the MVS, individual users being unexpectedly locked out of Workbrain, and general slowness across the Workbrain application.</t>
   </si>
 </sst>
 </file>
@@ -1995,23 +1774,123 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="kieran abelen" refreshedDate="43737.69231273148" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="150" xr:uid="{D8C17AEB-781A-486A-AC61-055C3F888D07}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="kieran abelen" refreshedDate="43741.306802893516" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="148" xr:uid="{DD96F0DD-2456-45C2-8AA6-9A13D829CE93}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="F1:F150" sheet="Sheet1 (2)"/>
+    <worksheetSource ref="E1:E151" sheet="Sheet1 (2)"/>
   </cacheSource>
   <cacheFields count="1">
-    <cacheField name="SuperGroup" numFmtId="0">
-      <sharedItems containsBlank="1" count="10">
-        <s v="Management Factors"/>
-        <s v="Implementation Factors"/>
-        <s v="Environmental Factors"/>
-        <s v="Organizational Factors"/>
-        <s v="Delivery Factors"/>
-        <s v="Project Factors"/>
-        <s v="Planning Factors"/>
-        <s v="Team Factors"/>
-        <s v="Information Factor"/>
-        <m/>
+    <cacheField name="Code" numFmtId="0">
+      <sharedItems count="110">
+        <s v="Management Assumptions"/>
+        <s v="Schedules/Deadlines"/>
+        <s v="Scope Creep"/>
+        <s v="Stakeholder Politics"/>
+        <s v="Trouble Shooting"/>
+        <s v="Project Complexity"/>
+        <s v="Sub-contract"/>
+        <s v="Integration of Software"/>
+        <s v="Deployment Testing"/>
+        <s v="Project Risk Analysis"/>
+        <s v="Workflow Communication"/>
+        <s v="Project Management Skills"/>
+        <s v="Project Monitoring"/>
+        <s v="Contract Status"/>
+        <s v="Project Expertise"/>
+        <s v="Organizational Culture"/>
+        <s v="Project Objectives and Goals"/>
+        <s v="Technology Tools"/>
+        <s v="Development Incentives"/>
+        <s v="Project Investigation"/>
+        <s v="Requirements &amp; Scope"/>
+        <s v=" Defect Management" u="1"/>
+        <s v="Effect of Big-Bang Approach" u="1"/>
+        <s v="Frequent personnel changes; lack of communications" u="1"/>
+        <s v="Marketing" u="1"/>
+        <s v="Project Analysis" u="1"/>
+        <s v="Lack of Employee Incentives" u="1"/>
+        <s v="Good risk analysis" u="1"/>
+        <s v="Lack of Senior Management Involvement,Support &amp;Commitment" u="1"/>
+        <s v=" Technology Tools" u="1"/>
+        <s v="Good organization structure" u="1"/>
+        <s v="Lack of Customer Involvement" u="1"/>
+        <s v="Lack of Performance Measures" u="1"/>
+        <s v="Good Communication with the team member." u="1"/>
+        <s v="Lack of information exchange; lack information communications" u="1"/>
+        <s v="Government support" u="1"/>
+        <s v="Too much Attrition in Team" u="1"/>
+        <s v="Unclear Project Objectives and Goals" u="1"/>
+        <s v="Poor Testing Tools" u="1"/>
+        <s v="lack of Design" u="1"/>
+        <s v="Incorrect Status Reporting" u="1"/>
+        <s v="Lack of Management Skills" u="1"/>
+        <s v="Good time and budgets plan." u="1"/>
+        <s v="Poor Technology Tools" u="1"/>
+        <s v=" lack advent communications" u="1"/>
+        <s v=" Trouble Shooting" u="1"/>
+        <s v="Vague Requirements &amp; Scope" u="1"/>
+        <s v="Lack of Stakeholder Involvement" u="1"/>
+        <s v="Lack of Technical Skills &amp; Knowledge" u="1"/>
+        <s v=" Leadership" u="1"/>
+        <s v="Poor Testing" u="1"/>
+        <s v="Good Analysis" u="1"/>
+        <s v="Inappropriate Estimations" u="1"/>
+        <s v="Poor Documentation" u="1"/>
+        <s v="Too Many Bugs" u="1"/>
+        <s v="lack of marketing" u="1"/>
+        <s v="Changing Requirements" u="1"/>
+        <s v="lack of communications" u="1"/>
+        <s v="Lack of Project Management Skills" u="1"/>
+        <s v="No Business Case" u="1"/>
+        <s v="Frequent replacement of suppliers; lack of communications" u="1"/>
+        <s v=" Team Commitment" u="1"/>
+        <s v="Ineffective Project Change Controls" u="1"/>
+        <s v="Good Communication with different departments." u="1"/>
+        <s v="Complex implementation process" u="1"/>
+        <s v="did not choose correct stakeholder" u="1"/>
+        <s v="Good Plan" u="1"/>
+        <s v="Inappropriate Governance" u="1"/>
+        <s v="The over-expenditure of; lack expenditure communications" u="1"/>
+        <s v="lack of data collect." u="1"/>
+        <s v="Poor Defect Management" u="1"/>
+        <s v=" Testing Tools" u="1"/>
+        <s v="Timely access to information" u="1"/>
+        <s v="Unfavourable Contract" u="1"/>
+        <s v="lack of knowledg Management Factors" u="1"/>
+        <s v=" Testing" u="1"/>
+        <s v="Unrealistic Expectations" u="1"/>
+        <s v="Poor Trouble Shooting" u="1"/>
+        <s v="Cost Overrun" u="1"/>
+        <s v="Poor Leadership" u="1"/>
+        <s v="Poor Organizational Culture" u="1"/>
+        <s v="Timeout, over budget" u="1"/>
+        <s v="Failing to Understand Change" u="1"/>
+        <s v="Good Communication with Users" u="1"/>
+        <s v="Unrealistic Schedules/Deadlines" u="1"/>
+        <s v="Good Social Structure; Good orgnization clture." u="1"/>
+        <s v="Software Bug Testing" u="1"/>
+        <s v="Schedule Overrun" u="1"/>
+        <s v="Do not have clear goal" u="1"/>
+        <s v="Good expectations." u="1"/>
+        <s v="lack of time mangement" u="1"/>
+        <s v="Good relationship among the different sections." u="1"/>
+        <s v="Incorrect Assumptions" u="1"/>
+        <s v="Lack of Senior Management Involvement, Support &amp;Commitment" u="1"/>
+        <s v="Lack of Senior Management Involvement,Support &amp; Commitment" u="1"/>
+        <s v=" Project Monitoring" u="1"/>
+        <s v="Good Management Factors" u="1"/>
+        <s v="Poor Design" u="1"/>
+        <s v="Lack of Risk Management" u="1"/>
+        <s v="Good internal incentives" u="1"/>
+        <s v=" Design" u="1"/>
+        <s v="Good Communication with the stakeholders." u="1"/>
+        <s v="Poor Team Commitment" u="1"/>
+        <s v="Poor Project Monitoring" u="1"/>
+        <s v="Project Optimism" u="1"/>
+        <s v="Clear Goal" u="1"/>
+        <s v="Too Much Optimism" u="1"/>
+        <s v="Ineffective Communication" u="1"/>
+        <s v="Good Leaning" u="1"/>
+        <s v="Choose wrong stakeholders" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -2024,107 +1903,23 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="kieran abelen" refreshedDate="43739.50701134259" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="149" xr:uid="{DD96F0DD-2456-45C2-8AA6-9A13D829CE93}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="kieran abelen" refreshedDate="43741.306917824077" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="148" xr:uid="{D8C17AEB-781A-486A-AC61-055C3F888D07}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="E1:E150" sheet="Sheet1 (2)"/>
+    <worksheetSource ref="F1:F151" sheet="Sheet1 (2)"/>
   </cacheSource>
   <cacheFields count="1">
-    <cacheField name="Code" numFmtId="0">
-      <sharedItems count="94">
-        <s v="Incorrect Assumptions"/>
-        <s v="Unrealistic Schedules/Deadlines"/>
-        <s v="Scope Creep"/>
-        <s v="Ineffective Communication"/>
-        <s v="Lack of Customer Involvement"/>
-        <s v="Inappropriate Governance"/>
-        <s v="Sub-contract"/>
-        <s v="Poor Testing"/>
-        <s v="Ineffective Project Change Controls"/>
-        <s v="Lack of Risk Management"/>
-        <s v="Lack of Senior Management Involvement,Support &amp;Commitment"/>
-        <s v="Too much Attrition in Team"/>
-        <s v="Poor Project Monitoring"/>
-        <s v="Management Assumptions"/>
-        <s v="Poor Leadership"/>
-        <s v="Schedule Overrun"/>
-        <s v="Poor Organizational Culture"/>
-        <s v="Marketing"/>
-        <s v="Project Complexity"/>
-        <s v="Contract Status"/>
-        <s v="Unfavourable Contract"/>
-        <s v="Lack of Performance Measures"/>
-        <s v="Development Incentives"/>
-        <s v="Poor Team Commitment"/>
-        <s v="Unrealistic Expectations"/>
-        <s v="Lack of Management Skills"/>
-        <s v="Deployment Testing"/>
-        <s v="Workflow Communication"/>
-        <s v="Integration of Software"/>
-        <s v="Software Bug Testing"/>
-        <s v="Poor Trouble shooting"/>
-        <s v="Poor Technology Tools"/>
-        <s v="Project Monitoring"/>
-        <s v="Stakeholder Politics"/>
-        <s v="Timely access to information"/>
-        <s v="Project Objectives and Goals"/>
-        <s v="Project Risk Analysis"/>
-        <s v="Organizational Culture"/>
-        <s v="Schedules/Deadlines"/>
-        <s v="lack of Design"/>
-        <s v="lack of marketing"/>
-        <s v="lack of time mangement"/>
-        <s v="lack of data collect."/>
-        <s v="lack of knowledg Management Factors"/>
-        <s v="Timeout, over budget"/>
-        <s v="Lack of information exchange; lack information communications"/>
-        <s v="Lack of Employee Incentives"/>
-        <s v="The over-expenditure of; lack expenditure communications"/>
-        <s v="Lack of Project Management Skills"/>
-        <s v="Project Optimism"/>
-        <s v="No Business Case"/>
-        <s v="Lack of Stakeholder Involvement"/>
-        <s v="Vague Requirements &amp; Scope"/>
-        <s v="Unclear Project Objectives and Goals"/>
-        <s v="Poor Design"/>
-        <s v="Lack of Technical Skills &amp; Knowledge"/>
-        <s v="Poor Defect Management"/>
-        <s v="Lack of Senior Management Involvement,Support &amp; Commitment"/>
-        <s v="Poor Testing Tools"/>
-        <s v="Too Much Optimism" u="1"/>
-        <s v="Good relationship among the different sections." u="1"/>
-        <s v="Cost Overrun" u="1"/>
-        <s v="Good Leaning" u="1"/>
-        <s v="Good Communication with the stakeholders." u="1"/>
-        <s v="Failing to Understand Change" u="1"/>
-        <s v="Government support" u="1"/>
-        <s v="Complex implementation process" u="1"/>
-        <s v="Good Communication with different departments." u="1"/>
-        <s v="Good Social Structure; Good orgnization clture." u="1"/>
-        <s v="Good Analysis" u="1"/>
-        <s v="Good Communication with Users" u="1"/>
-        <s v="Inappropriate Estimations" u="1"/>
-        <s v="Good Communication with the team member." u="1"/>
-        <s v="Good Plan" u="1"/>
-        <s v="did not choose correct stakeholder" u="1"/>
-        <s v="Changing Requirements" u="1"/>
-        <s v="Too Many Bugs" u="1"/>
-        <s v="Effect of Big-Bang Approach" u="1"/>
-        <s v=" lack advent communications" u="1"/>
-        <s v="Good time and budgets plan." u="1"/>
-        <s v="Incorrect Status Reporting" u="1"/>
-        <s v="Good risk analysis" u="1"/>
-        <s v="Frequent replacement of suppliers; lack of communications" u="1"/>
-        <s v="Frequent personnel changes; lack of communications" u="1"/>
-        <s v="Clear Goal" u="1"/>
-        <s v="Good internal incentives" u="1"/>
-        <s v="lack of communications" u="1"/>
-        <s v="Good Management Factors" u="1"/>
-        <s v="Good organization structure" u="1"/>
-        <s v="Do not have clear goal" u="1"/>
-        <s v="Choose wrong stakeholders" u="1"/>
-        <s v="Good expectations." u="1"/>
-        <s v="Poor Documentation" u="1"/>
-        <s v="Project Analysis" u="1"/>
+    <cacheField name="SuperGroup" numFmtId="0">
+      <sharedItems containsBlank="1" count="10">
+        <s v="Management Factors"/>
+        <s v="Implementation Factors"/>
+        <s v="Delivery Factors"/>
+        <s v="Planning Factors"/>
+        <m u="1"/>
+        <s v="Project Factors" u="1"/>
+        <s v="Team Factors" u="1"/>
+        <s v="Information Factor" u="1"/>
+        <s v="Organizational Factors" u="1"/>
+        <s v="Environmental Factors" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -2137,466 +1932,469 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="150">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="148">
   <r>
     <x v="0"/>
   </r>
   <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
     <x v="0"/>
   </r>
   <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
     <x v="0"/>
   </r>
   <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
   </r>
   <r>
     <x v="2"/>
   </r>
   <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="3"/>
   </r>
   <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
     <x v="0"/>
   </r>
   <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="3"/>
   </r>
   <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
     <x v="4"/>
   </r>
   <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="17"/>
   </r>
   <r>
     <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="149">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="148">
   <r>
     <x v="0"/>
   </r>
   <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="1"/>
   </r>
   <r>
@@ -2606,379 +2404,115 @@
     <x v="3"/>
   </r>
   <r>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="2"/>
   </r>
   <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
   </r>
   <r>
     <x v="3"/>
   </r>
   <r>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
     <x v="3"/>
   </r>
   <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="3"/>
   </r>
   <r>
-    <x v="9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
   </r>
   <r>
     <x v="3"/>
   </r>
   <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="3"/>
   </r>
   <r>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="20"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
   </r>
   <r>
     <x v="3"/>
   </r>
   <r>
-    <x v="21"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="22"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="23"/>
-  </r>
-  <r>
-    <x v="24"/>
-  </r>
-  <r>
-    <x v="25"/>
-  </r>
-  <r>
-    <x v="26"/>
-  </r>
-  <r>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="28"/>
-  </r>
-  <r>
-    <x v="29"/>
-  </r>
-  <r>
-    <x v="30"/>
-  </r>
-  <r>
-    <x v="31"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="32"/>
-  </r>
-  <r>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="34"/>
-  </r>
-  <r>
-    <x v="35"/>
-  </r>
-  <r>
-    <x v="34"/>
-  </r>
-  <r>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="36"/>
-  </r>
-  <r>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="35"/>
-  </r>
-  <r>
-    <x v="35"/>
-  </r>
-  <r>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="36"/>
-  </r>
-  <r>
-    <x v="35"/>
-  </r>
-  <r>
-    <x v="37"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="35"/>
-  </r>
-  <r>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="36"/>
-  </r>
-  <r>
-    <x v="36"/>
-  </r>
-  <r>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="38"/>
-  </r>
-  <r>
-    <x v="36"/>
-  </r>
-  <r>
-    <x v="36"/>
-  </r>
-  <r>
-    <x v="36"/>
-  </r>
-  <r>
-    <x v="36"/>
-  </r>
-  <r>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="35"/>
-  </r>
-  <r>
-    <x v="35"/>
-  </r>
-  <r>
-    <x v="22"/>
-  </r>
-  <r>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="35"/>
-  </r>
-  <r>
-    <x v="40"/>
-  </r>
-  <r>
-    <x v="41"/>
-  </r>
-  <r>
-    <x v="42"/>
-  </r>
-  <r>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="42"/>
-  </r>
-  <r>
-    <x v="41"/>
-  </r>
-  <r>
-    <x v="28"/>
-  </r>
-  <r>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="43"/>
-  </r>
-  <r>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="30"/>
-  </r>
-  <r>
-    <x v="44"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="45"/>
-  </r>
-  <r>
-    <x v="46"/>
-  </r>
-  <r>
-    <x v="47"/>
-  </r>
-  <r>
-    <x v="48"/>
-  </r>
-  <r>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="24"/>
-  </r>
-  <r>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="20"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="16"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="2"/>
   </r>
   <r>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="2"/>
   </r>
   <r>
-    <x v="49"/>
-  </r>
-  <r>
-    <x v="50"/>
-  </r>
-  <r>
-    <x v="51"/>
-  </r>
-  <r>
-    <x v="52"/>
-  </r>
-  <r>
-    <x v="53"/>
-  </r>
-  <r>
-    <x v="9"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
@@ -2987,162 +2521,430 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="30"/>
-  </r>
-  <r>
-    <x v="54"/>
-  </r>
-  <r>
-    <x v="55"/>
-  </r>
-  <r>
-    <x v="52"/>
-  </r>
-  <r>
-    <x v="56"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="57"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="56"/>
-  </r>
-  <r>
-    <x v="53"/>
-  </r>
-  <r>
-    <x v="50"/>
-  </r>
-  <r>
-    <x v="58"/>
-  </r>
-  <r>
-    <x v="30"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7B597A4-1531-45AD-B8DF-14DAD51F1480}" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:B61" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7B597A4-1531-45AD-B8DF-14DAD51F1480}" name="数据透视表1" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="95">
+      <items count="111">
+        <item m="1" x="44"/>
+        <item m="1" x="56"/>
+        <item m="1" x="109"/>
+        <item m="1" x="105"/>
+        <item m="1" x="64"/>
+        <item x="13"/>
         <item m="1" x="78"/>
+        <item x="8"/>
+        <item x="18"/>
+        <item m="1" x="65"/>
+        <item m="1" x="88"/>
+        <item m="1" x="22"/>
+        <item m="1" x="82"/>
+        <item m="1" x="23"/>
+        <item m="1" x="60"/>
+        <item m="1" x="51"/>
+        <item m="1" x="63"/>
+        <item m="1" x="101"/>
+        <item m="1" x="33"/>
+        <item m="1" x="83"/>
+        <item m="1" x="89"/>
+        <item m="1" x="99"/>
+        <item m="1" x="108"/>
+        <item m="1" x="96"/>
+        <item m="1" x="30"/>
+        <item m="1" x="66"/>
+        <item m="1" x="91"/>
+        <item m="1" x="27"/>
+        <item m="1" x="85"/>
+        <item m="1" x="42"/>
+        <item m="1" x="35"/>
+        <item m="1" x="52"/>
+        <item m="1" x="67"/>
+        <item m="1" x="92"/>
+        <item m="1" x="40"/>
+        <item m="1" x="107"/>
+        <item m="1" x="62"/>
+        <item x="7"/>
+        <item m="1" x="57"/>
+        <item m="1" x="31"/>
+        <item m="1" x="69"/>
+        <item m="1" x="39"/>
+        <item m="1" x="26"/>
+        <item m="1" x="34"/>
+        <item m="1" x="74"/>
+        <item m="1" x="41"/>
+        <item m="1" x="55"/>
+        <item m="1" x="32"/>
+        <item m="1" x="58"/>
+        <item m="1" x="98"/>
+        <item m="1" x="94"/>
+        <item m="1" x="28"/>
+        <item m="1" x="47"/>
+        <item m="1" x="48"/>
+        <item m="1" x="90"/>
+        <item x="0"/>
+        <item m="1" x="24"/>
+        <item m="1" x="59"/>
+        <item x="15"/>
+        <item m="1" x="70"/>
+        <item m="1" x="97"/>
+        <item m="1" x="53"/>
+        <item m="1" x="79"/>
+        <item m="1" x="80"/>
+        <item m="1" x="103"/>
+        <item m="1" x="102"/>
+        <item m="1" x="43"/>
+        <item m="1" x="50"/>
+        <item m="1" x="38"/>
+        <item m="1" x="77"/>
+        <item m="1" x="25"/>
+        <item x="5"/>
+        <item x="12"/>
+        <item x="16"/>
+        <item m="1" x="104"/>
+        <item x="9"/>
+        <item m="1" x="87"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item m="1" x="86"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item m="1" x="68"/>
+        <item m="1" x="72"/>
+        <item m="1" x="81"/>
+        <item m="1" x="54"/>
+        <item m="1" x="36"/>
+        <item m="1" x="106"/>
+        <item m="1" x="37"/>
+        <item m="1" x="73"/>
+        <item m="1" x="76"/>
+        <item m="1" x="84"/>
+        <item m="1" x="46"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="14"/>
+        <item x="4"/>
+        <item x="17"/>
+        <item m="1" x="93"/>
+        <item m="1" x="45"/>
         <item m="1" x="75"/>
-        <item m="1" x="90"/>
-        <item m="1" x="84"/>
-        <item m="1" x="66"/>
-        <item x="19"/>
+        <item m="1" x="95"/>
+        <item m="1" x="49"/>
         <item m="1" x="61"/>
-        <item x="26"/>
-        <item x="22"/>
-        <item m="1" x="74"/>
-        <item m="1" x="89"/>
-        <item m="1" x="77"/>
-        <item m="1" x="64"/>
-        <item m="1" x="83"/>
-        <item m="1" x="82"/>
-        <item m="1" x="69"/>
-        <item m="1" x="67"/>
-        <item m="1" x="63"/>
-        <item m="1" x="72"/>
-        <item m="1" x="70"/>
-        <item m="1" x="91"/>
-        <item m="1" x="85"/>
-        <item m="1" x="62"/>
-        <item m="1" x="87"/>
-        <item m="1" x="88"/>
-        <item m="1" x="73"/>
-        <item m="1" x="60"/>
-        <item m="1" x="81"/>
-        <item m="1" x="68"/>
-        <item m="1" x="79"/>
-        <item m="1" x="65"/>
+        <item m="1" x="29"/>
+        <item m="1" x="100"/>
+        <item m="1" x="21"/>
         <item m="1" x="71"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item m="1" x="80"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="28"/>
-        <item m="1" x="86"/>
-        <item x="4"/>
-        <item x="42"/>
-        <item x="39"/>
-        <item x="46"/>
-        <item x="45"/>
-        <item x="43"/>
-        <item x="25"/>
-        <item x="40"/>
-        <item x="21"/>
-        <item x="48"/>
-        <item x="9"/>
-        <item x="57"/>
-        <item x="10"/>
-        <item x="51"/>
-        <item x="55"/>
-        <item x="41"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="50"/>
-        <item x="37"/>
-        <item x="56"/>
-        <item x="54"/>
-        <item m="1" x="92"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item x="12"/>
-        <item x="23"/>
-        <item x="31"/>
-        <item x="7"/>
-        <item x="58"/>
-        <item x="30"/>
-        <item m="1" x="93"/>
-        <item x="18"/>
-        <item x="32"/>
-        <item x="35"/>
-        <item x="49"/>
-        <item x="36"/>
-        <item x="15"/>
-        <item x="38"/>
-        <item x="2"/>
-        <item x="29"/>
-        <item x="33"/>
-        <item x="6"/>
-        <item x="47"/>
-        <item x="34"/>
-        <item x="44"/>
-        <item m="1" x="76"/>
         <item x="11"/>
-        <item m="1" x="59"/>
-        <item x="53"/>
         <item x="20"/>
-        <item x="24"/>
-        <item x="1"/>
-        <item x="52"/>
-        <item x="27"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3150,7 +2952,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="60">
+  <rowItems count="22">
     <i>
       <x v="5"/>
     </i>
@@ -3161,109 +2963,13 @@
       <x v="8"/>
     </i>
     <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
       <x v="37"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="54"/>
     </i>
     <i>
       <x v="55"/>
     </i>
     <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
       <x v="58"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="69"/>
     </i>
     <i>
       <x v="71"/>
@@ -3275,13 +2981,7 @@
       <x v="73"/>
     </i>
     <i>
-      <x v="74"/>
-    </i>
-    <i>
       <x v="75"/>
-    </i>
-    <i>
-      <x v="76"/>
     </i>
     <i>
       <x v="77"/>
@@ -3290,43 +2990,31 @@
       <x v="78"/>
     </i>
     <i>
-      <x v="79"/>
-    </i>
-    <i>
       <x v="80"/>
     </i>
     <i>
       <x v="81"/>
     </i>
     <i>
-      <x v="82"/>
+      <x v="93"/>
     </i>
     <i>
-      <x v="83"/>
+      <x v="94"/>
     </i>
     <i>
-      <x v="84"/>
+      <x v="95"/>
     </i>
     <i>
-      <x v="86"/>
+      <x v="96"/>
     </i>
     <i>
-      <x v="88"/>
+      <x v="97"/>
     </i>
     <i>
-      <x v="89"/>
+      <x v="108"/>
     </i>
     <i>
-      <x v="90"/>
-    </i>
-    <i>
-      <x v="91"/>
-    </i>
-    <i>
-      <x v="92"/>
-    </i>
-    <i>
-      <x v="93"/>
+      <x v="109"/>
     </i>
     <i t="grand">
       <x/>
@@ -3351,21 +3039,21 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81DBBA73-B981-46A1-A836-E2F01454E305}" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81DBBA73-B981-46A1-A836-E2F01454E305}" name="数据透视表4" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="11">
-        <item x="4"/>
         <item x="2"/>
-        <item x="8"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
         <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
         <item x="3"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3373,30 +3061,12 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="5">
     <i>
       <x/>
     </i>
     <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
     </i>
     <i>
       <x v="8"/>
@@ -3689,10 +3359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G150"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135:B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3717,10 +3387,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>3</v>
@@ -3731,2337 +3401,2362 @@
     </row>
     <row r="2" spans="1:6" ht="64.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>314</v>
+        <v>402</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>102</v>
+        <v>417</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="84.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60">
       <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="E5" s="8" t="s">
-        <v>105</v>
+        <v>278</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>458</v>
+        <v>385</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>454</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
       <c r="A7" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>465</v>
+        <v>419</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>109</v>
+        <v>286</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>110</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60">
       <c r="A9" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="1" t="s">
-        <v>476</v>
+        <v>399</v>
       </c>
       <c r="E9" t="s">
-        <v>477</v>
+        <v>400</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
       <c r="A10" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>109</v>
+        <v>398</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>110</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="60">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="1" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>115</v>
+        <v>394</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="60">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>374</v>
+        <v>332</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="1" t="s">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>47</v>
+        <v>398</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60">
       <c r="A13" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>450</v>
+        <v>379</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="75">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="1" t="s">
-        <v>457</v>
+        <v>384</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>37</v>
+        <v>406</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45">
       <c r="A15" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>376</v>
+        <v>334</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>105</v>
+        <v>405</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="60">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>309</v>
+        <v>404</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>110</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="45">
       <c r="A17" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="1" t="s">
-        <v>456</v>
+        <v>383</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>451</v>
+        <v>278</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>454</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="60">
       <c r="A18" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>51</v>
+        <v>407</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C19" s="8"/>
       <c r="E19" t="s">
-        <v>479</v>
+        <v>402</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="60">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>110</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="45">
       <c r="A21" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="1" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>105</v>
+        <v>405</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="1" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>105</v>
+        <v>407</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45">
       <c r="A23" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="1" t="s">
-        <v>379</v>
+        <v>337</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>37</v>
+        <v>406</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="45">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>105</v>
+        <v>286</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C25" s="8"/>
       <c r="E25" s="8" t="s">
-        <v>105</v>
+        <v>419</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30">
       <c r="A26" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>130</v>
+        <v>403</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>110</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="60">
       <c r="A27" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>131</v>
+        <v>422</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="1" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>109</v>
+        <v>419</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>110</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C28" s="8"/>
       <c r="E28" s="8" t="s">
-        <v>130</v>
+        <v>286</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>133</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C29" s="8"/>
       <c r="E29" s="8" t="s">
-        <v>40</v>
+        <v>417</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30">
       <c r="A30" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C30" s="8"/>
       <c r="E30" s="8" t="s">
-        <v>130</v>
+        <v>421</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>133</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="45">
       <c r="A31" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>130</v>
+        <v>278</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>133</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45">
       <c r="A32" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>140</v>
+        <v>393</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>133</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30">
       <c r="A33" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C33" s="8"/>
       <c r="E33" s="8" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30">
       <c r="A34" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C34" s="8"/>
       <c r="E34" s="8" t="s">
-        <v>47</v>
+        <v>397</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="45">
       <c r="A35" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>14</v>
+        <v>131</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>398</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>110</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="30">
       <c r="A36" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>24</v>
+        <v>382</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30">
       <c r="A37" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C37" s="8"/>
       <c r="E37" t="s">
-        <v>477</v>
+        <v>400</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30">
       <c r="A38" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C38" s="8"/>
       <c r="E38" s="17" t="s">
-        <v>482</v>
+        <v>403</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="45">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30">
       <c r="A39" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>149</v>
+        <v>423</v>
       </c>
       <c r="C39" s="8"/>
       <c r="E39" s="8" t="s">
-        <v>45</v>
+        <v>403</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="45">
       <c r="A40" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C40" s="8"/>
       <c r="E40" s="8" t="s">
-        <v>105</v>
+        <v>395</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30">
       <c r="A41" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="C41" s="8"/>
       <c r="E41" s="8" t="s">
-        <v>28</v>
+        <v>407</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>24</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="28.9" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>151</v>
+        <v>424</v>
       </c>
       <c r="C42" s="8"/>
       <c r="E42" s="8" t="s">
-        <v>16</v>
+        <v>394</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>133</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="60">
       <c r="A43" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>47</v>
+        <v>286</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="45">
       <c r="A44" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>466</v>
+        <v>392</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>455</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="30">
       <c r="A45" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C45" s="8"/>
       <c r="E45" s="8" t="s">
-        <v>109</v>
+        <v>394</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>133</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30">
       <c r="A46" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C46" s="8"/>
       <c r="E46" s="8" t="s">
-        <v>158</v>
+        <v>393</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>445</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30">
       <c r="A47" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C47" s="8"/>
       <c r="E47" s="8" t="s">
-        <v>9</v>
+        <v>402</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>133</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="60">
       <c r="A48" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>160</v>
+        <v>425</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="1" t="s">
-        <v>480</v>
+        <v>426</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>10</v>
+        <v>421</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>133</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="45">
       <c r="A49" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>471</v>
+        <v>396</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="1" t="s">
-        <v>472</v>
+        <v>427</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>469</v>
+        <v>394</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="75">
       <c r="A50" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>130</v>
+        <v>404</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>133</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="33" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="C51" s="8"/>
       <c r="E51" s="17" t="s">
-        <v>486</v>
+        <v>405</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="45">
       <c r="A52" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>475</v>
+        <v>398</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="45">
       <c r="A53" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="1" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>481</v>
+        <v>394</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="45">
       <c r="A54" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="1" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>35</v>
+        <v>419</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="30">
       <c r="A55" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>31</v>
+        <v>395</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="60">
       <c r="A56" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>381</v>
+        <v>339</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>173</v>
+        <v>406</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="45">
       <c r="A57" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>489</v>
+        <v>408</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>490</v>
+        <v>409</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>488</v>
+        <v>407</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="45">
       <c r="A58" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>177</v>
+        <v>403</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="30">
       <c r="A59" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>180</v>
+        <v>407</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="30">
       <c r="A60" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="C60" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>494</v>
+        <v>412</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" ht="30">
+    <row r="61" spans="1:7" ht="45">
       <c r="A61" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="C61" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>184</v>
+        <v>411</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>397</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>185</v>
+        <v>382</v>
       </c>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" ht="45">
+    <row r="62" spans="1:7" ht="30">
       <c r="A62" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C62" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>473</v>
+        <v>413</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>419</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>455</v>
+        <v>330</v>
       </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" ht="30">
       <c r="A63" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C63" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>188</v>
+        <v>414</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>405</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>185</v>
+        <v>381</v>
       </c>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" ht="30">
+    <row r="64" spans="1:7" ht="75">
       <c r="A64" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>189</v>
+        <v>340</v>
       </c>
       <c r="C64" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E64" s="17" t="s">
-        <v>486</v>
+        <v>415</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>406</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>445</v>
+        <v>382</v>
       </c>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" ht="75">
+    <row r="65" spans="1:7" ht="60">
       <c r="A65" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C65" t="s">
+        <v>257</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" ht="75">
+      <c r="A66" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" t="s">
+        <v>257</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" ht="45">
+      <c r="A67" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" t="s">
+        <v>257</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C65" t="s">
-        <v>288</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:7" ht="60">
-      <c r="A66" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C66" t="s">
-        <v>289</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>486</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7" ht="75">
-      <c r="A67" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C67" t="s">
-        <v>289</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>444</v>
-      </c>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" ht="45">
+    <row r="68" spans="1:7" ht="30">
       <c r="A68" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C68" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>455</v>
+        <v>405</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>381</v>
       </c>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" ht="30">
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C69" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>486</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>454</v>
+        <v>173</v>
+      </c>
+      <c r="E69" t="s">
+        <v>406</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" ht="30">
       <c r="A70" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C70" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E70" t="s">
-        <v>487</v>
+        <v>175</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>397</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>455</v>
+        <v>382</v>
       </c>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" ht="30">
+    <row r="71" spans="1:7" ht="60">
       <c r="A71" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C71" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>455</v>
+        <v>393</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>381</v>
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="60">
+    <row r="72" spans="1:7" ht="45">
       <c r="A72" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>200</v>
+        <v>386</v>
       </c>
       <c r="C72" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>467</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>454</v>
+        <v>178</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>331</v>
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="45">
+    <row r="73" spans="1:7" ht="60">
       <c r="A73" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>459</v>
+        <v>386</v>
       </c>
       <c r="C73" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>477</v>
+        <v>403</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" ht="60">
       <c r="A74" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C74" t="s">
+        <v>258</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C74" t="s">
-        <v>290</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>482</v>
+      <c r="E74" s="17" t="s">
+        <v>397</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" ht="60">
       <c r="A75" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C75" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>473</v>
+        <v>405</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>455</v>
+        <v>381</v>
       </c>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" ht="60">
+    <row r="76" spans="1:7" ht="75">
       <c r="A76" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C76" t="s">
-        <v>290</v>
+        <v>341</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>207</v>
+        <v>410</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>486</v>
+        <v>406</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>454</v>
+        <v>382</v>
       </c>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" ht="75">
+    <row r="77" spans="1:7" ht="90">
       <c r="A77" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>487</v>
+        <v>406</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>455</v>
+        <v>382</v>
       </c>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" ht="90">
+    <row r="78" spans="1:7" ht="120">
       <c r="A78" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>487</v>
+        <v>405</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>455</v>
+        <v>381</v>
       </c>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="1:7" ht="120">
+    <row r="79" spans="1:7" ht="75">
       <c r="A79" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>386</v>
+        <v>184</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>387</v>
+        <v>185</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>486</v>
+        <v>405</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>454</v>
+        <v>381</v>
       </c>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" ht="75">
       <c r="A80" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>454</v>
+        <v>381</v>
       </c>
       <c r="G80" s="9"/>
     </row>
     <row r="81" spans="1:7" ht="75">
       <c r="A81" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>499</v>
+        <v>189</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>406</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>454</v>
+        <v>382</v>
       </c>
       <c r="G81" s="9"/>
     </row>
     <row r="82" spans="1:7" ht="75">
       <c r="A82" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>212</v>
+        <v>346</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>487</v>
+        <v>406</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>455</v>
+        <v>382</v>
       </c>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="1:7" ht="75">
+    <row r="83" spans="1:7" ht="90">
       <c r="A83" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>487</v>
+        <v>406</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>455</v>
+        <v>382</v>
       </c>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="1:7" ht="90">
+    <row r="84" spans="1:7" ht="135">
       <c r="A84" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>389</v>
+        <v>348</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>487</v>
+        <v>406</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>455</v>
+        <v>331</v>
       </c>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="1:7" ht="135">
+    <row r="85" spans="1:7" ht="90">
       <c r="A85" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>390</v>
+        <v>193</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>487</v>
+        <v>194</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>405</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="G85" s="9"/>
     </row>
     <row r="86" spans="1:7" ht="90">
       <c r="A86" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>486</v>
+        <v>397</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>55</v>
+        <v>382</v>
       </c>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="1:7" ht="90">
+    <row r="87" spans="1:7" ht="120">
       <c r="A87" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>473</v>
+        <v>397</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>455</v>
+        <v>331</v>
       </c>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="1:7" ht="120">
+    <row r="88" spans="1:7" ht="75">
       <c r="A88" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>473</v>
+        <v>392</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="1:7" ht="75">
+    <row r="89" spans="1:7" ht="45">
       <c r="A89" s="1" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E89" s="17" t="s">
-        <v>466</v>
+        <v>203</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>421</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>455</v>
+        <v>381</v>
       </c>
       <c r="G89" s="9"/>
     </row>
     <row r="90" spans="1:7" ht="45">
       <c r="A90" s="1" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>228</v>
+        <v>278</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>331</v>
       </c>
       <c r="G90" s="10"/>
     </row>
-    <row r="91" spans="1:7" ht="45">
+    <row r="91" spans="1:7" ht="75">
       <c r="A91" s="1" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>312</v>
+        <v>207</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>397</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="G91" s="10"/>
     </row>
-    <row r="92" spans="1:7" ht="75">
+    <row r="92" spans="1:7" ht="45">
       <c r="A92" s="1" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>473</v>
+        <v>398</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>455</v>
+        <v>330</v>
       </c>
       <c r="G92" s="10"/>
     </row>
-    <row r="93" spans="1:7" ht="45">
+    <row r="93" spans="1:7" ht="90">
       <c r="A93" s="1" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="F93" s="12"/>
+        <v>405</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>381</v>
+      </c>
       <c r="G93" s="10"/>
     </row>
-    <row r="94" spans="1:7" ht="90">
+    <row r="94" spans="1:7" ht="105">
       <c r="A94" s="1" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="F94" s="12"/>
+        <v>213</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>382</v>
+      </c>
       <c r="G94" s="10"/>
     </row>
-    <row r="95" spans="1:7" ht="105">
+    <row r="95" spans="1:7" ht="90">
       <c r="A95" s="1" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="F95" s="12"/>
+        <v>215</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>381</v>
+      </c>
       <c r="G95" s="10"/>
     </row>
-    <row r="96" spans="1:7" ht="90">
+    <row r="96" spans="1:7" ht="45">
       <c r="A96" s="1" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F96" s="12"/>
+        <v>420</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>381</v>
+      </c>
       <c r="G96" s="10"/>
     </row>
-    <row r="97" spans="1:7" ht="45">
+    <row r="97" spans="1:7" ht="60">
       <c r="A97" s="1" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="F97" s="12"/>
+        <v>417</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>381</v>
+      </c>
       <c r="G97" s="10"/>
     </row>
-    <row r="98" spans="1:7" ht="60">
+    <row r="98" spans="1:7" ht="75">
       <c r="A98" s="1" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="F98" s="12"/>
+        <v>221</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>330</v>
+      </c>
       <c r="G98" s="10"/>
     </row>
     <row r="99" spans="1:7" ht="75">
       <c r="A99" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="G99" s="10"/>
+    </row>
+    <row r="100" spans="1:7" ht="90">
+      <c r="A100" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="G100" s="10"/>
+    </row>
+    <row r="101" spans="1:7" ht="45">
+      <c r="A101" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E99" s="17" t="s">
-        <v>475</v>
-      </c>
-      <c r="F99" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="G99" s="10"/>
-    </row>
-    <row r="100" spans="1:7" ht="75">
-      <c r="A100" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="F100" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="G100" s="10"/>
-    </row>
-    <row r="101" spans="1:7" ht="90">
-      <c r="A101" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="C101" s="1" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>312</v>
+        <v>226</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>405</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="G101" s="10"/>
     </row>
-    <row r="102" spans="1:7" ht="45">
+    <row r="102" spans="1:7" ht="120">
       <c r="A102" s="1" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E102" s="17" t="s">
-        <v>486</v>
-      </c>
-      <c r="F102" s="12"/>
+        <v>228</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>381</v>
+      </c>
       <c r="G102" s="10"/>
     </row>
-    <row r="103" spans="1:7" ht="120">
+    <row r="103" spans="1:7" ht="45">
       <c r="A103" s="1" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="F103" s="12"/>
-    </row>
-    <row r="104" spans="1:7" ht="45">
+        <v>419</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="75">
       <c r="A104" s="1" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="E104" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="G104" s="10"/>
+    </row>
+    <row r="105" spans="1:7" ht="60">
+      <c r="A105" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="G105" s="10"/>
+    </row>
+    <row r="106" spans="1:7" ht="75">
+      <c r="A106" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="G106" s="10"/>
+    </row>
+    <row r="107" spans="1:7" ht="60">
+      <c r="A107" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="G107" s="10"/>
+    </row>
+    <row r="108" spans="1:7" ht="45">
+      <c r="A108" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="G108" s="10"/>
+    </row>
+    <row r="109" spans="1:7" ht="90">
+      <c r="A109" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="G109" s="10"/>
+    </row>
+    <row r="110" spans="1:7" ht="105">
+      <c r="A110" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F104" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="G104" s="10"/>
-    </row>
-    <row r="105" spans="1:7" ht="75">
-      <c r="A105" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F105" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="G105" s="10"/>
-    </row>
-    <row r="106" spans="1:7" ht="60">
-      <c r="A106" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F106" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="G106" s="10"/>
-    </row>
-    <row r="107" spans="1:7" ht="75">
-      <c r="A107" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F107" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="G107" s="10"/>
-    </row>
-    <row r="108" spans="1:7" ht="60">
-      <c r="A108" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E108" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F108" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="G108" s="10"/>
-    </row>
-    <row r="109" spans="1:7" ht="45">
-      <c r="A109" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="F109" s="12"/>
-      <c r="G109" s="10"/>
-    </row>
-    <row r="110" spans="1:7" ht="90">
-      <c r="A110" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="E110" s="8" t="s">
-        <v>477</v>
+        <v>405</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="G110" s="10"/>
     </row>
     <row r="111" spans="1:7" ht="105">
       <c r="A111" s="1" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="D111" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="G111" s="10"/>
+    </row>
+    <row r="112" spans="1:7" ht="90">
+      <c r="A112" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="D112" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="G112" s="11"/>
+    </row>
+    <row r="113" spans="1:7" ht="75">
+      <c r="A113" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F111" s="12"/>
-      <c r="G111" s="10"/>
-    </row>
-    <row r="112" spans="1:7" ht="105">
-      <c r="A112" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B112" s="1" t="s">
+      <c r="E113" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="G113" s="11"/>
+    </row>
+    <row r="114" spans="1:7" ht="105">
+      <c r="A114" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="G112" s="11"/>
-    </row>
-    <row r="113" spans="1:7" ht="90">
-      <c r="A113" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="F113" s="12"/>
-      <c r="G113" s="11"/>
-    </row>
-    <row r="114" spans="1:7" ht="75">
-      <c r="A114" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="E114" s="8" t="s">
-        <v>287</v>
+        <v>404</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>17</v>
+        <v>331</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="105">
       <c r="A115" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="150">
+      <c r="A116" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D115" s="1" t="s">
+      <c r="C116" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E115" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="F115" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="105">
-      <c r="A116" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>311</v>
+      <c r="E116" s="17" t="s">
+        <v>403</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="150">
       <c r="A117" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E117" t="s">
-        <v>482</v>
+        <v>307</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="150">
       <c r="A118" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="90">
+      <c r="A119" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="75">
+      <c r="A120" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="150">
+      <c r="A121" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="F118" s="12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="150">
-      <c r="A119" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="F119" s="12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="90">
-      <c r="A120" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E120" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F120" s="12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="75">
-      <c r="A121" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>341</v>
-      </c>
       <c r="C121" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>342</v>
+        <v>279</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>140</v>
+        <v>402</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="150">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="180">
       <c r="A122" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B122" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="165">
+      <c r="A123" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="105">
+      <c r="A124" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="F122" s="12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="180">
-      <c r="A123" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F123" s="12" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="165">
-      <c r="A124" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="D124" s="1" t="s">
-        <v>316</v>
+        <v>418</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="105">
+        <v>402</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="75">
       <c r="A125" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>77</v>
@@ -6070,516 +5765,539 @@
         <v>78</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="E125" s="17" t="s">
-        <v>502</v>
+        <v>283</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="75">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="150">
       <c r="A126" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>321</v>
+        <v>434</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>402</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="150">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="75">
       <c r="A127" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>346</v>
+        <v>432</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>347</v>
+        <v>433</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>6</v>
+        <v>278</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>55</v>
+        <v>331</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="120">
       <c r="A128" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>49</v>
+        <v>401</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="225">
       <c r="A129" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>25</v>
+        <v>397</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>24</v>
+        <v>331</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="75">
       <c r="A130" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>37</v>
+        <v>406</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="60">
       <c r="A131" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>50</v>
+        <v>402</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="60">
       <c r="A132" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="75">
+      <c r="A133" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="75">
+      <c r="A134" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="60">
+      <c r="A135" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="90">
+      <c r="A136" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="120">
+      <c r="A137" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="135">
+      <c r="A138" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="120">
+      <c r="A139" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E132" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F132" s="12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="105">
-      <c r="A133" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E133" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F133" s="12" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="120">
-      <c r="A134" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E134" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F134" s="12" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="90">
-      <c r="A135" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E135" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F135" s="12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="120">
-      <c r="A136" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E136" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F136" s="12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="135">
-      <c r="A137" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E137" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F137" s="12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="120">
-      <c r="A138" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="E138" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="F138" s="12" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="90">
-      <c r="A139" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="D139" s="1" t="s">
-        <v>403</v>
+        <v>329</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>50</v>
+        <v>394</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="90">
       <c r="A140" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>52</v>
+        <v>402</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="120">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="90">
       <c r="A141" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>91</v>
+        <v>354</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>92</v>
+        <v>355</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>404</v>
+        <v>352</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="90">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="120">
       <c r="A142" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>395</v>
+        <v>87</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>405</v>
+        <v>88</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="90">
       <c r="A143" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>282</v>
+        <v>430</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>406</v>
+        <v>89</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>359</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>320</v>
+        <v>403</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="90">
       <c r="A144" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>407</v>
+        <v>360</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>16</v>
+        <v>404</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="60">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="90">
       <c r="A145" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>408</v>
+        <v>251</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>411</v>
+        <v>253</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>16</v>
+        <v>403</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="165">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="60">
       <c r="A146" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>409</v>
+        <v>362</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>414</v>
+        <v>365</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="E146" s="12" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="105">
+      <c r="F146" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="165">
       <c r="A147" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>286</v>
+        <v>363</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>415</v>
+        <v>364</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F147" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="195">
+        <v>419</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="105">
       <c r="A148" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>417</v>
+        <v>254</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>94</v>
+        <v>366</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>416</v>
+        <v>369</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>321</v>
+        <v>401</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="165">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="195">
       <c r="A149" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>95</v>
+        <v>371</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>418</v>
+        <v>370</v>
       </c>
       <c r="E149" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="F149" s="12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="165">
+      <c r="A150" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="180">
+      <c r="A151" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E151" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="F149" s="12" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="180">
-      <c r="A150" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="E150" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F150" s="12" t="s">
-        <v>371</v>
+      <c r="F151" s="12" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D142 D146 E67:E68 E70:E72 E75 E92 E99 E9 E19 E117 E37:E38 E57 E87:E89 E44 E77:E78 E62 E81 E51 E53 E125 E102 E7" xr:uid="{FED73E1F-3CAB-4959-A155-64A2784C84F4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D143 D147 E66:E67 E69:E71 E74 E91:E92 E98 E9 E19 E94:E95 E37:E38 E57 E86:E88 E44 E76:E77 E61 E80 E51 E35 E116 E101 E7 E53" xr:uid="{FED73E1F-3CAB-4959-A155-64A2784C84F4}">
       <formula1>Code</formula1>
     </dataValidation>
   </dataValidations>
@@ -6590,15 +6308,15 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>Sheet2!$B$1:$B$5</xm:f>
+            <xm:f>Sheet2!$B$1:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E780DF94-0951-416B-849F-BE9D622B22EE}">
           <x14:formula1>
-            <xm:f>Sheet2!$A$1:$A$40</xm:f>
+            <xm:f>Sheet2!$A$1:$A$21</xm:f>
           </x14:formula1>
-          <xm:sqref>E65 E103:E116 E100:E101 E118:E124 E52 E45:E50 E10:E18 E54:E56 E93:E98 E63 E73:E74 E58:E61 E126:E1048576 E20:E36 E90:E91 E82:E85 E39:E43 E1:E6 E8</xm:sqref>
+          <xm:sqref>E64 E102:E115 E93 E20:E34 E1:E6 E39:E43 E81:E84 E89:E90 E36 E96:E97 E58:E60 E72:E73 E62 E8 E54:E56 E10:E18 E45:E50 E52 E99:E100 E117:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6610,8 +6328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6628,13 +6346,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="17" t="s">
-        <v>9</v>
+        <v>393</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>454</v>
+        <v>381</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -6642,10 +6360,10 @@
     </row>
     <row r="2" spans="1:7" ht="18.75">
       <c r="A2" s="17" t="s">
-        <v>10</v>
+        <v>392</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>455</v>
+        <v>382</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -6653,442 +6371,378 @@
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="A3" s="17" t="s">
-        <v>467</v>
+        <v>421</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="G3" t="s">
-        <v>431</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="17" t="s">
-        <v>466</v>
+        <v>404</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.75">
-      <c r="A5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
       <c r="G5" t="s">
-        <v>461</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17" t="s">
-        <v>484</v>
+        <v>397</v>
       </c>
       <c r="B6" s="17"/>
       <c r="G6" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="17" t="s">
-        <v>483</v>
+        <v>24</v>
       </c>
       <c r="B7" s="17"/>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="17" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B8" s="17"/>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="17" t="s">
-        <v>21</v>
+        <v>406</v>
       </c>
       <c r="B9" s="17"/>
       <c r="G9" t="s">
-        <v>452</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="17" t="s">
-        <v>22</v>
+        <v>407</v>
       </c>
       <c r="B10" s="17"/>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="17" t="s">
-        <v>23</v>
+        <v>394</v>
       </c>
       <c r="B11" s="17"/>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
-        <v>502</v>
+        <v>395</v>
       </c>
       <c r="B12" s="17"/>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="17" t="s">
-        <v>473</v>
+        <v>398</v>
       </c>
       <c r="B13" s="17"/>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="17" t="s">
-        <v>26</v>
+        <v>419</v>
       </c>
       <c r="B14" s="17"/>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B15" s="17"/>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="17" t="s">
-        <v>485</v>
+        <v>402</v>
       </c>
       <c r="B16" s="17"/>
       <c r="G16" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="17" t="s">
-        <v>474</v>
+        <v>401</v>
       </c>
       <c r="B17" s="17"/>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="17" t="s">
-        <v>469</v>
+        <v>400</v>
       </c>
       <c r="B18" s="17"/>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="17" t="s">
-        <v>470</v>
+        <v>405</v>
       </c>
       <c r="B19" s="17"/>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="17" t="s">
-        <v>475</v>
+        <v>417</v>
       </c>
       <c r="B20" s="17"/>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="17" t="s">
-        <v>33</v>
+        <v>403</v>
       </c>
       <c r="B21" s="17"/>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="17" t="s">
-        <v>481</v>
-      </c>
       <c r="B22" s="17"/>
       <c r="G22" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="17" t="s">
-        <v>465</v>
-      </c>
       <c r="B23" s="17"/>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="B24" s="17"/>
       <c r="G24" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="17" t="s">
-        <v>37</v>
-      </c>
       <c r="B25" s="17"/>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="17" t="s">
-        <v>38</v>
-      </c>
       <c r="B26" s="17"/>
       <c r="G26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="17" t="s">
-        <v>39</v>
-      </c>
       <c r="B27" s="17"/>
       <c r="G27" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="17" t="s">
-        <v>40</v>
-      </c>
       <c r="B28" s="17"/>
       <c r="F28" t="s">
-        <v>447</v>
+        <v>376</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="17" t="s">
-        <v>477</v>
-      </c>
       <c r="B29" s="17"/>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="17" t="s">
-        <v>42</v>
-      </c>
       <c r="B30" s="17"/>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="B31" s="17"/>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="17" t="s">
-        <v>499</v>
-      </c>
       <c r="B32" s="17"/>
       <c r="G32" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="17" t="s">
-        <v>482</v>
-      </c>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33" s="17"/>
       <c r="G33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="17" t="s">
-        <v>46</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34" s="17"/>
       <c r="G34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="17" t="s">
-        <v>500</v>
-      </c>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
       <c r="B35" s="17"/>
       <c r="F35" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="G35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="17" t="s">
-        <v>478</v>
-      </c>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36" s="17"/>
       <c r="G36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="17" t="s">
-        <v>479</v>
-      </c>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37" s="17"/>
       <c r="G37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="17" t="s">
-        <v>488</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38" s="17"/>
       <c r="G38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="17" t="s">
-        <v>52</v>
-      </c>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
       <c r="B39" s="17"/>
       <c r="G39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="17" t="s">
-        <v>501</v>
-      </c>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
       <c r="B40" s="17"/>
       <c r="G40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="17" t="s">
-        <v>487</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
       <c r="B41" s="17"/>
       <c r="G41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="17" t="s">
-        <v>486</v>
-      </c>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
       <c r="B42" s="17"/>
       <c r="G42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
       <c r="B43" s="17"/>
       <c r="G43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="G44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="G45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="G46" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="F47" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="B44" s="17"/>
-      <c r="G44" t="s">
+      <c r="G47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="G45" t="s">
+    <row r="48" spans="2:7">
+      <c r="G48" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="G46" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="F47" t="s">
-        <v>48</v>
-      </c>
-      <c r="G47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="G48" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="7:7">
       <c r="G50" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="7:7">
       <c r="G51" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="7:7">
       <c r="G52" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G53 A1:A42" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G53 A1:A21" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Code</formula1>
     </dataValidation>
   </dataValidations>
@@ -7099,15 +6753,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD7FB7F-10D9-4208-A900-CA223695BC5E}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
@@ -7192,95 +6846,95 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="13" t="s">
-        <v>462</v>
+        <v>389</v>
       </c>
       <c r="B1" t="s">
-        <v>464</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
-        <v>482</v>
+        <v>403</v>
       </c>
       <c r="B2" s="15">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
-        <v>469</v>
+        <v>394</v>
       </c>
       <c r="B3" s="15">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="14" t="s">
-        <v>466</v>
+        <v>392</v>
       </c>
       <c r="B4" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="14" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="B5" s="15">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="14" t="s">
-        <v>314</v>
+        <v>402</v>
       </c>
       <c r="B6" s="15">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="14" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="B7" s="15">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="14" t="s">
-        <v>372</v>
+        <v>286</v>
       </c>
       <c r="B8" s="15">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="14" t="s">
-        <v>475</v>
+        <v>407</v>
       </c>
       <c r="B9" s="15">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="14" t="s">
-        <v>4</v>
+        <v>397</v>
       </c>
       <c r="B10" s="15">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="14" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="B11" s="15">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="14" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B12" s="15">
         <v>6</v>
@@ -7288,394 +6942,90 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="14" t="s">
-        <v>425</v>
+        <v>52</v>
       </c>
       <c r="B13" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="14" t="s">
-        <v>426</v>
+        <v>278</v>
       </c>
       <c r="B14" s="15">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="14" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B15" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="14" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="B16" s="15">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="14" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B17" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="14" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B18" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="14" t="s">
-        <v>287</v>
+        <v>419</v>
       </c>
       <c r="B19" s="15">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="14" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="B20" s="15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="14" t="s">
-        <v>320</v>
+        <v>404</v>
       </c>
       <c r="B21" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="14" t="s">
-        <v>309</v>
+        <v>401</v>
       </c>
       <c r="B22" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="14" t="s">
-        <v>431</v>
+        <v>390</v>
       </c>
       <c r="B23" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="B24" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="B25" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="B26" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="B27" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="B28" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="B29" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="B30" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="B31" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="B32" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B33" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="B34" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="B35" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B36" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="B38" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="B39" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="B40" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="B41" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="B42" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="14" t="s">
-        <v>502</v>
-      </c>
-      <c r="B43" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="B44" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="B45" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="B46" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="14" t="s">
-        <v>481</v>
-      </c>
-      <c r="B48" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="B49" s="15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="B50" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="B51" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B52" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="B53" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="B54" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="B55" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B56" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="B57" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B58" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B59" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="B60" s="15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="B61" s="15">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -7687,10 +7037,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA6260C-0DB3-4D2D-B332-C8A9D1AE679F}">
-  <dimension ref="A3:B14"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7699,98 +7049,52 @@
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" s="15">
+        <v>27</v>
+      </c>
+    </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="B3" t="s">
-        <v>446</v>
+      <c r="A3" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" s="15">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="14" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B4" s="15">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="14" t="s">
-        <v>55</v>
+        <v>382</v>
       </c>
       <c r="B5" s="15">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="14" t="s">
-        <v>443</v>
+        <v>390</v>
       </c>
       <c r="B6" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="B7" s="15">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="15">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="B9" s="15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="B10" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="B11" s="15"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="B12" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="B13" s="15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="B14" s="15">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/Thematic-Coding.xlsx
+++ b/Thematic-Coding.xlsx
@@ -8,43 +8,49 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidde\Dropbox\Kieran Third year\BCIS301 _ AMIC700\Assignment 1\BCIS301---AMIC700---Thematic-Coding-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07575205-6AEC-4218-9711-AD3B9D485E1E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA18818C-C5CA-43BF-A8FE-4BBB9657A529}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId3"/>
-    <sheet name="Total of SuperGroup" sheetId="8" r:id="rId4"/>
+    <sheet name="Quantitative" sheetId="3" r:id="rId1"/>
+    <sheet name="List of Tags" sheetId="2" r:id="rId2"/>
+    <sheet name="Tag Count" sheetId="11" r:id="rId3"/>
+    <sheet name="Analysis tool" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_ftn1" localSheetId="0">'Sheet1 (2)'!$B$24</definedName>
-    <definedName name="_ftn2" localSheetId="0">'Sheet1 (2)'!$B$25</definedName>
-    <definedName name="_ftnref1" localSheetId="0">'Sheet1 (2)'!$B$20</definedName>
-    <definedName name="_ftnref2" localSheetId="0">'Sheet1 (2)'!$B$22</definedName>
-    <definedName name="Environmental_Factors">Sheet2!#REF!</definedName>
-    <definedName name="Organizational_Factors">Sheet2!$A$1:$A$2</definedName>
-    <definedName name="Poor_Management_Factors">Sheet2!$A$15:$A$21</definedName>
-    <definedName name="Project_Factors">Sheet2!$A$6:$A$9</definedName>
-    <definedName name="Team_Factors">Sheet2!$A$3:$A$5</definedName>
-    <definedName name="Technology_Factors">Sheet2!$A$10:$A$14</definedName>
+    <definedName name="_ftn1" localSheetId="0">Quantitative!$B$24</definedName>
+    <definedName name="_ftn2" localSheetId="0">Quantitative!$B$25</definedName>
+    <definedName name="_ftnref1" localSheetId="0">Quantitative!$B$20</definedName>
+    <definedName name="_ftnref2" localSheetId="0">Quantitative!$B$22</definedName>
+    <definedName name="Environmental_Factors">'List of Tags'!#REF!</definedName>
+    <definedName name="Organizational_Factors">'List of Tags'!$A$1:$A$2</definedName>
+    <definedName name="Poor_Management_Factors">'List of Tags'!$A$15:$A$21</definedName>
+    <definedName name="Project_Factors">'List of Tags'!$A$6:$A$9</definedName>
+    <definedName name="Team_Factors">'List of Tags'!$A$3:$A$5</definedName>
+    <definedName name="Technology_Factors">'List of Tags'!$A$10:$A$14</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="37" r:id="rId5"/>
-    <pivotCache cacheId="40" r:id="rId6"/>
+    <pivotCache cacheId="24" r:id="rId5"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="383">
   <si>
     <t>CaseStudy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,194 +68,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lack of Customer Involvement</t>
-  </si>
-  <si>
-    <t>Lack of User Involvement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Too many Vendors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Organizational Factors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lack of Management Skills</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Failing to Understand Change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poor Organizational Culture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poor Internal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Marketing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lack of Employee Incentives</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inappropriate Governance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Team Factors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inexperienced &amp; Unskilled Team</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lack of Technical Skills &amp; Knowledge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Too much Attrition in Team</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Change of Key People</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poor Team Commitment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attitude Change in Programmers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Factors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unclear Project Objectives and Goals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Project Complexity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Project Size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lack of Performance Measures</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New/Immature Technology</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poor Testing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poor Technology Tools</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poor Integration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Too Many Bugs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poor Trouble shooting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Scope Creep</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lack of Risk Management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ineffective Communication</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Changing Requirements</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schedule Overrun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost Overrun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lack of Resources</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poor Design</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unrealistic Schedules/Deadlines</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unfavourable Contract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poor Coordination</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vague Requirements &amp; Scope</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incorrect Assumptions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poor Project Monitoring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Stakeholder Politics</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incorrect Status Reporting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poor Documentation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Environmental Factors</t>
   </si>
   <si>
     <t>Scope Creep</t>
@@ -1037,9 +865,6 @@
     <t>It was always inevitable, therefore, that without the Project being reset, these decisions would lead to a system which was seriously functionally deficient. Despite that, no real practical alternative was put in place. Although CorpTech had, very sensibly, resourced itself to maintain LATTICE, that option was either considered not feasible or was not sufficiently investigated. There appears to have been inadequate consideration given to the option of upgrading the LATTICE system or coming to some arrangement with its vendor (Talent2) to maintain support until some other alternative could be found.</t>
   </si>
   <si>
-    <t>Lack of Project Management Skills</t>
-  </si>
-  <si>
     <t>Conclusion, 12</t>
   </si>
   <si>
@@ -1103,9 +928,6 @@
     <t>Lack of analysis or consideration of the model and why is failed before assigning another prime contractor.</t>
   </si>
   <si>
-    <t>Unrealistic Expectations</t>
-  </si>
-  <si>
     <t>Stakeholder Politics</t>
   </si>
   <si>
@@ -1118,13 +940,7 @@
     <t>Inadequately scoped and neither party took any effective measures to stabilise it.</t>
   </si>
   <si>
-    <t>Too Much Optimism</t>
-  </si>
-  <si>
     <t>To much stakeholder involment with lack of IBM input</t>
-  </si>
-  <si>
-    <t>No Business Case</t>
   </si>
   <si>
     <t>Manager hoped to benefit from contract</t>
@@ -1405,24 +1221,6 @@
   </si>
   <si>
     <t>It took time for the problems with the system to manifest themselves. As I have explained, retrospectiveprocessing did not commence until the second pay run.</t>
-  </si>
-  <si>
-    <t>Lack of Stakeholder Involvement</t>
-  </si>
-  <si>
-    <t>计数项:SuperGroup</t>
-  </si>
-  <si>
-    <t>Delivery Factors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poor Defect Management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ineffective Project Change Controls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The real Go Live decision was made on 31 May 2012, despite the Confidence Point Two criteria
@@ -1432,10 +1230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Poor Leadership</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Implementation Factors</t>
   </si>
   <si>
@@ -1458,16 +1252,10 @@
     <t>Communications can be instrumental for changes throughout different phases ERP implementation.</t>
   </si>
   <si>
-    <t>Lack of Senior Management Involvement, Support &amp; Commitment</t>
-  </si>
-  <si>
     <t>Row Labels</t>
   </si>
   <si>
     <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Count of Code</t>
   </si>
   <si>
     <t>Development Incentives</t>
@@ -1574,9 +1362,6 @@
 practices began to meet the expected level of good practice.</t>
   </si>
   <si>
-    <t xml:space="preserve"> requirements definition, testing wasted</t>
-  </si>
-  <si>
     <t>Scope creep lead to  testing</t>
   </si>
   <si>
@@ -1611,13 +1396,19 @@
   </si>
   <si>
     <t>It is clear that many of the problems which were experienced after Go Live and which affected pay involved Workbrain. Ms Stewart identified Workbrain’s performance as the most significant system issue post-Go Live . This exhibited itself in slowness of the MVS, difficulties viewing, updating and publishing rosters in the MVS, individual users being unexpectedly locked out of Workbrain, and general slowness across the Workbrain application.</t>
+  </si>
+  <si>
+    <t>Count of SuperGroup</t>
+  </si>
+  <si>
+    <t>Requirements definition, testing wasted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1689,6 +1480,14 @@
       <name val="Georgia-BoldItalic"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1698,7 +1497,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1706,11 +1505,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1756,6 +1564,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1774,13 +1589,25 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="kieran abelen" refreshedDate="43741.306802893516" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="148" xr:uid="{DD96F0DD-2456-45C2-8AA6-9A13D829CE93}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="kieran abelen" refreshedDate="43747.014010879633" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="150" xr:uid="{90F90EC1-4C1C-4C84-96D0-C5ED4B8A1B9F}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="E1:E151" sheet="Sheet1 (2)"/>
+    <worksheetSource ref="A1:F151" sheet="Quantitative"/>
   </cacheSource>
-  <cacheFields count="1">
+  <cacheFields count="6">
+    <cacheField name="CaseStudy" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Extract" numFmtId="0">
+      <sharedItems longText="1"/>
+    </cacheField>
+    <cacheField name="Location" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Summary" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
     <cacheField name="Code" numFmtId="0">
-      <sharedItems count="110">
+      <sharedItems count="21">
         <s v="Management Assumptions"/>
         <s v="Schedules/Deadlines"/>
         <s v="Scope Creep"/>
@@ -1802,124 +1629,14 @@
         <s v="Development Incentives"/>
         <s v="Project Investigation"/>
         <s v="Requirements &amp; Scope"/>
-        <s v=" Defect Management" u="1"/>
-        <s v="Effect of Big-Bang Approach" u="1"/>
-        <s v="Frequent personnel changes; lack of communications" u="1"/>
-        <s v="Marketing" u="1"/>
-        <s v="Project Analysis" u="1"/>
-        <s v="Lack of Employee Incentives" u="1"/>
-        <s v="Good risk analysis" u="1"/>
-        <s v="Lack of Senior Management Involvement,Support &amp;Commitment" u="1"/>
-        <s v=" Technology Tools" u="1"/>
-        <s v="Good organization structure" u="1"/>
-        <s v="Lack of Customer Involvement" u="1"/>
-        <s v="Lack of Performance Measures" u="1"/>
-        <s v="Good Communication with the team member." u="1"/>
-        <s v="Lack of information exchange; lack information communications" u="1"/>
-        <s v="Government support" u="1"/>
-        <s v="Too much Attrition in Team" u="1"/>
-        <s v="Unclear Project Objectives and Goals" u="1"/>
-        <s v="Poor Testing Tools" u="1"/>
-        <s v="lack of Design" u="1"/>
-        <s v="Incorrect Status Reporting" u="1"/>
-        <s v="Lack of Management Skills" u="1"/>
-        <s v="Good time and budgets plan." u="1"/>
-        <s v="Poor Technology Tools" u="1"/>
-        <s v=" lack advent communications" u="1"/>
-        <s v=" Trouble Shooting" u="1"/>
-        <s v="Vague Requirements &amp; Scope" u="1"/>
-        <s v="Lack of Stakeholder Involvement" u="1"/>
-        <s v="Lack of Technical Skills &amp; Knowledge" u="1"/>
-        <s v=" Leadership" u="1"/>
-        <s v="Poor Testing" u="1"/>
-        <s v="Good Analysis" u="1"/>
-        <s v="Inappropriate Estimations" u="1"/>
-        <s v="Poor Documentation" u="1"/>
-        <s v="Too Many Bugs" u="1"/>
-        <s v="lack of marketing" u="1"/>
-        <s v="Changing Requirements" u="1"/>
-        <s v="lack of communications" u="1"/>
-        <s v="Lack of Project Management Skills" u="1"/>
-        <s v="No Business Case" u="1"/>
-        <s v="Frequent replacement of suppliers; lack of communications" u="1"/>
-        <s v=" Team Commitment" u="1"/>
-        <s v="Ineffective Project Change Controls" u="1"/>
-        <s v="Good Communication with different departments." u="1"/>
-        <s v="Complex implementation process" u="1"/>
-        <s v="did not choose correct stakeholder" u="1"/>
-        <s v="Good Plan" u="1"/>
-        <s v="Inappropriate Governance" u="1"/>
-        <s v="The over-expenditure of; lack expenditure communications" u="1"/>
-        <s v="lack of data collect." u="1"/>
-        <s v="Poor Defect Management" u="1"/>
-        <s v=" Testing Tools" u="1"/>
-        <s v="Timely access to information" u="1"/>
-        <s v="Unfavourable Contract" u="1"/>
-        <s v="lack of knowledg Management Factors" u="1"/>
-        <s v=" Testing" u="1"/>
-        <s v="Unrealistic Expectations" u="1"/>
-        <s v="Poor Trouble Shooting" u="1"/>
-        <s v="Cost Overrun" u="1"/>
-        <s v="Poor Leadership" u="1"/>
-        <s v="Poor Organizational Culture" u="1"/>
-        <s v="Timeout, over budget" u="1"/>
-        <s v="Failing to Understand Change" u="1"/>
-        <s v="Good Communication with Users" u="1"/>
-        <s v="Unrealistic Schedules/Deadlines" u="1"/>
-        <s v="Good Social Structure; Good orgnization clture." u="1"/>
-        <s v="Software Bug Testing" u="1"/>
-        <s v="Schedule Overrun" u="1"/>
-        <s v="Do not have clear goal" u="1"/>
-        <s v="Good expectations." u="1"/>
-        <s v="lack of time mangement" u="1"/>
-        <s v="Good relationship among the different sections." u="1"/>
-        <s v="Incorrect Assumptions" u="1"/>
-        <s v="Lack of Senior Management Involvement, Support &amp;Commitment" u="1"/>
-        <s v="Lack of Senior Management Involvement,Support &amp; Commitment" u="1"/>
-        <s v=" Project Monitoring" u="1"/>
-        <s v="Good Management Factors" u="1"/>
-        <s v="Poor Design" u="1"/>
-        <s v="Lack of Risk Management" u="1"/>
-        <s v="Good internal incentives" u="1"/>
-        <s v=" Design" u="1"/>
-        <s v="Good Communication with the stakeholders." u="1"/>
-        <s v="Poor Team Commitment" u="1"/>
-        <s v="Poor Project Monitoring" u="1"/>
-        <s v="Project Optimism" u="1"/>
-        <s v="Clear Goal" u="1"/>
-        <s v="Too Much Optimism" u="1"/>
-        <s v="Ineffective Communication" u="1"/>
-        <s v="Good Leaning" u="1"/>
-        <s v="Choose wrong stakeholders" u="1"/>
       </sharedItems>
     </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="kieran abelen" refreshedDate="43741.306917824077" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="148" xr:uid="{D8C17AEB-781A-486A-AC61-055C3F888D07}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="F1:F151" sheet="Sheet1 (2)"/>
-  </cacheSource>
-  <cacheFields count="1">
     <cacheField name="SuperGroup" numFmtId="0">
-      <sharedItems containsBlank="1" count="10">
+      <sharedItems count="4">
         <s v="Management Factors"/>
         <s v="Implementation Factors"/>
         <s v="Delivery Factors"/>
         <s v="Planning Factors"/>
-        <m u="1"/>
-        <s v="Project Factors" u="1"/>
-        <s v="Team Factors" u="1"/>
-        <s v="Information Factor" u="1"/>
-        <s v="Organizational Factors" u="1"/>
-        <s v="Environmental Factors" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -1932,1089 +1649,1336 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="148">
-  <r>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="150">
+  <r>
+    <s v="Novopay Project"/>
+    <s v=" It is our overall view that weaknesses in project governance and leadership allowed the service to go live with a number of significant risks which the Ministry and its vendors were over-confident of managing.When these risks resulted in service issues Post-Go Live, the Ministry and its vendors were overwhelmed by their nature and scale."/>
+    <s v="P6,1"/>
+    <s v="Weaknesses in project governance and leadership"/>
     <x v="0"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="Over the course of the project, Talent2 had missed agreed milestones or deadlines, which eroded trust and confidence in its ability to deliver. "/>
+    <s v="P6,1"/>
+    <s v="miss agreed milestone or deadlines"/>
     <x v="1"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v=" We are confident that there is scope to address the weaknesses that we have found.Our findings and recommendations are mostly addressed at matters that emerged through the design and delivery of the project. Some of them, however, have relevance for the wider public sector, and other similar projects. We commend them to the attention of all those with public sector leadership roles.   "/>
+    <s v="P6,2"/>
+    <s v="some of findings have relevance fro public sector and other projects"/>
     <x v="2"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="The outcome of the procurement process was not inappropriate. On 22 April 2008 the Ministry selected Talent2 as the preferred vendor. The contract that was then negotiated between the Ministry and Talent2 was complex, and when signed on 11 August 2008 it still had significant schedules incomplete.  "/>
+    <s v="P7,2"/>
+    <s v="procurement process was not inappropriate"/>
     <x v="3"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="Work commenced on the requirements for the schools payroll project in October 2008. This process was lengthy, and was never actually completed. Even after Go Live, new requirements_x000a_were being discovered"/>
+    <s v="P7,3"/>
+    <s v="work on requirements was lengthy and never completed"/>
     <x v="2"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="There was little direct customer (boards of trustees) or user (principals and school administrators) involvement in the definition of the requirements, and Datacom’s involvement was minimal.                     "/>
+    <s v="P7,3"/>
+    <s v="there was little customer or user involvement"/>
     <x v="4"/>
-  </r>
-  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="Requirements definition, design, development and testing activity were all occurring in parallel,making it very difficult to maintain a known level of quality. "/>
+    <s v="P7,4"/>
+    <s v="all occurring in parallel"/>
     <x v="5"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="The Ministry and Talent2 were concerned about the quality and pace of software development and testing. This resulted in Talent2 sub-contracting two local companies, Asparona and Assurity, at its own cost to provide additional capacity and capabilities for custom development and testing from December 2010.             P7,5"/>
+    <m/>
+    <s v="sub-contract two companies"/>
     <x v="6"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="During the service design and development phase, the intended pilot and phased rollout of the service were removed from the project plan   P7,6"/>
+    <m/>
+    <s v="intended pilot and phased rollout removed"/>
     <x v="7"/>
-  </r>
-  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="Some important areas of functionality were not fully tested prior to Go Live. Some types of testing were not completed to the original scope, on the basis that testing could be completed_x000a_after Go Live, or that the risks of not doing the testing had been adequately mitigated. Not all System Integration Testing criteria were met.   P8,1"/>
+    <m/>
+    <s v="Important areas were not fully tested"/>
     <x v="8"/>
-  </r>
-  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v=" However, it underestimated the impacts of the changes required of the schools by the introduction of the new payroll service. The execution of the change Management Factors plans which the Ministry did have was inadequate, and roles were unclear.The engagement with the payroll service’s customers and users was also insufficient   P8,2"/>
+    <m/>
+    <s v="the execution of change Management Factors was inadequate"/>
     <x v="7"/>
-  </r>
-  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="The real Go Live decision was made on 31 May 2012, despite the Confidence Point Two criteria_x000a_not having been met and schools not being ready. Project governance and leadership allowed_x000a_a combination of significant risks to be carried into Go Live and overestimated the ability of the_x000a_Ministry, Talent2 and schools to manage them"/>
+    <m/>
+    <s v="overestimated the ability of the Ministry"/>
     <x v="9"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="On 15 August 2012, the Go Live decision was confirmed even though: it was clear that not all testing had been completed; systems development was continuing through the code freeze right up to Go Live; the sector was not sufficiently ready; the Service Centre had failed some of its tests and was not fully ready; and the crucial End of Year/Start of Year process had not yet been fully developed or tested                 P4"/>
+    <m/>
+    <s v="Go Live decision was confirmed even though there were many problems"/>
     <x v="9"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="The lack of discussion by the Project Board about the State Services Commission’s guidelines for the Management Factors and monitoring of major IT projects was a major failing. There_x000a_was a large degree of turnover in key project leadership positions throughout    P5,3"/>
+    <m/>
+    <s v="The lack of discussion"/>
     <x v="10"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="The lack of a Programme Director with overall accountability reporting to the project’s Senior Responsible Officer meant that the Project Board and the Business Owner were the effective points of integration for programme planning and Management Factors.   P11"/>
+    <m/>
+    <s v="The lack of a Programme Directo"/>
     <x v="11"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="It has been generally recognised by the people to whom we have spoken that the project culture and the relationship between the Ministry and Talent2 were not always healthy, and that this affected the effective forward momentum of the project."/>
+    <m/>
+    <s v="The relationship between the Ministry and Talent2 were not always healthy"/>
     <x v="3"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="Notwithstanding the range of assurance activities across this project, there was no overall accountability for Independent Quality Assurance, its scope did not encompass the entire_x000a_project, and it was not provided continuously"/>
+    <m/>
+    <s v="there was no overall accountability for Independent Quality Assurance"/>
     <x v="12"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="The Novopay project has cost materially more than estimated"/>
+    <m/>
+    <m/>
     <x v="0"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="The former Secretaries for Education took an unwarranted level of comfort from the governance of the Novopay project. The lack of engagement with the project by the Ministry’s Leadership_x000a_Team and Audit and Assurance Committee, and the weaknesses in the project’s governance, 6 Executive Summary are matters for which a Chief Executive must take accountability"/>
+    <m/>
+    <s v="The lack of engagement"/>
     <x v="10"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="The Ministry’s relationship with the schools sector has in recent times been uneasy. The levels of trust between the Ministry and the sector that were necessary to ensure the success of the_x000a_project were not always evident"/>
+    <m/>
+    <s v="The relationship between the Ministry and school sector has been uneasy"/>
     <x v="10"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="Found that Ministers were not always well served. Reporting to Ministers has been inconsistent, at times unduly optimistic and sometimes misrepresented the situation"/>
+    <m/>
+    <s v="Reports have been inconsistent"/>
     <x v="12"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="We are also surprised that the financial Management Factors of this project seems not to have attracted greater attention"/>
+    <m/>
+    <s v="Inancial Management Factors not have enough attention"/>
     <x v="9"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="The schools payroll environment is overly complex as a result of an accumulation of historical changes. There was no serious attempt to simplify collective agreements or Ministry or school_x000a_business processes before embarking on the Novopay project"/>
+    <m/>
+    <s v="No agreements before embarking on project"/>
     <x v="5"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="Customers’ perspectives, particularly those of the boards of trustees, were insufficiently considered in the business case"/>
+    <m/>
+    <m/>
     <x v="4"/>
-  </r>
-  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="There is no evidence that the Ministry approached Datacom with a formal request to extend the existing contract for a further period"/>
+    <m/>
+    <m/>
     <x v="13"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="A lack of adequate support resulted in significant stress and required additional time and effort from schools and the Ministry to manage the payroll. It also contributed directly to_x000a_additional errors and system defects, through missed, inaccurate or duplicate transaction processing, and ly-controlled system changes"/>
+    <m/>
+    <s v="Lack of adequate support"/>
     <x v="4"/>
-  </r>
-  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="The Ministry did not establish the quality of governance required for a complex project of this nature"/>
+    <m/>
+    <m/>
     <x v="5"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="Talent2’s inability to deliver consistently against milestones led to a loss of trust and confidence in its ability to deliver the solution"/>
+    <m/>
+    <m/>
     <x v="1"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="The Ministry did not have the commercial experience to manage the vendors in a project of this nature"/>
+    <m/>
+    <m/>
     <x v="14"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="While the engagement documentation was clear, the risk of conflict of interest arising from aspects of its roles was not well managed by PwC."/>
+    <m/>
+    <s v="the risk of conflict of interest was not well managed"/>
     <x v="3"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="The Ministry was not always willing to take or act on advice, and at times demonstrated misplaced optimism about the state of the project"/>
+    <m/>
+    <s v="The Ministry was not always willing to take or act on advice"/>
     <x v="15"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="Ensure there is a viable contingency plan that enables risks and possible delays to be managed appropriately"/>
+    <m/>
+    <m/>
     <x v="9"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="Long-duration projects will rarely meet the expectations established at their inception"/>
+    <m/>
+    <m/>
     <x v="16"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="We phased our approach. We began with document discovery, then conducted a round of structured interviews with key personnel before firming up our conclusions and_x000a_recommendations"/>
+    <m/>
+    <s v="phased approch,document discovery,interview with key personnel"/>
     <x v="7"/>
-  </r>
-  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="The schools payroll environment is overly complex as a result of an accumulation of historical changes"/>
+    <m/>
+    <s v="complex"/>
     <x v="5"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="The Ministry’s requirements for the outsourced service, as outlined in the RFP, were too high level to convey the full complexity of the required solution"/>
+    <m/>
+    <m/>
     <x v="6"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="The tender documents did not make the overall roles and responsibilities clear enough,and did not provide an appropriate process to define the scope and requirements progressively"/>
+    <m/>
+    <m/>
     <x v="13"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="The ‘agree to agree’ approach involving deferral of agreement on key contract schedules without a defined scoping phase to develop requirements fully was  practice for a project of this nature"/>
+    <m/>
+    <m/>
     <x v="13"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v=" There was too much emphasis on the total fixed price and KPIs. Apparent ‘wins’, and associated ‘losses’, during the_x000a_contract negotiations contributed to and exacerbated later relationship and delivery problems"/>
+    <m/>
+    <m/>
     <x v="17"/>
-  </r>
-  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="The contract did not have appropriately escalating mechanisms for performance Management Factors."/>
+    <m/>
+    <m/>
     <x v="12"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="The process of gathering user requirements was ly managed and took too long"/>
+    <m/>
+    <m/>
     <x v="8"/>
-  </r>
-  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="Neither the Ministry nor Talent2 adequately recognised, in a timely manner,the change in the nature of the project from a configured package to extensive customisation. Not only did this compromise the original intent, it required expertise_x000a_and disciplines for which the main parties were ill prepared"/>
+    <m/>
+    <s v="main parties were ill prepared for the changes"/>
     <x v="5"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="Talent2’s engagement with the Ministry at this stage of the project was more passive than we would have expected. It did not adequately push back on the Ministry’s increasing desire to replicate the existing payroll system"/>
+    <m/>
+    <s v="engamement at this stage was passive"/>
     <x v="18"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="The objectives for the use of the Beta environment as a substitute for the pilot did not cover the primary in situ testing function that a pilot would typically perform"/>
+    <m/>
+    <m/>
     <x v="8"/>
-  </r>
-  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="While Asparona provided significant impetus and capabilities, it did so within a project environment that was not conducive to success"/>
+    <m/>
+    <m/>
     <x v="15"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
+    <s v="Novopay Project"/>
+    <s v="Adherence to the 20 August 2012 Go Live date severely compromised the completeness of the testing programme. Testing was reduced in scope and quality expectations were lowered"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="Neither the Ministry nor Talent2 demonstrated the level of capability required to plan, manage and execute effective testing. As a consequence of  requirements definition, early testing was wasted. It was on the introduction of Assurity that testing_x000a_practices began to meet the expected level of good practice."/>
+    <m/>
+    <s v="Requirements definition, testing wasted"/>
     <x v="14"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="The increasing level of customisation made testing more difficult but also more important.The abandonment of the phased rollout and the pilot increased the project’s dependency on testing. Neither the Ministry nor Talent2 fully appreciated this increased dependency"/>
+    <m/>
+    <s v="Scope creep lead to  testing"/>
     <x v="8"/>
-  </r>
-  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="The Ministry had overall responsibility for sector readiness other than system training,which was the responsibility of Talent2. We would have expected sector readiness preparations to include training that covered the changed responsibilities and roles,_x000a_better communications and stronger support both during the project and in the period following Go Live"/>
+    <m/>
+    <s v="expected sector readiness preparations"/>
     <x v="11"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="The system training was not well suited to the school environment    P47"/>
+    <m/>
+    <m/>
     <x v="10"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="It was evident before Go Live that many schools did not understand and were not ready for the changes to their roles. Some schools were also not prepared from a technological_x000a_perspective, and found the move to an online system challenging"/>
+    <m/>
+    <s v="many school were not ready for the changes"/>
     <x v="7"/>
-  </r>
-  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="Defects in the system, as well as aspects of the system that worked, but were difficult to use,triggered further calls. In particular, there were many defects in the user-facing online screens and reports    P56"/>
+    <m/>
+    <s v="Defects in the system"/>
     <x v="8"/>
-  </r>
-  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="A number of transactions could not be performed online either by design or due to defects of various sorts, requiring users to enter data manually onto forms and send them to the Service_x000a_Centre.             P52"/>
+    <m/>
+    <s v="transactions could not be performed online"/>
     <x v="4"/>
-  </r>
-  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="The online form tracking system had not been made available to schools, so they could not tell which requests had been actioned."/>
+    <s v="P57,3                             "/>
+    <m/>
     <x v="17"/>
-  </r>
-  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="Key system support processes such as incident Management Factors, defect Management Factors and change and release Management Factors existed but did not always operate effectively in the weeks_x000a_following Go Live"/>
+    <s v="P57,6 "/>
+    <m/>
     <x v="9"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="Formal project documentation, where it existed, generally complied with ourexpectations, although it was not always well maintained. We found examples of good project documentation being produced, but not executed"/>
+    <s v="P69  "/>
+    <s v="Not always well maintained"/>
     <x v="12"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="While there were contractual levers available, the lack of a range of sanctions made it difficult for the Ministry to apply them. The lack of clarity around performance obligations created by the 40 contractual documents further affected the Ministry’s ability to manage Talent2’s performance"/>
+    <s v="P71,4  "/>
+    <m/>
     <x v="13"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Novopay Project"/>
+    <s v="As a consequence of its involvement with the Project Board and efforts to get the project over the line, SSC was not able to exercise its monitoring role properly, as it had lost its detachment."/>
+    <s v="P95"/>
+    <m/>
     <x v="12"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="Because they provide in-depth examinations across different stages of implementation and identify the many different types of stakeholders."/>
+    <s v="Conclusion, 12"/>
+    <s v="Define different type of stakeholders"/>
     <x v="3"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="They include TAM, Expectancy Theory, Change Model and implementation life-cycle."/>
+    <s v="Conclusion, 12"/>
+    <s v="Project need complete plan and follow the plan finish project"/>
     <x v="16"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="Primary data sources include survey results collected from end-users at the design stage, before the deployment stage and a little over one year after the new system change over."/>
+    <s v="Conclusion, 12"/>
+    <s v="Keep update data by following the developing"/>
     <x v="4"/>
-  </r>
-  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="In-depth interviews and focus groups were conducted with key users, business process owners, project director, and different groups of consultants and project team members."/>
+    <s v="Conclusion, 12"/>
+    <s v="Good Communication with others in the project"/>
     <x v="10"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="From a theoretical standpoint, the present SOE case demonstrates success based on existing literature, albeit some challenges were apparent, namely in communication as the catalyst in change Management Factors, organizational culture as the salient determinants of an organization’s attitudes, thought processes and actions, or various tradeoffs regarding project Management Factors issues and consultant-user relationships. "/>
+    <s v="Conclusion, 12"/>
+    <s v="Need do great and enough research about the project"/>
     <x v="9"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="Communications can be instrumental for changes throughout different phases ERP implementation."/>
+    <s v="Conclusion, 13"/>
+    <s v="Communications can be instrumental for changes throughout different phases ERP implementation"/>
     <x v="10"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="Nevertheless, more empirical evidence is needed to verify our current findings that in a mandated implementation environment, excessive project selling at the project preparation phase may have negative effects during the blueprint and realization phases but often times yields positive results during the operation and routinization stages. "/>
+    <s v="Conclusion, 13"/>
+    <s v="eccessive prepare befroe projecy will have negative effects for developing. But have posititve effect in final result."/>
     <x v="16"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="For practitioners, it is important to note that user expectations play a pivotal role in determining an intention to use an ERP system."/>
+    <s v="Conclusion, 13"/>
+    <s v="Need know the goal and target users. Define what they actual needed."/>
     <x v="16"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="Mostly, a great deal of effort has been paid to encourage user participation and involvement to enhance the success of the implementation. "/>
+    <s v="Conclusion, 13"/>
+    <s v="Need communication with Users."/>
     <x v="10"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="Our findings suggest that expectations should be well managed."/>
+    <s v="Conclusion, 13"/>
+    <s v="manage expectations"/>
     <x v="9"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="It is likely that when employees glue together towards the same organizational goal, ERP implementation success should be inexorable."/>
+    <s v="Conclusion, 13"/>
+    <s v="The goal must the same."/>
     <x v="16"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="Results of the study show that despite inherent impediments such as strong organizational traditions and bureaucracy along with a lifetime employment setting, two key factors, exemplary internal marketing communications and a unique social structure and organizational culture of this SOE, lead to the overall success of the project."/>
+    <s v="Abstract, 1"/>
+    <s v="Social strucuture and orgnazation culture will impact the IT project."/>
     <x v="15"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="Barriers to success such as high vendor team member turnover and frequent change of deputy governors were managed by hiring trusted, credible mediators to see the project through to fruition. "/>
+    <s v="Abstract, 1"/>
+    <s v="The flow of people will have a negative impact."/>
     <x v="6"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="Barriers to success such as high vendor team member turnover and frequent change of deputy governors were managed by hiring trusted, credible mediators to see the project through to fruition. "/>
+    <s v="Abstract, 1"/>
+    <s v="To hire trusted employees and managers to directly influence the success of the project."/>
     <x v="13"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="Also, with mandated ERP implementation, the effect on ERP implementation from user expectations is negligible as compared to staff devotion culture of an organization."/>
+    <s v="Abstract, 1"/>
+    <s v="User expectations have little impact on the project compared to the cost of high investment."/>
     <x v="16"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="Project teams and process owners also had a strong sense of commitment to share insight, experience and knowledge with the next generations of users."/>
+    <s v="Abstract, 1"/>
+    <s v="Drawing lessons from previous projects will increase the likelihood of success."/>
     <x v="10"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="The single most indisputable factor that influences the success of system implementation documented by information systems theorists and organizational theorists in the past forty years is “top Management Factors support”"/>
+    <s v="Factors influencing the ERP implementation process, 4"/>
+    <s v="The most important factor effecy IT project is Management Support."/>
     <x v="9"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="With its preempted integration, the ERP implementation process can be quite complex and involves different organizational units and different levels of Management Factors. Without Management Factors support, especially at the top, the implementation of ERP project would face unexpected problems and consequences."/>
+    <s v="Factors influencing the ERP implementation process, 4"/>
+    <s v="The implementation of the project is very complicated and involves many departments, so it requires the control of senior Management Factors."/>
     <x v="9"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="Besides top Management Factors support, other factors determining ERP project success are user involvement, effective change Management Factors, vendor support, turnover of vendors and project team members, and organizational culture fit."/>
+    <s v="Factors influencing the ERP implementation process, 4"/>
+    <s v="Other factors effect IT project include user involvement, effective change Management Factors, vendor support, turnover of vendors and project team members, and organizational culture fit."/>
     <x v="10"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="For an ERP to be successful, it should seamlessly integrate and connect business functions together as well as link the usually disparate front-to-back office workflows along their value chain together to help improve business operations and provide a better way for communication and decision-making"/>
+    <s v="ERP implementation measures of success and failure, 3"/>
+    <s v="In order to successfully complete the project, the links between the various departments have been strengthened."/>
     <x v="10"/>
-  </r>
-  <r>
     <x v="1"/>
   </r>
   <r>
+    <s v="Success Project ERP"/>
+    <s v="The objective measures of success and failure of IT projects are project completion within time and budget. "/>
+    <s v="ERP implementation measures of success and failure, 3"/>
+    <s v="The success or failure of a project is determined by time and budget."/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="In ERP implementation, identifying success factors is as important as managing risk factors. Success factors emphasize factors which ensure the project’s attainment of budget, schedule and functionality targets. "/>
+    <s v="ERP implementation measures of success and failure, 4"/>
+    <s v="Keeping up with the planned project and risk analysis is very important for the project."/>
     <x v="9"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="Risk factors, on the other hand, focused on strategic and organizational success factors. The most important risk factor categories in ERP implementation are “selection and adaptation” and “change Management Factors”. "/>
+    <s v="ERP implementation measures of success and failure, 4"/>
+    <s v="Risk Factors analysis is also important."/>
     <x v="9"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="They also identified the top ten risk ERP factors as lack of senior manager commitment to the project, ineffective communication with users, insufficient training of end-users, failure to gain user support, lack of effective project Management Factors methodology, attempting to build bridges to legacy applications, conflicts between user departments, composition of project team members, failure to redesign business processes, and unclear/misunderstanding changing requirements."/>
+    <s v="ERP implementation measures of success and failure, 4"/>
+    <s v="Here are ten key risk factors that will impact the success and failure of IT projects."/>
     <x v="9"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="They stated that ineffective project Management Factors techniques, inadequate change Management Factors, and inadequate training and instruction are the highest risk factors in the implementation/deployment phase. Top Management Factors and user involvement were not rated as high of a risk factor as inadequate ERP selection. These risk factors seem to play a role only at the early phases of ERP implementation. However, risk factors become less of a focal point once the ERP has been stabilized and enters the post implementation stage."/>
+    <s v="ERP implementation measures of success and failure, 4"/>
+    <s v="Several important risk factors are proposed here, but according to the final research performance, these factors play an important role in the initial stage of the project. But in the later period, they have no effect."/>
     <x v="9"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="Users are very important to the ERP implementation process, especially, for those who are business process owners because they provide the core functional requirements for configuration blueprints. "/>
+    <s v="Role of user attitudes and expectations in ERP implementation, 4"/>
+    <s v="Users are very important to project implementation, and their goals are the fundamental goals of the project."/>
     <x v="10"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="The up and down fluctuation of user attitudes and expectations can reveal how well the ERP will be utilized at the end."/>
+    <s v="Role of user attitudes and expectations in ERP implementation, 5"/>
+    <s v="User goals will float, so keeping up with the goal is critical to the project."/>
     <x v="16"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="Government and public organizations, especially in developing countries, tend to lag behind in the implementation of ERP (Shah et al., 2011). However, similar to publicly owned companies, efficiency and effectiveness are typically the motivation behind the investment of government and state-owned enterprises in investing large sums of money on ERP systems. Nevertheless, ERP usage in government related organizations is different from private organizations because the adoption process is usually mandated. Large public organizations have silo structures where decision making is intentionally built in and shared across the enterprise. Decision making, using a committee, makes the sign-off at each stage of implementation more difficult."/>
+    <s v="ERP Implementation in public organizations, 5"/>
+    <s v="The development of some projects requires government support, which has a positive impact. The government will conduct control and supervision, as well as investment."/>
     <x v="16"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Success Project ERP"/>
+    <s v="With respect to ERP implementation, some might think that Energy was over zealous with internal public relations. However, it has always been a challenge to communicate to over twenty thousand employees. Thus, similar to a previous study (Finney, 2011), effective internal marketing communications for organizational stakeholders was an important success factor to mitigate change anxiety."/>
+    <s v="To be informed is to change, 10"/>
+    <s v="Effective internal marketing can reduce the risk of anxiety. Thereby improving the success rate of the project."/>
     <x v="18"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="NHS Failure Project"/>
+    <s v="For instance, politicians inexperienced in the creation of complex systems allow their political ambitions to influence their desire to create large projects that can be completed in the life of a single Parliament. This is, all at once, a problem of haste, design, skills and culture."/>
+    <s v="Delivery and Implementation, 36"/>
+    <s v="Too big project, they did not have good design, enough time and skills."/>
     <x v="14"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="NHS Failure Project"/>
+    <s v="Problems continued beyond procurement and supplier departures through to the delivery and implementation of NPfIT’s systems and software."/>
+    <s v="Delivery and Implementation, 24"/>
+    <s v="Unstable stakeholder"/>
     <x v="3"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="NHS Failure Project"/>
+    <s v="The implementation featured some successes with elements of the programme that were on schedule and functioning well, however it was also marked by missed deadlines, unreliable software and a lack of engagement with end-users particularly heath-professionals and patients."/>
+    <s v="Delivery and Implementation, 24"/>
+    <s v="The project did not take into account the expectations of the target audience at the beginning. Lead to failure to meet specific requirements."/>
     <x v="16"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="NHS Failure Project"/>
+    <s v="In mid-2006 this had been deployed to over 7,600 locations however at this time the system was under-utilised and Choose and Book accounted for only 20 per cent of GP referrals. "/>
+    <s v="Delivery and Implementation, 24"/>
+    <s v="Not enough publicity and marketing, resulting in low usage."/>
     <x v="7"/>
-  </r>
-  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="NHS Failure Project"/>
+    <s v="The patient administration systems were out of date due to delays in the deliveries from LSPs. According to Connecting for Health’s plans from 2005, 151 NHS Acute Trusts would have their new patient administration systems by April 2007. "/>
+    <s v="Delivery and Implementation, 24"/>
+    <s v="Because of the lack of time considerations during the design, the delay was released. The data was not updated in time, and the effect was lost."/>
     <x v="10"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="NHS Failure Project"/>
+    <s v="The systems for hosting the Detailed Care Records were to be delivered and implemented in three releases. The first release involved enabling administrative functionality only with no real clinical benefits. The second and third releases supported clinical functionality and electronic integration between staff and settings. By late 2006, release one had not yet been completed and there were no published timelines with expected delivery dates. In May 2008, the National Audit Office published an updated review of NPfIT which highlighted the failure to deliver the Detailed Care Record, which by this point was four years late."/>
+    <s v="Electronic Care Record Delays, 25"/>
+    <s v="At the project design stage, no consideration was made. The data was not followed up in time, which led to the extension of the project."/>
     <x v="19"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="NHS Failure Project"/>
+    <s v="The specifications for Electronic Care Records in 2003 detailed a clear vision and timeframe however the scope became vague and inconsistent. By 2007, there was no word from the Department on a detailed timeline of when Trusts should expect to have the systems delivered. In 2007, the testing and deployment of the shared electronic records was two years behind schedule, the clinical software development was incomplete and work on the administrative software had ‘scarcely begun’ (Health Committee, 2007)."/>
+    <s v="Electronic Care Record Delays, 25"/>
+    <s v="The function was not well thought out, the project was too big, resulting in an extension, and the data could not keep up."/>
     <x v="2"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="NHS Failure Project"/>
+    <s v="According to Connecting for Health, by the end of 2007, 155 of the 176 acute trusts should have installed operating systems, however by this deadline only 15 of the 155 were install."/>
+    <s v="Electronic Care Record Delays, 25"/>
+    <s v="Not enough data and features, resulting in low usage."/>
     <x v="19"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="NHS Failure Project"/>
+    <s v="In December 2006, these payments totaled £639 million (PAC,_x000a_2007). By March 2007, the total expenditure on NPfIT was over £2 billion and this spending_x000a_was not backed up with any detailed information on advances to suppliers, service_x000a_improvements or a statement of the costs and benefits of the programme (PAC, 2007)."/>
+    <s v="Electronic Care Record Delays, 25"/>
+    <s v="The overrun is serious and the delivery is delayed, causing the project to fail."/>
     <x v="1"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="NHS Failure Project"/>
+    <s v="Installing interim systems was disruptive to the day-to-day operation of Trusts. Changing IT systems required upgrading of hardware, networks, staff training and data transfer, all of which took time and resources. Data transfer was difficult because methods of information input differ between organisations and clinical care settings, and the individual fields needed to be matched to the available fields on the new system (Cross, 2006, p.657)."/>
+    <s v="Electronic Care Record Delays, 26"/>
+    <s v="Installing the project software is very complicated and can lead to many uncontrollable factors, so the project fails."/>
     <x v="7"/>
-  </r>
-  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="NHS Failure Project"/>
+    <s v="Despite the many calls for NPfIT to improve stakeholder engagement, such as the 2002 Gate Zero Review, this did not happen. In March 2007, Chief Executive of the NHS, David Nicholson, announced the creation of the NHS Local Ownership Programme admitting ‘It’s clear that up to now people locally, NHS staff, boards of NHS organisations, have not felt as fully involved as they ought to have done’ (Ritter, 2007). "/>
+    <s v="Electronic Care Record Delays, 26"/>
+    <s v="Failure to select the right stakeholders and not replacing them in time led to the failure of the project."/>
     <x v="3"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="NHS Failure Project"/>
+    <s v="In January 2008, Richard Granger resigned. His post was replaced with two positions, a Chief Information Officer and a Director of IT Programmes and System Delivery (Bacon &amp; Hope, 2013). This, and other changes in leadership positions within the Department further hindered engagement and rapport with health professionals and other NHS staff"/>
+    <s v="System Functionality, 27"/>
+    <s v="The departure of key Management Factors personnel led to personnel changes and insufficient project follow-up. The last project failed."/>
     <x v="3"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="NHS Failure Project"/>
+    <s v="It is possible that thorough consultation with health professionals could have mitigated some of the risks of sharing electronic care records, one of which was the potential for miscommunication of information."/>
+    <s v="System Functionality, 27"/>
+    <s v="The communication was not smooth and the project failed."/>
     <x v="10"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="NHS Failure Project"/>
+    <s v="During the initial implementation phase of NPfIT, there was no whole-of-system coding language. A universal coding language is needed when critical health care decisions are made by complete strangers, for example in Accident and Emergency Departments. For example, the word ‘diabetes’ in a patient care record could be interpreted as a family history of diabetes, a predisposition to the illness or a diagnosis. Any shorthand, assumed knowledge or incomplete information in a patient’s care records is potentially a risk to patient safety. Such concerns were reflected in a 2007 House of Commons Report which recommended that there be clear standards and timetables for the introduction of a universal coding language."/>
+    <s v="System Functionality, 27"/>
+    <s v="During the programming process, the programmer lacks understanding of the project, resulting in the use of professional noun errors. As a result, the project failed."/>
     <x v="14"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="NHS Failure Project"/>
+    <s v="The delivery and implementation of Connecting for Health’s IT systems was characterised by ongoing functionality concerns which began soon after the earliest installations of NPfIT software."/>
+    <s v="System Functionality, 27"/>
+    <s v="Insufficient software functionality caused the project to fail."/>
     <x v="4"/>
-  </r>
-  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="NHS Failure Project"/>
+    <s v="In 2005, the software in the Summary Care Records Demographics Service froze and was shut down because it was incompatible with other versions of the GP systems and prevented doctors from having access to Choose and Book (Cross, 2006: 657). According to IT Health Campaigner Dr Mary Hawking the overall integration of the care records between different systems and organisations was not planned for in the original specifications that were provided to LSPs (2014)."/>
+    <s v="System Functionality, 27"/>
+    <s v="Insufficient software compatibility results in the failure of the original system. As a result, the project failed."/>
     <x v="7"/>
-  </r>
-  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="NHS Failure Project"/>
+    <s v="There were also reliability concerns with individual software packages. CSC’s patient administration system, Millennium, was proving to have a number of functionality problems which caused clinicians to disengage from NPfIT and look elsewhere for clinical solutions."/>
+    <s v="System Functionality, 27"/>
+    <s v="The software is unreliable, leading to analysis of the disease delay. As a result, the project failed."/>
     <x v="17"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="NHS Failure Project"/>
+    <s v="In some cases the IT systems were not capable of producing information used to record the immunisation status, or monitor the immunisation side-effects among children (PAC, 2007). This contributed to delays in providing vaccinations to children; one report claimed that up to 3,000 children were not up-to-date with their vaccinations (Revill, 2006). "/>
+    <s v="System Functionality, 27"/>
+    <s v="The software is unreliable and results in incomplete records. This delays many things. Eventually the project failed."/>
     <x v="17"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="NHS Failure Project"/>
+    <s v="When malfunctions such as this occurred it discouraged other hospitals from implementing the systems. This suggests the lack of a clear strategy in ensuring there was technical infrastructure to support both the systems and organisational requirements for roll out (PAC, 2007)."/>
+    <s v="System Functionality, 28"/>
+    <s v="After the software was released, the user tested the defect and made the project fail."/>
     <x v="4"/>
-  </r>
-  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="NHS Failure Project"/>
+    <s v="In July 2007, Fujitsu, Connecting for Health, and the Department entered negotiations for Fujitsu’s 2004 contract, worth £896 million, to be ‘reset’. Fujitsu was contracted to deliver the Cerner Millennium system across 86 local health Trusts in south and west England."/>
+    <s v="Changes in suppliers, 28"/>
+    <s v="The investment is too large and lasts too long, causing the project to fail."/>
     <x v="1"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="NHS Failure Project"/>
+    <s v="In light of the changes within NPfIT (including the GP System of Choice Programme) since Fujitsu’s 10 year contract had been signed, there were disputes over whether the costings in the original 2004 contract were still sufficient for timely delivery of fully functional care records systems. After ten months, discussions broke down and Fujitsu withdrew from further negotiations. This move effectively breached contractual obligations with Connecting for Health and resulted in Fujitsu’s contract being terminated in 2008 and transferred to CSC."/>
+    <s v="Changes in suppliers, 28"/>
+    <s v="Frequent replacement of suppliers leads to insufficient communication, which leads to project failure."/>
     <x v="6"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="NHS Failure Project"/>
+    <s v="The Report cited a lack of communication to both health professionals and patients around consent arrangements and recommended these arrangements be better communicated (Health Committee, 2007). In 2008, the NHS contacted households about the NHS’ use of patient information via an information campaign consisting of a leaflet drop to cover off the Secondary Uses Service, the Summary Care Record and the Detailed Care Record (NHS, 2014). The leaflet, however, omitted to explain in any detail what their information would be used for and who would receive the data."/>
+    <s v="Privacy Concerns, 28"/>
+    <s v="Lack of information exchange, resulting in developers not knowing the specific content of development, and finally the project failed."/>
     <x v="10"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="NHS Failure Project"/>
+    <s v="Much of the debate over NPfIT could be characterised as a clash between those closest to it, who were committed to defending the programme and pushing through at all costs, and those who objected on practical, technical or professional grounds. The financial crisis of 2007-08 and the ensuing recession caused a step change in the surrounding political environment. “Investment” was no longer a byword for good governance; soon, “waste” and “fiscal responsibility” dominated the national debate. This instigated a new line of attack on NPfIT: scrap a failing programme to save money. It was easier said than done."/>
+    <s v="The End of NPfIT, 30"/>
+    <s v="With the advent of the economic crisis, it was impossible to continue investing in projects, but it could not stop. This also led to the failure of the project."/>
     <x v="18"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="NHS Failure Project"/>
+    <s v="In December 2009, the Secretary of State for Health, Andy Burnham, claimed in debate that the programme was “essential” (House of Commons Debate, 2009-10, 502, col. 21). Alistair Darling said the exact opposite in a television interview a few days later and duly cut the budget from £12.7 billion to £12.1 billion (Computer Weekly, 2009c). The Conservatives and Liberal Democrats went on to denounce the programme during their 2010 election campaigns and made promises to drastically change or scrap it (Barr, 2010; Bruce, 2010)."/>
+    <s v="The End of NPfIT, 30"/>
+    <s v="The over-expenditure of the budget has kept the government unwilling to support the project. Caused the failure of the project."/>
     <x v="1"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="The first point for comment is the actual decision to appoint a Prime Contractor to take over responsibility for the implementation of the SS Initiative. It is an appropriate starting point for a discussion of the events which ultimately led to the failure of the payroll system. Without the decision to change the model of_x000a_delivery there would not have been a Prime Contractor, and no procurement process"/>
+    <s v="Procurement, Section 6.2"/>
+    <s v="Prime contractor changed without changing any of the model/reason for the initial failure."/>
     <x v="11"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="He made no written recommendation, and there is no evidence of any analysis or consideration of the merits of the notion committed to paper. The decision to change models of delivery was made prior to 25 July 2007 when the RFP was sent out. Approval for the substantial change in model was not sought until 16 August 2007. The memorandum seeking approval did not present a case for the change and did not accurately describe CorpTech’s proposal contained in Mr Burns’ 25 July email, which sought offers to take on the Prime Contractor role. It did not seek contributions to a debate whether a Prime Contractor should be appointed."/>
+    <s v="Procurement, Section 6.6"/>
+    <s v="Lack of analysis or consideration of the model and why is failed before assigning another prime contractor."/>
     <x v="11"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="It was not inevitable that the appointment of a Prime Contractor would fail to deliver what CorpTech hoped from it. History has shown that the decision to transfer responsibility for the SS Initiative to a private enterprise contractor was unsuccessful, but there were several reasons for that. Had there been a mature discussion about the proposal, those directing the State’s decisions might have gained a realisation that a Prime Contractor was not a panacea for the ills of the SS Initiative and that the work of the Prime Contractor required oversight. That realisation, acted upon, might have changed the course of events."/>
+    <s v="Procurement, Section 6.7"/>
+    <s v="Failure to foresee transfer or responsibility to a private company will be a project failure"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="The haste with which the appointment was made is as remarkable as the lack of consideration preceding the decision to appoint the Prime Contractor. If one looks over the series of reviews which commenced with the Keliher Report in March 2007, one sees anxiety about the progress and cost of the SS Initiative turning to alarm which then overcame rational decision making. The issue of the RFP before the CEO Governing Board had authorised the appointment of a Prime Contractor is the clearest example. The terms of the RFP itself indicate haste and a disregard for detail. It is extraordinary that such a succinct communication should have been thought a suffiient basis for procuring a multi-million dollar contract. There is no doubt that was Ms Perrott’s and Mr Bradley’s intention. The ITO itself was so condensed in time as to make it all but inevitable that important questions of detail and principle would be overlooked or compromised."/>
+    <s v="Procurement, Section 6.9"/>
+    <s v="Haste in appointing a prime contractor was a lack of consideration"/>
     <x v="13"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="That being plainly said, as it should be, it would be equally naïve not to consider that Mr Bloomfild, and his colleagues at IBM, knew that Mr Burns was behaving extraordinarily for a man charged with the responsibility of investigating a very substantial government IT program and guiding the procurement process for a contractor to take it over. Mr Bloomfild’s emails to his superiors indicate that he understood that a valuable business opportunity was being offered to IBM which it should do its utmost to exploit. He cannot have thought the same favouritism was extended to his competitors.It is likely, as I say, that Mr Burns hoped in some way for a personal benefi from his generosity to IBM. He certainly looked for advancement from the State and used his appointments to obtain it. It may be that, having secured that advantage, he had no further need to ingratiate himself with IBM"/>
+    <s v="Procurement, Section 6.13, 6.14"/>
+    <s v="Management had a relationship with IMB to secure the contract"/>
     <x v="3"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="Mr Burns’ bias should have precluded him from taking any part at all in the procurement processes defied by the RFP and the ITO. Had his role been limited, as it was meant to be, to administrator and facilitator of the evaluation process, his bias may not have had much consequence. As it was, Ms Perrrott’s neglect of her responsibilities and in particular her obligation personally to oversee the evaluation process, and Mr Bradley’s empowerment of Mr Burns, gave him a free hand to inflence the selection of the Prime Contractor. Although Ms Perrott nominally led the process, Mr Burns was its de facto leader. His capacity to inflence events was increased by the haste and unnecessary sense of urgency which overlay the procurement and the blurred lines of responsibility under which Mr Burns was allowed to operate."/>
+    <s v="Procurement, Section 6.16"/>
+    <s v="Manager hoped to benefit from contract"/>
     <x v="13"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="His intervention in the evaluation has been described at length. It was grossly improper. It is disappointing that of all the senior public servants who observed it, only Mr Bond took up the matter with the Executive Director of CorpTech, and extraordinary that Ms Perrott should not investigate it thoroughly. That intervention and the changed scoring flwed the process and tended to distort the result. That failure is the fault of the State and its offiers and is not something for which IBM can be criticised."/>
+    <s v="Procurement, Section 6.17"/>
+    <s v="Improper evaluation lead to picking IBM off false scores"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="The evidence supports the conclusion that IBM’s price should have been the subject of full and careful scrutiny by Ms Perrott and the Cost Evaluation Panel with particular reference to the discrepancy between it and its earlier price, and between it and competitors’ prices. There was no such scrutiny. Ms Orange was unaware of the discrepancy and no one bothered to tell her of it. Ms Perrott, who was aware of it, failed to understand its significance, or disregarded it."/>
+    <s v="Procurement, Section 6.24"/>
+    <s v="Fault ultimately was with the organization for not doing something"/>
     <x v="15"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="Mr Burns’ intervention in the ITO evaluation requires another comment. Improper as it was, it would not have led to IBM becoming the highest ranked bidder had the Evaluation Panel leaders acted in accordance with their own logic. IBM’s proposed use of Workbrain, though offering accelerated roll out and reduced cost, was risky because it was untried. That was the view of the Panel members. Mr Burns urged the rewarding of innovation and his argument was accepted but with the qualifiation that the reference sites had to provide proof that the proposal worked in practice. That proof was not forthcoming. Logically, then, the situation should have reverted to the original. There should have been a third appraisal resulting in the reinstatement of the Accenture bid as the better one because it was less risky. But rationality and sense gave way to haste and muddle, and the State committed itself to an untried solution."/>
+    <s v="Procurement, Section 6.27"/>
+    <s v="lack of knowledge of cost evaluation"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="The system was inadequately scoped and neither party took any effective measures to stabilise it. Both parties ignored all the warning signs of a project in serious distress. Rather than reset the Project or take decisive steps to put it on a stable course, they altered or lowered the thresholds which had been put in place to protect against the very thing which eventuated: a system of  quality which was not ready to Go Live. Doing so meant that the system, when it went live, would not be functional and constituted a clear breach of the most fundamental principles of project Management Factors.  decisions were made, Dr Manfield said, under the intense pressure of the time imperative . I would agree, and add only that the pressure of time was something which the parties had imposed upon themselves, and it was therefore something which it was within the control of the State, in particular, to deal with, including, as I have said, by investigating alternatives to upgrade LATTICE or maintain its support while hard decisions were made about the system then still under construction"/>
+    <s v="Contract and_x000a_Project Management, Section 2.46"/>
+    <s v="Lack of knowledge around ranking or evolution contracts"/>
     <x v="2"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="The Project was, from the outset, one which was conducted in an atmosphere of urgency, and which, in large part, had been of the State’s creation in its failure at some earlier time to commence gathering its business requirements, making any necessary changes to its internal processes and deciding what measures it would take to either upgrade or replace the LATTICE system. When the Project was commenced, the timeframes within which the various stages of it were to be undertaken were hopelessly short, including for scoping. The Project was managed, contrary to the requirements of well-established project Management Factors methodology, by undertaking a number of tasks at the same time (including different forms of testing). There was a lack of rigour in this approach. It meant that the Project was not required to pass various checkpoints before proceeding. Where checkpoints did exist, their purpose was circumvented by changing the criteria required to meet them or by their being ignored altogether."/>
+    <s v="Contract and_x000a_Project Management, Section 2.47"/>
+    <s v="Inadequately scoped and neither party took any effective measures to stabilise it."/>
     <x v="2"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="The scope of the system was inadequately defied. Had the system as originally scoped been delivered, it would have failed entirely to function as any payroll system might reasonably be expected to function. That fact was known to IBM who, through the assumptions it enumerated in SOW 8 and the “issues” it listed in the QHIC Scope Defiition, notifid the State that changes to scope were likely to be required. Some of the State representatives, however, considered that the scope documents were to some extent beside the point because of IBM’s promise to deliver a payroll system that was “stable, supported and supportable”"/>
+    <s v="Contract and_x000a_Project Management, Section 4.74"/>
+    <s v="IBM new the scope would lead to project failure but didn’t intervenew"/>
     <x v="0"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="The submissions on behalf of the State accept that &quot;it would have been safer to insist upon agreement on scope before allowing further development to proceed” and that the State &quot;could have exercised greater authority in this regard.” Despite this, it was submitted that &quot;IBM’s preparedness to proceed would have been a powerful sign to those responsible for the State’s involvement that it was safe to proceed” ."/>
+    <s v="Contract and_x000a_Project Management, Section 4.75"/>
+    <s v="To much stakeholder involment with lack of IBM input"/>
     <x v="3"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="For the State representatives to take such a view was unjustified and grossly negligent. IBM, commercially motivated as it was, had communicated the points beyond which further agreement would be required to be reached (and implying the need to pay more money). These points were not ones which would have resulted in a functional payroll system, and that is a matter which reflects ly on IBM. But it had been sufficiently clear in stating these limitations. The State, however, ignored those statements and proceeded as if, whether it assisted or not, IBM would be both capable of delivering, and would be obliged to deliver, a functional payroll system. Both of those assumptions were wrong. They are based, I think, on a fundamental misconception that, by appointing a prime contractor, the State had no responsibility to ensure the system was designed and built properly."/>
+    <s v="Contract and_x000a_Project Management, Section 4.76"/>
+    <s v="IBM stated and misconceptions of who was responsible for the project"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="The State, however, ignored those statements and proceeded as if, whether it assisted or not, IBM would be both capable of delivering, and would be obliged to deliver, a functional payroll system. Both of those assumptions were wrong. They are based, I think, on a fundamental misconception that, by appointing a prime contractor, the State had no responsibility to ensure the system was designed and built properly."/>
+    <s v="Contract and_x000a_Project Management, Section 4.76"/>
+    <s v="Stakeholder ignored the limitations "/>
     <x v="3"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="The genesis of many of these problems was the rushed scoping exercise. A total of about one month was allowed for this to occur. That, on any view, was too short. Mr Thatcher, Chief Information Officer of Mater Misericordiae Health Services, explained that in a recent successful HR roll out which he oversaw not only did the scoping exercise take three years, it was accompanied by considerable focus and discipline in deciding the &quot;target state” that the organisation wished to achieve . Here, the parties had not only to arrive at a scope, but in the process of doing so had to make hard judgments about what was and was not to be required as part of a system which was to be both interim and have minimal functionality"/>
+    <s v="Contract and_x000a_Project Management, Section 4.77"/>
+    <s v="The parties had not only to arrive at a scope after the initial rushed scope and three years of deveopments."/>
     <x v="20"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="Scope, having had this very unsatisfactory beginning, remained ill-defined, volatile and unclear. Neither party took any effective measures to define and stabilise scope at any time during the Project. IBM seemed content to have defined scope in a way which it must have known could not result in a functional payroll system and to rely, whenever challenged, on the text of the QHIC Scope Definition. Its task was to gather requirements. It did so incompletely, relying on its obligation to do so stopping short of being responsible for eliciting such requirements from its customer. The State, on the other hand, was recalcitrant in adopting a less than diligent approach to ascertaining and communicating its business requirements to IBM. It regarded IBM as responsible for eliciting requirements from it, and considered instead IBM’s obligation to deliver the project to be for a &quot;stable, supported and supportable” system . In short, the State assumed it had contracted for, and would get, a system which paid staff accurately, perhaps with some manual intervention, but, largely, to do so in an automated way. IBM considered its obligation, subject to some matters set out below, to be to deliver the system which would follow (and no matter what it looked like as a result) from a strict application of the QHIC Scope Definition._x000a_"/>
+    <s v="Contract and_x000a_Project Management, Section 4.79"/>
+    <s v="Scope, having had this very unsatisfactory beginning, remained ill-defined, volatile and unclear."/>
     <x v="16"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="Uncertainties as to scope are not uncommon problems in IT contracts. What is uncommon here is that, despite the problem being a known area of risk, the parties, both experienced in supplying and purchasing large IT systems respectively, were content to proceed notwithstanding they both had very different views as to scope. They thus ignored an area of risk which was known to them and one which they ought to have done more to resolve."/>
+    <s v="Contract and_x000a_Project Management, Section 4.80"/>
+    <s v="They thus ignored an area of risk which was known to them and one which they ought to have done more to resolve."/>
     <x v="9"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="The decision to Go Live miscarried. What was regarded as an imminent failure of LATTICE overshadowed any measured and analytical assessment and weighing of the relevant factors. By the time the Project Directorate and the Project Board met to consider whether to Go Live, the members of those bodies had made up their minds that the only option was to proceed."/>
+    <s v="Contract and_x000a_Project Management, Section 6.46"/>
+    <s v="Overshadowed any measured and analytical assessment and weighing of the relevant factors"/>
     <x v="0"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="The decision to Go Live ought not to have been made when it was. Any rational assessment would have deferred the Go Live, with some very determined effort to reset the Project and make some alternative arrangements for the ongoing support of LATTICE if, indeed, more support than Mr Hood’s team was capable of providing was required."/>
+    <s v="Contract and_x000a_Project Management, Section 6.48"/>
+    <s v="The decision to Go Live ought not to have been made when it was"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="It is clear that many of the problems which were experienced after Go Live and which affected pay involved Workbrain. Ms Stewart identified Workbrain’s performance as the most significant system issue post-Go Live . This exhibited itself in slowness of the MVS, difficulties viewing, updating and publishing rosters in the MVS, individual users being unexpectedly locked out of Workbrain, and general slowness across the Workbrain application."/>
+    <s v="Contract and_x000a_Project Management, Section 7.49"/>
+    <s v="Technical issue with there system being to slow"/>
     <x v="12"/>
-  </r>
-  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="Part of the problem was its sheer slowness in processing rosters. Payroll staff, as a result, Ms Jones explained, simply did not have enough time to add all the data in to the roster environment to get the rosters published . The problem may have been caused by a number of users in the same area using the system at the same time, thereby creating too much of a load on the system so that it would lock them out or freeze."/>
+    <s v="Contract and_x000a_Project Management, Section 7.50"/>
+    <s v="Technical issue with there system being to slow"/>
     <x v="4"/>
-  </r>
-  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="Operators had to exit the system and re-enter it . The problem was something with which any system, whether interim and minimal or not, ought to have been capable of dealing. Ms Jones estimated that about 100 payroll staff across the state at any given time were affected by this problem"/>
+    <s v="Contract and_x000a_Project Management, Section 7.50"/>
+    <s v="bugs inside the payroll system"/>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="Mr Kwiatkowski sought also to catalogue what I have described as the business process problems which confronted the system on Go Live . They, as I have said, are accepted by Ms Jones and Ms Stewart to have contributed to the problems which were experienced after Go Live. But it remains that there were problems also with the computer system itself, problems which concerned the way in which it had been designed and/ or built and ones which, business processes aside, caused staff not to be paid or to be paid inaccurately."/>
+    <s v="Contract and_x000a_Project Management, Section 7.59"/>
+    <s v="Problems which concerned the way in which it had been designed and/ or built "/>
     <x v="5"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="The IBM witnesses have, necessarily, incomplete knowledge of exactly what was required to bring the system to a state of reasonable functionality. Ms Stewart, who had responsibility for doing so, said that it took some considerable time to achieve that, and that process to have involved many changes to it and much work. She spoke, for example, of the need to rewrite &quot;code”, that is the programming within the system after IBM had left the Project. She used, to achieve that, staff who had worked for IBM on the Project and who were quite capable of writing good code, code which more efficiently achieved its intended purpose than that which had been written under IBM’s supervision ."/>
+    <s v="Contract and_x000a_Project Management, Section 7.60"/>
+    <s v="The IBM witnesses have, necessarily, incomplete knowledge of exactly what was required to bring the system to a state of reasonable functionality."/>
     <x v="14"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="I find that the system, when it went live, and for some considerable period afterwards, had serious functional deficiencies. Mr Burns and Mr Shah had warned of this as being a real possibility in the Risk Assessment Report. Mr Cowan’s Final UAT Report had identified it as likely and perhaps inevitable. It must have been obvious, by the time the decision was made to Go Live, that the system, given these warnings, and the problems with scope which had never properly been resolved, would experience those kinds of problems. The Final UAT Report had made clear also that there were likely to exist in the system functional deficiencies which UAT had not discovered, having (quite properly) tested only part of the system._x000a_"/>
+    <s v="Contract and_x000a_Project Management, Section 7.67"/>
+    <s v="Problems with scope which had never properly been resolved, would experience those kinds of problem"/>
     <x v="20"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="It could come as no surprise then that the Defect Management Plan, impracticable anyway on its own, was by no means an exhaustive list of the problems which the system possessed when it went live._x000a_The findings I have made are supported by the problems which I have summarised which were experienced on and after Go Live, the work which was required to correct those problems (which both IBM and CorpTech undertook) and the admissions made by IBM in the course of the settlement negotiations with the State with which I deal in the following section of this Report._x000a_"/>
+    <s v="Contract and_x000a_Project Management, Section 7.68, 7.69"/>
+    <s v="Defect Management Plan, impracticable anyway on its own, was by no means an exhaustive list of the problems"/>
     <x v="8"/>
-  </r>
-  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="The decision to settle was taken without any proper analysis or examination of the factors identified in the submissions to the CBRC as risks, the avoidance of which motivated the settlement. In particular, advice, repeated several times, that an opinion be obtained about the value of the State’s rights against IBM was never acted on, and the State released those rights without ever having obtained an assessment of their value. They were potentially worth tens of millions of dollars."/>
+    <s v="Settlement, Section 7.6"/>
+    <s v="The decision to settle was taken without any proper analysis or examination of the factors"/>
     <x v="0"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="The settlement was driven by assumptions that without IBM’s presence there was a substantial risk that the payroll system would fail utterly and that if the State insisted upon its contractual right to terminate, IBM would disregard its disengagement obligations and refuse to assist with the remediation and/or improvement of the system. The first assumption was wrong as inquiries of Ms Stewart and her team would have shown. The second assumption (which became irrelevant if the first assumption was invalid) was never tested and appears on its face unlikely."/>
+    <s v="Settlement, Section 7.7"/>
+    <s v="The settlement was driven by assumptions that without IBM’s presence there was a substantial risk that the payroll system would fail utterly"/>
     <x v="3"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="The State’s response to the delivery of a malfunctioning payroll system was timid. Its attempts to recover any recompense for the delivery of a malfunctioning payroll system were ineffectual. The information and advice available at the time were enough to indicate that the settlement should not have been agreed. The responsibility rests principally upon Mr Grierson who at the meeting of 16 August 2010 chose the option that gave the State the least chance of obtaining satisfaction from IBM and gave IBM the best chance of securing a release from liability. That bad decision was compounded by Mr Grierson’s capitulation in the negotiations on 19 August 2010._x000a_"/>
+    <s v="Settlement, Section 7.8"/>
+    <s v="No recovery of the failing project and just moved on to lawsuit."/>
     <x v="3"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="I have identified two principal causes of the inadequacies which led to the increase in contract price, the serious shortcomings in contract and project Management Factors, and in the State’s decision to settle with IBM. Those causes were: unwarranted urgency and a lack of diligence on the part of State officials. That lack of diligence manifested itself in the  decisions which those officials made in scoping the Interim Solution; in their governance of the Project; and in failing to hold IBM to account to deliver a functional payroll system."/>
+    <s v="Recommendations, Section 2.3"/>
+    <s v="inadequacies which led to the increase in contract price, the serious shortcomings in contract"/>
     <x v="13"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="Variations to the contract continued up until the system went live. They number in the order of 220. Some were proposed by IBM, some by the State. It is not always of significance which party initiated each change. In some cases, Changes were the culmination of negotiation or discussion, such as Change 184 which the parties had agreed well before that variation had been initiated, in a formal sense, by the State."/>
+    <s v="Contract and_x000a_Project Management, Section 2.31,"/>
+    <s v="Variations to the contract continued up until the system went live. They number in the order of 220. Some were proposed by IBM"/>
     <x v="11"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="_x000a_The detail of all the Changes could not be pursued in evidence, and nor would it have been productive to do so. In each case, the parties willingly agreed them. The relevance of them to the Terms of Reference is the effect they had on price, on the time it took for the system to be completed and delivered, and what they reveal about the adequacy of the scoping of the system and whether the system was likely to function as a payroll system ought when it went live."/>
+    <s v="Contract and_x000a_Project Management, Section 2.34"/>
+    <s v="In each case, the parties willingly agreed them. "/>
     <x v="13"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="Had the parties simply adhered to the controls which they had in place at the commencement of the Project, the system would never have progressed to the point at which serious compromises had to be made to Go Live. The system had reached that stage only because of conscious decisions made by the parties to &quot;lower the bar” as"/>
+    <s v="Contract and_x000a_Project Management, Section 2.35,"/>
+    <s v="Had the parties simply adhered to the controls"/>
     <x v="16"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="Dr Manfield said39 by changing the criteria by which it would be permitted to proceed to the next stage and by decisions to downgrade the Severity of defects which had been identified. Being aware of the major functional issues, and having removed them as a basis for preventing the system progressing towards Go Live, the parties prepared a &quot;Solution and Defect Management Plan” (Defect Management Plan). This plan proposed to deal with such defects as were then known by, among other mechanisms, what was known as a &quot;workaround”, namely a manual intervention, or by simply deferring the fixing of the problem until after Go Live. This was folly, but it was made worse by the fact that, on no view could the parties have thought that all the major functional defects had been identified. Mr Cowan had made absolutely clear that it was likely that further major defects existed, which it was not the role or function of the type of testing he was conducting to discover ."/>
+    <s v="Contract and_x000a_Project Management, Section 2.36"/>
+    <s v="Mr Cowan had made absolutely clear that it was likely that further major defects existed, which it was not the role or function of the type of testing he was conducting to discover ."/>
     <x v="4"/>
-  </r>
-  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="It was always inevitable, therefore, that without the Project being reset, these decisions would lead to a system which was seriously functionally deficient. Despite that, no real practical alternative was put in place. Although CorpTech had, very sensibly, resourced itself to maintain LATTICE, that option was either considered not feasible or was not sufficiently investigated. There appears to have been inadequate consideration given to the option of upgrading the LATTICE system or coming to some arrangement with its vendor (Talent2) to maintain support until some other alternative could be found."/>
+    <s v="Contract and_x000a_Project Management, Section 7.8"/>
+    <s v="On failed [project lead onto it failing again without changing requirements."/>
     <x v="20"/>
-  </r>
-  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="I found Ms Stewart’s evidence about the problems which were experienced in the system and its related processes to be more informative and reliable than that of Ms Jones. Ms Stewart’s knowledge of the relevant events was more balanced and she was able better to recall (and explain) the technical and other difficulties which were experienced in the period after Go Live. She had the advantage also of having had a close involvement with the system for a longer period post-Go Live than Ms Jones, and in particular by seeing and being involved in how the deficiencies with it and related processes were resolved. Ms Stewart had helped to prepare the three post-Go Live updates of 19 March (Updates 1 and 2) and 9 April 2010 (Update 3)  and knew which issues persisted beyond the first three pay runs . This gave her an insight into the nature of the problems, their seriousness and the work which was required to correct them which Ms Jones did not have. This makes her in my view a far superior witness to Ms Jones, and a witness whose evidence is supported by that of Mr Michael Walsh, Executive Program Director, Payroll Stabilisation Project, and by Mr Cowan."/>
+    <s v="Contract and_x000a_Project Management, Section 7.9"/>
+    <s v="Ms Stewart’s evidence about the problems"/>
     <x v="13"/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="She described the Workbrain latency and performance issues as &quot;delays within the screen” and gave as an example that when a user was in a screen and they hit a particular button or tried to do something, there was a delay before they could see that take effect . Entering data took longer to process than had been projected by IBM testing due to heavier than anticipated processing loads each day and inaccurate testing scenarios . This had a flow-on effect of delaying the overnight interim pay run process so that it would still be running in the morning . That in turn had an impact, as I have said, on the performance of SAP. The Workbrain crash (Ms Stewart could not recall why it did so ), created problems for longer than that short period. Ms Stewart said that as a consequence of the crash, &quot;transactions that were being processed but had not been committed at the time may have been lost ... Workbrain could not diagnose whether or not data had in fact been lost"/>
+    <s v="Contract and_x000a_Project Management, Section 7.20"/>
+    <s v="A flow-on effect of delaying the overnight interim pay run process so that it would still be running in the morning . That in turn had an impact, as I have said, on the performance of SAP"/>
     <x v="17"/>
-  </r>
-  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Queensland Health Payroll System"/>
+    <s v="It took time for the problems with the system to manifest themselves. As I have explained, retrospectiveprocessing did not commence until the second pay run. It may have been that staff took a pay or two to realise that their pay was inaccurate, or they were patient about pay irregularities, being aware that the system was new, no doubt thinking that whatever the problems with pay were that they would be corrected in due course. Whatever the reasons, I accept Ms Stewart’s evidence, because she was in the position to know, &quot;there was a large number of issues that were surfacing that were not visible at the time of go live” , and that &quot;it was probably other issues surfacing on top of the defect Management Factors plan that started to complicate the situation” . There is no doubt on the evidence that the Defect Management Plan could never have been a complete record of the defects which existed at Go Live . Mr Cowan had warned it to be likely that defects additional to those he had identified during UAT existed, given that this was not the function or purpose of UAT"/>
+    <s v="Contract and_x000a_Project Management, Section 7.29"/>
+    <s v="It took time for the problems with the system to manifest themselves. As I have explained, retrospectiveprocessing did not commence until the second pay run."/>
     <x v="4"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="148">
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
     <x v="2"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7B597A4-1531-45AD-B8DF-14DAD51F1480}" name="数据透视表1" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="111">
-        <item m="1" x="44"/>
-        <item m="1" x="56"/>
-        <item m="1" x="109"/>
-        <item m="1" x="105"/>
-        <item m="1" x="64"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F241F6C-0182-48F8-9111-28116725EE87}" name="PivotTable2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="22">
         <item x="13"/>
-        <item m="1" x="78"/>
         <item x="8"/>
         <item x="18"/>
-        <item m="1" x="65"/>
-        <item m="1" x="88"/>
-        <item m="1" x="22"/>
-        <item m="1" x="82"/>
-        <item m="1" x="23"/>
-        <item m="1" x="60"/>
-        <item m="1" x="51"/>
-        <item m="1" x="63"/>
-        <item m="1" x="101"/>
-        <item m="1" x="33"/>
-        <item m="1" x="83"/>
-        <item m="1" x="89"/>
-        <item m="1" x="99"/>
-        <item m="1" x="108"/>
-        <item m="1" x="96"/>
-        <item m="1" x="30"/>
-        <item m="1" x="66"/>
-        <item m="1" x="91"/>
-        <item m="1" x="27"/>
-        <item m="1" x="85"/>
-        <item m="1" x="42"/>
-        <item m="1" x="35"/>
-        <item m="1" x="52"/>
-        <item m="1" x="67"/>
-        <item m="1" x="92"/>
-        <item m="1" x="40"/>
-        <item m="1" x="107"/>
-        <item m="1" x="62"/>
         <item x="7"/>
-        <item m="1" x="57"/>
-        <item m="1" x="31"/>
-        <item m="1" x="69"/>
-        <item m="1" x="39"/>
-        <item m="1" x="26"/>
-        <item m="1" x="34"/>
-        <item m="1" x="74"/>
-        <item m="1" x="41"/>
-        <item m="1" x="55"/>
-        <item m="1" x="32"/>
-        <item m="1" x="58"/>
-        <item m="1" x="98"/>
-        <item m="1" x="94"/>
-        <item m="1" x="28"/>
-        <item m="1" x="47"/>
-        <item m="1" x="48"/>
-        <item m="1" x="90"/>
         <item x="0"/>
-        <item m="1" x="24"/>
-        <item m="1" x="59"/>
         <item x="15"/>
-        <item m="1" x="70"/>
-        <item m="1" x="97"/>
-        <item m="1" x="53"/>
-        <item m="1" x="79"/>
-        <item m="1" x="80"/>
-        <item m="1" x="103"/>
-        <item m="1" x="102"/>
-        <item m="1" x="43"/>
-        <item m="1" x="50"/>
-        <item m="1" x="38"/>
-        <item m="1" x="77"/>
-        <item m="1" x="25"/>
         <item x="5"/>
+        <item x="14"/>
+        <item x="19"/>
+        <item x="11"/>
         <item x="12"/>
         <item x="16"/>
-        <item m="1" x="104"/>
         <item x="9"/>
-        <item m="1" x="87"/>
+        <item x="20"/>
         <item x="1"/>
         <item x="2"/>
-        <item m="1" x="86"/>
         <item x="3"/>
         <item x="6"/>
-        <item m="1" x="68"/>
-        <item m="1" x="72"/>
-        <item m="1" x="81"/>
-        <item m="1" x="54"/>
-        <item m="1" x="36"/>
-        <item m="1" x="106"/>
-        <item m="1" x="37"/>
-        <item m="1" x="73"/>
-        <item m="1" x="76"/>
-        <item m="1" x="84"/>
-        <item m="1" x="46"/>
+        <item x="17"/>
+        <item x="4"/>
         <item x="10"/>
-        <item x="19"/>
-        <item x="14"/>
-        <item x="4"/>
-        <item x="17"/>
-        <item m="1" x="93"/>
-        <item m="1" x="45"/>
-        <item m="1" x="75"/>
-        <item m="1" x="95"/>
-        <item m="1" x="49"/>
-        <item m="1" x="61"/>
-        <item m="1" x="29"/>
-        <item m="1" x="100"/>
-        <item m="1" x="21"/>
-        <item m="1" x="71"/>
-        <item x="11"/>
-        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
+  <rowFields count="2">
+    <field x="5"/>
+    <field x="4"/>
   </rowFields>
-  <rowItems count="22">
+  <rowItems count="27">
     <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
       <x v="5"/>
     </i>
-    <i>
+    <i r="1">
       <x v="7"/>
     </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
     <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
       <x v="8"/>
     </i>
-    <i>
-      <x v="37"/>
+    <i r="1">
+      <x v="11"/>
     </i>
-    <i>
-      <x v="55"/>
+    <i r="1">
+      <x v="12"/>
     </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="77"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="93"/>
-    </i>
-    <i>
-      <x v="94"/>
-    </i>
-    <i>
-      <x v="95"/>
-    </i>
-    <i>
-      <x v="96"/>
-    </i>
-    <i>
-      <x v="97"/>
-    </i>
-    <i>
-      <x v="108"/>
-    </i>
-    <i>
-      <x v="109"/>
+    <i r="1">
+      <x v="13"/>
     </i>
     <i t="grand">
       <x/>
@@ -3024,65 +2988,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of Code" fld="0" subtotal="count" baseField="0" baseItem="13"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81DBBA73-B981-46A1-A836-E2F01454E305}" name="数据透视表4" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="11">
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="计数项:SuperGroup" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of SuperGroup" fld="5" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -3361,8 +3267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135:B136"/>
+    <sheetView topLeftCell="C98" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3387,10 +3293,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>3</v>
@@ -3401,2897 +3307,2897 @@
     </row>
     <row r="2" spans="1:6" ht="64.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>417</v>
+        <v>360</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="84.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
       <c r="A7" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="1" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="E9" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="1" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="60">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="1" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="60">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="1" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60">
       <c r="A13" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="1" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="75">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="1" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45">
       <c r="A15" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="1" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="1" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="45">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="1" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="60">
       <c r="A18" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="1" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C19" s="8"/>
       <c r="E19" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="60">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="1" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="45">
       <c r="A21" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="1" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30">
       <c r="A22" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="1" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45">
       <c r="A23" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="1" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="45">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="1" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="C25" s="8"/>
       <c r="E25" s="8" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30">
       <c r="A26" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="C26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="60">
       <c r="A27" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>422</v>
+        <v>365</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="1" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="C28" s="8"/>
       <c r="E28" s="8" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30">
       <c r="A29" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="C29" s="8"/>
       <c r="E29" s="8" t="s">
-        <v>417</v>
+        <v>360</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30">
       <c r="A30" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="C30" s="8"/>
       <c r="E30" s="8" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="45">
       <c r="A31" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="1" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45">
       <c r="A32" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="1" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30">
       <c r="A33" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="C33" s="8"/>
       <c r="E33" s="8" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="C34" s="8"/>
       <c r="E34" s="8" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="45">
       <c r="A35" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="1" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="30">
       <c r="A36" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="1" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30">
       <c r="A37" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="C37" s="8"/>
       <c r="E37" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30">
       <c r="A38" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="C38" s="8"/>
       <c r="E38" s="17" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30">
       <c r="A39" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="C39" s="8"/>
       <c r="E39" s="8" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="45">
       <c r="A40" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="C40" s="8"/>
       <c r="E40" s="8" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30">
       <c r="A41" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="C41" s="8"/>
       <c r="E41" s="8" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="28.9" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>424</v>
+        <v>367</v>
       </c>
       <c r="C42" s="8"/>
       <c r="E42" s="8" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="60">
       <c r="A43" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="1" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="45">
       <c r="A44" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="1" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="30">
       <c r="A45" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C45" s="8"/>
       <c r="E45" s="8" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30">
       <c r="A46" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="C46" s="8"/>
       <c r="E46" s="8" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30">
       <c r="A47" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="C47" s="8"/>
       <c r="E47" s="8" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="60">
       <c r="A48" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>425</v>
+        <v>368</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="1" t="s">
-        <v>426</v>
+        <v>382</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="45">
       <c r="A49" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="1" t="s">
-        <v>427</v>
+        <v>369</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="75">
       <c r="A50" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="1" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="33" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="C51" s="8"/>
       <c r="E51" s="17" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="45">
       <c r="A52" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="1" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="45">
       <c r="A53" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="1" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="45">
       <c r="A54" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="1" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="30">
       <c r="A55" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="60">
       <c r="A56" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="45">
       <c r="A57" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="45">
       <c r="A58" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="30">
       <c r="A59" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="30">
       <c r="A60" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="C60" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>412</v>
+        <v>355</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" ht="45">
       <c r="A61" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="C61" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" ht="30">
       <c r="A62" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>413</v>
+        <v>356</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" ht="30">
       <c r="A63" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="C63" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>414</v>
+        <v>357</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" ht="75">
       <c r="A64" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="C64" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>415</v>
+        <v>358</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" ht="60">
       <c r="A65" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="C65" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>416</v>
+        <v>359</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" ht="75">
       <c r="A66" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" ht="45">
       <c r="A67" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="C67" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" ht="30">
       <c r="A68" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="C68" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="C69" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="E69" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" ht="30">
       <c r="A70" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="C70" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" ht="60">
       <c r="A71" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="C71" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>381</v>
+        <v>282</v>
       </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" ht="45">
       <c r="A72" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="C72" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" ht="60">
       <c r="A73" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="C73" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" ht="60">
       <c r="A74" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="C74" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" ht="60">
       <c r="A75" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="C75" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" ht="75">
       <c r="A76" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" ht="90">
       <c r="A77" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" ht="120">
       <c r="A78" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" ht="75">
       <c r="A79" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" ht="75">
       <c r="A80" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>417</v>
+        <v>360</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="G80" s="9"/>
     </row>
     <row r="81" spans="1:7" ht="75">
       <c r="A81" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G81" s="9"/>
     </row>
     <row r="82" spans="1:7" ht="75">
       <c r="A82" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G82" s="9"/>
     </row>
     <row r="83" spans="1:7" ht="90">
       <c r="A83" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G83" s="9"/>
     </row>
     <row r="84" spans="1:7" ht="135">
       <c r="A84" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G84" s="9"/>
     </row>
     <row r="85" spans="1:7" ht="90">
       <c r="A85" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="G85" s="9"/>
     </row>
     <row r="86" spans="1:7" ht="90">
       <c r="A86" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G86" s="9"/>
     </row>
     <row r="87" spans="1:7" ht="120">
       <c r="A87" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G87" s="9"/>
     </row>
     <row r="88" spans="1:7" ht="75">
       <c r="A88" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G88" s="9"/>
     </row>
     <row r="89" spans="1:7" ht="45">
       <c r="A89" s="1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>381</v>
+        <v>282</v>
       </c>
       <c r="G89" s="9"/>
     </row>
     <row r="90" spans="1:7" ht="45">
       <c r="A90" s="1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="G90" s="10"/>
     </row>
     <row r="91" spans="1:7" ht="75">
       <c r="A91" s="1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G91" s="10"/>
     </row>
     <row r="92" spans="1:7" ht="45">
       <c r="A92" s="1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="G92" s="10"/>
     </row>
     <row r="93" spans="1:7" ht="90">
       <c r="A93" s="1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="G93" s="10"/>
     </row>
     <row r="94" spans="1:7" ht="105">
       <c r="A94" s="1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G94" s="10"/>
     </row>
     <row r="95" spans="1:7" ht="90">
       <c r="A95" s="1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="G95" s="10"/>
     </row>
     <row r="96" spans="1:7" ht="45">
       <c r="A96" s="1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="G96" s="10"/>
     </row>
     <row r="97" spans="1:7" ht="60">
       <c r="A97" s="1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>417</v>
+        <v>360</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="G97" s="10"/>
     </row>
     <row r="98" spans="1:7" ht="75">
       <c r="A98" s="1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="G98" s="10"/>
     </row>
     <row r="99" spans="1:7" ht="75">
       <c r="A99" s="1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="G99" s="10"/>
     </row>
     <row r="100" spans="1:7" ht="90">
       <c r="A100" s="1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="D100" s="1" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="G100" s="10"/>
     </row>
     <row r="101" spans="1:7" ht="45">
       <c r="A101" s="1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="G101" s="10"/>
     </row>
     <row r="102" spans="1:7" ht="120">
       <c r="A102" s="1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>381</v>
+        <v>282</v>
       </c>
       <c r="G102" s="10"/>
     </row>
     <row r="103" spans="1:7" ht="45">
       <c r="A103" s="1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="75">
       <c r="A104" s="1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="G104" s="10"/>
     </row>
     <row r="105" spans="1:7" ht="60">
       <c r="A105" s="1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="G105" s="10"/>
     </row>
     <row r="106" spans="1:7" ht="75">
       <c r="A106" s="1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="G106" s="10"/>
     </row>
     <row r="107" spans="1:7" ht="60">
       <c r="A107" s="1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="G107" s="10"/>
     </row>
     <row r="108" spans="1:7" ht="45">
       <c r="A108" s="1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>417</v>
+        <v>360</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="G108" s="10"/>
     </row>
     <row r="109" spans="1:7" ht="90">
       <c r="A109" s="1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="G109" s="10"/>
     </row>
     <row r="110" spans="1:7" ht="105">
       <c r="A110" s="1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="G110" s="10"/>
     </row>
     <row r="111" spans="1:7" ht="105">
       <c r="A111" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="E111" s="8" t="s">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G111" s="10"/>
     </row>
     <row r="112" spans="1:7" ht="90">
       <c r="A112" s="1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>417</v>
+        <v>360</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="G112" s="11"/>
     </row>
     <row r="113" spans="1:7" ht="75">
       <c r="A113" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="G113" s="11"/>
     </row>
     <row r="114" spans="1:7" ht="105">
       <c r="A114" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="105">
       <c r="A115" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>431</v>
+        <v>373</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="150">
       <c r="A116" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="150">
       <c r="A117" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="150">
       <c r="A118" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="90">
       <c r="A119" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="75">
       <c r="A120" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="150">
       <c r="A121" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="180">
       <c r="A122" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>428</v>
+        <v>370</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="165">
       <c r="A123" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="105">
       <c r="A124" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>418</v>
+        <v>361</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="75">
       <c r="A125" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="150">
       <c r="A126" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>434</v>
+        <v>376</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="75">
       <c r="A127" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>432</v>
+        <v>374</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>433</v>
+        <v>375</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="120">
       <c r="A128" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="225">
       <c r="A129" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>314</v>
+        <v>265</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="75">
       <c r="A130" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="60">
       <c r="A131" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="60">
       <c r="A132" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="75">
       <c r="A133" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>438</v>
+        <v>380</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="75">
       <c r="A134" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>436</v>
+        <v>378</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="60">
       <c r="A135" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>435</v>
+        <v>377</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>437</v>
+        <v>379</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="90">
       <c r="A136" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="120">
       <c r="A137" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>323</v>
+        <v>274</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="135">
       <c r="A138" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="120">
       <c r="A139" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="90">
       <c r="A140" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="90">
       <c r="A141" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="120">
       <c r="A142" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="90">
       <c r="A143" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>430</v>
+        <v>372</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="90">
       <c r="A144" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="90">
       <c r="A145" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="60">
       <c r="A146" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="165">
       <c r="A147" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>382</v>
+        <v>281</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="105">
       <c r="A148" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="195">
       <c r="A149" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>381</v>
+        <v>282</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="165">
       <c r="A150" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="180">
       <c r="A151" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -6308,13 +6214,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>Sheet2!$B$1:$B$4</xm:f>
+            <xm:f>'List of Tags'!$B$1:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E780DF94-0951-416B-849F-BE9D622B22EE}">
           <x14:formula1>
-            <xm:f>Sheet2!$A$1:$A$21</xm:f>
+            <xm:f>'List of Tags'!$A$1:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>E64 E102:E115 E93 E20:E34 E1:E6 E39:E43 E81:E84 E89:E90 E36 E96:E97 E58:E60 E72:E73 E62 E8 E54:E56 E10:E18 E45:E50 E52 E99:E100 E117:E1048576</xm:sqref>
         </x14:dataValidation>
@@ -6326,10 +6232,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6344,400 +6250,205 @@
     <col min="8" max="8" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75">
       <c r="A1" s="17" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75">
+      <c r="A2" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75">
+      <c r="A3" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75">
+      <c r="A4" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" s="17"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" s="17"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B7" s="17"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="B9" s="17"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="B10" s="17"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="B11" s="17"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="B12" s="17"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="B13" s="17"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="B14" s="17"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75">
-      <c r="A3" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="G3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.75">
-      <c r="A4" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="G6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="G9" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="B15" s="17"/>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="17" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="B16" s="17"/>
-      <c r="G16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="17" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="B17" s="17"/>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="17" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="B18" s="17"/>
-      <c r="G18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="17" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="B19" s="17"/>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="17" t="s">
-        <v>417</v>
+        <v>360</v>
       </c>
       <c r="B20" s="17"/>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="17" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="B21" s="17"/>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+    </row>
+    <row r="22" spans="1:2">
       <c r="B22" s="17"/>
-      <c r="G22" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:2">
       <c r="B23" s="17"/>
-      <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+    </row>
+    <row r="24" spans="1:2">
       <c r="B24" s="17"/>
-      <c r="G24" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+    </row>
+    <row r="25" spans="1:2">
       <c r="B25" s="17"/>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+    </row>
+    <row r="26" spans="1:2">
       <c r="B26" s="17"/>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+    </row>
+    <row r="27" spans="1:2">
       <c r="B27" s="17"/>
-      <c r="G27" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+    </row>
+    <row r="28" spans="1:2">
       <c r="B28" s="17"/>
-      <c r="F28" t="s">
-        <v>376</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+    </row>
+    <row r="29" spans="1:2">
       <c r="B29" s="17"/>
-      <c r="G29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+    </row>
+    <row r="30" spans="1:2">
       <c r="B30" s="17"/>
-      <c r="G30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+    </row>
+    <row r="31" spans="1:2">
       <c r="B31" s="17"/>
-      <c r="G31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+    </row>
+    <row r="32" spans="1:2">
       <c r="B32" s="17"/>
-      <c r="G32" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
+    </row>
+    <row r="33" spans="2:2">
       <c r="B33" s="17"/>
-      <c r="G33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="17"/>
-      <c r="G34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="17"/>
-      <c r="F35" t="s">
-        <v>331</v>
-      </c>
-      <c r="G35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
+    </row>
+    <row r="36" spans="2:2">
       <c r="B36" s="17"/>
-      <c r="G36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
+    </row>
+    <row r="37" spans="2:2">
       <c r="B37" s="17"/>
-      <c r="G37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
+    </row>
+    <row r="38" spans="2:2">
       <c r="B38" s="17"/>
-      <c r="G38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
+    </row>
+    <row r="39" spans="2:2">
       <c r="B39" s="17"/>
-      <c r="G39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
+    </row>
+    <row r="40" spans="2:2">
       <c r="B40" s="17"/>
-      <c r="G40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
+    </row>
+    <row r="41" spans="2:2">
       <c r="B41" s="17"/>
-      <c r="G41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
+    </row>
+    <row r="42" spans="2:2">
       <c r="B42" s="17"/>
-      <c r="G42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7">
+    </row>
+    <row r="43" spans="2:2">
       <c r="B43" s="17"/>
-      <c r="G43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="G44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="G45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="G46" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="F47" t="s">
-        <v>44</v>
-      </c>
-      <c r="G47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="G48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="7:7">
-      <c r="G49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="7:7">
-      <c r="G50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="7:7">
-      <c r="G51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="7:7">
-      <c r="G52" t="s">
-        <v>50</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6752,141 +6463,359 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD7FB7F-10D9-4208-A900-CA223695BC5E}">
-  <dimension ref="A1:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AC44D2-93FF-4521-801C-E62ACB4F7C06}">
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="55" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="33" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="59" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="34" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="26" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="23" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="12" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="60" bestFit="1" customWidth="1"/>
+    <col min="61" max="63" width="22" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="29" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="131.42578125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="128.85546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="65" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="110.85546875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="70.5703125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="105" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="156.85546875" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="105.42578125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="74.7109375" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="79.5703125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="193" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="174.85546875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="132.42578125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="8" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="9" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="122.7109375" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="82.85546875" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="61.5703125" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="34" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="97.5703125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="85.28515625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="100.42578125" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="65" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="66.7109375" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="65" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="82.5703125" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="27" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="128.85546875" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="27" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="27" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="149.85546875" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="99.42578125" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="125.28515625" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="105.5703125" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="89.140625" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="117.7109375" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="140.140625" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="100.28515625" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="66.7109375" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="38" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="68" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="48" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="65" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="63.85546875" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="84.7109375" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="88" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="39" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="99.42578125" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="102.5703125" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="83" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="86.140625" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="87.140625" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="90.28515625" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="102.28515625" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="105.42578125" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="65" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="68.5703125" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="71.85546875" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="65" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="84.42578125" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="87.7109375" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="27" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="130.7109375" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="134" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="27" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="60" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="27" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="151.7109375" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="154.85546875" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="101.28515625" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="104.5703125" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="127.140625" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="130.28515625" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="107.42578125" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="91" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="94.140625" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="83.85546875" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="119.5703125" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="122.7109375" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="142" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="145.140625" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="102.140625" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="105.28515625" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="68.5703125" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="71.85546875" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="42" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="295" max="295" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="296" max="296" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="297" max="297" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="302" max="302" width="43" bestFit="1" customWidth="1"/>
+    <col min="303" max="303" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="304" max="304" width="66.7109375" bestFit="1" customWidth="1"/>
+    <col min="305" max="305" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="306" max="306" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="308" max="308" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="309" max="309" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="310" max="310" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="311" max="311" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="312" max="312" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="313" max="313" width="32" bestFit="1" customWidth="1"/>
+    <col min="314" max="314" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="315" max="315" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="316" max="316" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="317" max="317" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="318" max="318" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="319" max="319" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="320" max="320" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="321" max="321" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="322" max="322" width="73" bestFit="1" customWidth="1"/>
+    <col min="323" max="323" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="324" max="324" width="74.85546875" bestFit="1" customWidth="1"/>
+    <col min="325" max="325" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="326" max="326" width="53" bestFit="1" customWidth="1"/>
+    <col min="327" max="327" width="66.85546875" bestFit="1" customWidth="1"/>
+    <col min="328" max="328" width="70" bestFit="1" customWidth="1"/>
+    <col min="329" max="329" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="330" max="330" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="331" max="331" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="332" max="333" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="334" max="334" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="13" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="B1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
-        <v>403</v>
+        <v>281</v>
       </c>
       <c r="B2" s="15">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="14" t="s">
-        <v>394</v>
+      <c r="A3" s="19" t="s">
+        <v>337</v>
       </c>
       <c r="B3" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="14" t="s">
-        <v>392</v>
+      <c r="A4" s="19" t="s">
+        <v>341</v>
       </c>
       <c r="B4" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="B5" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="B5" s="15">
-        <v>7</v>
-      </c>
-    </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="14" t="s">
-        <v>402</v>
+      <c r="A6" s="19" t="s">
+        <v>362</v>
       </c>
       <c r="B6" s="15">
         <v>10</v>
@@ -6894,212 +6823,334 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="14" t="s">
-        <v>393</v>
+        <v>326</v>
       </c>
       <c r="B7" s="15">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="14" t="s">
-        <v>286</v>
+      <c r="A8" s="19" t="s">
+        <v>350</v>
       </c>
       <c r="B8" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="14" t="s">
-        <v>407</v>
+      <c r="A9" s="19" t="s">
+        <v>360</v>
       </c>
       <c r="B9" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="14" t="s">
-        <v>397</v>
+      <c r="A10" s="19" t="s">
+        <v>7</v>
       </c>
       <c r="B10" s="15">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="14" t="s">
-        <v>406</v>
+      <c r="A11" s="19" t="s">
+        <v>338</v>
       </c>
       <c r="B11" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12" s="15">
         <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="B12" s="15">
-        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="14" t="s">
-        <v>52</v>
+        <v>282</v>
       </c>
       <c r="B13" s="15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="B14" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="B15" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B16" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="B17" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B14" s="15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="B15" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="B16" s="15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="B17" s="15">
-        <v>2</v>
-      </c>
-    </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="14" t="s">
-        <v>421</v>
+      <c r="A18" s="19" t="s">
+        <v>347</v>
       </c>
       <c r="B18" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="14" t="s">
-        <v>419</v>
+      <c r="A19" s="19" t="s">
+        <v>231</v>
       </c>
       <c r="B19" s="15">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="14" t="s">
-        <v>395</v>
+      <c r="A20" s="19" t="s">
+        <v>343</v>
       </c>
       <c r="B20" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="14" t="s">
-        <v>404</v>
+        <v>327</v>
       </c>
       <c r="B21" s="15">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="14" t="s">
-        <v>401</v>
+      <c r="A22" s="19" t="s">
+        <v>335</v>
       </c>
       <c r="B22" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="14" t="s">
-        <v>390</v>
+      <c r="A23" s="19" t="s">
+        <v>237</v>
       </c>
       <c r="B23" s="15">
-        <v>148</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="B24" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="B25" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="B26" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="B27" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="B28" s="15">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA6260C-0DB3-4D2D-B332-C8A9D1AE679F}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8C1DDD-1A8F-41DD-A129-765EA9EC571D}">
+  <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="B1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="B2" s="15">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="B3" s="15">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="B4" s="15">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="B5" s="15">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="B6" s="15">
-        <v>148</v>
-      </c>
+    <row r="1" spans="1:30">
+      <c r="A1" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="E3" s="21"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Thematic-Coding.xlsx
+++ b/Thematic-Coding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidde\Dropbox\Kieran Third year\BCIS301 _ AMIC700\Assignment 1\BCIS301---AMIC700---Thematic-Coding-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA18818C-C5CA-43BF-A8FE-4BBB9657A529}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA06821-E02A-4ACB-BC6F-DB138634DAB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quantitative" sheetId="3" r:id="rId1"/>
@@ -32,9 +32,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="24" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="388">
   <si>
     <t>CaseStudy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1402,13 +1401,28 @@
   </si>
   <si>
     <t>Requirements definition, testing wasted</t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>Mitigation</t>
+  </si>
+  <si>
+    <t>Contingency</t>
+  </si>
+  <si>
+    <t>Testing Plan</t>
+  </si>
+  <si>
+    <t>Factor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1488,6 +1502,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1497,7 +1516,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1514,11 +1533,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1571,6 +1681,32 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1586,6 +1722,4697 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A8E2F7-67EA-453C-A689-3301FE11A7E1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D885D164-670C-475D-ADC5-1BCFA666E60F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41D70AE-E908-439F-AC31-3A5DF4EAD4B0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97A0125-9C5F-4349-A213-ECCD1358AE85}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{690E54F2-A373-49A9-8162-67C00B336786}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Check Box 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F69659-0F50-482D-871E-F53EBAAD33DB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE525CC-E1CB-4A70-A6C1-C15614A7C36E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="Check Box 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6B096CC-5E1C-41BE-9187-D6F5B7E3A420}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C85F4E6F-4684-432F-AC2A-3ABE42DA6A51}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F908D1BC-05D4-456E-926B-740D5821A631}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABBBA65C-FE65-4549-AEC1-E8A8067DB01F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{787BC581-AF05-47EE-9DB8-8B0C7DC99662}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E18B737B-76A2-420E-9965-6B0885901290}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1042"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFE5D4D1-EF60-4031-AA4B-24DEFE5A92BA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1043"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0E85694-0BA2-4908-9738-28AE3BD36D29}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1046" name="Check Box 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1046"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B76616F-7C47-40C0-A371-B3EBAB8B564F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1047" name="Check Box 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1047"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C1E034C-32A4-497A-AD67-7D6DB8F13628}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1048"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAFC81F7-DAE3-4F5D-97F8-E3D5A08086EF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEECF7EB-0BE5-4C3D-998B-61E1DC1C8207}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1051"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A2C0FF-C034-47D2-A0E3-E0C61E6109E1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1053"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{650390C9-7597-40C7-A42F-233F974DE9C3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1054"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{535E3A83-2CEF-4A16-97A7-C891EA6E04B5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1055"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{299519A1-43BC-49C8-8C59-AC354490936A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1056"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C52A209-0D68-4AA5-BF78-805D50CA9BCB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1057"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{451D54A2-6705-489C-A318-D853DC09FDF0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1058"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0C91B1-1663-4DFA-BF21-5FF2BF337B45}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1059"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CFBC50C-F448-4220-837A-332A19F92B68}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1060"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58FA8D46-6DA5-4E2A-8F3A-320DFDE448C5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1061"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{536376BA-2468-4DC6-9794-3FBDA5B0E516}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1062"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FD85AD-0196-4825-96B5-6AC04392C41A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1063"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F1CB91E-A6B0-4114-850F-CA37BFE47DB6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1064"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED07F085-B089-4377-986B-C63F0E627934}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1065"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{321DC846-5C8D-4A1E-89CE-0FFE226F09A5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1066"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6357523B-B827-40F8-9D57-806EF8EB6CC4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1067"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92FB37B5-57B3-4D87-995A-673989E9DEF4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1068"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7B284DA-8789-436C-A3F8-14EAA33A5898}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1069" name="Check Box 45" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1069"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E256255-386F-4761-A44A-75BB31C9DD25}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1070" name="Check Box 46" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1070"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{556C5CFF-10B5-45FE-A295-4B9C2F2B896A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1071" name="Check Box 47" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1071"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83F89342-AD33-4CE6-A648-33955C5D318B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1072" name="Check Box 48" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1072"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09CC01F2-FE4B-4484-A083-BB32884E8064}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1073" name="Check Box 49" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B32B7D4-90AD-442F-9FD0-D6D346D9200E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1074" name="Check Box 50" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1074"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39185E21-4D45-42B8-81BD-324437BE39F1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1075" name="Check Box 51" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1075"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6405DC60-3236-4665-B070-18AD0FD8D064}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1076" name="Check Box 52" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1076"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{486801AA-FF1B-4600-A3BC-2A2A23068A5A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1077" name="Check Box 53" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1077"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D930A54-9EB2-4425-8E48-B1233690EE2E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1078" name="Check Box 54" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1078"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79AD3C67-88C7-4184-9EB6-AF0110F23737}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1079" name="Check Box 55" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1079"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DFBB964-F49E-481D-A9C9-7260842BE658}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1080" name="Check Box 56" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1080"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{662E0B66-0AC6-462B-8817-3A1203F39DDB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1081" name="Check Box 57" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1081"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27134F99-D055-49D2-99E4-0C251912E58F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1082" name="Check Box 58" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1082"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AEEB449-74A9-479C-9A68-9E02DF704FA7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1083" name="Check Box 59" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1083"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14DA4B5D-CA73-4C0D-A65B-0CE794386118}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1084" name="Check Box 60" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1084"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA62920C-AEAE-4927-8E47-98177EC00C70}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1085" name="Check Box 61" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1085"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5136CB94-F8E3-4509-AB96-FA945693653B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1087" name="Check Box 63" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1087"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D67FE135-11DB-46BF-A453-48D8638D118A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1088" name="Check Box 64" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1088"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43432085-5C87-494C-8633-1A874DA7F1D1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1089" name="Check Box 65" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1089"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A586F89D-870E-45C2-9014-CDE55D709F45}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1090" name="Check Box 66" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1090"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66DD529A-706E-4DC2-973A-C8D0DD44EC6B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1091" name="Check Box 67" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1091"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{665BE8CF-CDB5-48E5-888C-30EB78750B28}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1092" name="Check Box 68" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1092"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE2A3DC-D9D1-4141-B7B4-0F76C118A93E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1093" name="Check Box 69" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1093"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD8C474-6BFA-4266-8172-A8996ABF4026}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1094" name="Check Box 70" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1094"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72AA3FCB-D109-4D06-B113-A4D8A6437242}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1095" name="Check Box 71" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1095"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51EBB1D1-EA7D-4CE2-85AB-522CB4D686FA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1096" name="Check Box 72" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1096"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2584CE8A-5673-47AC-A13D-AFF268696A91}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1097" name="Check Box 73" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1097"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BD8385F-BC88-477F-B0D4-5170AB47687C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1098" name="Check Box 74" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1098"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F08B76A1-0943-4183-BEBE-DCF1ED771350}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1099" name="Check Box 75" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1099"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7ACA158-C3BD-4303-AC15-3AE8695F8B74}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2854,7 +7681,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F241F6C-0182-48F8-9111-28116725EE87}" name="PivotTable2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F241F6C-0182-48F8-9111-28116725EE87}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -3267,7 +8094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView topLeftCell="C98" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView topLeftCell="A98" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
@@ -6466,8 +11293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AC44D2-93FF-4521-801C-E62ACB4F7C06}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7003,154 +11830,1882 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8C1DDD-1A8F-41DD-A129-765EA9EC571D}">
-  <dimension ref="A1:AD4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8C1DDD-1A8F-41DD-A129-765EA9EC571D}">
+  <dimension ref="A1:AK26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.140625" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.28515625" customWidth="1"/>
+    <col min="18" max="18" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
-      <c r="A1" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="F1" s="20" t="s">
+    <row r="1" spans="1:37">
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="21"/>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="T1" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
-      <c r="E3" s="21"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:30">
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
       <c r="AB4" s="15"/>
       <c r="AC4" s="15"/>
       <c r="AD4" s="15"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" s="20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" s="20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:37">
+      <c r="C11" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="C12" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="K12" s="31"/>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="C13" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="33"/>
+    </row>
+    <row r="14" spans="1:37" ht="15.75" thickBot="1">
+      <c r="C14" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="36"/>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="C15" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="28"/>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="C16" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="M16" s="31"/>
+    </row>
+    <row r="17" spans="3:17">
+      <c r="C17" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="31"/>
+    </row>
+    <row r="18" spans="3:17" ht="15.75" thickBot="1">
+      <c r="C18" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="36"/>
+    </row>
+    <row r="19" spans="3:17">
+      <c r="C19" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="28"/>
+    </row>
+    <row r="20" spans="3:17">
+      <c r="C20" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q20" s="33"/>
+    </row>
+    <row r="21" spans="3:17">
+      <c r="C21" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="33"/>
+    </row>
+    <row r="22" spans="3:17" ht="15.75" thickBot="1">
+      <c r="C22" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="36"/>
+    </row>
+    <row r="23" spans="3:17">
+      <c r="C23" s="37" t="s">
+        <v>387</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="33"/>
+    </row>
+    <row r="24" spans="3:17">
+      <c r="C24" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="O24" s="31"/>
+    </row>
+    <row r="25" spans="3:17">
+      <c r="C25" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="33"/>
+    </row>
+    <row r="26" spans="3:17" ht="15.75" thickBot="1">
+      <c r="C26" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1027" r:id="rId4" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId5" name="Check Box 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId6" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId7" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1033" r:id="rId8" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1034" r:id="rId9" name="Check Box 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId10" name="Check Box 11">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1036" r:id="rId11" name="Check Box 12">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1037" r:id="rId12" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1038" r:id="rId13" name="Check Box 14">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1039" r:id="rId14" name="Check Box 15">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1040" r:id="rId15" name="Check Box 16">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1041" r:id="rId16" name="Check Box 17">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1042" r:id="rId17" name="Check Box 18">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1043" r:id="rId18" name="Check Box 19">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1046" r:id="rId19" name="Check Box 22">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1047" r:id="rId20" name="Check Box 23">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1048" r:id="rId21" name="Check Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1050" r:id="rId22" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1051" r:id="rId23" name="Check Box 27">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1053" r:id="rId24" name="Check Box 29">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1054" r:id="rId25" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1055" r:id="rId26" name="Check Box 31">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1056" r:id="rId27" name="Check Box 32">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1057" r:id="rId28" name="Check Box 33">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1058" r:id="rId29" name="Check Box 34">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1059" r:id="rId30" name="Check Box 35">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1060" r:id="rId31" name="Check Box 36">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1061" r:id="rId32" name="Check Box 37">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1062" r:id="rId33" name="Check Box 38">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1063" r:id="rId34" name="Check Box 39">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1064" r:id="rId35" name="Check Box 40">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1065" r:id="rId36" name="Check Box 41">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1066" r:id="rId37" name="Check Box 42">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1067" r:id="rId38" name="Check Box 43">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1068" r:id="rId39" name="Check Box 44">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1069" r:id="rId40" name="Check Box 45">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1070" r:id="rId41" name="Check Box 46">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1071" r:id="rId42" name="Check Box 47">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1072" r:id="rId43" name="Check Box 48">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1073" r:id="rId44" name="Check Box 49">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1074" r:id="rId45" name="Check Box 50">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1075" r:id="rId46" name="Check Box 51">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1076" r:id="rId47" name="Check Box 52">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1077" r:id="rId48" name="Check Box 53">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1078" r:id="rId49" name="Check Box 54">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1079" r:id="rId50" name="Check Box 55">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1080" r:id="rId51" name="Check Box 56">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1081" r:id="rId52" name="Check Box 57">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1082" r:id="rId53" name="Check Box 58">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1083" r:id="rId54" name="Check Box 59">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1084" r:id="rId55" name="Check Box 60">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1085" r:id="rId56" name="Check Box 61">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1087" r:id="rId57" name="Check Box 63">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1088" r:id="rId58" name="Check Box 64">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1089" r:id="rId59" name="Check Box 65">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1090" r:id="rId60" name="Check Box 66">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1091" r:id="rId61" name="Check Box 67">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1092" r:id="rId62" name="Check Box 68">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1093" r:id="rId63" name="Check Box 69">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>25</xdr:row>
